--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,9 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['53', '60']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -320,6 +323,12 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['10', '56']</t>
+  </si>
+  <si>
+    <t>['71', '74']</t>
   </si>
 </sst>
 </file>
@@ -681,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1146,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1352,7 +1361,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1970,7 +1979,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2257,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2382,7 +2391,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2588,7 +2597,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2745,6 +2754,418 @@
       </c>
       <c r="BP10">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7450661</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45499.54166666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>2.1</v>
+      </c>
+      <c r="S11">
+        <v>3.75</v>
+      </c>
+      <c r="T11">
+        <v>1.38</v>
+      </c>
+      <c r="U11">
+        <v>2.95</v>
+      </c>
+      <c r="V11">
+        <v>2.91</v>
+      </c>
+      <c r="W11">
+        <v>1.38</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.07</v>
+      </c>
+      <c r="Z11">
+        <v>2.25</v>
+      </c>
+      <c r="AA11">
+        <v>3.3</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>1.06</v>
+      </c>
+      <c r="AD11">
+        <v>8.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.33</v>
+      </c>
+      <c r="AF11">
+        <v>3.3</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>1.8</v>
+      </c>
+      <c r="AI11">
+        <v>1.8</v>
+      </c>
+      <c r="AJ11">
+        <v>1.95</v>
+      </c>
+      <c r="AK11">
+        <v>1.48</v>
+      </c>
+      <c r="AL11">
+        <v>1.28</v>
+      </c>
+      <c r="AM11">
+        <v>1.48</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>0.5</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0.99</v>
+      </c>
+      <c r="AT11">
+        <v>0.99</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>9</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>8</v>
+      </c>
+      <c r="AY11">
+        <v>11</v>
+      </c>
+      <c r="AZ11">
+        <v>17</v>
+      </c>
+      <c r="BA11">
+        <v>4</v>
+      </c>
+      <c r="BB11">
+        <v>2</v>
+      </c>
+      <c r="BC11">
+        <v>6</v>
+      </c>
+      <c r="BD11">
+        <v>1.88</v>
+      </c>
+      <c r="BE11">
+        <v>7.5</v>
+      </c>
+      <c r="BF11">
+        <v>2.3</v>
+      </c>
+      <c r="BG11">
+        <v>1.17</v>
+      </c>
+      <c r="BH11">
+        <v>4.1</v>
+      </c>
+      <c r="BI11">
+        <v>1.33</v>
+      </c>
+      <c r="BJ11">
+        <v>2.91</v>
+      </c>
+      <c r="BK11">
+        <v>2</v>
+      </c>
+      <c r="BL11">
+        <v>2.14</v>
+      </c>
+      <c r="BM11">
+        <v>2.02</v>
+      </c>
+      <c r="BN11">
+        <v>1.71</v>
+      </c>
+      <c r="BO11">
+        <v>2.6</v>
+      </c>
+      <c r="BP11">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7450659</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45499.64583333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12">
+        <v>2.3</v>
+      </c>
+      <c r="R12">
+        <v>2.3</v>
+      </c>
+      <c r="S12">
+        <v>4.75</v>
+      </c>
+      <c r="T12">
+        <v>1.4</v>
+      </c>
+      <c r="U12">
+        <v>2.75</v>
+      </c>
+      <c r="V12">
+        <v>2.8</v>
+      </c>
+      <c r="W12">
+        <v>1.38</v>
+      </c>
+      <c r="X12">
+        <v>6.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.08</v>
+      </c>
+      <c r="Z12">
+        <v>1.73</v>
+      </c>
+      <c r="AA12">
+        <v>3.9</v>
+      </c>
+      <c r="AB12">
+        <v>4.33</v>
+      </c>
+      <c r="AC12">
+        <v>1.06</v>
+      </c>
+      <c r="AD12">
+        <v>11.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.31</v>
+      </c>
+      <c r="AF12">
+        <v>3.47</v>
+      </c>
+      <c r="AG12">
+        <v>1.73</v>
+      </c>
+      <c r="AH12">
+        <v>2.08</v>
+      </c>
+      <c r="AI12">
+        <v>1.75</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>1.2</v>
+      </c>
+      <c r="AL12">
+        <v>1.22</v>
+      </c>
+      <c r="AM12">
+        <v>1.8</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <v>7</v>
+      </c>
+      <c r="AW12">
+        <v>10</v>
+      </c>
+      <c r="AX12">
+        <v>6</v>
+      </c>
+      <c r="AY12">
+        <v>12</v>
+      </c>
+      <c r="AZ12">
+        <v>13</v>
+      </c>
+      <c r="BA12">
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>5</v>
+      </c>
+      <c r="BD12">
+        <v>1.67</v>
+      </c>
+      <c r="BE12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF12">
+        <v>2.71</v>
+      </c>
+      <c r="BG12">
+        <v>1.19</v>
+      </c>
+      <c r="BH12">
+        <v>3.98</v>
+      </c>
+      <c r="BI12">
+        <v>1.37</v>
+      </c>
+      <c r="BJ12">
+        <v>2.75</v>
+      </c>
+      <c r="BK12">
+        <v>2.1</v>
+      </c>
+      <c r="BL12">
+        <v>2.05</v>
+      </c>
+      <c r="BM12">
+        <v>2.09</v>
+      </c>
+      <c r="BN12">
+        <v>1.63</v>
+      </c>
+      <c r="BO12">
+        <v>2.78</v>
+      </c>
+      <c r="BP12">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,6 +262,9 @@
     <t>Radomiak Radom</t>
   </si>
   <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
     <t>Korona Kielce</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
     <t>Raków Częstochowa</t>
   </si>
   <si>
-    <t>Widzew Łódź</t>
-  </si>
-  <si>
     <t>['78', '90+8']</t>
   </si>
   <si>
@@ -310,6 +310,12 @@
     <t>['53', '60']</t>
   </si>
   <si>
+    <t>['52', '77']</t>
+  </si>
+  <si>
+    <t>['3', '10']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -329,6 +335,15 @@
   </si>
   <si>
     <t>['71', '74']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['34', '40', '88']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,7 +1170,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1361,7 +1376,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1543,7 +1558,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1749,7 +1764,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1955,7 +1970,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1979,7 +1994,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2161,7 +2176,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2367,7 +2382,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2391,7 +2406,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2573,7 +2588,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2597,7 +2612,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2675,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2779,7 +2794,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2803,7 +2818,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2896,22 +2911,22 @@
         <v>0.99</v>
       </c>
       <c r="AU11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV11">
         <v>9</v>
       </c>
       <c r="AW11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX11">
+        <v>6</v>
+      </c>
+      <c r="AY11">
         <v>8</v>
       </c>
-      <c r="AY11">
-        <v>11</v>
-      </c>
       <c r="AZ11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA11">
         <v>4</v>
@@ -3009,7 +3024,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3108,16 +3123,16 @@
         <v>7</v>
       </c>
       <c r="AW12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA12">
         <v>3</v>
@@ -3166,6 +3181,624 @@
       </c>
       <c r="BP12">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7450664</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45500.40625</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>2.1</v>
+      </c>
+      <c r="S13">
+        <v>3.6</v>
+      </c>
+      <c r="T13">
+        <v>1.38</v>
+      </c>
+      <c r="U13">
+        <v>2.85</v>
+      </c>
+      <c r="V13">
+        <v>2.7</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
+      </c>
+      <c r="X13">
+        <v>6.25</v>
+      </c>
+      <c r="Y13">
+        <v>1.09</v>
+      </c>
+      <c r="Z13">
+        <v>2.3</v>
+      </c>
+      <c r="AA13">
+        <v>3.3</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>1.05</v>
+      </c>
+      <c r="AD13">
+        <v>11.75</v>
+      </c>
+      <c r="AE13">
+        <v>1.29</v>
+      </c>
+      <c r="AF13">
+        <v>3.65</v>
+      </c>
+      <c r="AG13">
+        <v>1.95</v>
+      </c>
+      <c r="AH13">
+        <v>1.85</v>
+      </c>
+      <c r="AI13">
+        <v>1.75</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>1.3</v>
+      </c>
+      <c r="AL13">
+        <v>1.28</v>
+      </c>
+      <c r="AM13">
+        <v>1.53</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>1.41</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1.41</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13">
+        <v>11</v>
+      </c>
+      <c r="AZ13">
+        <v>6</v>
+      </c>
+      <c r="BA13">
+        <v>4</v>
+      </c>
+      <c r="BB13">
+        <v>2</v>
+      </c>
+      <c r="BC13">
+        <v>6</v>
+      </c>
+      <c r="BD13">
+        <v>1.97</v>
+      </c>
+      <c r="BE13">
+        <v>7.3</v>
+      </c>
+      <c r="BF13">
+        <v>2.2</v>
+      </c>
+      <c r="BG13">
+        <v>1.21</v>
+      </c>
+      <c r="BH13">
+        <v>3.65</v>
+      </c>
+      <c r="BI13">
+        <v>1.41</v>
+      </c>
+      <c r="BJ13">
+        <v>2.55</v>
+      </c>
+      <c r="BK13">
+        <v>2.25</v>
+      </c>
+      <c r="BL13">
+        <v>1.91</v>
+      </c>
+      <c r="BM13">
+        <v>2.17</v>
+      </c>
+      <c r="BN13">
+        <v>1.57</v>
+      </c>
+      <c r="BO13">
+        <v>2.88</v>
+      </c>
+      <c r="BP13">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7450662</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45500.52083333334</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14">
+        <v>3.5</v>
+      </c>
+      <c r="R14">
+        <v>2.3</v>
+      </c>
+      <c r="S14">
+        <v>2.75</v>
+      </c>
+      <c r="T14">
+        <v>1.33</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>2.45</v>
+      </c>
+      <c r="W14">
+        <v>1.48</v>
+      </c>
+      <c r="X14">
+        <v>5.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.11</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <v>3.4</v>
+      </c>
+      <c r="AB14">
+        <v>2.2</v>
+      </c>
+      <c r="AC14">
+        <v>1.05</v>
+      </c>
+      <c r="AD14">
+        <v>9.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.25</v>
+      </c>
+      <c r="AF14">
+        <v>3.95</v>
+      </c>
+      <c r="AG14">
+        <v>1.7</v>
+      </c>
+      <c r="AH14">
+        <v>2.1</v>
+      </c>
+      <c r="AI14">
+        <v>1.57</v>
+      </c>
+      <c r="AJ14">
+        <v>2.25</v>
+      </c>
+      <c r="AK14">
+        <v>1.7</v>
+      </c>
+      <c r="AL14">
+        <v>1.25</v>
+      </c>
+      <c r="AM14">
+        <v>1.3</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>7</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14">
+        <v>11</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>18</v>
+      </c>
+      <c r="AZ14">
+        <v>9</v>
+      </c>
+      <c r="BA14">
+        <v>11</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>13</v>
+      </c>
+      <c r="BD14">
+        <v>2.43</v>
+      </c>
+      <c r="BE14">
+        <v>7.5</v>
+      </c>
+      <c r="BF14">
+        <v>1.8</v>
+      </c>
+      <c r="BG14">
+        <v>1.19</v>
+      </c>
+      <c r="BH14">
+        <v>3.9</v>
+      </c>
+      <c r="BI14">
+        <v>1.37</v>
+      </c>
+      <c r="BJ14">
+        <v>2.7</v>
+      </c>
+      <c r="BK14">
+        <v>2.1</v>
+      </c>
+      <c r="BL14">
+        <v>2.11</v>
+      </c>
+      <c r="BM14">
+        <v>2.07</v>
+      </c>
+      <c r="BN14">
+        <v>1.62</v>
+      </c>
+      <c r="BO14">
+        <v>2.7</v>
+      </c>
+      <c r="BP14">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7450665</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45500.63541666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15">
+        <v>3.6</v>
+      </c>
+      <c r="R15">
+        <v>2.2</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>1.37</v>
+      </c>
+      <c r="U15">
+        <v>3.07</v>
+      </c>
+      <c r="V15">
+        <v>2.84</v>
+      </c>
+      <c r="W15">
+        <v>1.42</v>
+      </c>
+      <c r="X15">
+        <v>6.9</v>
+      </c>
+      <c r="Y15">
+        <v>1.08</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>3.5</v>
+      </c>
+      <c r="AB15">
+        <v>2.25</v>
+      </c>
+      <c r="AC15">
+        <v>1.01</v>
+      </c>
+      <c r="AD15">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>1.26</v>
+      </c>
+      <c r="AF15">
+        <v>3.34</v>
+      </c>
+      <c r="AG15">
+        <v>1.9</v>
+      </c>
+      <c r="AH15">
+        <v>1.9</v>
+      </c>
+      <c r="AI15">
+        <v>1.75</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>1.73</v>
+      </c>
+      <c r="AL15">
+        <v>1.25</v>
+      </c>
+      <c r="AM15">
+        <v>1.3</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>6</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>6</v>
+      </c>
+      <c r="AY15">
+        <v>10</v>
+      </c>
+      <c r="AZ15">
+        <v>12</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>7</v>
+      </c>
+      <c r="BD15">
+        <v>2.13</v>
+      </c>
+      <c r="BE15">
+        <v>7.4</v>
+      </c>
+      <c r="BF15">
+        <v>2.02</v>
+      </c>
+      <c r="BG15">
+        <v>1.18</v>
+      </c>
+      <c r="BH15">
+        <v>3.95</v>
+      </c>
+      <c r="BI15">
+        <v>1.36</v>
+      </c>
+      <c r="BJ15">
+        <v>2.79</v>
+      </c>
+      <c r="BK15">
+        <v>2.1</v>
+      </c>
+      <c r="BL15">
+        <v>2.05</v>
+      </c>
+      <c r="BM15">
+        <v>2.07</v>
+      </c>
+      <c r="BN15">
+        <v>1.67</v>
+      </c>
+      <c r="BO15">
+        <v>2.67</v>
+      </c>
+      <c r="BP15">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -265,15 +265,15 @@
     <t>Widzew Łódź</t>
   </si>
   <si>
+    <t>Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t>Piast Gliwice</t>
+  </si>
+  <si>
     <t>Korona Kielce</t>
   </si>
   <si>
-    <t>Zagłębie Lubin</t>
-  </si>
-  <si>
-    <t>Piast Gliwice</t>
-  </si>
-  <si>
     <t>Górnik Zabrze</t>
   </si>
   <si>
@@ -316,6 +316,12 @@
     <t>['3', '10']</t>
   </si>
   <si>
+    <t>['19', '28']</t>
+  </si>
+  <si>
+    <t>['8', '45+3']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -344,6 +350,12 @@
   </si>
   <si>
     <t>['42']</t>
+  </si>
+  <si>
+    <t>['17', '83']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1170,7 +1182,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1376,7 +1388,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1558,7 +1570,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1764,7 +1776,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1970,7 +1982,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1994,7 +2006,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2406,7 +2418,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2612,7 +2624,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2818,7 +2830,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3024,7 +3036,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3230,7 +3242,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3436,7 +3448,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3642,7 +3654,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3799,6 +3811,624 @@
       </c>
       <c r="BP15">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7450657</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45501.40625</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16">
+        <v>3.5</v>
+      </c>
+      <c r="R16">
+        <v>2.3</v>
+      </c>
+      <c r="S16">
+        <v>2.75</v>
+      </c>
+      <c r="T16">
+        <v>1.33</v>
+      </c>
+      <c r="U16">
+        <v>3.25</v>
+      </c>
+      <c r="V16">
+        <v>2.5</v>
+      </c>
+      <c r="W16">
+        <v>1.5</v>
+      </c>
+      <c r="X16">
+        <v>6.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.11</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3.4</v>
+      </c>
+      <c r="AB16">
+        <v>2.2</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>1.22</v>
+      </c>
+      <c r="AF16">
+        <v>4.2</v>
+      </c>
+      <c r="AG16">
+        <v>1.67</v>
+      </c>
+      <c r="AH16">
+        <v>2.15</v>
+      </c>
+      <c r="AI16">
+        <v>1.57</v>
+      </c>
+      <c r="AJ16">
+        <v>2.25</v>
+      </c>
+      <c r="AK16">
+        <v>1.55</v>
+      </c>
+      <c r="AL16">
+        <v>1.25</v>
+      </c>
+      <c r="AM16">
+        <v>1.42</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>3</v>
+      </c>
+      <c r="AV16">
+        <v>7</v>
+      </c>
+      <c r="AW16">
+        <v>2</v>
+      </c>
+      <c r="AX16">
+        <v>9</v>
+      </c>
+      <c r="AY16">
+        <v>5</v>
+      </c>
+      <c r="AZ16">
+        <v>16</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>8</v>
+      </c>
+      <c r="BC16">
+        <v>10</v>
+      </c>
+      <c r="BD16">
+        <v>2.43</v>
+      </c>
+      <c r="BE16">
+        <v>7.5</v>
+      </c>
+      <c r="BF16">
+        <v>1.8</v>
+      </c>
+      <c r="BG16">
+        <v>1.19</v>
+      </c>
+      <c r="BH16">
+        <v>3.9</v>
+      </c>
+      <c r="BI16">
+        <v>1.37</v>
+      </c>
+      <c r="BJ16">
+        <v>2.7</v>
+      </c>
+      <c r="BK16">
+        <v>1.83</v>
+      </c>
+      <c r="BL16">
+        <v>2.04</v>
+      </c>
+      <c r="BM16">
+        <v>2.07</v>
+      </c>
+      <c r="BN16">
+        <v>1.62</v>
+      </c>
+      <c r="BO16">
+        <v>2.7</v>
+      </c>
+      <c r="BP16">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7450660</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45501.52083333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17">
+        <v>2.38</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>6.5</v>
+      </c>
+      <c r="T17">
+        <v>1.57</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>3.75</v>
+      </c>
+      <c r="W17">
+        <v>1.25</v>
+      </c>
+      <c r="X17">
+        <v>11</v>
+      </c>
+      <c r="Y17">
+        <v>1.05</v>
+      </c>
+      <c r="Z17">
+        <v>1.62</v>
+      </c>
+      <c r="AA17">
+        <v>3.4</v>
+      </c>
+      <c r="AB17">
+        <v>5.5</v>
+      </c>
+      <c r="AC17">
+        <v>1.1</v>
+      </c>
+      <c r="AD17">
+        <v>6.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.5</v>
+      </c>
+      <c r="AF17">
+        <v>2.5</v>
+      </c>
+      <c r="AG17">
+        <v>2.5</v>
+      </c>
+      <c r="AH17">
+        <v>1.5</v>
+      </c>
+      <c r="AI17">
+        <v>2.5</v>
+      </c>
+      <c r="AJ17">
+        <v>1.5</v>
+      </c>
+      <c r="AK17">
+        <v>1.3</v>
+      </c>
+      <c r="AL17">
+        <v>1.33</v>
+      </c>
+      <c r="AM17">
+        <v>1.62</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>5</v>
+      </c>
+      <c r="AV17">
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <v>6</v>
+      </c>
+      <c r="AX17">
+        <v>3</v>
+      </c>
+      <c r="AY17">
+        <v>11</v>
+      </c>
+      <c r="AZ17">
+        <v>6</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>4</v>
+      </c>
+      <c r="BC17">
+        <v>5</v>
+      </c>
+      <c r="BD17">
+        <v>1.68</v>
+      </c>
+      <c r="BE17">
+        <v>7</v>
+      </c>
+      <c r="BF17">
+        <v>2.75</v>
+      </c>
+      <c r="BG17">
+        <v>1.4</v>
+      </c>
+      <c r="BH17">
+        <v>2.63</v>
+      </c>
+      <c r="BI17">
+        <v>1.72</v>
+      </c>
+      <c r="BJ17">
+        <v>2.02</v>
+      </c>
+      <c r="BK17">
+        <v>2.2</v>
+      </c>
+      <c r="BL17">
+        <v>1.55</v>
+      </c>
+      <c r="BM17">
+        <v>2.95</v>
+      </c>
+      <c r="BN17">
+        <v>1.32</v>
+      </c>
+      <c r="BO17">
+        <v>4.1</v>
+      </c>
+      <c r="BP17">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7450658</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45501.63541666666</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18">
+        <v>4.33</v>
+      </c>
+      <c r="R18">
+        <v>2.2</v>
+      </c>
+      <c r="S18">
+        <v>2.5</v>
+      </c>
+      <c r="T18">
+        <v>1.36</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>2.75</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>3.9</v>
+      </c>
+      <c r="AA18">
+        <v>3.4</v>
+      </c>
+      <c r="AB18">
+        <v>1.85</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>9</v>
+      </c>
+      <c r="AE18">
+        <v>1.28</v>
+      </c>
+      <c r="AF18">
+        <v>3.55</v>
+      </c>
+      <c r="AG18">
+        <v>1.95</v>
+      </c>
+      <c r="AH18">
+        <v>1.85</v>
+      </c>
+      <c r="AI18">
+        <v>1.75</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>1.77</v>
+      </c>
+      <c r="AL18">
+        <v>1.25</v>
+      </c>
+      <c r="AM18">
+        <v>1.28</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>6</v>
+      </c>
+      <c r="AX18">
+        <v>4</v>
+      </c>
+      <c r="AY18">
+        <v>6</v>
+      </c>
+      <c r="AZ18">
+        <v>7</v>
+      </c>
+      <c r="BA18">
+        <v>2</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>3</v>
+      </c>
+      <c r="BD18">
+        <v>2.43</v>
+      </c>
+      <c r="BE18">
+        <v>7.5</v>
+      </c>
+      <c r="BF18">
+        <v>1.81</v>
+      </c>
+      <c r="BG18">
+        <v>1.2</v>
+      </c>
+      <c r="BH18">
+        <v>3.75</v>
+      </c>
+      <c r="BI18">
+        <v>1.38</v>
+      </c>
+      <c r="BJ18">
+        <v>2.65</v>
+      </c>
+      <c r="BK18">
+        <v>2.1</v>
+      </c>
+      <c r="BL18">
+        <v>1.85</v>
+      </c>
+      <c r="BM18">
+        <v>2.12</v>
+      </c>
+      <c r="BN18">
+        <v>1.6</v>
+      </c>
+      <c r="BO18">
+        <v>2.8</v>
+      </c>
+      <c r="BP18">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -274,12 +274,12 @@
     <t>Korona Kielce</t>
   </si>
   <si>
+    <t>Raków Częstochowa</t>
+  </si>
+  <si>
     <t>Górnik Zabrze</t>
   </si>
   <si>
-    <t>Raków Częstochowa</t>
-  </si>
-  <si>
     <t>['78', '90+8']</t>
   </si>
   <si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2188,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2394,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2806,7 +2809,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4429,6 +4432,212 @@
       </c>
       <c r="BP18">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7450663</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45502.58333333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19">
+        <v>2.05</v>
+      </c>
+      <c r="R19">
+        <v>2.25</v>
+      </c>
+      <c r="S19">
+        <v>6.5</v>
+      </c>
+      <c r="T19">
+        <v>1.41</v>
+      </c>
+      <c r="U19">
+        <v>2.78</v>
+      </c>
+      <c r="V19">
+        <v>2.9</v>
+      </c>
+      <c r="W19">
+        <v>1.38</v>
+      </c>
+      <c r="X19">
+        <v>7.4</v>
+      </c>
+      <c r="Y19">
+        <v>1.07</v>
+      </c>
+      <c r="Z19">
+        <v>1.5</v>
+      </c>
+      <c r="AA19">
+        <v>4.2</v>
+      </c>
+      <c r="AB19">
+        <v>6.5</v>
+      </c>
+      <c r="AC19">
+        <v>1.02</v>
+      </c>
+      <c r="AD19">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE19">
+        <v>1.29</v>
+      </c>
+      <c r="AF19">
+        <v>3.14</v>
+      </c>
+      <c r="AG19">
+        <v>1.95</v>
+      </c>
+      <c r="AH19">
+        <v>1.85</v>
+      </c>
+      <c r="AI19">
+        <v>2</v>
+      </c>
+      <c r="AJ19">
+        <v>1.75</v>
+      </c>
+      <c r="AK19">
+        <v>1.17</v>
+      </c>
+      <c r="AL19">
+        <v>1.26</v>
+      </c>
+      <c r="AM19">
+        <v>2.09</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>8</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>6</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>14</v>
+      </c>
+      <c r="AZ19">
+        <v>4</v>
+      </c>
+      <c r="BA19">
+        <v>7</v>
+      </c>
+      <c r="BB19">
+        <v>3</v>
+      </c>
+      <c r="BC19">
+        <v>10</v>
+      </c>
+      <c r="BD19">
+        <v>1.31</v>
+      </c>
+      <c r="BE19">
+        <v>9.9</v>
+      </c>
+      <c r="BF19">
+        <v>4.15</v>
+      </c>
+      <c r="BG19">
+        <v>1.19</v>
+      </c>
+      <c r="BH19">
+        <v>3.95</v>
+      </c>
+      <c r="BI19">
+        <v>1.38</v>
+      </c>
+      <c r="BJ19">
+        <v>2.71</v>
+      </c>
+      <c r="BK19">
+        <v>2</v>
+      </c>
+      <c r="BL19">
+        <v>2.06</v>
+      </c>
+      <c r="BM19">
+        <v>2.09</v>
+      </c>
+      <c r="BN19">
+        <v>1.63</v>
+      </c>
+      <c r="BO19">
+        <v>2.78</v>
+      </c>
+      <c r="BP19">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>['8', '45+3']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1185,7 +1191,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1391,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2009,7 +2015,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2421,7 +2427,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2627,7 +2633,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2833,7 +2839,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3039,7 +3045,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3245,7 +3251,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3451,7 +3457,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3657,7 +3663,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3863,7 +3869,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -3941,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4275,7 +4281,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4481,7 +4487,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -4638,6 +4644,418 @@
       </c>
       <c r="BP19">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7450670</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45506.54166666666</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20">
+        <v>2.6</v>
+      </c>
+      <c r="R20">
+        <v>2.25</v>
+      </c>
+      <c r="S20">
+        <v>4.33</v>
+      </c>
+      <c r="T20">
+        <v>1.38</v>
+      </c>
+      <c r="U20">
+        <v>2.8</v>
+      </c>
+      <c r="V20">
+        <v>2.8</v>
+      </c>
+      <c r="W20">
+        <v>1.38</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+      <c r="Y20">
+        <v>1.07</v>
+      </c>
+      <c r="Z20">
+        <v>1.9</v>
+      </c>
+      <c r="AA20">
+        <v>3.7</v>
+      </c>
+      <c r="AB20">
+        <v>3.4</v>
+      </c>
+      <c r="AC20">
+        <v>1.05</v>
+      </c>
+      <c r="AD20">
+        <v>9.5</v>
+      </c>
+      <c r="AE20">
+        <v>1.28</v>
+      </c>
+      <c r="AF20">
+        <v>3.55</v>
+      </c>
+      <c r="AG20">
+        <v>1.85</v>
+      </c>
+      <c r="AH20">
+        <v>1.95</v>
+      </c>
+      <c r="AI20">
+        <v>1.75</v>
+      </c>
+      <c r="AJ20">
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <v>1.28</v>
+      </c>
+      <c r="AL20">
+        <v>1.22</v>
+      </c>
+      <c r="AM20">
+        <v>1.8</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0.84</v>
+      </c>
+      <c r="AS20">
+        <v>0.85</v>
+      </c>
+      <c r="AT20">
+        <v>1.69</v>
+      </c>
+      <c r="AU20">
+        <v>6</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>9</v>
+      </c>
+      <c r="AX20">
+        <v>5</v>
+      </c>
+      <c r="AY20">
+        <v>15</v>
+      </c>
+      <c r="AZ20">
+        <v>7</v>
+      </c>
+      <c r="BA20">
+        <v>7</v>
+      </c>
+      <c r="BB20">
+        <v>5</v>
+      </c>
+      <c r="BC20">
+        <v>12</v>
+      </c>
+      <c r="BD20">
+        <v>1.51</v>
+      </c>
+      <c r="BE20">
+        <v>8.4</v>
+      </c>
+      <c r="BF20">
+        <v>3.24</v>
+      </c>
+      <c r="BG20">
+        <v>1.22</v>
+      </c>
+      <c r="BH20">
+        <v>3.8</v>
+      </c>
+      <c r="BI20">
+        <v>1.32</v>
+      </c>
+      <c r="BJ20">
+        <v>2.98</v>
+      </c>
+      <c r="BK20">
+        <v>1.91</v>
+      </c>
+      <c r="BL20">
+        <v>2.05</v>
+      </c>
+      <c r="BM20">
+        <v>2.05</v>
+      </c>
+      <c r="BN20">
+        <v>1.7</v>
+      </c>
+      <c r="BO20">
+        <v>2.54</v>
+      </c>
+      <c r="BP20">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7450668</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45506.64583333334</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21">
+        <v>3.4</v>
+      </c>
+      <c r="R21">
+        <v>2.38</v>
+      </c>
+      <c r="S21">
+        <v>2.75</v>
+      </c>
+      <c r="T21">
+        <v>1.28</v>
+      </c>
+      <c r="U21">
+        <v>3.4</v>
+      </c>
+      <c r="V21">
+        <v>2.25</v>
+      </c>
+      <c r="W21">
+        <v>1.57</v>
+      </c>
+      <c r="X21">
+        <v>4.75</v>
+      </c>
+      <c r="Y21">
+        <v>1.15</v>
+      </c>
+      <c r="Z21">
+        <v>2.9</v>
+      </c>
+      <c r="AA21">
+        <v>3.6</v>
+      </c>
+      <c r="AB21">
+        <v>2.15</v>
+      </c>
+      <c r="AC21">
+        <v>1.02</v>
+      </c>
+      <c r="AD21">
+        <v>13</v>
+      </c>
+      <c r="AE21">
+        <v>1.18</v>
+      </c>
+      <c r="AF21">
+        <v>4.75</v>
+      </c>
+      <c r="AG21">
+        <v>1.57</v>
+      </c>
+      <c r="AH21">
+        <v>2.35</v>
+      </c>
+      <c r="AI21">
+        <v>1.5</v>
+      </c>
+      <c r="AJ21">
+        <v>2.5</v>
+      </c>
+      <c r="AK21">
+        <v>1.67</v>
+      </c>
+      <c r="AL21">
+        <v>1.22</v>
+      </c>
+      <c r="AM21">
+        <v>1.36</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>2.33</v>
+      </c>
+      <c r="AT21">
+        <v>2.33</v>
+      </c>
+      <c r="AU21">
+        <v>7</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>6</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>13</v>
+      </c>
+      <c r="AZ21">
+        <v>5</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>7</v>
+      </c>
+      <c r="BD21">
+        <v>2.32</v>
+      </c>
+      <c r="BE21">
+        <v>8.1</v>
+      </c>
+      <c r="BF21">
+        <v>1.87</v>
+      </c>
+      <c r="BG21">
+        <v>1.15</v>
+      </c>
+      <c r="BH21">
+        <v>4.75</v>
+      </c>
+      <c r="BI21">
+        <v>1.22</v>
+      </c>
+      <c r="BJ21">
+        <v>3.65</v>
+      </c>
+      <c r="BK21">
+        <v>2</v>
+      </c>
+      <c r="BL21">
+        <v>2.64</v>
+      </c>
+      <c r="BM21">
+        <v>1.7</v>
+      </c>
+      <c r="BN21">
+        <v>2.1</v>
+      </c>
+      <c r="BO21">
+        <v>2</v>
+      </c>
+      <c r="BP21">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,12 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['24', '66']</t>
+  </si>
+  <si>
+    <t>['3', '35', '40']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -365,6 +371,12 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,7 +1203,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1272,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1397,7 +1409,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2015,7 +2027,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2427,7 +2439,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2633,7 +2645,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2839,7 +2851,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3045,7 +3057,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3251,7 +3263,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3457,7 +3469,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3663,7 +3675,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3869,7 +3881,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4281,7 +4293,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4487,7 +4499,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5056,6 +5068,624 @@
       </c>
       <c r="BP21">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7450667</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45507.40625</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>2.2</v>
+      </c>
+      <c r="S22">
+        <v>2.3</v>
+      </c>
+      <c r="T22">
+        <v>1.4</v>
+      </c>
+      <c r="U22">
+        <v>2.75</v>
+      </c>
+      <c r="V22">
+        <v>2.8</v>
+      </c>
+      <c r="W22">
+        <v>1.38</v>
+      </c>
+      <c r="X22">
+        <v>6.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.08</v>
+      </c>
+      <c r="Z22">
+        <v>4.5</v>
+      </c>
+      <c r="AA22">
+        <v>3.6</v>
+      </c>
+      <c r="AB22">
+        <v>1.67</v>
+      </c>
+      <c r="AC22">
+        <v>1.05</v>
+      </c>
+      <c r="AD22">
+        <v>11.75</v>
+      </c>
+      <c r="AE22">
+        <v>1.32</v>
+      </c>
+      <c r="AF22">
+        <v>3.45</v>
+      </c>
+      <c r="AG22">
+        <v>1.95</v>
+      </c>
+      <c r="AH22">
+        <v>1.85</v>
+      </c>
+      <c r="AI22">
+        <v>1.95</v>
+      </c>
+      <c r="AJ22">
+        <v>1.8</v>
+      </c>
+      <c r="AK22">
+        <v>2.05</v>
+      </c>
+      <c r="AL22">
+        <v>1.2</v>
+      </c>
+      <c r="AM22">
+        <v>1.13</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>2.03</v>
+      </c>
+      <c r="AS22">
+        <v>1.86</v>
+      </c>
+      <c r="AT22">
+        <v>3.89</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>3</v>
+      </c>
+      <c r="AW22">
+        <v>9</v>
+      </c>
+      <c r="AX22">
+        <v>4</v>
+      </c>
+      <c r="AY22">
+        <v>14</v>
+      </c>
+      <c r="AZ22">
+        <v>7</v>
+      </c>
+      <c r="BA22">
+        <v>11</v>
+      </c>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>3.45</v>
+      </c>
+      <c r="BE22">
+        <v>8</v>
+      </c>
+      <c r="BF22">
+        <v>1.48</v>
+      </c>
+      <c r="BG22">
+        <v>1.3</v>
+      </c>
+      <c r="BH22">
+        <v>3.2</v>
+      </c>
+      <c r="BI22">
+        <v>1.49</v>
+      </c>
+      <c r="BJ22">
+        <v>2.45</v>
+      </c>
+      <c r="BK22">
+        <v>2.38</v>
+      </c>
+      <c r="BL22">
+        <v>1.85</v>
+      </c>
+      <c r="BM22">
+        <v>2.4</v>
+      </c>
+      <c r="BN22">
+        <v>1.5</v>
+      </c>
+      <c r="BO22">
+        <v>3.3</v>
+      </c>
+      <c r="BP22">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7450669</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45507.52083333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23">
+        <v>2.05</v>
+      </c>
+      <c r="R23">
+        <v>2.5</v>
+      </c>
+      <c r="S23">
+        <v>5.5</v>
+      </c>
+      <c r="T23">
+        <v>1.25</v>
+      </c>
+      <c r="U23">
+        <v>3.45</v>
+      </c>
+      <c r="V23">
+        <v>2.3</v>
+      </c>
+      <c r="W23">
+        <v>1.55</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>1.13</v>
+      </c>
+      <c r="Z23">
+        <v>1.5</v>
+      </c>
+      <c r="AA23">
+        <v>4.5</v>
+      </c>
+      <c r="AB23">
+        <v>5</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>11</v>
+      </c>
+      <c r="AE23">
+        <v>1.18</v>
+      </c>
+      <c r="AF23">
+        <v>4.75</v>
+      </c>
+      <c r="AG23">
+        <v>1.53</v>
+      </c>
+      <c r="AH23">
+        <v>2.4</v>
+      </c>
+      <c r="AI23">
+        <v>1.67</v>
+      </c>
+      <c r="AJ23">
+        <v>2.1</v>
+      </c>
+      <c r="AK23">
+        <v>1.11</v>
+      </c>
+      <c r="AL23">
+        <v>1.14</v>
+      </c>
+      <c r="AM23">
+        <v>2.75</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>3</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>2.07</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>2.07</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>6</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>11</v>
+      </c>
+      <c r="AZ23">
+        <v>4</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
+        <v>7</v>
+      </c>
+      <c r="BD23">
+        <v>1.28</v>
+      </c>
+      <c r="BE23">
+        <v>10.5</v>
+      </c>
+      <c r="BF23">
+        <v>4.66</v>
+      </c>
+      <c r="BG23">
+        <v>1.19</v>
+      </c>
+      <c r="BH23">
+        <v>3.92</v>
+      </c>
+      <c r="BI23">
+        <v>1.45</v>
+      </c>
+      <c r="BJ23">
+        <v>2.45</v>
+      </c>
+      <c r="BK23">
+        <v>2.25</v>
+      </c>
+      <c r="BL23">
+        <v>2</v>
+      </c>
+      <c r="BM23">
+        <v>2.28</v>
+      </c>
+      <c r="BN23">
+        <v>1.52</v>
+      </c>
+      <c r="BO23">
+        <v>3.05</v>
+      </c>
+      <c r="BP23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7450671</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45507.63541666666</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24">
+        <v>2.1</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>5.5</v>
+      </c>
+      <c r="T24">
+        <v>1.35</v>
+      </c>
+      <c r="U24">
+        <v>2.95</v>
+      </c>
+      <c r="V24">
+        <v>2.6</v>
+      </c>
+      <c r="W24">
+        <v>1.42</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.1</v>
+      </c>
+      <c r="Z24">
+        <v>1.57</v>
+      </c>
+      <c r="AA24">
+        <v>4.1</v>
+      </c>
+      <c r="AB24">
+        <v>4.75</v>
+      </c>
+      <c r="AC24">
+        <v>1.04</v>
+      </c>
+      <c r="AD24">
+        <v>14</v>
+      </c>
+      <c r="AE24">
+        <v>1.27</v>
+      </c>
+      <c r="AF24">
+        <v>3.85</v>
+      </c>
+      <c r="AG24">
+        <v>1.8</v>
+      </c>
+      <c r="AH24">
+        <v>2</v>
+      </c>
+      <c r="AI24">
+        <v>1.91</v>
+      </c>
+      <c r="AJ24">
+        <v>1.91</v>
+      </c>
+      <c r="AK24">
+        <v>1.13</v>
+      </c>
+      <c r="AL24">
+        <v>1.2</v>
+      </c>
+      <c r="AM24">
+        <v>2.05</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>1.69</v>
+      </c>
+      <c r="AS24">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT24">
+        <v>2.38</v>
+      </c>
+      <c r="AU24">
+        <v>7</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>4</v>
+      </c>
+      <c r="AY24">
+        <v>11</v>
+      </c>
+      <c r="AZ24">
+        <v>8</v>
+      </c>
+      <c r="BA24">
+        <v>9</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>12</v>
+      </c>
+      <c r="BD24">
+        <v>1.38</v>
+      </c>
+      <c r="BE24">
+        <v>8.4</v>
+      </c>
+      <c r="BF24">
+        <v>4.06</v>
+      </c>
+      <c r="BG24">
+        <v>1.23</v>
+      </c>
+      <c r="BH24">
+        <v>3.9</v>
+      </c>
+      <c r="BI24">
+        <v>1.44</v>
+      </c>
+      <c r="BJ24">
+        <v>2.6</v>
+      </c>
+      <c r="BK24">
+        <v>2.1</v>
+      </c>
+      <c r="BL24">
+        <v>2.05</v>
+      </c>
+      <c r="BM24">
+        <v>2.17</v>
+      </c>
+      <c r="BN24">
+        <v>1.67</v>
+      </c>
+      <c r="BO24">
+        <v>2.7</v>
+      </c>
+      <c r="BP24">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,12 @@
     <t>['3', '35', '40']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -377,6 +383,12 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['20', '85']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1203,7 +1215,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1409,7 +1421,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1696,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1899,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2027,7 +2039,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2108,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2439,7 +2451,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2517,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>3</v>
@@ -2645,7 +2657,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2851,7 +2863,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3057,7 +3069,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3263,7 +3275,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3469,7 +3481,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3675,7 +3687,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3881,7 +3893,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4293,7 +4305,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4499,7 +4511,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5117,7 +5129,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5529,7 +5541,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5686,6 +5698,418 @@
       </c>
       <c r="BP24">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7450673</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45508.40625</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25">
+        <v>3.2</v>
+      </c>
+      <c r="R25">
+        <v>2.1</v>
+      </c>
+      <c r="S25">
+        <v>3.4</v>
+      </c>
+      <c r="T25">
+        <v>1.42</v>
+      </c>
+      <c r="U25">
+        <v>2.65</v>
+      </c>
+      <c r="V25">
+        <v>2.85</v>
+      </c>
+      <c r="W25">
+        <v>1.36</v>
+      </c>
+      <c r="X25">
+        <v>7</v>
+      </c>
+      <c r="Y25">
+        <v>1.07</v>
+      </c>
+      <c r="Z25">
+        <v>2.45</v>
+      </c>
+      <c r="AA25">
+        <v>3.1</v>
+      </c>
+      <c r="AB25">
+        <v>2.7</v>
+      </c>
+      <c r="AC25">
+        <v>1.07</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>1.33</v>
+      </c>
+      <c r="AF25">
+        <v>3.25</v>
+      </c>
+      <c r="AG25">
+        <v>2</v>
+      </c>
+      <c r="AH25">
+        <v>1.8</v>
+      </c>
+      <c r="AI25">
+        <v>1.75</v>
+      </c>
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>1.42</v>
+      </c>
+      <c r="AL25">
+        <v>1.3</v>
+      </c>
+      <c r="AM25">
+        <v>1.38</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>1.29</v>
+      </c>
+      <c r="AT25">
+        <v>2.29</v>
+      </c>
+      <c r="AU25">
+        <v>6</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>6</v>
+      </c>
+      <c r="AY25">
+        <v>14</v>
+      </c>
+      <c r="AZ25">
+        <v>12</v>
+      </c>
+      <c r="BA25">
+        <v>7</v>
+      </c>
+      <c r="BB25">
+        <v>6</v>
+      </c>
+      <c r="BC25">
+        <v>13</v>
+      </c>
+      <c r="BD25">
+        <v>1.98</v>
+      </c>
+      <c r="BE25">
+        <v>7.5</v>
+      </c>
+      <c r="BF25">
+        <v>2.17</v>
+      </c>
+      <c r="BG25">
+        <v>1.22</v>
+      </c>
+      <c r="BH25">
+        <v>3.8</v>
+      </c>
+      <c r="BI25">
+        <v>1.31</v>
+      </c>
+      <c r="BJ25">
+        <v>3.04</v>
+      </c>
+      <c r="BK25">
+        <v>1.91</v>
+      </c>
+      <c r="BL25">
+        <v>2.21</v>
+      </c>
+      <c r="BM25">
+        <v>2</v>
+      </c>
+      <c r="BN25">
+        <v>1.8</v>
+      </c>
+      <c r="BO25">
+        <v>2.51</v>
+      </c>
+      <c r="BP25">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7450672</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45508.63541666666</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26">
+        <v>2.88</v>
+      </c>
+      <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>4.5</v>
+      </c>
+      <c r="T26">
+        <v>1.44</v>
+      </c>
+      <c r="U26">
+        <v>2.63</v>
+      </c>
+      <c r="V26">
+        <v>3.25</v>
+      </c>
+      <c r="W26">
+        <v>1.33</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>1.07</v>
+      </c>
+      <c r="Z26">
+        <v>2.05</v>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>3.6</v>
+      </c>
+      <c r="AC26">
+        <v>1.04</v>
+      </c>
+      <c r="AD26">
+        <v>7.8</v>
+      </c>
+      <c r="AE26">
+        <v>1.3</v>
+      </c>
+      <c r="AF26">
+        <v>3.2</v>
+      </c>
+      <c r="AG26">
+        <v>2.4</v>
+      </c>
+      <c r="AH26">
+        <v>1.53</v>
+      </c>
+      <c r="AI26">
+        <v>2.05</v>
+      </c>
+      <c r="AJ26">
+        <v>1.7</v>
+      </c>
+      <c r="AK26">
+        <v>1.12</v>
+      </c>
+      <c r="AL26">
+        <v>1.3</v>
+      </c>
+      <c r="AM26">
+        <v>1.97</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>1.73</v>
+      </c>
+      <c r="AS26">
+        <v>2.26</v>
+      </c>
+      <c r="AT26">
+        <v>3.99</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>3</v>
+      </c>
+      <c r="AW26">
+        <v>3</v>
+      </c>
+      <c r="AX26">
+        <v>4</v>
+      </c>
+      <c r="AY26">
+        <v>7</v>
+      </c>
+      <c r="AZ26">
+        <v>7</v>
+      </c>
+      <c r="BA26">
+        <v>7</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>10</v>
+      </c>
+      <c r="BD26">
+        <v>1.51</v>
+      </c>
+      <c r="BE26">
+        <v>8.4</v>
+      </c>
+      <c r="BF26">
+        <v>3.24</v>
+      </c>
+      <c r="BG26">
+        <v>1.38</v>
+      </c>
+      <c r="BH26">
+        <v>2.65</v>
+      </c>
+      <c r="BI26">
+        <v>1.7</v>
+      </c>
+      <c r="BJ26">
+        <v>2.05</v>
+      </c>
+      <c r="BK26">
+        <v>1.9</v>
+      </c>
+      <c r="BL26">
+        <v>1.9</v>
+      </c>
+      <c r="BM26">
+        <v>2.9</v>
+      </c>
+      <c r="BN26">
+        <v>1.32</v>
+      </c>
+      <c r="BO26">
+        <v>4</v>
+      </c>
+      <c r="BP26">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t>['20', '85']</t>
+  </si>
+  <si>
+    <t>['21', '84', '90+12']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1215,7 +1221,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1421,7 +1427,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2039,7 +2045,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2451,7 +2457,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2657,7 +2663,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2738,7 +2744,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2863,7 +2869,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3069,7 +3075,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3275,7 +3281,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3481,7 +3487,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3687,7 +3693,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3893,7 +3899,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4305,7 +4311,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4511,7 +4517,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5129,7 +5135,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5541,7 +5547,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5747,7 +5753,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5953,7 +5959,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6110,6 +6116,212 @@
       </c>
       <c r="BP26">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7450666</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45509.58333333334</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>108</v>
+      </c>
+      <c r="P27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q27">
+        <v>3.1</v>
+      </c>
+      <c r="R27">
+        <v>2.2</v>
+      </c>
+      <c r="S27">
+        <v>3.4</v>
+      </c>
+      <c r="T27">
+        <v>1.38</v>
+      </c>
+      <c r="U27">
+        <v>2.8</v>
+      </c>
+      <c r="V27">
+        <v>2.75</v>
+      </c>
+      <c r="W27">
+        <v>1.4</v>
+      </c>
+      <c r="X27">
+        <v>6.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.08</v>
+      </c>
+      <c r="Z27">
+        <v>2.35</v>
+      </c>
+      <c r="AA27">
+        <v>3.4</v>
+      </c>
+      <c r="AB27">
+        <v>2.75</v>
+      </c>
+      <c r="AC27">
+        <v>1.05</v>
+      </c>
+      <c r="AD27">
+        <v>9.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.28</v>
+      </c>
+      <c r="AF27">
+        <v>3.5</v>
+      </c>
+      <c r="AG27">
+        <v>1.9</v>
+      </c>
+      <c r="AH27">
+        <v>1.9</v>
+      </c>
+      <c r="AI27">
+        <v>1.7</v>
+      </c>
+      <c r="AJ27">
+        <v>2.05</v>
+      </c>
+      <c r="AK27">
+        <v>1.42</v>
+      </c>
+      <c r="AL27">
+        <v>1.25</v>
+      </c>
+      <c r="AM27">
+        <v>1.55</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>0.5</v>
+      </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>0.72</v>
+      </c>
+      <c r="AS27">
+        <v>1.51</v>
+      </c>
+      <c r="AT27">
+        <v>2.23</v>
+      </c>
+      <c r="AU27">
+        <v>4</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>4</v>
+      </c>
+      <c r="AX27">
+        <v>3</v>
+      </c>
+      <c r="AY27">
+        <v>8</v>
+      </c>
+      <c r="AZ27">
+        <v>9</v>
+      </c>
+      <c r="BA27">
+        <v>2</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>2</v>
+      </c>
+      <c r="BD27">
+        <v>1.87</v>
+      </c>
+      <c r="BE27">
+        <v>7.6</v>
+      </c>
+      <c r="BF27">
+        <v>2.36</v>
+      </c>
+      <c r="BG27">
+        <v>1.25</v>
+      </c>
+      <c r="BH27">
+        <v>3.6</v>
+      </c>
+      <c r="BI27">
+        <v>1.35</v>
+      </c>
+      <c r="BJ27">
+        <v>2.84</v>
+      </c>
+      <c r="BK27">
+        <v>2.1</v>
+      </c>
+      <c r="BL27">
+        <v>2.05</v>
+      </c>
+      <c r="BM27">
+        <v>2.09</v>
+      </c>
+      <c r="BN27">
+        <v>1.71</v>
+      </c>
+      <c r="BO27">
+        <v>2.67</v>
+      </c>
+      <c r="BP27">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,9 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -395,6 +398,9 @@
   </si>
   <si>
     <t>['21', '84', '90+12']</t>
+  </si>
+  <si>
+    <t>['73', '82']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1221,7 +1227,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1427,7 +1433,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2045,7 +2051,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2332,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2457,7 +2463,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2663,7 +2669,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2869,7 +2875,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2950,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3075,7 +3081,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3281,7 +3287,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3487,7 +3493,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3693,7 +3699,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3774,7 +3780,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3899,7 +3905,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4311,7 +4317,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4517,7 +4523,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -4595,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -5135,7 +5141,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5547,7 +5553,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5753,7 +5759,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5959,7 +5965,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6165,7 +6171,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6322,6 +6328,418 @@
       </c>
       <c r="BP27">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7450681</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45513.54166666666</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q28">
+        <v>2.88</v>
+      </c>
+      <c r="R28">
+        <v>2.2</v>
+      </c>
+      <c r="S28">
+        <v>3.6</v>
+      </c>
+      <c r="T28">
+        <v>1.35</v>
+      </c>
+      <c r="U28">
+        <v>3.14</v>
+      </c>
+      <c r="V28">
+        <v>2.77</v>
+      </c>
+      <c r="W28">
+        <v>1.44</v>
+      </c>
+      <c r="X28">
+        <v>6.45</v>
+      </c>
+      <c r="Y28">
+        <v>1.09</v>
+      </c>
+      <c r="Z28">
+        <v>2.25</v>
+      </c>
+      <c r="AA28">
+        <v>3.4</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
+      </c>
+      <c r="AC28">
+        <v>1.05</v>
+      </c>
+      <c r="AD28">
+        <v>9.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.28</v>
+      </c>
+      <c r="AF28">
+        <v>3.5</v>
+      </c>
+      <c r="AG28">
+        <v>1.85</v>
+      </c>
+      <c r="AH28">
+        <v>1.95</v>
+      </c>
+      <c r="AI28">
+        <v>1.7</v>
+      </c>
+      <c r="AJ28">
+        <v>2.05</v>
+      </c>
+      <c r="AK28">
+        <v>1.32</v>
+      </c>
+      <c r="AL28">
+        <v>1.28</v>
+      </c>
+      <c r="AM28">
+        <v>1.69</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0.5</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>1.33</v>
+      </c>
+      <c r="AR28">
+        <v>2.08</v>
+      </c>
+      <c r="AS28">
+        <v>1.51</v>
+      </c>
+      <c r="AT28">
+        <v>3.59</v>
+      </c>
+      <c r="AU28">
+        <v>6</v>
+      </c>
+      <c r="AV28">
+        <v>3</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>4</v>
+      </c>
+      <c r="AY28">
+        <v>10</v>
+      </c>
+      <c r="AZ28">
+        <v>7</v>
+      </c>
+      <c r="BA28">
+        <v>3</v>
+      </c>
+      <c r="BB28">
+        <v>2</v>
+      </c>
+      <c r="BC28">
+        <v>5</v>
+      </c>
+      <c r="BD28">
+        <v>1.63</v>
+      </c>
+      <c r="BE28">
+        <v>6.85</v>
+      </c>
+      <c r="BF28">
+        <v>2.97</v>
+      </c>
+      <c r="BG28">
+        <v>1.22</v>
+      </c>
+      <c r="BH28">
+        <v>3.8</v>
+      </c>
+      <c r="BI28">
+        <v>1.31</v>
+      </c>
+      <c r="BJ28">
+        <v>3.04</v>
+      </c>
+      <c r="BK28">
+        <v>1.91</v>
+      </c>
+      <c r="BL28">
+        <v>2.21</v>
+      </c>
+      <c r="BM28">
+        <v>2</v>
+      </c>
+      <c r="BN28">
+        <v>1.8</v>
+      </c>
+      <c r="BO28">
+        <v>2.51</v>
+      </c>
+      <c r="BP28">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7450682</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45513.64583333334</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q29">
+        <v>2.5</v>
+      </c>
+      <c r="R29">
+        <v>2.2</v>
+      </c>
+      <c r="S29">
+        <v>4.5</v>
+      </c>
+      <c r="T29">
+        <v>1.37</v>
+      </c>
+      <c r="U29">
+        <v>3.04</v>
+      </c>
+      <c r="V29">
+        <v>2.88</v>
+      </c>
+      <c r="W29">
+        <v>1.41</v>
+      </c>
+      <c r="X29">
+        <v>6.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.08</v>
+      </c>
+      <c r="Z29">
+        <v>1.83</v>
+      </c>
+      <c r="AA29">
+        <v>3.6</v>
+      </c>
+      <c r="AB29">
+        <v>4.1</v>
+      </c>
+      <c r="AC29">
+        <v>1.06</v>
+      </c>
+      <c r="AD29">
+        <v>11.25</v>
+      </c>
+      <c r="AE29">
+        <v>1.31</v>
+      </c>
+      <c r="AF29">
+        <v>3.47</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <v>1.8</v>
+      </c>
+      <c r="AI29">
+        <v>1.8</v>
+      </c>
+      <c r="AJ29">
+        <v>1.95</v>
+      </c>
+      <c r="AK29">
+        <v>1.28</v>
+      </c>
+      <c r="AL29">
+        <v>1.25</v>
+      </c>
+      <c r="AM29">
+        <v>1.78</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>2.17</v>
+      </c>
+      <c r="AS29">
+        <v>1.77</v>
+      </c>
+      <c r="AT29">
+        <v>3.94</v>
+      </c>
+      <c r="AU29">
+        <v>6</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>6</v>
+      </c>
+      <c r="AY29">
+        <v>11</v>
+      </c>
+      <c r="AZ29">
+        <v>6</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>2</v>
+      </c>
+      <c r="BC29">
+        <v>2</v>
+      </c>
+      <c r="BD29">
+        <v>1.44</v>
+      </c>
+      <c r="BE29">
+        <v>7.3</v>
+      </c>
+      <c r="BF29">
+        <v>3.79</v>
+      </c>
+      <c r="BG29">
+        <v>1.2</v>
+      </c>
+      <c r="BH29">
+        <v>3.84</v>
+      </c>
+      <c r="BI29">
+        <v>1.42</v>
+      </c>
+      <c r="BJ29">
+        <v>2.67</v>
+      </c>
+      <c r="BK29">
+        <v>2.38</v>
+      </c>
+      <c r="BL29">
+        <v>1.92</v>
+      </c>
+      <c r="BM29">
+        <v>2.14</v>
+      </c>
+      <c r="BN29">
+        <v>1.6</v>
+      </c>
+      <c r="BO29">
+        <v>2.84</v>
+      </c>
+      <c r="BP29">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="131">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,9 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -401,6 +404,9 @@
   </si>
   <si>
     <t>['73', '82']</t>
+  </si>
+  <si>
+    <t>['37', '60']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,7 +1233,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1433,7 +1439,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2051,7 +2057,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2463,7 +2469,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2669,7 +2675,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2875,7 +2881,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3081,7 +3087,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3287,7 +3293,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3493,7 +3499,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3699,7 +3705,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3905,7 +3911,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4317,7 +4323,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4523,7 +4529,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5141,7 +5147,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5553,7 +5559,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5759,7 +5765,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5965,7 +5971,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6171,7 +6177,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6377,7 +6383,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6740,6 +6746,418 @@
       </c>
       <c r="BP29">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7450675</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45514.52083333334</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q30">
+        <v>3.1</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>3.75</v>
+      </c>
+      <c r="T30">
+        <v>1.42</v>
+      </c>
+      <c r="U30">
+        <v>2.85</v>
+      </c>
+      <c r="V30">
+        <v>3.1</v>
+      </c>
+      <c r="W30">
+        <v>1.36</v>
+      </c>
+      <c r="X30">
+        <v>7</v>
+      </c>
+      <c r="Y30">
+        <v>1.07</v>
+      </c>
+      <c r="Z30">
+        <v>2.35</v>
+      </c>
+      <c r="AA30">
+        <v>3.1</v>
+      </c>
+      <c r="AB30">
+        <v>3.2</v>
+      </c>
+      <c r="AC30">
+        <v>1.07</v>
+      </c>
+      <c r="AD30">
+        <v>8</v>
+      </c>
+      <c r="AE30">
+        <v>1.33</v>
+      </c>
+      <c r="AF30">
+        <v>3.2</v>
+      </c>
+      <c r="AG30">
+        <v>2.3</v>
+      </c>
+      <c r="AH30">
+        <v>1.6</v>
+      </c>
+      <c r="AI30">
+        <v>1.95</v>
+      </c>
+      <c r="AJ30">
+        <v>1.8</v>
+      </c>
+      <c r="AK30">
+        <v>1.3</v>
+      </c>
+      <c r="AL30">
+        <v>1.28</v>
+      </c>
+      <c r="AM30">
+        <v>1.7</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>0.86</v>
+      </c>
+      <c r="AS30">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT30">
+        <v>1.67</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>6</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>9</v>
+      </c>
+      <c r="BA30">
+        <v>10</v>
+      </c>
+      <c r="BB30">
+        <v>7</v>
+      </c>
+      <c r="BC30">
+        <v>17</v>
+      </c>
+      <c r="BD30">
+        <v>1.6</v>
+      </c>
+      <c r="BE30">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF30">
+        <v>2.91</v>
+      </c>
+      <c r="BG30">
+        <v>1.21</v>
+      </c>
+      <c r="BH30">
+        <v>3.74</v>
+      </c>
+      <c r="BI30">
+        <v>1.4</v>
+      </c>
+      <c r="BJ30">
+        <v>2.64</v>
+      </c>
+      <c r="BK30">
+        <v>2.2</v>
+      </c>
+      <c r="BL30">
+        <v>1.85</v>
+      </c>
+      <c r="BM30">
+        <v>2.17</v>
+      </c>
+      <c r="BN30">
+        <v>1.66</v>
+      </c>
+      <c r="BO30">
+        <v>2.88</v>
+      </c>
+      <c r="BP30">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7450679</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45514.63541666666</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31">
+        <v>1.91</v>
+      </c>
+      <c r="R31">
+        <v>2.6</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>1.27</v>
+      </c>
+      <c r="U31">
+        <v>3.5</v>
+      </c>
+      <c r="V31">
+        <v>2.25</v>
+      </c>
+      <c r="W31">
+        <v>1.58</v>
+      </c>
+      <c r="X31">
+        <v>4.9</v>
+      </c>
+      <c r="Y31">
+        <v>1.14</v>
+      </c>
+      <c r="Z31">
+        <v>1.42</v>
+      </c>
+      <c r="AA31">
+        <v>5.75</v>
+      </c>
+      <c r="AB31">
+        <v>5.25</v>
+      </c>
+      <c r="AC31">
+        <v>1.02</v>
+      </c>
+      <c r="AD31">
+        <v>20</v>
+      </c>
+      <c r="AE31">
+        <v>1.18</v>
+      </c>
+      <c r="AF31">
+        <v>4.92</v>
+      </c>
+      <c r="AG31">
+        <v>1.53</v>
+      </c>
+      <c r="AH31">
+        <v>2.4</v>
+      </c>
+      <c r="AI31">
+        <v>1.8</v>
+      </c>
+      <c r="AJ31">
+        <v>1.95</v>
+      </c>
+      <c r="AK31">
+        <v>1.07</v>
+      </c>
+      <c r="AL31">
+        <v>1.11</v>
+      </c>
+      <c r="AM31">
+        <v>3.1</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.66</v>
+      </c>
+      <c r="AS31">
+        <v>0.57</v>
+      </c>
+      <c r="AT31">
+        <v>2.23</v>
+      </c>
+      <c r="AU31">
+        <v>6</v>
+      </c>
+      <c r="AV31">
+        <v>7</v>
+      </c>
+      <c r="AW31">
+        <v>5</v>
+      </c>
+      <c r="AX31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>5</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>8</v>
+      </c>
+      <c r="BD31">
+        <v>1.17</v>
+      </c>
+      <c r="BE31">
+        <v>12</v>
+      </c>
+      <c r="BF31">
+        <v>6.56</v>
+      </c>
+      <c r="BG31">
+        <v>1.2</v>
+      </c>
+      <c r="BH31">
+        <v>4</v>
+      </c>
+      <c r="BI31">
+        <v>1.36</v>
+      </c>
+      <c r="BJ31">
+        <v>2.9</v>
+      </c>
+      <c r="BK31">
+        <v>2</v>
+      </c>
+      <c r="BL31">
+        <v>2.31</v>
+      </c>
+      <c r="BM31">
+        <v>1.95</v>
+      </c>
+      <c r="BN31">
+        <v>1.77</v>
+      </c>
+      <c r="BO31">
+        <v>2.53</v>
+      </c>
+      <c r="BP31">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,12 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['17', '41']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -385,9 +391,6 @@
     <t>['74']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -407,6 +410,12 @@
   </si>
   <si>
     <t>['37', '60']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['14', '22']</t>
   </si>
 </sst>
 </file>
@@ -768,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,7 +1242,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1439,7 +1448,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1932,7 +1941,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2057,7 +2066,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2469,7 +2478,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2675,7 +2684,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2881,7 +2890,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3087,7 +3096,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3165,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3293,7 +3302,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3499,7 +3508,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3705,7 +3714,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3783,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -3911,7 +3920,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4198,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4323,7 +4332,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4404,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4529,7 +4538,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5147,7 +5156,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5559,7 +5568,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5765,7 +5774,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5971,7 +5980,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6177,7 +6186,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6383,7 +6392,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6795,7 +6804,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7158,6 +7167,624 @@
       </c>
       <c r="BP31">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7450676</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45515.40625</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q32">
+        <v>3.4</v>
+      </c>
+      <c r="R32">
+        <v>2.2</v>
+      </c>
+      <c r="S32">
+        <v>3.1</v>
+      </c>
+      <c r="T32">
+        <v>1.43</v>
+      </c>
+      <c r="U32">
+        <v>2.7</v>
+      </c>
+      <c r="V32">
+        <v>2.9</v>
+      </c>
+      <c r="W32">
+        <v>1.38</v>
+      </c>
+      <c r="X32">
+        <v>7.4</v>
+      </c>
+      <c r="Y32">
+        <v>1.07</v>
+      </c>
+      <c r="Z32">
+        <v>2.8</v>
+      </c>
+      <c r="AA32">
+        <v>3.3</v>
+      </c>
+      <c r="AB32">
+        <v>2.45</v>
+      </c>
+      <c r="AC32">
+        <v>1.06</v>
+      </c>
+      <c r="AD32">
+        <v>7.2</v>
+      </c>
+      <c r="AE32">
+        <v>1.3</v>
+      </c>
+      <c r="AF32">
+        <v>3.2</v>
+      </c>
+      <c r="AG32">
+        <v>1.85</v>
+      </c>
+      <c r="AH32">
+        <v>1.95</v>
+      </c>
+      <c r="AI32">
+        <v>1.67</v>
+      </c>
+      <c r="AJ32">
+        <v>2.1</v>
+      </c>
+      <c r="AK32">
+        <v>1.4</v>
+      </c>
+      <c r="AL32">
+        <v>1.3</v>
+      </c>
+      <c r="AM32">
+        <v>1.5</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.13</v>
+      </c>
+      <c r="AS32">
+        <v>0.71</v>
+      </c>
+      <c r="AT32">
+        <v>1.84</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>10</v>
+      </c>
+      <c r="AY32">
+        <v>9</v>
+      </c>
+      <c r="AZ32">
+        <v>15</v>
+      </c>
+      <c r="BA32">
+        <v>3</v>
+      </c>
+      <c r="BB32">
+        <v>7</v>
+      </c>
+      <c r="BC32">
+        <v>10</v>
+      </c>
+      <c r="BD32">
+        <v>2.19</v>
+      </c>
+      <c r="BE32">
+        <v>6.4</v>
+      </c>
+      <c r="BF32">
+        <v>2.03</v>
+      </c>
+      <c r="BG32">
+        <v>1.19</v>
+      </c>
+      <c r="BH32">
+        <v>3.98</v>
+      </c>
+      <c r="BI32">
+        <v>1.37</v>
+      </c>
+      <c r="BJ32">
+        <v>2.75</v>
+      </c>
+      <c r="BK32">
+        <v>2.1</v>
+      </c>
+      <c r="BL32">
+        <v>2.09</v>
+      </c>
+      <c r="BM32">
+        <v>2.15</v>
+      </c>
+      <c r="BN32">
+        <v>1.69</v>
+      </c>
+      <c r="BO32">
+        <v>2.78</v>
+      </c>
+      <c r="BP32">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7450680</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45515.52083333334</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q33">
+        <v>4.75</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>2.4</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>2.75</v>
+      </c>
+      <c r="V33">
+        <v>2.75</v>
+      </c>
+      <c r="W33">
+        <v>1.4</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>4.5</v>
+      </c>
+      <c r="AA33">
+        <v>3.6</v>
+      </c>
+      <c r="AB33">
+        <v>1.75</v>
+      </c>
+      <c r="AC33">
+        <v>1.05</v>
+      </c>
+      <c r="AD33">
+        <v>9</v>
+      </c>
+      <c r="AE33">
+        <v>1.3</v>
+      </c>
+      <c r="AF33">
+        <v>3.4</v>
+      </c>
+      <c r="AG33">
+        <v>1.95</v>
+      </c>
+      <c r="AH33">
+        <v>1.85</v>
+      </c>
+      <c r="AI33">
+        <v>1.91</v>
+      </c>
+      <c r="AJ33">
+        <v>1.91</v>
+      </c>
+      <c r="AK33">
+        <v>2</v>
+      </c>
+      <c r="AL33">
+        <v>1.22</v>
+      </c>
+      <c r="AM33">
+        <v>1.2</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AR33">
+        <v>1.25</v>
+      </c>
+      <c r="AS33">
+        <v>1.01</v>
+      </c>
+      <c r="AT33">
+        <v>2.26</v>
+      </c>
+      <c r="AU33">
+        <v>6</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
+        <v>2</v>
+      </c>
+      <c r="AY33">
+        <v>13</v>
+      </c>
+      <c r="AZ33">
+        <v>7</v>
+      </c>
+      <c r="BA33">
+        <v>3</v>
+      </c>
+      <c r="BB33">
+        <v>8</v>
+      </c>
+      <c r="BC33">
+        <v>11</v>
+      </c>
+      <c r="BD33">
+        <v>3.24</v>
+      </c>
+      <c r="BE33">
+        <v>8.4</v>
+      </c>
+      <c r="BF33">
+        <v>1.51</v>
+      </c>
+      <c r="BG33">
+        <v>1.22</v>
+      </c>
+      <c r="BH33">
+        <v>3.65</v>
+      </c>
+      <c r="BI33">
+        <v>1.48</v>
+      </c>
+      <c r="BJ33">
+        <v>2.58</v>
+      </c>
+      <c r="BK33">
+        <v>2.38</v>
+      </c>
+      <c r="BL33">
+        <v>1.9</v>
+      </c>
+      <c r="BM33">
+        <v>2.23</v>
+      </c>
+      <c r="BN33">
+        <v>1.63</v>
+      </c>
+      <c r="BO33">
+        <v>2.98</v>
+      </c>
+      <c r="BP33">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7450683</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45515.63541666666</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34">
+        <v>2.88</v>
+      </c>
+      <c r="R34">
+        <v>2.05</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <v>1.42</v>
+      </c>
+      <c r="U34">
+        <v>2.84</v>
+      </c>
+      <c r="V34">
+        <v>3.11</v>
+      </c>
+      <c r="W34">
+        <v>1.36</v>
+      </c>
+      <c r="X34">
+        <v>7</v>
+      </c>
+      <c r="Y34">
+        <v>1.06</v>
+      </c>
+      <c r="Z34">
+        <v>2.2</v>
+      </c>
+      <c r="AA34">
+        <v>3.1</v>
+      </c>
+      <c r="AB34">
+        <v>3.4</v>
+      </c>
+      <c r="AC34">
+        <v>1.07</v>
+      </c>
+      <c r="AD34">
+        <v>8</v>
+      </c>
+      <c r="AE34">
+        <v>1.38</v>
+      </c>
+      <c r="AF34">
+        <v>3</v>
+      </c>
+      <c r="AG34">
+        <v>2.08</v>
+      </c>
+      <c r="AH34">
+        <v>1.73</v>
+      </c>
+      <c r="AI34">
+        <v>1.91</v>
+      </c>
+      <c r="AJ34">
+        <v>1.91</v>
+      </c>
+      <c r="AK34">
+        <v>1.33</v>
+      </c>
+      <c r="AL34">
+        <v>1.28</v>
+      </c>
+      <c r="AM34">
+        <v>1.6</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>0.5</v>
+      </c>
+      <c r="AR34">
+        <v>1.4</v>
+      </c>
+      <c r="AS34">
+        <v>0.91</v>
+      </c>
+      <c r="AT34">
+        <v>2.31</v>
+      </c>
+      <c r="AU34">
+        <v>2</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>3</v>
+      </c>
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>5</v>
+      </c>
+      <c r="AZ34">
+        <v>10</v>
+      </c>
+      <c r="BA34">
+        <v>7</v>
+      </c>
+      <c r="BB34">
+        <v>8</v>
+      </c>
+      <c r="BC34">
+        <v>15</v>
+      </c>
+      <c r="BD34">
+        <v>1.64</v>
+      </c>
+      <c r="BE34">
+        <v>8</v>
+      </c>
+      <c r="BF34">
+        <v>2.81</v>
+      </c>
+      <c r="BG34">
+        <v>1.33</v>
+      </c>
+      <c r="BH34">
+        <v>3</v>
+      </c>
+      <c r="BI34">
+        <v>1.53</v>
+      </c>
+      <c r="BJ34">
+        <v>2.42</v>
+      </c>
+      <c r="BK34">
+        <v>2.25</v>
+      </c>
+      <c r="BL34">
+        <v>1.95</v>
+      </c>
+      <c r="BM34">
+        <v>2.39</v>
+      </c>
+      <c r="BN34">
+        <v>1.54</v>
+      </c>
+      <c r="BO34">
+        <v>3.2</v>
+      </c>
+      <c r="BP34">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,9 @@
     <t>['17', '41']</t>
   </si>
   <si>
+    <t>['31', '49']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -416,6 +419,9 @@
   </si>
   <si>
     <t>['14', '22']</t>
+  </si>
+  <si>
+    <t>['19', '68']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1248,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1448,7 +1454,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2066,7 +2072,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2478,7 +2484,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2684,7 +2690,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2890,7 +2896,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3096,7 +3102,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3302,7 +3308,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3383,7 +3389,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -3508,7 +3514,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3714,7 +3720,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3920,7 +3926,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4204,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4332,7 +4338,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5156,7 +5162,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5568,7 +5574,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5774,7 +5780,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5980,7 +5986,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6186,7 +6192,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6392,7 +6398,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6804,7 +6810,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7216,7 +7222,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7422,7 +7428,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7785,6 +7791,212 @@
       </c>
       <c r="BP34">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7450678</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45516.58333333334</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q35">
+        <v>2.3</v>
+      </c>
+      <c r="R35">
+        <v>2.1</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>1.5</v>
+      </c>
+      <c r="U35">
+        <v>2.4</v>
+      </c>
+      <c r="V35">
+        <v>3.2</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>8.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.04</v>
+      </c>
+      <c r="Z35">
+        <v>1.65</v>
+      </c>
+      <c r="AA35">
+        <v>3.6</v>
+      </c>
+      <c r="AB35">
+        <v>5.75</v>
+      </c>
+      <c r="AC35">
+        <v>1.06</v>
+      </c>
+      <c r="AD35">
+        <v>8</v>
+      </c>
+      <c r="AE35">
+        <v>1.4</v>
+      </c>
+      <c r="AF35">
+        <v>2.8</v>
+      </c>
+      <c r="AG35">
+        <v>2.2</v>
+      </c>
+      <c r="AH35">
+        <v>1.65</v>
+      </c>
+      <c r="AI35">
+        <v>2.1</v>
+      </c>
+      <c r="AJ35">
+        <v>1.67</v>
+      </c>
+      <c r="AK35">
+        <v>1.06</v>
+      </c>
+      <c r="AL35">
+        <v>1.27</v>
+      </c>
+      <c r="AM35">
+        <v>2.3</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>1.34</v>
+      </c>
+      <c r="AS35">
+        <v>0.87</v>
+      </c>
+      <c r="AT35">
+        <v>2.21</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>5</v>
+      </c>
+      <c r="AW35">
+        <v>8</v>
+      </c>
+      <c r="AX35">
+        <v>1</v>
+      </c>
+      <c r="AY35">
+        <v>13</v>
+      </c>
+      <c r="AZ35">
+        <v>6</v>
+      </c>
+      <c r="BA35">
+        <v>5</v>
+      </c>
+      <c r="BB35">
+        <v>1</v>
+      </c>
+      <c r="BC35">
+        <v>6</v>
+      </c>
+      <c r="BD35">
+        <v>1.27</v>
+      </c>
+      <c r="BE35">
+        <v>8.1</v>
+      </c>
+      <c r="BF35">
+        <v>5.15</v>
+      </c>
+      <c r="BG35">
+        <v>1.27</v>
+      </c>
+      <c r="BH35">
+        <v>3.28</v>
+      </c>
+      <c r="BI35">
+        <v>1.51</v>
+      </c>
+      <c r="BJ35">
+        <v>2.32</v>
+      </c>
+      <c r="BK35">
+        <v>1.85</v>
+      </c>
+      <c r="BL35">
+        <v>1.85</v>
+      </c>
+      <c r="BM35">
+        <v>2.45</v>
+      </c>
+      <c r="BN35">
+        <v>1.46</v>
+      </c>
+      <c r="BO35">
+        <v>3.34</v>
+      </c>
+      <c r="BP35">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>['31', '49']</t>
+  </si>
+  <si>
+    <t>['2', '33', '78', '87']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -783,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1251,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1329,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1454,7 +1457,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1532,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -2072,7 +2075,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2484,7 +2487,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2690,7 +2693,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2896,7 +2899,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2974,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3102,7 +3105,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3183,7 +3186,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3308,7 +3311,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3514,7 +3517,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3720,7 +3723,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3926,7 +3929,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4338,7 +4341,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5162,7 +5165,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5240,7 +5243,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5574,7 +5577,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5655,7 +5658,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -5780,7 +5783,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5986,7 +5989,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6192,7 +6195,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6398,7 +6401,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6810,7 +6813,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7222,7 +7225,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7428,7 +7431,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7506,7 +7509,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -7840,7 +7843,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -7997,6 +8000,418 @@
       </c>
       <c r="BP35">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7450690</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45520.54166666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q36">
+        <v>2.88</v>
+      </c>
+      <c r="R36">
+        <v>2.2</v>
+      </c>
+      <c r="S36">
+        <v>3.75</v>
+      </c>
+      <c r="T36">
+        <v>1.45</v>
+      </c>
+      <c r="U36">
+        <v>2.55</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>7.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>2.15</v>
+      </c>
+      <c r="AA36">
+        <v>3.4</v>
+      </c>
+      <c r="AB36">
+        <v>3.1</v>
+      </c>
+      <c r="AC36">
+        <v>1.07</v>
+      </c>
+      <c r="AD36">
+        <v>8</v>
+      </c>
+      <c r="AE36">
+        <v>1.38</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>1.9</v>
+      </c>
+      <c r="AH36">
+        <v>1.9</v>
+      </c>
+      <c r="AI36">
+        <v>1.75</v>
+      </c>
+      <c r="AJ36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>1.42</v>
+      </c>
+      <c r="AL36">
+        <v>1.3</v>
+      </c>
+      <c r="AM36">
+        <v>1.48</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>0.5</v>
+      </c>
+      <c r="AP36">
+        <v>1.67</v>
+      </c>
+      <c r="AQ36">
+        <v>0.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.51</v>
+      </c>
+      <c r="AS36">
+        <v>0.87</v>
+      </c>
+      <c r="AT36">
+        <v>2.38</v>
+      </c>
+      <c r="AU36">
+        <v>7</v>
+      </c>
+      <c r="AV36">
+        <v>5</v>
+      </c>
+      <c r="AW36">
+        <v>7</v>
+      </c>
+      <c r="AX36">
+        <v>5</v>
+      </c>
+      <c r="AY36">
+        <v>14</v>
+      </c>
+      <c r="AZ36">
+        <v>10</v>
+      </c>
+      <c r="BA36">
+        <v>3</v>
+      </c>
+      <c r="BB36">
+        <v>6</v>
+      </c>
+      <c r="BC36">
+        <v>9</v>
+      </c>
+      <c r="BD36">
+        <v>1.7</v>
+      </c>
+      <c r="BE36">
+        <v>7.9</v>
+      </c>
+      <c r="BF36">
+        <v>2.66</v>
+      </c>
+      <c r="BG36">
+        <v>1.29</v>
+      </c>
+      <c r="BH36">
+        <v>3.4</v>
+      </c>
+      <c r="BI36">
+        <v>1.4</v>
+      </c>
+      <c r="BJ36">
+        <v>2.75</v>
+      </c>
+      <c r="BK36">
+        <v>2.2</v>
+      </c>
+      <c r="BL36">
+        <v>1.91</v>
+      </c>
+      <c r="BM36">
+        <v>2.25</v>
+      </c>
+      <c r="BN36">
+        <v>1.57</v>
+      </c>
+      <c r="BO36">
+        <v>3</v>
+      </c>
+      <c r="BP36">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7450684</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45520.64583333334</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q37">
+        <v>2.4</v>
+      </c>
+      <c r="R37">
+        <v>2.25</v>
+      </c>
+      <c r="S37">
+        <v>4.5</v>
+      </c>
+      <c r="T37">
+        <v>1.47</v>
+      </c>
+      <c r="U37">
+        <v>2.5</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>1.33</v>
+      </c>
+      <c r="X37">
+        <v>6.8</v>
+      </c>
+      <c r="Y37">
+        <v>1.07</v>
+      </c>
+      <c r="Z37">
+        <v>1.8</v>
+      </c>
+      <c r="AA37">
+        <v>3.6</v>
+      </c>
+      <c r="AB37">
+        <v>4.33</v>
+      </c>
+      <c r="AC37">
+        <v>1.07</v>
+      </c>
+      <c r="AD37">
+        <v>6.8</v>
+      </c>
+      <c r="AE37">
+        <v>1.34</v>
+      </c>
+      <c r="AF37">
+        <v>2.88</v>
+      </c>
+      <c r="AG37">
+        <v>1.8</v>
+      </c>
+      <c r="AH37">
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <v>1.75</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>1.33</v>
+      </c>
+      <c r="AL37">
+        <v>1.28</v>
+      </c>
+      <c r="AM37">
+        <v>1.48</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>0.33</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>1.91</v>
+      </c>
+      <c r="AS37">
+        <v>1.57</v>
+      </c>
+      <c r="AT37">
+        <v>3.48</v>
+      </c>
+      <c r="AU37">
+        <v>2</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>10</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>12</v>
+      </c>
+      <c r="AZ37">
+        <v>10</v>
+      </c>
+      <c r="BA37">
+        <v>1</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>5</v>
+      </c>
+      <c r="BD37">
+        <v>1.77</v>
+      </c>
+      <c r="BE37">
+        <v>7.4</v>
+      </c>
+      <c r="BF37">
+        <v>2.57</v>
+      </c>
+      <c r="BG37">
+        <v>1.25</v>
+      </c>
+      <c r="BH37">
+        <v>3.42</v>
+      </c>
+      <c r="BI37">
+        <v>1.48</v>
+      </c>
+      <c r="BJ37">
+        <v>2.4</v>
+      </c>
+      <c r="BK37">
+        <v>2.38</v>
+      </c>
+      <c r="BL37">
+        <v>1.9</v>
+      </c>
+      <c r="BM37">
+        <v>2.38</v>
+      </c>
+      <c r="BN37">
+        <v>1.49</v>
+      </c>
+      <c r="BO37">
+        <v>3.2</v>
+      </c>
+      <c r="BP37">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['2', '33', '78', '87']</t>
   </si>
   <si>
+    <t>['12', '26']</t>
+  </si>
+  <si>
+    <t>['21', '72']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -425,6 +431,12 @@
   </si>
   <si>
     <t>['19', '68']</t>
+  </si>
+  <si>
+    <t>['3', '30', '54', '90+4']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1251,7 +1263,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1457,7 +1469,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2075,7 +2087,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2487,7 +2499,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2693,7 +2705,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2774,7 +2786,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2899,7 +2911,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3105,7 +3117,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3311,7 +3323,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3517,7 +3529,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3723,7 +3735,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3804,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3929,7 +3941,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4007,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4341,7 +4353,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4831,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -5165,7 +5177,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5449,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5577,7 +5589,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5783,7 +5795,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5989,7 +6001,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6195,7 +6207,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6276,7 +6288,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>0.72</v>
@@ -6401,7 +6413,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6688,7 +6700,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -6813,7 +6825,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7225,7 +7237,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7431,7 +7443,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7843,7 +7855,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8412,6 +8424,624 @@
       </c>
       <c r="BP37">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7450686</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45521.40625</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q38">
+        <v>2.25</v>
+      </c>
+      <c r="R38">
+        <v>2.38</v>
+      </c>
+      <c r="S38">
+        <v>4.75</v>
+      </c>
+      <c r="T38">
+        <v>1.27</v>
+      </c>
+      <c r="U38">
+        <v>3.45</v>
+      </c>
+      <c r="V38">
+        <v>2.4</v>
+      </c>
+      <c r="W38">
+        <v>1.56</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>1.14</v>
+      </c>
+      <c r="Z38">
+        <v>1.7</v>
+      </c>
+      <c r="AA38">
+        <v>3.75</v>
+      </c>
+      <c r="AB38">
+        <v>4.75</v>
+      </c>
+      <c r="AC38">
+        <v>1.04</v>
+      </c>
+      <c r="AD38">
+        <v>10</v>
+      </c>
+      <c r="AE38">
+        <v>1.18</v>
+      </c>
+      <c r="AF38">
+        <v>4.5</v>
+      </c>
+      <c r="AG38">
+        <v>1.7</v>
+      </c>
+      <c r="AH38">
+        <v>2.1</v>
+      </c>
+      <c r="AI38">
+        <v>1.7</v>
+      </c>
+      <c r="AJ38">
+        <v>2.05</v>
+      </c>
+      <c r="AK38">
+        <v>1.15</v>
+      </c>
+      <c r="AL38">
+        <v>1.17</v>
+      </c>
+      <c r="AM38">
+        <v>2.2</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>1.85</v>
+      </c>
+      <c r="AS38">
+        <v>1.04</v>
+      </c>
+      <c r="AT38">
+        <v>2.89</v>
+      </c>
+      <c r="AU38">
+        <v>7</v>
+      </c>
+      <c r="AV38">
+        <v>7</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>7</v>
+      </c>
+      <c r="AY38">
+        <v>13</v>
+      </c>
+      <c r="AZ38">
+        <v>14</v>
+      </c>
+      <c r="BA38">
+        <v>13</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>16</v>
+      </c>
+      <c r="BD38">
+        <v>1.49</v>
+      </c>
+      <c r="BE38">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF38">
+        <v>3.34</v>
+      </c>
+      <c r="BG38">
+        <v>1.21</v>
+      </c>
+      <c r="BH38">
+        <v>3.74</v>
+      </c>
+      <c r="BI38">
+        <v>1.4</v>
+      </c>
+      <c r="BJ38">
+        <v>2.64</v>
+      </c>
+      <c r="BK38">
+        <v>2.38</v>
+      </c>
+      <c r="BL38">
+        <v>1.95</v>
+      </c>
+      <c r="BM38">
+        <v>2.15</v>
+      </c>
+      <c r="BN38">
+        <v>1.59</v>
+      </c>
+      <c r="BO38">
+        <v>2.88</v>
+      </c>
+      <c r="BP38">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7450687</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45521.52083333334</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+      <c r="P39" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39">
+        <v>3.6</v>
+      </c>
+      <c r="R39">
+        <v>2.25</v>
+      </c>
+      <c r="S39">
+        <v>2.88</v>
+      </c>
+      <c r="T39">
+        <v>1.34</v>
+      </c>
+      <c r="U39">
+        <v>3.2</v>
+      </c>
+      <c r="V39">
+        <v>2.71</v>
+      </c>
+      <c r="W39">
+        <v>1.45</v>
+      </c>
+      <c r="X39">
+        <v>6.6</v>
+      </c>
+      <c r="Y39">
+        <v>1.09</v>
+      </c>
+      <c r="Z39">
+        <v>3</v>
+      </c>
+      <c r="AA39">
+        <v>3.5</v>
+      </c>
+      <c r="AB39">
+        <v>2.2</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>9.4</v>
+      </c>
+      <c r="AE39">
+        <v>1.24</v>
+      </c>
+      <c r="AF39">
+        <v>3.48</v>
+      </c>
+      <c r="AG39">
+        <v>1.73</v>
+      </c>
+      <c r="AH39">
+        <v>2.08</v>
+      </c>
+      <c r="AI39">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39">
+        <v>2.1</v>
+      </c>
+      <c r="AK39">
+        <v>1.6</v>
+      </c>
+      <c r="AL39">
+        <v>1.32</v>
+      </c>
+      <c r="AM39">
+        <v>1.4</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
+        <v>1.33</v>
+      </c>
+      <c r="AQ39">
+        <v>1.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.41</v>
+      </c>
+      <c r="AS39">
+        <v>1.25</v>
+      </c>
+      <c r="AT39">
+        <v>2.66</v>
+      </c>
+      <c r="AU39">
+        <v>8</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>8</v>
+      </c>
+      <c r="AX39">
+        <v>7</v>
+      </c>
+      <c r="AY39">
+        <v>16</v>
+      </c>
+      <c r="AZ39">
+        <v>10</v>
+      </c>
+      <c r="BA39">
+        <v>3</v>
+      </c>
+      <c r="BB39">
+        <v>3</v>
+      </c>
+      <c r="BC39">
+        <v>6</v>
+      </c>
+      <c r="BD39">
+        <v>2.1</v>
+      </c>
+      <c r="BE39">
+        <v>7.4</v>
+      </c>
+      <c r="BF39">
+        <v>2.05</v>
+      </c>
+      <c r="BG39">
+        <v>1.18</v>
+      </c>
+      <c r="BH39">
+        <v>4.05</v>
+      </c>
+      <c r="BI39">
+        <v>1.36</v>
+      </c>
+      <c r="BJ39">
+        <v>2.78</v>
+      </c>
+      <c r="BK39">
+        <v>2.2</v>
+      </c>
+      <c r="BL39">
+        <v>1.91</v>
+      </c>
+      <c r="BM39">
+        <v>2.07</v>
+      </c>
+      <c r="BN39">
+        <v>1.64</v>
+      </c>
+      <c r="BO39">
+        <v>2.75</v>
+      </c>
+      <c r="BP39">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7450689</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45521.63541666666</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q40">
+        <v>2.25</v>
+      </c>
+      <c r="R40">
+        <v>2.4</v>
+      </c>
+      <c r="S40">
+        <v>4.5</v>
+      </c>
+      <c r="T40">
+        <v>1.3</v>
+      </c>
+      <c r="U40">
+        <v>3.4</v>
+      </c>
+      <c r="V40">
+        <v>2.38</v>
+      </c>
+      <c r="W40">
+        <v>1.53</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>1.13</v>
+      </c>
+      <c r="Z40">
+        <v>1.7</v>
+      </c>
+      <c r="AA40">
+        <v>4</v>
+      </c>
+      <c r="AB40">
+        <v>4.33</v>
+      </c>
+      <c r="AC40">
+        <v>1.03</v>
+      </c>
+      <c r="AD40">
+        <v>9</v>
+      </c>
+      <c r="AE40">
+        <v>1.14</v>
+      </c>
+      <c r="AF40">
+        <v>4.7</v>
+      </c>
+      <c r="AG40">
+        <v>1.6</v>
+      </c>
+      <c r="AH40">
+        <v>2.3</v>
+      </c>
+      <c r="AI40">
+        <v>1.62</v>
+      </c>
+      <c r="AJ40">
+        <v>2.2</v>
+      </c>
+      <c r="AK40">
+        <v>1.18</v>
+      </c>
+      <c r="AL40">
+        <v>1.22</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>1.33</v>
+      </c>
+      <c r="AR40">
+        <v>1.6</v>
+      </c>
+      <c r="AS40">
+        <v>1.4</v>
+      </c>
+      <c r="AT40">
+        <v>3</v>
+      </c>
+      <c r="AU40">
+        <v>9</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>8</v>
+      </c>
+      <c r="AX40">
+        <v>1</v>
+      </c>
+      <c r="AY40">
+        <v>17</v>
+      </c>
+      <c r="AZ40">
+        <v>4</v>
+      </c>
+      <c r="BA40">
+        <v>9</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>12</v>
+      </c>
+      <c r="BD40">
+        <v>1.37</v>
+      </c>
+      <c r="BE40">
+        <v>8.4</v>
+      </c>
+      <c r="BF40">
+        <v>4.16</v>
+      </c>
+      <c r="BG40">
+        <v>1.2</v>
+      </c>
+      <c r="BH40">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>1.29</v>
+      </c>
+      <c r="BJ40">
+        <v>3.14</v>
+      </c>
+      <c r="BK40">
+        <v>1.91</v>
+      </c>
+      <c r="BL40">
+        <v>2.28</v>
+      </c>
+      <c r="BM40">
+        <v>2</v>
+      </c>
+      <c r="BN40">
+        <v>1.8</v>
+      </c>
+      <c r="BO40">
+        <v>2.42</v>
+      </c>
+      <c r="BP40">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,12 @@
     <t>['21', '72']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['38', '45+3', '70', '90']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -406,9 +412,6 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['43']</t>
   </si>
   <si>
@@ -437,6 +440,12 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,7 +1272,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1469,7 +1478,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1550,7 +1559,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1756,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1959,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2087,7 +2096,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2499,7 +2508,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2580,7 +2589,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2705,7 +2714,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2911,7 +2920,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3117,7 +3126,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3323,7 +3332,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3529,7 +3538,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3735,7 +3744,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3941,7 +3950,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4353,7 +4362,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5049,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5177,7 +5186,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5258,7 +5267,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5589,7 +5598,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="Q24">
         <v>2.1</v>
@@ -5795,7 +5804,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5876,7 +5885,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6001,7 +6010,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6079,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6207,7 +6216,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6413,7 +6422,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6825,7 +6834,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7237,7 +7246,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7443,7 +7452,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7855,7 +7864,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8473,7 +8482,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8679,7 +8688,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9042,6 +9051,624 @@
       </c>
       <c r="BP40">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7450692</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45522.40625</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q41">
+        <v>2.75</v>
+      </c>
+      <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>4.5</v>
+      </c>
+      <c r="T41">
+        <v>1.53</v>
+      </c>
+      <c r="U41">
+        <v>2.38</v>
+      </c>
+      <c r="V41">
+        <v>3.5</v>
+      </c>
+      <c r="W41">
+        <v>1.29</v>
+      </c>
+      <c r="X41">
+        <v>11</v>
+      </c>
+      <c r="Y41">
+        <v>1.05</v>
+      </c>
+      <c r="Z41">
+        <v>1.95</v>
+      </c>
+      <c r="AA41">
+        <v>3.2</v>
+      </c>
+      <c r="AB41">
+        <v>4.33</v>
+      </c>
+      <c r="AC41">
+        <v>1.09</v>
+      </c>
+      <c r="AD41">
+        <v>7</v>
+      </c>
+      <c r="AE41">
+        <v>1.44</v>
+      </c>
+      <c r="AF41">
+        <v>2.7</v>
+      </c>
+      <c r="AG41">
+        <v>2.25</v>
+      </c>
+      <c r="AH41">
+        <v>1.62</v>
+      </c>
+      <c r="AI41">
+        <v>2</v>
+      </c>
+      <c r="AJ41">
+        <v>1.75</v>
+      </c>
+      <c r="AK41">
+        <v>1.28</v>
+      </c>
+      <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>1.67</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>0.5</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>0.67</v>
+      </c>
+      <c r="AR41">
+        <v>2.02</v>
+      </c>
+      <c r="AS41">
+        <v>1.48</v>
+      </c>
+      <c r="AT41">
+        <v>3.5</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>14</v>
+      </c>
+      <c r="AZ41">
+        <v>14</v>
+      </c>
+      <c r="BA41">
+        <v>2</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
+        <v>1.67</v>
+      </c>
+      <c r="BE41">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF41">
+        <v>2.71</v>
+      </c>
+      <c r="BG41">
+        <v>1.21</v>
+      </c>
+      <c r="BH41">
+        <v>3.74</v>
+      </c>
+      <c r="BI41">
+        <v>1.41</v>
+      </c>
+      <c r="BJ41">
+        <v>2.6</v>
+      </c>
+      <c r="BK41">
+        <v>2.38</v>
+      </c>
+      <c r="BL41">
+        <v>1.95</v>
+      </c>
+      <c r="BM41">
+        <v>2.17</v>
+      </c>
+      <c r="BN41">
+        <v>1.58</v>
+      </c>
+      <c r="BO41">
+        <v>2.91</v>
+      </c>
+      <c r="BP41">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7450688</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45522.52083333334</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q42">
+        <v>2.25</v>
+      </c>
+      <c r="R42">
+        <v>2.25</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>2.85</v>
+      </c>
+      <c r="V42">
+        <v>2.75</v>
+      </c>
+      <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>6.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>1.65</v>
+      </c>
+      <c r="AA42">
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <v>4.75</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.28</v>
+      </c>
+      <c r="AF42">
+        <v>3.55</v>
+      </c>
+      <c r="AG42">
+        <v>1.85</v>
+      </c>
+      <c r="AH42">
+        <v>1.95</v>
+      </c>
+      <c r="AI42">
+        <v>1.91</v>
+      </c>
+      <c r="AJ42">
+        <v>1.91</v>
+      </c>
+      <c r="AK42">
+        <v>1.17</v>
+      </c>
+      <c r="AL42">
+        <v>1.2</v>
+      </c>
+      <c r="AM42">
+        <v>2.2</v>
+      </c>
+      <c r="AN42">
+        <v>1.5</v>
+      </c>
+      <c r="AO42">
+        <v>3</v>
+      </c>
+      <c r="AP42">
+        <v>2</v>
+      </c>
+      <c r="AQ42">
+        <v>1.5</v>
+      </c>
+      <c r="AR42">
+        <v>1.4</v>
+      </c>
+      <c r="AS42">
+        <v>1.31</v>
+      </c>
+      <c r="AT42">
+        <v>2.71</v>
+      </c>
+      <c r="AU42">
+        <v>7</v>
+      </c>
+      <c r="AV42">
+        <v>4</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>7</v>
+      </c>
+      <c r="AY42">
+        <v>12</v>
+      </c>
+      <c r="AZ42">
+        <v>11</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>6</v>
+      </c>
+      <c r="BD42">
+        <v>1.37</v>
+      </c>
+      <c r="BE42">
+        <v>8.4</v>
+      </c>
+      <c r="BF42">
+        <v>4.16</v>
+      </c>
+      <c r="BG42">
+        <v>1.22</v>
+      </c>
+      <c r="BH42">
+        <v>3.64</v>
+      </c>
+      <c r="BI42">
+        <v>1.43</v>
+      </c>
+      <c r="BJ42">
+        <v>2.54</v>
+      </c>
+      <c r="BK42">
+        <v>2.38</v>
+      </c>
+      <c r="BL42">
+        <v>1.92</v>
+      </c>
+      <c r="BM42">
+        <v>2.23</v>
+      </c>
+      <c r="BN42">
+        <v>1.55</v>
+      </c>
+      <c r="BO42">
+        <v>3.04</v>
+      </c>
+      <c r="BP42">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7450685</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45522.63541666666</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>2.75</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>2.75</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>3.5</v>
+      </c>
+      <c r="AA43">
+        <v>3.3</v>
+      </c>
+      <c r="AB43">
+        <v>2.05</v>
+      </c>
+      <c r="AC43">
+        <v>1.06</v>
+      </c>
+      <c r="AD43">
+        <v>8.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.3</v>
+      </c>
+      <c r="AF43">
+        <v>3.35</v>
+      </c>
+      <c r="AG43">
+        <v>1.95</v>
+      </c>
+      <c r="AH43">
+        <v>1.85</v>
+      </c>
+      <c r="AI43">
+        <v>1.75</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>1.77</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.25</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>2.33</v>
+      </c>
+      <c r="AR43">
+        <v>1.8</v>
+      </c>
+      <c r="AS43">
+        <v>1.45</v>
+      </c>
+      <c r="AT43">
+        <v>3.25</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>9</v>
+      </c>
+      <c r="AX43">
+        <v>6</v>
+      </c>
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>12</v>
+      </c>
+      <c r="BA43">
+        <v>5</v>
+      </c>
+      <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>2.91</v>
+      </c>
+      <c r="BE43">
+        <v>7.7</v>
+      </c>
+      <c r="BF43">
+        <v>1.62</v>
+      </c>
+      <c r="BG43">
+        <v>1.19</v>
+      </c>
+      <c r="BH43">
+        <v>3.9</v>
+      </c>
+      <c r="BI43">
+        <v>1.39</v>
+      </c>
+      <c r="BJ43">
+        <v>2.67</v>
+      </c>
+      <c r="BK43">
+        <v>2.1</v>
+      </c>
+      <c r="BL43">
+        <v>2.05</v>
+      </c>
+      <c r="BM43">
+        <v>2.05</v>
+      </c>
+      <c r="BN43">
+        <v>1.7</v>
+      </c>
+      <c r="BO43">
+        <v>2.79</v>
+      </c>
+      <c r="BP43">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>['38', '45+3', '70', '90']</t>
+  </si>
+  <si>
+    <t>['79', '85']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,7 +1275,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1478,7 +1481,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2096,7 +2099,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2177,7 +2180,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2508,7 +2511,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2714,7 +2717,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2792,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -2920,7 +2923,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3126,7 +3129,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3332,7 +3335,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3410,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3538,7 +3541,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3744,7 +3747,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3950,7 +3953,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4362,7 +4365,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5186,7 +5189,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5804,7 +5807,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6010,7 +6013,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6091,7 +6094,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6216,7 +6219,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6422,7 +6425,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6834,7 +6837,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7246,7 +7249,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7452,7 +7455,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7864,7 +7867,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8482,7 +8485,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8688,7 +8691,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9100,7 +9103,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9306,7 +9309,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9669,6 +9672,212 @@
       </c>
       <c r="BP43">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7450691</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44">
+        <v>4.75</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>2.75</v>
+      </c>
+      <c r="T44">
+        <v>1.5</v>
+      </c>
+      <c r="U44">
+        <v>2.4</v>
+      </c>
+      <c r="V44">
+        <v>3.3</v>
+      </c>
+      <c r="W44">
+        <v>1.28</v>
+      </c>
+      <c r="X44">
+        <v>7.75</v>
+      </c>
+      <c r="Y44">
+        <v>1.05</v>
+      </c>
+      <c r="Z44">
+        <v>4.33</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
+      </c>
+      <c r="AB44">
+        <v>1.95</v>
+      </c>
+      <c r="AC44">
+        <v>1.08</v>
+      </c>
+      <c r="AD44">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE44">
+        <v>1.41</v>
+      </c>
+      <c r="AF44">
+        <v>2.69</v>
+      </c>
+      <c r="AG44">
+        <v>2.35</v>
+      </c>
+      <c r="AH44">
+        <v>1.57</v>
+      </c>
+      <c r="AI44">
+        <v>2.05</v>
+      </c>
+      <c r="AJ44">
+        <v>1.7</v>
+      </c>
+      <c r="AK44">
+        <v>1.75</v>
+      </c>
+      <c r="AL44">
+        <v>1.35</v>
+      </c>
+      <c r="AM44">
+        <v>1.28</v>
+      </c>
+      <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
+        <v>1.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.43</v>
+      </c>
+      <c r="AS44">
+        <v>1.6</v>
+      </c>
+      <c r="AT44">
+        <v>3.03</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>3</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
+        <v>2</v>
+      </c>
+      <c r="AY44">
+        <v>6</v>
+      </c>
+      <c r="AZ44">
+        <v>5</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
+        <v>6</v>
+      </c>
+      <c r="BD44">
+        <v>3.3</v>
+      </c>
+      <c r="BE44">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF44">
+        <v>1.47</v>
+      </c>
+      <c r="BG44">
+        <v>1.3</v>
+      </c>
+      <c r="BH44">
+        <v>3.08</v>
+      </c>
+      <c r="BI44">
+        <v>1.56</v>
+      </c>
+      <c r="BJ44">
+        <v>2.21</v>
+      </c>
+      <c r="BK44">
+        <v>2.38</v>
+      </c>
+      <c r="BL44">
+        <v>1.86</v>
+      </c>
+      <c r="BM44">
+        <v>2.57</v>
+      </c>
+      <c r="BN44">
+        <v>1.42</v>
+      </c>
+      <c r="BO44">
+        <v>3.48</v>
+      </c>
+      <c r="BP44">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,12 @@
     <t>['79', '85']</t>
   </si>
   <si>
+    <t>['18', '42', '75']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -449,6 +455,12 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['45+4', '77']</t>
+  </si>
+  <si>
+    <t>['87', '90']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1275,7 +1287,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1481,7 +1493,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1562,7 +1574,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2099,7 +2111,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2511,7 +2523,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2592,7 +2604,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2717,7 +2729,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2923,7 +2935,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3129,7 +3141,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3207,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3335,7 +3347,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3541,7 +3553,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3747,7 +3759,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3825,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -3953,7 +3965,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4365,7 +4377,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5189,7 +5201,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5270,7 +5282,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5807,7 +5819,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6013,7 +6025,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6219,7 +6231,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6425,7 +6437,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6837,7 +6849,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7249,7 +7261,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7327,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7455,7 +7467,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7739,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -7867,7 +7879,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8485,7 +8497,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8691,7 +8703,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9103,7 +9115,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9309,7 +9321,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9390,7 +9402,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -9596,7 +9608,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -9878,6 +9890,418 @@
       </c>
       <c r="BP44">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7450700</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45527.54166666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q45">
+        <v>2.63</v>
+      </c>
+      <c r="R45">
+        <v>2.3</v>
+      </c>
+      <c r="S45">
+        <v>3.75</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45">
+        <v>2.82</v>
+      </c>
+      <c r="V45">
+        <v>2.86</v>
+      </c>
+      <c r="W45">
+        <v>1.39</v>
+      </c>
+      <c r="X45">
+        <v>7.1</v>
+      </c>
+      <c r="Y45">
+        <v>1.08</v>
+      </c>
+      <c r="Z45">
+        <v>2.1</v>
+      </c>
+      <c r="AA45">
+        <v>3.7</v>
+      </c>
+      <c r="AB45">
+        <v>3.25</v>
+      </c>
+      <c r="AC45">
+        <v>1.06</v>
+      </c>
+      <c r="AD45">
+        <v>11.25</v>
+      </c>
+      <c r="AE45">
+        <v>1.31</v>
+      </c>
+      <c r="AF45">
+        <v>3.48</v>
+      </c>
+      <c r="AG45">
+        <v>1.7</v>
+      </c>
+      <c r="AH45">
+        <v>2.1</v>
+      </c>
+      <c r="AI45">
+        <v>1.62</v>
+      </c>
+      <c r="AJ45">
+        <v>2.2</v>
+      </c>
+      <c r="AK45">
+        <v>1.38</v>
+      </c>
+      <c r="AL45">
+        <v>1.32</v>
+      </c>
+      <c r="AM45">
+        <v>1.6</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>2.33</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1.15</v>
+      </c>
+      <c r="AS45">
+        <v>1.3</v>
+      </c>
+      <c r="AT45">
+        <v>2.45</v>
+      </c>
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>8</v>
+      </c>
+      <c r="AX45">
+        <v>2</v>
+      </c>
+      <c r="AY45">
+        <v>15</v>
+      </c>
+      <c r="AZ45">
+        <v>6</v>
+      </c>
+      <c r="BA45">
+        <v>7</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>11</v>
+      </c>
+      <c r="BD45">
+        <v>1.71</v>
+      </c>
+      <c r="BE45">
+        <v>6.65</v>
+      </c>
+      <c r="BF45">
+        <v>2.7</v>
+      </c>
+      <c r="BG45">
+        <v>1.25</v>
+      </c>
+      <c r="BH45">
+        <v>3.6</v>
+      </c>
+      <c r="BI45">
+        <v>1.42</v>
+      </c>
+      <c r="BJ45">
+        <v>2.62</v>
+      </c>
+      <c r="BK45">
+        <v>2.25</v>
+      </c>
+      <c r="BL45">
+        <v>2.05</v>
+      </c>
+      <c r="BM45">
+        <v>2.1</v>
+      </c>
+      <c r="BN45">
+        <v>1.67</v>
+      </c>
+      <c r="BO45">
+        <v>2.62</v>
+      </c>
+      <c r="BP45">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7450697</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45527.64583333334</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>2.38</v>
+      </c>
+      <c r="S46">
+        <v>2.2</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46">
+        <v>2.75</v>
+      </c>
+      <c r="V46">
+        <v>2.8</v>
+      </c>
+      <c r="W46">
+        <v>1.38</v>
+      </c>
+      <c r="X46">
+        <v>6.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>4.75</v>
+      </c>
+      <c r="AA46">
+        <v>4.33</v>
+      </c>
+      <c r="AB46">
+        <v>1.62</v>
+      </c>
+      <c r="AC46">
+        <v>1.05</v>
+      </c>
+      <c r="AD46">
+        <v>12</v>
+      </c>
+      <c r="AE46">
+        <v>1.32</v>
+      </c>
+      <c r="AF46">
+        <v>3.43</v>
+      </c>
+      <c r="AG46">
+        <v>1.67</v>
+      </c>
+      <c r="AH46">
+        <v>2.15</v>
+      </c>
+      <c r="AI46">
+        <v>1.75</v>
+      </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>2.2</v>
+      </c>
+      <c r="AL46">
+        <v>1.2</v>
+      </c>
+      <c r="AM46">
+        <v>1.14</v>
+      </c>
+      <c r="AN46">
+        <v>0.5</v>
+      </c>
+      <c r="AO46">
+        <v>2.33</v>
+      </c>
+      <c r="AP46">
+        <v>0.33</v>
+      </c>
+      <c r="AQ46">
+        <v>2.5</v>
+      </c>
+      <c r="AR46">
+        <v>1.21</v>
+      </c>
+      <c r="AS46">
+        <v>1.52</v>
+      </c>
+      <c r="AT46">
+        <v>2.73</v>
+      </c>
+      <c r="AU46">
+        <v>2</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46">
+        <v>6</v>
+      </c>
+      <c r="AY46">
+        <v>6</v>
+      </c>
+      <c r="AZ46">
+        <v>11</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>2</v>
+      </c>
+      <c r="BC46">
+        <v>7</v>
+      </c>
+      <c r="BD46">
+        <v>3.6</v>
+      </c>
+      <c r="BE46">
+        <v>8.5</v>
+      </c>
+      <c r="BF46">
+        <v>1.4</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>1.49</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>2.2</v>
+      </c>
+      <c r="BL46">
+        <v>1.95</v>
+      </c>
+      <c r="BM46">
+        <v>2.24</v>
+      </c>
+      <c r="BN46">
+        <v>1.62</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,9 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['26', '73', '78']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -461,6 +464,9 @@
   </si>
   <si>
     <t>['87', '90']</t>
+  </si>
+  <si>
+    <t>['20', '32']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1287,7 +1293,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1493,7 +1499,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1986,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2111,7 +2117,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2189,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -2398,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2523,7 +2529,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2601,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
         <v>2.5</v>
@@ -2729,7 +2735,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2935,7 +2941,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3016,7 +3022,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3141,7 +3147,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3347,7 +3353,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3553,7 +3559,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3759,7 +3765,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3965,7 +3971,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4249,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4377,7 +4383,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4870,7 +4876,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5201,7 +5207,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5819,7 +5825,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5897,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
         <v>0.67</v>
@@ -6025,7 +6031,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6231,7 +6237,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6309,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6437,7 +6443,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6518,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -6849,7 +6855,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7261,7 +7267,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7342,7 +7348,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7467,7 +7473,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7879,7 +7885,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -7957,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8497,7 +8503,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8703,7 +8709,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9115,7 +9121,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9321,7 +9327,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9939,7 +9945,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10145,7 +10151,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10302,6 +10308,624 @@
       </c>
       <c r="BP46">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7450698</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45528.40625</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>95</v>
+      </c>
+      <c r="P47" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47">
+        <v>2.75</v>
+      </c>
+      <c r="R47">
+        <v>2.1</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>1.45</v>
+      </c>
+      <c r="U47">
+        <v>2.6</v>
+      </c>
+      <c r="V47">
+        <v>2.95</v>
+      </c>
+      <c r="W47">
+        <v>1.35</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1.07</v>
+      </c>
+      <c r="Z47">
+        <v>2.1</v>
+      </c>
+      <c r="AA47">
+        <v>3.2</v>
+      </c>
+      <c r="AB47">
+        <v>3.7</v>
+      </c>
+      <c r="AC47">
+        <v>1.07</v>
+      </c>
+      <c r="AD47">
+        <v>9.75</v>
+      </c>
+      <c r="AE47">
+        <v>1.35</v>
+      </c>
+      <c r="AF47">
+        <v>3.22</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>1.8</v>
+      </c>
+      <c r="AI47">
+        <v>1.75</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>1.4</v>
+      </c>
+      <c r="AL47">
+        <v>1.28</v>
+      </c>
+      <c r="AM47">
+        <v>1.5</v>
+      </c>
+      <c r="AN47">
+        <v>0.5</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0.67</v>
+      </c>
+      <c r="AQ47">
+        <v>0.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.43</v>
+      </c>
+      <c r="AS47">
+        <v>0.98</v>
+      </c>
+      <c r="AT47">
+        <v>2.41</v>
+      </c>
+      <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>9</v>
+      </c>
+      <c r="AZ47">
+        <v>8</v>
+      </c>
+      <c r="BA47">
+        <v>6</v>
+      </c>
+      <c r="BB47">
+        <v>4</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>1.62</v>
+      </c>
+      <c r="BE47">
+        <v>7.7</v>
+      </c>
+      <c r="BF47">
+        <v>2.91</v>
+      </c>
+      <c r="BG47">
+        <v>1.22</v>
+      </c>
+      <c r="BH47">
+        <v>3.8</v>
+      </c>
+      <c r="BI47">
+        <v>1.33</v>
+      </c>
+      <c r="BJ47">
+        <v>2.93</v>
+      </c>
+      <c r="BK47">
+        <v>2.1</v>
+      </c>
+      <c r="BL47">
+        <v>2.17</v>
+      </c>
+      <c r="BM47">
+        <v>1.99</v>
+      </c>
+      <c r="BN47">
+        <v>1.73</v>
+      </c>
+      <c r="BO47">
+        <v>2.57</v>
+      </c>
+      <c r="BP47">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7450693</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45528.52083333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>122</v>
+      </c>
+      <c r="P48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q48">
+        <v>2.88</v>
+      </c>
+      <c r="R48">
+        <v>2.2</v>
+      </c>
+      <c r="S48">
+        <v>3.75</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.75</v>
+      </c>
+      <c r="V48">
+        <v>2.75</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.1</v>
+      </c>
+      <c r="Z48">
+        <v>2.15</v>
+      </c>
+      <c r="AA48">
+        <v>3.3</v>
+      </c>
+      <c r="AB48">
+        <v>3.3</v>
+      </c>
+      <c r="AC48">
+        <v>1.06</v>
+      </c>
+      <c r="AD48">
+        <v>11</v>
+      </c>
+      <c r="AE48">
+        <v>1.32</v>
+      </c>
+      <c r="AF48">
+        <v>3.45</v>
+      </c>
+      <c r="AG48">
+        <v>1.9</v>
+      </c>
+      <c r="AH48">
+        <v>1.9</v>
+      </c>
+      <c r="AI48">
+        <v>1.7</v>
+      </c>
+      <c r="AJ48">
+        <v>2.05</v>
+      </c>
+      <c r="AK48">
+        <v>1.35</v>
+      </c>
+      <c r="AL48">
+        <v>1.32</v>
+      </c>
+      <c r="AM48">
+        <v>1.65</v>
+      </c>
+      <c r="AN48">
+        <v>0.5</v>
+      </c>
+      <c r="AO48">
+        <v>1.33</v>
+      </c>
+      <c r="AP48">
+        <v>1.33</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>0.96</v>
+      </c>
+      <c r="AS48">
+        <v>1.34</v>
+      </c>
+      <c r="AT48">
+        <v>2.3</v>
+      </c>
+      <c r="AU48">
+        <v>6</v>
+      </c>
+      <c r="AV48">
+        <v>3</v>
+      </c>
+      <c r="AW48">
+        <v>11</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>17</v>
+      </c>
+      <c r="AZ48">
+        <v>6</v>
+      </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>8</v>
+      </c>
+      <c r="BD48">
+        <v>1.67</v>
+      </c>
+      <c r="BE48">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF48">
+        <v>2.71</v>
+      </c>
+      <c r="BG48">
+        <v>1.2</v>
+      </c>
+      <c r="BH48">
+        <v>3.9</v>
+      </c>
+      <c r="BI48">
+        <v>1.39</v>
+      </c>
+      <c r="BJ48">
+        <v>2.67</v>
+      </c>
+      <c r="BK48">
+        <v>2.25</v>
+      </c>
+      <c r="BL48">
+        <v>1.95</v>
+      </c>
+      <c r="BM48">
+        <v>2.12</v>
+      </c>
+      <c r="BN48">
+        <v>1.61</v>
+      </c>
+      <c r="BO48">
+        <v>2.84</v>
+      </c>
+      <c r="BP48">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7450699</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45528.63541666666</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P49" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q49">
+        <v>2.4</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.85</v>
+      </c>
+      <c r="V49">
+        <v>3.03</v>
+      </c>
+      <c r="W49">
+        <v>1.36</v>
+      </c>
+      <c r="X49">
+        <v>7.6</v>
+      </c>
+      <c r="Y49">
+        <v>1.07</v>
+      </c>
+      <c r="Z49">
+        <v>1.75</v>
+      </c>
+      <c r="AA49">
+        <v>3.5</v>
+      </c>
+      <c r="AB49">
+        <v>4.75</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>8.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.31</v>
+      </c>
+      <c r="AF49">
+        <v>3.04</v>
+      </c>
+      <c r="AG49">
+        <v>2.1</v>
+      </c>
+      <c r="AH49">
+        <v>1.7</v>
+      </c>
+      <c r="AI49">
+        <v>1.95</v>
+      </c>
+      <c r="AJ49">
+        <v>1.8</v>
+      </c>
+      <c r="AK49">
+        <v>1.19</v>
+      </c>
+      <c r="AL49">
+        <v>1.27</v>
+      </c>
+      <c r="AM49">
+        <v>1.98</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>0.5</v>
+      </c>
+      <c r="AP49">
+        <v>2.33</v>
+      </c>
+      <c r="AQ49">
+        <v>0.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.53</v>
+      </c>
+      <c r="AS49">
+        <v>1.29</v>
+      </c>
+      <c r="AT49">
+        <v>2.82</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>4</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>3</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>8</v>
+      </c>
+      <c r="BD49">
+        <v>1.47</v>
+      </c>
+      <c r="BE49">
+        <v>7.8</v>
+      </c>
+      <c r="BF49">
+        <v>3.55</v>
+      </c>
+      <c r="BG49">
+        <v>1.31</v>
+      </c>
+      <c r="BH49">
+        <v>3.04</v>
+      </c>
+      <c r="BI49">
+        <v>1.7</v>
+      </c>
+      <c r="BJ49">
+        <v>2.05</v>
+      </c>
+      <c r="BK49">
+        <v>1.95</v>
+      </c>
+      <c r="BL49">
+        <v>1.77</v>
+      </c>
+      <c r="BM49">
+        <v>2.6</v>
+      </c>
+      <c r="BN49">
+        <v>1.48</v>
+      </c>
+      <c r="BO49">
+        <v>3.56</v>
+      </c>
+      <c r="BP49">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -383,6 +383,15 @@
   </si>
   <si>
     <t>['26', '73', '78']</t>
+  </si>
+  <si>
+    <t>['2', '73', '90+7']</t>
+  </si>
+  <si>
+    <t>['55', '77']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -828,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1293,7 +1302,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1499,7 +1508,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1577,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2117,7 +2126,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2529,7 +2538,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2735,7 +2744,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2941,7 +2950,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3147,7 +3156,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3353,7 +3362,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3559,7 +3568,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3640,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3765,7 +3774,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3971,7 +3980,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4052,7 +4061,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4383,7 +4392,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4464,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5082,7 +5091,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5207,7 +5216,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5285,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>2.5</v>
@@ -5825,7 +5834,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6031,7 +6040,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6237,7 +6246,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6443,7 +6452,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6855,7 +6864,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7267,7 +7276,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7473,7 +7482,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7554,7 +7563,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -7885,7 +7894,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8375,7 +8384,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8503,7 +8512,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8709,7 +8718,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9121,7 +9130,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9327,7 +9336,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9945,7 +9954,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10151,7 +10160,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10563,7 +10572,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10926,6 +10935,624 @@
       </c>
       <c r="BP49">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7450694</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45529.40625</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q50">
+        <v>3.2</v>
+      </c>
+      <c r="R50">
+        <v>2.25</v>
+      </c>
+      <c r="S50">
+        <v>3.1</v>
+      </c>
+      <c r="T50">
+        <v>1.35</v>
+      </c>
+      <c r="U50">
+        <v>2.95</v>
+      </c>
+      <c r="V50">
+        <v>2.6</v>
+      </c>
+      <c r="W50">
+        <v>1.45</v>
+      </c>
+      <c r="X50">
+        <v>5.75</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>2.7</v>
+      </c>
+      <c r="AA50">
+        <v>3.3</v>
+      </c>
+      <c r="AB50">
+        <v>2.55</v>
+      </c>
+      <c r="AC50">
+        <v>1.05</v>
+      </c>
+      <c r="AD50">
+        <v>12.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.26</v>
+      </c>
+      <c r="AF50">
+        <v>3.93</v>
+      </c>
+      <c r="AG50">
+        <v>1.75</v>
+      </c>
+      <c r="AH50">
+        <v>2.05</v>
+      </c>
+      <c r="AI50">
+        <v>1.57</v>
+      </c>
+      <c r="AJ50">
+        <v>2.25</v>
+      </c>
+      <c r="AK50">
+        <v>1.65</v>
+      </c>
+      <c r="AL50">
+        <v>1.28</v>
+      </c>
+      <c r="AM50">
+        <v>1.33</v>
+      </c>
+      <c r="AN50">
+        <v>0.33</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>1.5</v>
+      </c>
+      <c r="AR50">
+        <v>1.73</v>
+      </c>
+      <c r="AS50">
+        <v>1.22</v>
+      </c>
+      <c r="AT50">
+        <v>2.95</v>
+      </c>
+      <c r="AU50">
+        <v>7</v>
+      </c>
+      <c r="AV50">
+        <v>6</v>
+      </c>
+      <c r="AW50">
+        <v>10</v>
+      </c>
+      <c r="AX50">
+        <v>1</v>
+      </c>
+      <c r="AY50">
+        <v>17</v>
+      </c>
+      <c r="AZ50">
+        <v>7</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>8</v>
+      </c>
+      <c r="BD50">
+        <v>1.97</v>
+      </c>
+      <c r="BE50">
+        <v>7.3</v>
+      </c>
+      <c r="BF50">
+        <v>2.2</v>
+      </c>
+      <c r="BG50">
+        <v>1.29</v>
+      </c>
+      <c r="BH50">
+        <v>3.14</v>
+      </c>
+      <c r="BI50">
+        <v>1.54</v>
+      </c>
+      <c r="BJ50">
+        <v>2.25</v>
+      </c>
+      <c r="BK50">
+        <v>2</v>
+      </c>
+      <c r="BL50">
+        <v>1.8</v>
+      </c>
+      <c r="BM50">
+        <v>2.54</v>
+      </c>
+      <c r="BN50">
+        <v>1.43</v>
+      </c>
+      <c r="BO50">
+        <v>3.48</v>
+      </c>
+      <c r="BP50">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7450696</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45529.52083333334</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q51">
+        <v>2.88</v>
+      </c>
+      <c r="R51">
+        <v>2.3</v>
+      </c>
+      <c r="S51">
+        <v>3.25</v>
+      </c>
+      <c r="T51">
+        <v>1.35</v>
+      </c>
+      <c r="U51">
+        <v>2.95</v>
+      </c>
+      <c r="V51">
+        <v>2.55</v>
+      </c>
+      <c r="W51">
+        <v>1.45</v>
+      </c>
+      <c r="X51">
+        <v>5.75</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>2.35</v>
+      </c>
+      <c r="AA51">
+        <v>3.5</v>
+      </c>
+      <c r="AB51">
+        <v>2.9</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>9.9</v>
+      </c>
+      <c r="AE51">
+        <v>1.21</v>
+      </c>
+      <c r="AF51">
+        <v>3.74</v>
+      </c>
+      <c r="AG51">
+        <v>1.65</v>
+      </c>
+      <c r="AH51">
+        <v>2.2</v>
+      </c>
+      <c r="AI51">
+        <v>1.53</v>
+      </c>
+      <c r="AJ51">
+        <v>2.38</v>
+      </c>
+      <c r="AK51">
+        <v>1.25</v>
+      </c>
+      <c r="AL51">
+        <v>1.3</v>
+      </c>
+      <c r="AM51">
+        <v>1.67</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>0.5</v>
+      </c>
+      <c r="AP51">
+        <v>3</v>
+      </c>
+      <c r="AQ51">
+        <v>0.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.7</v>
+      </c>
+      <c r="AS51">
+        <v>1.59</v>
+      </c>
+      <c r="AT51">
+        <v>3.29</v>
+      </c>
+      <c r="AU51">
+        <v>11</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>8</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>19</v>
+      </c>
+      <c r="AZ51">
+        <v>5</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>9</v>
+      </c>
+      <c r="BD51">
+        <v>1.72</v>
+      </c>
+      <c r="BE51">
+        <v>7.9</v>
+      </c>
+      <c r="BF51">
+        <v>2.62</v>
+      </c>
+      <c r="BG51">
+        <v>1.17</v>
+      </c>
+      <c r="BH51">
+        <v>4.2</v>
+      </c>
+      <c r="BI51">
+        <v>1.31</v>
+      </c>
+      <c r="BJ51">
+        <v>3.04</v>
+      </c>
+      <c r="BK51">
+        <v>2</v>
+      </c>
+      <c r="BL51">
+        <v>1.95</v>
+      </c>
+      <c r="BM51">
+        <v>2.05</v>
+      </c>
+      <c r="BN51">
+        <v>1.7</v>
+      </c>
+      <c r="BO51">
+        <v>2.51</v>
+      </c>
+      <c r="BP51">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7450701</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45529.63541666666</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q52">
+        <v>3.6</v>
+      </c>
+      <c r="R52">
+        <v>2.05</v>
+      </c>
+      <c r="S52">
+        <v>3.1</v>
+      </c>
+      <c r="T52">
+        <v>1.43</v>
+      </c>
+      <c r="U52">
+        <v>2.7</v>
+      </c>
+      <c r="V52">
+        <v>2.99</v>
+      </c>
+      <c r="W52">
+        <v>1.36</v>
+      </c>
+      <c r="X52">
+        <v>7.8</v>
+      </c>
+      <c r="Y52">
+        <v>1.06</v>
+      </c>
+      <c r="Z52">
+        <v>3</v>
+      </c>
+      <c r="AA52">
+        <v>3.2</v>
+      </c>
+      <c r="AB52">
+        <v>2.4</v>
+      </c>
+      <c r="AC52">
+        <v>1.07</v>
+      </c>
+      <c r="AD52">
+        <v>8</v>
+      </c>
+      <c r="AE52">
+        <v>1.36</v>
+      </c>
+      <c r="AF52">
+        <v>3.1</v>
+      </c>
+      <c r="AG52">
+        <v>2.15</v>
+      </c>
+      <c r="AH52">
+        <v>1.67</v>
+      </c>
+      <c r="AI52">
+        <v>1.91</v>
+      </c>
+      <c r="AJ52">
+        <v>1.91</v>
+      </c>
+      <c r="AK52">
+        <v>1.6</v>
+      </c>
+      <c r="AL52">
+        <v>1.35</v>
+      </c>
+      <c r="AM52">
+        <v>1.25</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1.67</v>
+      </c>
+      <c r="AR52">
+        <v>1.79</v>
+      </c>
+      <c r="AS52">
+        <v>1.15</v>
+      </c>
+      <c r="AT52">
+        <v>2.94</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>4</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>9</v>
+      </c>
+      <c r="AZ52">
+        <v>9</v>
+      </c>
+      <c r="BA52">
+        <v>1</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>5</v>
+      </c>
+      <c r="BD52">
+        <v>2.28</v>
+      </c>
+      <c r="BE52">
+        <v>7.5</v>
+      </c>
+      <c r="BF52">
+        <v>1.9</v>
+      </c>
+      <c r="BG52">
+        <v>1.36</v>
+      </c>
+      <c r="BH52">
+        <v>2.9</v>
+      </c>
+      <c r="BI52">
+        <v>1.7</v>
+      </c>
+      <c r="BJ52">
+        <v>2.05</v>
+      </c>
+      <c r="BK52">
+        <v>2.05</v>
+      </c>
+      <c r="BL52">
+        <v>1.7</v>
+      </c>
+      <c r="BM52">
+        <v>2.5</v>
+      </c>
+      <c r="BN52">
+        <v>1.48</v>
+      </c>
+      <c r="BO52">
+        <v>3.3</v>
+      </c>
+      <c r="BP52">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,9 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['49', '90+2']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -476,6 +479,9 @@
   </si>
   <si>
     <t>['20', '32']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,7 +1308,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1508,7 +1514,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2126,7 +2132,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2538,7 +2544,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2744,7 +2750,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2950,7 +2956,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3156,7 +3162,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3362,7 +3368,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3568,7 +3574,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3774,7 +3780,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3980,7 +3986,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4392,7 +4398,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4470,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -5216,7 +5222,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5834,7 +5840,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6040,7 +6046,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6246,7 +6252,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6452,7 +6458,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6864,7 +6870,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -6942,7 +6948,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>3</v>
@@ -7276,7 +7282,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7482,7 +7488,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7894,7 +7900,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8512,7 +8518,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8718,7 +8724,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9130,7 +9136,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9336,7 +9342,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9954,7 +9960,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10160,7 +10166,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10572,7 +10578,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10984,7 +10990,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11553,6 +11559,212 @@
       </c>
       <c r="BP52">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7450695</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>126</v>
+      </c>
+      <c r="P53" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q53">
+        <v>2.6</v>
+      </c>
+      <c r="R53">
+        <v>2.2</v>
+      </c>
+      <c r="S53">
+        <v>4.33</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.76</v>
+      </c>
+      <c r="V53">
+        <v>3.22</v>
+      </c>
+      <c r="W53">
+        <v>1.34</v>
+      </c>
+      <c r="X53">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>3.3</v>
+      </c>
+      <c r="AB53">
+        <v>3.6</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>7.9</v>
+      </c>
+      <c r="AE53">
+        <v>1.34</v>
+      </c>
+      <c r="AF53">
+        <v>2.88</v>
+      </c>
+      <c r="AG53">
+        <v>2.1</v>
+      </c>
+      <c r="AH53">
+        <v>1.7</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.91</v>
+      </c>
+      <c r="AK53">
+        <v>1.27</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.73</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>1.28</v>
+      </c>
+      <c r="AS53">
+        <v>0.96</v>
+      </c>
+      <c r="AT53">
+        <v>2.24</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>6</v>
+      </c>
+      <c r="AZ53">
+        <v>8</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>7</v>
+      </c>
+      <c r="BD53">
+        <v>1.47</v>
+      </c>
+      <c r="BE53">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF53">
+        <v>3.45</v>
+      </c>
+      <c r="BG53">
+        <v>1.3</v>
+      </c>
+      <c r="BH53">
+        <v>3.2</v>
+      </c>
+      <c r="BI53">
+        <v>1.5</v>
+      </c>
+      <c r="BJ53">
+        <v>2.4</v>
+      </c>
+      <c r="BK53">
+        <v>1.8</v>
+      </c>
+      <c r="BL53">
+        <v>1.91</v>
+      </c>
+      <c r="BM53">
+        <v>2.25</v>
+      </c>
+      <c r="BN53">
+        <v>1.57</v>
+      </c>
+      <c r="BO53">
+        <v>3</v>
+      </c>
+      <c r="BP53">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['32', '37']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2213,7 +2219,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2828,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3446,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3861,7 +3867,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4682,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -6127,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6742,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -8805,7 +8811,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9832,10 +9838,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -11765,6 +11771,418 @@
       </c>
       <c r="BP53">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7450709</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45534.54166666666</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q54">
+        <v>2.75</v>
+      </c>
+      <c r="R54">
+        <v>1.95</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>1.48</v>
+      </c>
+      <c r="U54">
+        <v>2.5</v>
+      </c>
+      <c r="V54">
+        <v>3.2</v>
+      </c>
+      <c r="W54">
+        <v>1.3</v>
+      </c>
+      <c r="X54">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>1.05</v>
+      </c>
+      <c r="Z54">
+        <v>1.91</v>
+      </c>
+      <c r="AA54">
+        <v>3.2</v>
+      </c>
+      <c r="AB54">
+        <v>4.33</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>1.4</v>
+      </c>
+      <c r="AF54">
+        <v>2.8</v>
+      </c>
+      <c r="AG54">
+        <v>2.5</v>
+      </c>
+      <c r="AH54">
+        <v>1.5</v>
+      </c>
+      <c r="AI54">
+        <v>2.2</v>
+      </c>
+      <c r="AJ54">
+        <v>1.62</v>
+      </c>
+      <c r="AK54">
+        <v>1.22</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.85</v>
+      </c>
+      <c r="AN54">
+        <v>0.5</v>
+      </c>
+      <c r="AO54">
+        <v>1.33</v>
+      </c>
+      <c r="AP54">
+        <v>0.33</v>
+      </c>
+      <c r="AQ54">
+        <v>1.75</v>
+      </c>
+      <c r="AR54">
+        <v>1.89</v>
+      </c>
+      <c r="AS54">
+        <v>1.45</v>
+      </c>
+      <c r="AT54">
+        <v>3.34</v>
+      </c>
+      <c r="AU54">
+        <v>2</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>2</v>
+      </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
+      <c r="AY54">
+        <v>4</v>
+      </c>
+      <c r="AZ54">
+        <v>10</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>6</v>
+      </c>
+      <c r="BD54">
+        <v>1.57</v>
+      </c>
+      <c r="BE54">
+        <v>6.65</v>
+      </c>
+      <c r="BF54">
+        <v>3.24</v>
+      </c>
+      <c r="BG54">
+        <v>1.3</v>
+      </c>
+      <c r="BH54">
+        <v>3</v>
+      </c>
+      <c r="BI54">
+        <v>1.56</v>
+      </c>
+      <c r="BJ54">
+        <v>2.18</v>
+      </c>
+      <c r="BK54">
+        <v>1.95</v>
+      </c>
+      <c r="BL54">
+        <v>1.77</v>
+      </c>
+      <c r="BM54">
+        <v>2.55</v>
+      </c>
+      <c r="BN54">
+        <v>1.41</v>
+      </c>
+      <c r="BO54">
+        <v>3.5</v>
+      </c>
+      <c r="BP54">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7450710</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45534.64583333334</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>95</v>
+      </c>
+      <c r="P55" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q55">
+        <v>4.75</v>
+      </c>
+      <c r="R55">
+        <v>2.1</v>
+      </c>
+      <c r="S55">
+        <v>2.6</v>
+      </c>
+      <c r="T55">
+        <v>1.34</v>
+      </c>
+      <c r="U55">
+        <v>3.16</v>
+      </c>
+      <c r="V55">
+        <v>2.7</v>
+      </c>
+      <c r="W55">
+        <v>1.44</v>
+      </c>
+      <c r="X55">
+        <v>5.8</v>
+      </c>
+      <c r="Y55">
+        <v>1.1</v>
+      </c>
+      <c r="Z55">
+        <v>4</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>1.91</v>
+      </c>
+      <c r="AC55">
+        <v>1.02</v>
+      </c>
+      <c r="AD55">
+        <v>10</v>
+      </c>
+      <c r="AE55">
+        <v>1.22</v>
+      </c>
+      <c r="AF55">
+        <v>3.8</v>
+      </c>
+      <c r="AG55">
+        <v>2.1</v>
+      </c>
+      <c r="AH55">
+        <v>1.7</v>
+      </c>
+      <c r="AI55">
+        <v>1.95</v>
+      </c>
+      <c r="AJ55">
+        <v>1.8</v>
+      </c>
+      <c r="AK55">
+        <v>1.77</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.28</v>
+      </c>
+      <c r="AN55">
+        <v>1.33</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1.75</v>
+      </c>
+      <c r="AR55">
+        <v>1.29</v>
+      </c>
+      <c r="AS55">
+        <v>1.25</v>
+      </c>
+      <c r="AT55">
+        <v>2.54</v>
+      </c>
+      <c r="AU55">
+        <v>2</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>7</v>
+      </c>
+      <c r="AX55">
+        <v>4</v>
+      </c>
+      <c r="AY55">
+        <v>9</v>
+      </c>
+      <c r="AZ55">
+        <v>8</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>4</v>
+      </c>
+      <c r="BC55">
+        <v>9</v>
+      </c>
+      <c r="BD55">
+        <v>3.48</v>
+      </c>
+      <c r="BE55">
+        <v>6.8</v>
+      </c>
+      <c r="BF55">
+        <v>1.51</v>
+      </c>
+      <c r="BG55">
+        <v>1.27</v>
+      </c>
+      <c r="BH55">
+        <v>3.2</v>
+      </c>
+      <c r="BI55">
+        <v>1.5</v>
+      </c>
+      <c r="BJ55">
+        <v>2.3</v>
+      </c>
+      <c r="BK55">
+        <v>2</v>
+      </c>
+      <c r="BL55">
+        <v>1.8</v>
+      </c>
+      <c r="BM55">
+        <v>2.43</v>
+      </c>
+      <c r="BN55">
+        <v>1.46</v>
+      </c>
+      <c r="BO55">
+        <v>3.3</v>
+      </c>
+      <c r="BP55">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,15 @@
     <t>['49', '90+2']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['5', '59']</t>
+  </si>
+  <si>
+    <t>['54', '82']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -466,9 +475,6 @@
     <t>['19']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['61']</t>
   </si>
   <si>
@@ -488,6 +494,12 @@
   </si>
   <si>
     <t>['32', '37']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['24', '28', '68']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,7 +1326,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1395,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1520,7 +1532,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1807,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2138,7 +2150,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2550,7 +2562,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2756,7 +2768,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2962,7 +2974,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3040,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3168,7 +3180,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3374,7 +3386,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3455,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -3580,7 +3592,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3658,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3786,7 +3798,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3992,7 +4004,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4070,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -4404,7 +4416,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4691,7 +4703,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4894,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -5100,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>0.33</v>
@@ -5228,7 +5240,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5721,7 +5733,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -5846,7 +5858,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5927,7 +5939,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6052,7 +6064,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6258,7 +6270,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6464,7 +6476,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6542,7 +6554,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6876,7 +6888,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -6957,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -7288,7 +7300,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7494,7 +7506,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7572,7 +7584,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7906,7 +7918,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -7987,7 +7999,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8190,10 +8202,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -8524,7 +8536,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8605,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -8730,7 +8742,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -8808,7 +8820,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9142,7 +9154,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9223,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>2.02</v>
@@ -9348,7 +9360,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9632,7 +9644,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>2.5</v>
@@ -9966,7 +9978,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10172,7 +10184,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10584,7 +10596,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10996,7 +11008,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11614,7 +11626,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11820,7 +11832,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12026,7 +12038,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12183,6 +12195,830 @@
       </c>
       <c r="BP55">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7450707</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45535.40625</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>95</v>
+      </c>
+      <c r="P56" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q56">
+        <v>3.1</v>
+      </c>
+      <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>3.6</v>
+      </c>
+      <c r="T56">
+        <v>1.41</v>
+      </c>
+      <c r="U56">
+        <v>2.86</v>
+      </c>
+      <c r="V56">
+        <v>3.08</v>
+      </c>
+      <c r="W56">
+        <v>1.37</v>
+      </c>
+      <c r="X56">
+        <v>7</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>2.4</v>
+      </c>
+      <c r="AA56">
+        <v>3.2</v>
+      </c>
+      <c r="AB56">
+        <v>3</v>
+      </c>
+      <c r="AC56">
+        <v>1.07</v>
+      </c>
+      <c r="AD56">
+        <v>6.8</v>
+      </c>
+      <c r="AE56">
+        <v>1.28</v>
+      </c>
+      <c r="AF56">
+        <v>3.3</v>
+      </c>
+      <c r="AG56">
+        <v>2.1</v>
+      </c>
+      <c r="AH56">
+        <v>1.7</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.95</v>
+      </c>
+      <c r="AK56">
+        <v>1.35</v>
+      </c>
+      <c r="AL56">
+        <v>1.28</v>
+      </c>
+      <c r="AM56">
+        <v>1.6</v>
+      </c>
+      <c r="AN56">
+        <v>1.67</v>
+      </c>
+      <c r="AO56">
+        <v>0.67</v>
+      </c>
+      <c r="AP56">
+        <v>1.5</v>
+      </c>
+      <c r="AQ56">
+        <v>0.75</v>
+      </c>
+      <c r="AR56">
+        <v>1.6</v>
+      </c>
+      <c r="AS56">
+        <v>1.55</v>
+      </c>
+      <c r="AT56">
+        <v>3.15</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>7</v>
+      </c>
+      <c r="AZ56">
+        <v>10</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>10</v>
+      </c>
+      <c r="BC56">
+        <v>12</v>
+      </c>
+      <c r="BD56">
+        <v>2.2</v>
+      </c>
+      <c r="BE56">
+        <v>8</v>
+      </c>
+      <c r="BF56">
+        <v>1.91</v>
+      </c>
+      <c r="BG56">
+        <v>1.21</v>
+      </c>
+      <c r="BH56">
+        <v>3.7</v>
+      </c>
+      <c r="BI56">
+        <v>1.4</v>
+      </c>
+      <c r="BJ56">
+        <v>2.6</v>
+      </c>
+      <c r="BK56">
+        <v>2.2</v>
+      </c>
+      <c r="BL56">
+        <v>1.91</v>
+      </c>
+      <c r="BM56">
+        <v>2.15</v>
+      </c>
+      <c r="BN56">
+        <v>1.58</v>
+      </c>
+      <c r="BO56">
+        <v>2.85</v>
+      </c>
+      <c r="BP56">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7450704</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45535.52083333334</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>127</v>
+      </c>
+      <c r="P57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q57">
+        <v>2.88</v>
+      </c>
+      <c r="R57">
+        <v>2.1</v>
+      </c>
+      <c r="S57">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>1.4</v>
+      </c>
+      <c r="U57">
+        <v>2.75</v>
+      </c>
+      <c r="V57">
+        <v>2.7</v>
+      </c>
+      <c r="W57">
+        <v>1.37</v>
+      </c>
+      <c r="X57">
+        <v>6.5</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>2.15</v>
+      </c>
+      <c r="AA57">
+        <v>3.3</v>
+      </c>
+      <c r="AB57">
+        <v>3.3</v>
+      </c>
+      <c r="AC57">
+        <v>1.03</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.3</v>
+      </c>
+      <c r="AF57">
+        <v>3.3</v>
+      </c>
+      <c r="AG57">
+        <v>2</v>
+      </c>
+      <c r="AH57">
+        <v>1.8</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>1.95</v>
+      </c>
+      <c r="AK57">
+        <v>1.25</v>
+      </c>
+      <c r="AL57">
+        <v>1.25</v>
+      </c>
+      <c r="AM57">
+        <v>1.65</v>
+      </c>
+      <c r="AN57">
+        <v>1.33</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>1.75</v>
+      </c>
+      <c r="AQ57">
+        <v>1.33</v>
+      </c>
+      <c r="AR57">
+        <v>1.6</v>
+      </c>
+      <c r="AS57">
+        <v>0.97</v>
+      </c>
+      <c r="AT57">
+        <v>2.57</v>
+      </c>
+      <c r="AU57">
+        <v>5</v>
+      </c>
+      <c r="AV57">
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>9</v>
+      </c>
+      <c r="AY57">
+        <v>10</v>
+      </c>
+      <c r="AZ57">
+        <v>16</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>8</v>
+      </c>
+      <c r="BC57">
+        <v>11</v>
+      </c>
+      <c r="BD57">
+        <v>1.62</v>
+      </c>
+      <c r="BE57">
+        <v>8.1</v>
+      </c>
+      <c r="BF57">
+        <v>2.86</v>
+      </c>
+      <c r="BG57">
+        <v>1.25</v>
+      </c>
+      <c r="BH57">
+        <v>3.3</v>
+      </c>
+      <c r="BI57">
+        <v>1.48</v>
+      </c>
+      <c r="BJ57">
+        <v>2.38</v>
+      </c>
+      <c r="BK57">
+        <v>1.92</v>
+      </c>
+      <c r="BL57">
+        <v>1.88</v>
+      </c>
+      <c r="BM57">
+        <v>2.35</v>
+      </c>
+      <c r="BN57">
+        <v>1.49</v>
+      </c>
+      <c r="BO57">
+        <v>3.15</v>
+      </c>
+      <c r="BP57">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7450708</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45535.63541666666</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>128</v>
+      </c>
+      <c r="P58" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q58">
+        <v>3.1</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>3.4</v>
+      </c>
+      <c r="T58">
+        <v>1.38</v>
+      </c>
+      <c r="U58">
+        <v>2.85</v>
+      </c>
+      <c r="V58">
+        <v>2.7</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>6.25</v>
+      </c>
+      <c r="Y58">
+        <v>1.09</v>
+      </c>
+      <c r="Z58">
+        <v>2.5</v>
+      </c>
+      <c r="AA58">
+        <v>3.2</v>
+      </c>
+      <c r="AB58">
+        <v>2.8</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.29</v>
+      </c>
+      <c r="AF58">
+        <v>3.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.95</v>
+      </c>
+      <c r="AH58">
+        <v>1.85</v>
+      </c>
+      <c r="AI58">
+        <v>1.7</v>
+      </c>
+      <c r="AJ58">
+        <v>2.05</v>
+      </c>
+      <c r="AK58">
+        <v>1.4</v>
+      </c>
+      <c r="AL58">
+        <v>1.33</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>3</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>2.25</v>
+      </c>
+      <c r="AR58">
+        <v>1.71</v>
+      </c>
+      <c r="AS58">
+        <v>1.21</v>
+      </c>
+      <c r="AT58">
+        <v>2.92</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>11</v>
+      </c>
+      <c r="AY58">
+        <v>9</v>
+      </c>
+      <c r="AZ58">
+        <v>15</v>
+      </c>
+      <c r="BA58">
+        <v>2</v>
+      </c>
+      <c r="BB58">
+        <v>6</v>
+      </c>
+      <c r="BC58">
+        <v>8</v>
+      </c>
+      <c r="BD58">
+        <v>1.84</v>
+      </c>
+      <c r="BE58">
+        <v>7.7</v>
+      </c>
+      <c r="BF58">
+        <v>2.4</v>
+      </c>
+      <c r="BG58">
+        <v>1.25</v>
+      </c>
+      <c r="BH58">
+        <v>3.6</v>
+      </c>
+      <c r="BI58">
+        <v>1.44</v>
+      </c>
+      <c r="BJ58">
+        <v>2.6</v>
+      </c>
+      <c r="BK58">
+        <v>2.25</v>
+      </c>
+      <c r="BL58">
+        <v>2</v>
+      </c>
+      <c r="BM58">
+        <v>2.18</v>
+      </c>
+      <c r="BN58">
+        <v>1.66</v>
+      </c>
+      <c r="BO58">
+        <v>2.7</v>
+      </c>
+      <c r="BP58">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7450702</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45536.30208333334</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59" t="s">
+        <v>129</v>
+      </c>
+      <c r="P59" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q59">
+        <v>2.5</v>
+      </c>
+      <c r="R59">
+        <v>2.3</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>1.35</v>
+      </c>
+      <c r="U59">
+        <v>3.04</v>
+      </c>
+      <c r="V59">
+        <v>2.6</v>
+      </c>
+      <c r="W59">
+        <v>1.46</v>
+      </c>
+      <c r="X59">
+        <v>6.35</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>1.9</v>
+      </c>
+      <c r="AA59">
+        <v>3.6</v>
+      </c>
+      <c r="AB59">
+        <v>3.9</v>
+      </c>
+      <c r="AC59">
+        <v>1.03</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.25</v>
+      </c>
+      <c r="AF59">
+        <v>3.75</v>
+      </c>
+      <c r="AG59">
+        <v>1.67</v>
+      </c>
+      <c r="AH59">
+        <v>2.15</v>
+      </c>
+      <c r="AI59">
+        <v>1.62</v>
+      </c>
+      <c r="AJ59">
+        <v>2.2</v>
+      </c>
+      <c r="AK59">
+        <v>1.22</v>
+      </c>
+      <c r="AL59">
+        <v>1.22</v>
+      </c>
+      <c r="AM59">
+        <v>1.95</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>0.33</v>
+      </c>
+      <c r="AP59">
+        <v>1.33</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>1.38</v>
+      </c>
+      <c r="AS59">
+        <v>1.06</v>
+      </c>
+      <c r="AT59">
+        <v>2.44</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>13</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>18</v>
+      </c>
+      <c r="AZ59">
+        <v>8</v>
+      </c>
+      <c r="BA59">
+        <v>8</v>
+      </c>
+      <c r="BB59">
+        <v>6</v>
+      </c>
+      <c r="BC59">
+        <v>14</v>
+      </c>
+      <c r="BD59">
+        <v>1.62</v>
+      </c>
+      <c r="BE59">
+        <v>7.7</v>
+      </c>
+      <c r="BF59">
+        <v>2.91</v>
+      </c>
+      <c r="BG59">
+        <v>1.21</v>
+      </c>
+      <c r="BH59">
+        <v>3.7</v>
+      </c>
+      <c r="BI59">
+        <v>1.4</v>
+      </c>
+      <c r="BJ59">
+        <v>2.6</v>
+      </c>
+      <c r="BK59">
+        <v>2.2</v>
+      </c>
+      <c r="BL59">
+        <v>1.95</v>
+      </c>
+      <c r="BM59">
+        <v>2.15</v>
+      </c>
+      <c r="BN59">
+        <v>1.58</v>
+      </c>
+      <c r="BO59">
+        <v>2.85</v>
+      </c>
+      <c r="BP59">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,15 @@
     <t>['54', '82']</t>
   </si>
   <si>
+    <t>['30', '36', '48', '69', '90+2']</t>
+  </si>
+  <si>
+    <t>['9', '21', '41', '66', '90']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -500,6 +509,12 @@
   </si>
   <si>
     <t>['24', '28', '68']</t>
+  </si>
+  <si>
+    <t>['9', '90']</t>
+  </si>
+  <si>
+    <t>['32', '37', '82']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -1326,7 +1341,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1532,7 +1547,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2022,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -2150,7 +2165,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2562,7 +2577,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2768,7 +2783,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2849,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2974,7 +2989,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3180,7 +3195,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3261,7 +3276,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3386,7 +3401,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3592,7 +3607,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3798,7 +3813,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4004,7 +4019,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4291,7 +4306,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4416,7 +4431,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5240,7 +5255,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5524,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5858,7 +5873,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6064,7 +6079,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6142,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ26">
         <v>1.75</v>
@@ -6270,7 +6285,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6351,7 +6366,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0.72</v>
@@ -6476,7 +6491,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6888,7 +6903,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7300,7 +7315,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7506,7 +7521,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7793,7 +7808,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -7918,7 +7933,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8411,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -8536,7 +8551,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8614,7 +8629,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38">
         <v>2.25</v>
@@ -8742,7 +8757,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9029,7 +9044,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9360,7 +9375,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9438,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9978,7 +9993,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10184,7 +10199,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10596,7 +10611,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11008,7 +11023,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11626,7 +11641,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11832,7 +11847,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12038,7 +12053,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12656,7 +12671,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12862,7 +12877,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -12955,22 +12970,22 @@
         <v>2.44</v>
       </c>
       <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
+        <v>11</v>
+      </c>
+      <c r="AX59">
         <v>5</v>
       </c>
-      <c r="AV59">
-        <v>4</v>
-      </c>
-      <c r="AW59">
-        <v>13</v>
-      </c>
-      <c r="AX59">
-        <v>4</v>
-      </c>
       <c r="AY59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA59">
         <v>8</v>
@@ -13019,6 +13034,624 @@
       </c>
       <c r="BP59">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7450705</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45536.40625</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>7</v>
+      </c>
+      <c r="O60" t="s">
+        <v>130</v>
+      </c>
+      <c r="P60" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q60">
+        <v>2.2</v>
+      </c>
+      <c r="R60">
+        <v>2.25</v>
+      </c>
+      <c r="S60">
+        <v>5.5</v>
+      </c>
+      <c r="T60">
+        <v>1.35</v>
+      </c>
+      <c r="U60">
+        <v>3.04</v>
+      </c>
+      <c r="V60">
+        <v>2.74</v>
+      </c>
+      <c r="W60">
+        <v>1.42</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.09</v>
+      </c>
+      <c r="Z60">
+        <v>1.6</v>
+      </c>
+      <c r="AA60">
+        <v>4</v>
+      </c>
+      <c r="AB60">
+        <v>5.5</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>12.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.29</v>
+      </c>
+      <c r="AF60">
+        <v>3.62</v>
+      </c>
+      <c r="AG60">
+        <v>1.85</v>
+      </c>
+      <c r="AH60">
+        <v>1.95</v>
+      </c>
+      <c r="AI60">
+        <v>1.91</v>
+      </c>
+      <c r="AJ60">
+        <v>1.91</v>
+      </c>
+      <c r="AK60">
+        <v>1.1</v>
+      </c>
+      <c r="AL60">
+        <v>1.16</v>
+      </c>
+      <c r="AM60">
+        <v>2.6</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>2.25</v>
+      </c>
+      <c r="AQ60">
+        <v>1.33</v>
+      </c>
+      <c r="AR60">
+        <v>1.47</v>
+      </c>
+      <c r="AS60">
+        <v>1.48</v>
+      </c>
+      <c r="AT60">
+        <v>2.95</v>
+      </c>
+      <c r="AU60">
+        <v>11</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>11</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>1.36</v>
+      </c>
+      <c r="BE60">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF60">
+        <v>4.26</v>
+      </c>
+      <c r="BG60">
+        <v>1.27</v>
+      </c>
+      <c r="BH60">
+        <v>3.2</v>
+      </c>
+      <c r="BI60">
+        <v>1.5</v>
+      </c>
+      <c r="BJ60">
+        <v>2.3</v>
+      </c>
+      <c r="BK60">
+        <v>2</v>
+      </c>
+      <c r="BL60">
+        <v>1.8</v>
+      </c>
+      <c r="BM60">
+        <v>2.43</v>
+      </c>
+      <c r="BN60">
+        <v>1.46</v>
+      </c>
+      <c r="BO60">
+        <v>3.3</v>
+      </c>
+      <c r="BP60">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7450706</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45536.52083333334</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>8</v>
+      </c>
+      <c r="O61" t="s">
+        <v>131</v>
+      </c>
+      <c r="P61" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q61">
+        <v>2.63</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>3.75</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <v>1.1</v>
+      </c>
+      <c r="Z61">
+        <v>1.7</v>
+      </c>
+      <c r="AA61">
+        <v>3.7</v>
+      </c>
+      <c r="AB61">
+        <v>4.2</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>1.2</v>
+      </c>
+      <c r="AF61">
+        <v>4</v>
+      </c>
+      <c r="AG61">
+        <v>1.75</v>
+      </c>
+      <c r="AH61">
+        <v>1.95</v>
+      </c>
+      <c r="AI61">
+        <v>1.67</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>1.2</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>2.03</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>0.5</v>
+      </c>
+      <c r="AP61">
+        <v>3</v>
+      </c>
+      <c r="AQ61">
+        <v>0.33</v>
+      </c>
+      <c r="AR61">
+        <v>1.79</v>
+      </c>
+      <c r="AS61">
+        <v>1.14</v>
+      </c>
+      <c r="AT61">
+        <v>2.93</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>5</v>
+      </c>
+      <c r="AX61">
+        <v>5</v>
+      </c>
+      <c r="AY61">
+        <v>11</v>
+      </c>
+      <c r="AZ61">
+        <v>11</v>
+      </c>
+      <c r="BA61">
+        <v>6</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>10</v>
+      </c>
+      <c r="BD61">
+        <v>1.39</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>4.06</v>
+      </c>
+      <c r="BG61">
+        <v>1.21</v>
+      </c>
+      <c r="BH61">
+        <v>3.7</v>
+      </c>
+      <c r="BI61">
+        <v>1.4</v>
+      </c>
+      <c r="BJ61">
+        <v>2.6</v>
+      </c>
+      <c r="BK61">
+        <v>2.1</v>
+      </c>
+      <c r="BL61">
+        <v>1.96</v>
+      </c>
+      <c r="BM61">
+        <v>2.05</v>
+      </c>
+      <c r="BN61">
+        <v>1.7</v>
+      </c>
+      <c r="BO61">
+        <v>2.85</v>
+      </c>
+      <c r="BP61">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7450703</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45536.63541666666</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>132</v>
+      </c>
+      <c r="P62" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q62">
+        <v>2.3</v>
+      </c>
+      <c r="R62">
+        <v>2.4</v>
+      </c>
+      <c r="S62">
+        <v>4</v>
+      </c>
+      <c r="T62">
+        <v>1.29</v>
+      </c>
+      <c r="U62">
+        <v>3.5</v>
+      </c>
+      <c r="V62">
+        <v>2.25</v>
+      </c>
+      <c r="W62">
+        <v>1.57</v>
+      </c>
+      <c r="X62">
+        <v>5.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.14</v>
+      </c>
+      <c r="Z62">
+        <v>1.67</v>
+      </c>
+      <c r="AA62">
+        <v>4</v>
+      </c>
+      <c r="AB62">
+        <v>4</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>13</v>
+      </c>
+      <c r="AE62">
+        <v>1.13</v>
+      </c>
+      <c r="AF62">
+        <v>4.75</v>
+      </c>
+      <c r="AG62">
+        <v>1.53</v>
+      </c>
+      <c r="AH62">
+        <v>2.35</v>
+      </c>
+      <c r="AI62">
+        <v>1.53</v>
+      </c>
+      <c r="AJ62">
+        <v>2.38</v>
+      </c>
+      <c r="AK62">
+        <v>1.22</v>
+      </c>
+      <c r="AL62">
+        <v>1.23</v>
+      </c>
+      <c r="AM62">
+        <v>2</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>1.33</v>
+      </c>
+      <c r="AP62">
+        <v>2.25</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1.9</v>
+      </c>
+      <c r="AS62">
+        <v>1.15</v>
+      </c>
+      <c r="AT62">
+        <v>3.05</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>2</v>
+      </c>
+      <c r="AX62">
+        <v>5</v>
+      </c>
+      <c r="AY62">
+        <v>7</v>
+      </c>
+      <c r="AZ62">
+        <v>9</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>9</v>
+      </c>
+      <c r="BC62">
+        <v>13</v>
+      </c>
+      <c r="BD62">
+        <v>1.62</v>
+      </c>
+      <c r="BE62">
+        <v>7.7</v>
+      </c>
+      <c r="BF62">
+        <v>2.91</v>
+      </c>
+      <c r="BG62">
+        <v>1.25</v>
+      </c>
+      <c r="BH62">
+        <v>3.3</v>
+      </c>
+      <c r="BI62">
+        <v>1.48</v>
+      </c>
+      <c r="BJ62">
+        <v>2.38</v>
+      </c>
+      <c r="BK62">
+        <v>2.1</v>
+      </c>
+      <c r="BL62">
+        <v>1.88</v>
+      </c>
+      <c r="BM62">
+        <v>2.35</v>
+      </c>
+      <c r="BN62">
+        <v>1.49</v>
+      </c>
+      <c r="BO62">
+        <v>3.15</v>
+      </c>
+      <c r="BP62">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -13609,10 +13609,10 @@
         <v>4</v>
       </c>
       <c r="BB62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD62">
         <v>1.62</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,12 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['38', '42']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -515,6 +521,9 @@
   </si>
   <si>
     <t>['32', '37', '82']</t>
+  </si>
+  <si>
+    <t>['13', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,7 +1350,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1547,7 +1556,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2165,7 +2174,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2452,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2577,7 +2586,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2655,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>2.5</v>
@@ -2783,7 +2792,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2989,7 +2998,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3070,7 +3079,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3195,7 +3204,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3401,7 +3410,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3607,7 +3616,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3813,7 +3822,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4019,7 +4028,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4431,7 +4440,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5255,7 +5264,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5873,7 +5882,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5951,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6079,7 +6088,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6285,7 +6294,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6491,7 +6500,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6572,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -6903,7 +6912,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7315,7 +7324,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7521,7 +7530,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7933,7 +7942,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8551,7 +8560,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8757,7 +8766,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9375,7 +9384,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9993,7 +10002,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10199,7 +10208,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10483,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10611,7 +10620,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10692,7 +10701,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>0.96</v>
@@ -11023,7 +11032,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11641,7 +11650,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11847,7 +11856,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12053,7 +12062,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12671,7 +12680,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12877,7 +12886,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13083,7 +13092,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13289,7 +13298,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13652,6 +13661,418 @@
       </c>
       <c r="BP62">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7450717</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45548.54166666666</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q63">
+        <v>2.63</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
+        <v>4.33</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>2.88</v>
+      </c>
+      <c r="V63">
+        <v>2.62</v>
+      </c>
+      <c r="W63">
+        <v>1.42</v>
+      </c>
+      <c r="X63">
+        <v>5.75</v>
+      </c>
+      <c r="Y63">
+        <v>1.1</v>
+      </c>
+      <c r="Z63">
+        <v>2</v>
+      </c>
+      <c r="AA63">
+        <v>3.5</v>
+      </c>
+      <c r="AB63">
+        <v>3.6</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>9</v>
+      </c>
+      <c r="AE63">
+        <v>1.25</v>
+      </c>
+      <c r="AF63">
+        <v>3.75</v>
+      </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
+      <c r="AH63">
+        <v>1.8</v>
+      </c>
+      <c r="AI63">
+        <v>1.8</v>
+      </c>
+      <c r="AJ63">
+        <v>1.95</v>
+      </c>
+      <c r="AK63">
+        <v>1.5</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>1.42</v>
+      </c>
+      <c r="AN63">
+        <v>0.67</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>1.25</v>
+      </c>
+      <c r="AQ63">
+        <v>0.8</v>
+      </c>
+      <c r="AR63">
+        <v>1.38</v>
+      </c>
+      <c r="AS63">
+        <v>1.22</v>
+      </c>
+      <c r="AT63">
+        <v>2.6</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>10</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>14</v>
+      </c>
+      <c r="AZ63">
+        <v>10</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>1</v>
+      </c>
+      <c r="BC63">
+        <v>7</v>
+      </c>
+      <c r="BD63">
+        <v>1.64</v>
+      </c>
+      <c r="BE63">
+        <v>8.5</v>
+      </c>
+      <c r="BF63">
+        <v>2.66</v>
+      </c>
+      <c r="BG63">
+        <v>1.25</v>
+      </c>
+      <c r="BH63">
+        <v>3.6</v>
+      </c>
+      <c r="BI63">
+        <v>1.42</v>
+      </c>
+      <c r="BJ63">
+        <v>2.62</v>
+      </c>
+      <c r="BK63">
+        <v>2.2</v>
+      </c>
+      <c r="BL63">
+        <v>2.1</v>
+      </c>
+      <c r="BM63">
+        <v>2.05</v>
+      </c>
+      <c r="BN63">
+        <v>1.7</v>
+      </c>
+      <c r="BO63">
+        <v>2.62</v>
+      </c>
+      <c r="BP63">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7450712</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45548.64583333334</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>82</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q64">
+        <v>2.88</v>
+      </c>
+      <c r="R64">
+        <v>2.2</v>
+      </c>
+      <c r="S64">
+        <v>3.6</v>
+      </c>
+      <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.7</v>
+      </c>
+      <c r="V64">
+        <v>2.8</v>
+      </c>
+      <c r="W64">
+        <v>1.38</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.07</v>
+      </c>
+      <c r="Z64">
+        <v>2.2</v>
+      </c>
+      <c r="AA64">
+        <v>3.6</v>
+      </c>
+      <c r="AB64">
+        <v>3</v>
+      </c>
+      <c r="AC64">
+        <v>1.06</v>
+      </c>
+      <c r="AD64">
+        <v>8.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.33</v>
+      </c>
+      <c r="AF64">
+        <v>3.3</v>
+      </c>
+      <c r="AG64">
+        <v>1.9</v>
+      </c>
+      <c r="AH64">
+        <v>1.9</v>
+      </c>
+      <c r="AI64">
+        <v>1.75</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1.45</v>
+      </c>
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
+        <v>1.48</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1.8</v>
+      </c>
+      <c r="AS64">
+        <v>1.17</v>
+      </c>
+      <c r="AT64">
+        <v>2.97</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>8</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>13</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>9</v>
+      </c>
+      <c r="BD64">
+        <v>1.85</v>
+      </c>
+      <c r="BE64">
+        <v>7.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.29</v>
+      </c>
+      <c r="BG64">
+        <v>1.38</v>
+      </c>
+      <c r="BH64">
+        <v>2.8</v>
+      </c>
+      <c r="BI64">
+        <v>1.65</v>
+      </c>
+      <c r="BJ64">
+        <v>2.1</v>
+      </c>
+      <c r="BK64">
+        <v>2.1</v>
+      </c>
+      <c r="BL64">
+        <v>1.67</v>
+      </c>
+      <c r="BM64">
+        <v>2.62</v>
+      </c>
+      <c r="BN64">
+        <v>1.42</v>
+      </c>
+      <c r="BO64">
+        <v>3.4</v>
+      </c>
+      <c r="BP64">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,15 @@
     <t>['38', '42']</t>
   </si>
   <si>
+    <t>['20', '90']</t>
+  </si>
+  <si>
+    <t>['25', '41', '81', '87', '90+3']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -524,6 +533,9 @@
   </si>
   <si>
     <t>['13', '90+2']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1237,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1350,7 +1362,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1556,7 +1568,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1637,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2174,7 +2186,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2252,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2586,7 +2598,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2792,7 +2804,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2998,7 +3010,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3204,7 +3216,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3282,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3410,7 +3422,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3616,7 +3628,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3697,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3822,7 +3834,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4028,7 +4040,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4109,7 +4121,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4312,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -4440,7 +4452,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4933,7 +4945,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5139,7 +5151,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5264,7 +5276,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5882,7 +5894,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6088,7 +6100,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6294,7 +6306,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6372,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6500,7 +6512,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6912,7 +6924,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7324,7 +7336,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7402,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>0.33</v>
@@ -7530,7 +7542,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7942,7 +7954,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8020,7 +8032,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8560,7 +8572,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8766,7 +8778,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9384,7 +9396,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9465,7 +9477,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10002,7 +10014,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10083,7 +10095,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.15</v>
@@ -10208,7 +10220,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10286,7 +10298,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10495,7 +10507,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10620,7 +10632,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10698,7 +10710,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -10904,7 +10916,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0.33</v>
@@ -11032,7 +11044,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11113,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -11319,7 +11331,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR51">
         <v>1.7</v>
@@ -11650,7 +11662,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11856,7 +11868,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12062,7 +12074,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12680,7 +12692,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12886,7 +12898,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13092,7 +13104,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13298,7 +13310,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13916,7 +13928,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14073,6 +14085,830 @@
       </c>
       <c r="BP64">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7450715</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45549.40625</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>2.25</v>
+      </c>
+      <c r="S65">
+        <v>3.25</v>
+      </c>
+      <c r="T65">
+        <v>1.3</v>
+      </c>
+      <c r="U65">
+        <v>3.2</v>
+      </c>
+      <c r="V65">
+        <v>2.4</v>
+      </c>
+      <c r="W65">
+        <v>1.5</v>
+      </c>
+      <c r="X65">
+        <v>5.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.11</v>
+      </c>
+      <c r="Z65">
+        <v>2.4</v>
+      </c>
+      <c r="AA65">
+        <v>3.5</v>
+      </c>
+      <c r="AB65">
+        <v>2.75</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>14.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.23</v>
+      </c>
+      <c r="AF65">
+        <v>4.28</v>
+      </c>
+      <c r="AG65">
+        <v>1.75</v>
+      </c>
+      <c r="AH65">
+        <v>2.05</v>
+      </c>
+      <c r="AI65">
+        <v>1.57</v>
+      </c>
+      <c r="AJ65">
+        <v>2.25</v>
+      </c>
+      <c r="AK65">
+        <v>1.45</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.5</v>
+      </c>
+      <c r="AN65">
+        <v>0.33</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>0.75</v>
+      </c>
+      <c r="AR65">
+        <v>1.09</v>
+      </c>
+      <c r="AS65">
+        <v>1.23</v>
+      </c>
+      <c r="AT65">
+        <v>2.32</v>
+      </c>
+      <c r="AU65">
+        <v>9</v>
+      </c>
+      <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>3</v>
+      </c>
+      <c r="AX65">
+        <v>10</v>
+      </c>
+      <c r="AY65">
+        <v>12</v>
+      </c>
+      <c r="AZ65">
+        <v>16</v>
+      </c>
+      <c r="BA65">
+        <v>11</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>13</v>
+      </c>
+      <c r="BD65">
+        <v>2.17</v>
+      </c>
+      <c r="BE65">
+        <v>7.2</v>
+      </c>
+      <c r="BF65">
+        <v>2</v>
+      </c>
+      <c r="BG65">
+        <v>1.25</v>
+      </c>
+      <c r="BH65">
+        <v>3.42</v>
+      </c>
+      <c r="BI65">
+        <v>1.52</v>
+      </c>
+      <c r="BJ65">
+        <v>2.45</v>
+      </c>
+      <c r="BK65">
+        <v>2.38</v>
+      </c>
+      <c r="BL65">
+        <v>1.85</v>
+      </c>
+      <c r="BM65">
+        <v>2.34</v>
+      </c>
+      <c r="BN65">
+        <v>1.56</v>
+      </c>
+      <c r="BO65">
+        <v>3.18</v>
+      </c>
+      <c r="BP65">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7450711</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45549.52083333334</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>135</v>
+      </c>
+      <c r="P66" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q66">
+        <v>3.2</v>
+      </c>
+      <c r="R66">
+        <v>2.3</v>
+      </c>
+      <c r="S66">
+        <v>3</v>
+      </c>
+      <c r="T66">
+        <v>1.35</v>
+      </c>
+      <c r="U66">
+        <v>2.95</v>
+      </c>
+      <c r="V66">
+        <v>2.55</v>
+      </c>
+      <c r="W66">
+        <v>1.46</v>
+      </c>
+      <c r="X66">
+        <v>5.95</v>
+      </c>
+      <c r="Y66">
+        <v>1.1</v>
+      </c>
+      <c r="Z66">
+        <v>2.55</v>
+      </c>
+      <c r="AA66">
+        <v>3.6</v>
+      </c>
+      <c r="AB66">
+        <v>2.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.05</v>
+      </c>
+      <c r="AD66">
+        <v>9.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.22</v>
+      </c>
+      <c r="AF66">
+        <v>4</v>
+      </c>
+      <c r="AG66">
+        <v>1.67</v>
+      </c>
+      <c r="AH66">
+        <v>2.15</v>
+      </c>
+      <c r="AI66">
+        <v>1.53</v>
+      </c>
+      <c r="AJ66">
+        <v>2.38</v>
+      </c>
+      <c r="AK66">
+        <v>1.57</v>
+      </c>
+      <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
+        <v>1.4</v>
+      </c>
+      <c r="AN66">
+        <v>1.33</v>
+      </c>
+      <c r="AO66">
+        <v>0.33</v>
+      </c>
+      <c r="AP66">
+        <v>1.75</v>
+      </c>
+      <c r="AQ66">
+        <v>0.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.22</v>
+      </c>
+      <c r="AS66">
+        <v>1.34</v>
+      </c>
+      <c r="AT66">
+        <v>2.56</v>
+      </c>
+      <c r="AU66">
+        <v>7</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>10</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>17</v>
+      </c>
+      <c r="AZ66">
+        <v>11</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>7</v>
+      </c>
+      <c r="BC66">
+        <v>13</v>
+      </c>
+      <c r="BD66">
+        <v>2.17</v>
+      </c>
+      <c r="BE66">
+        <v>7.5</v>
+      </c>
+      <c r="BF66">
+        <v>1.98</v>
+      </c>
+      <c r="BG66">
+        <v>1.25</v>
+      </c>
+      <c r="BH66">
+        <v>3.6</v>
+      </c>
+      <c r="BI66">
+        <v>1.36</v>
+      </c>
+      <c r="BJ66">
+        <v>2.79</v>
+      </c>
+      <c r="BK66">
+        <v>2.2</v>
+      </c>
+      <c r="BL66">
+        <v>1.91</v>
+      </c>
+      <c r="BM66">
+        <v>2.1</v>
+      </c>
+      <c r="BN66">
+        <v>1.7</v>
+      </c>
+      <c r="BO66">
+        <v>2.67</v>
+      </c>
+      <c r="BP66">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7450714</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45549.63541666666</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>136</v>
+      </c>
+      <c r="P67" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q67">
+        <v>2.25</v>
+      </c>
+      <c r="R67">
+        <v>2.4</v>
+      </c>
+      <c r="S67">
+        <v>4.5</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
+        <v>3.25</v>
+      </c>
+      <c r="V67">
+        <v>2.39</v>
+      </c>
+      <c r="W67">
+        <v>1.52</v>
+      </c>
+      <c r="X67">
+        <v>5.45</v>
+      </c>
+      <c r="Y67">
+        <v>1.12</v>
+      </c>
+      <c r="Z67">
+        <v>1.95</v>
+      </c>
+      <c r="AA67">
+        <v>3.75</v>
+      </c>
+      <c r="AB67">
+        <v>3.3</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.18</v>
+      </c>
+      <c r="AF67">
+        <v>4.5</v>
+      </c>
+      <c r="AG67">
+        <v>1.62</v>
+      </c>
+      <c r="AH67">
+        <v>2.25</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.2</v>
+      </c>
+      <c r="AK67">
+        <v>1.2</v>
+      </c>
+      <c r="AL67">
+        <v>1.2</v>
+      </c>
+      <c r="AM67">
+        <v>1.95</v>
+      </c>
+      <c r="AN67">
+        <v>3</v>
+      </c>
+      <c r="AO67">
+        <v>1.5</v>
+      </c>
+      <c r="AP67">
+        <v>3</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1.96</v>
+      </c>
+      <c r="AS67">
+        <v>1.24</v>
+      </c>
+      <c r="AT67">
+        <v>3.2</v>
+      </c>
+      <c r="AU67">
+        <v>7</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>4</v>
+      </c>
+      <c r="AX67">
+        <v>2</v>
+      </c>
+      <c r="AY67">
+        <v>11</v>
+      </c>
+      <c r="AZ67">
+        <v>2</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
+        <v>1</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>1.57</v>
+      </c>
+      <c r="BE67">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF67">
+        <v>3</v>
+      </c>
+      <c r="BG67">
+        <v>1.24</v>
+      </c>
+      <c r="BH67">
+        <v>3.4</v>
+      </c>
+      <c r="BI67">
+        <v>1.46</v>
+      </c>
+      <c r="BJ67">
+        <v>2.4</v>
+      </c>
+      <c r="BK67">
+        <v>2.38</v>
+      </c>
+      <c r="BL67">
+        <v>1.91</v>
+      </c>
+      <c r="BM67">
+        <v>2.32</v>
+      </c>
+      <c r="BN67">
+        <v>1.5</v>
+      </c>
+      <c r="BO67">
+        <v>3.1</v>
+      </c>
+      <c r="BP67">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7450718</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45550.30208333334</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q68">
+        <v>2.2</v>
+      </c>
+      <c r="R68">
+        <v>2.1</v>
+      </c>
+      <c r="S68">
+        <v>6.5</v>
+      </c>
+      <c r="T68">
+        <v>1.44</v>
+      </c>
+      <c r="U68">
+        <v>2.73</v>
+      </c>
+      <c r="V68">
+        <v>3.25</v>
+      </c>
+      <c r="W68">
+        <v>1.33</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.05</v>
+      </c>
+      <c r="Z68">
+        <v>1.55</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68">
+        <v>5.75</v>
+      </c>
+      <c r="AC68">
+        <v>1.06</v>
+      </c>
+      <c r="AD68">
+        <v>8</v>
+      </c>
+      <c r="AE68">
+        <v>1.38</v>
+      </c>
+      <c r="AF68">
+        <v>2.9</v>
+      </c>
+      <c r="AG68">
+        <v>2.15</v>
+      </c>
+      <c r="AH68">
+        <v>1.67</v>
+      </c>
+      <c r="AI68">
+        <v>2.25</v>
+      </c>
+      <c r="AJ68">
+        <v>1.57</v>
+      </c>
+      <c r="AK68">
+        <v>1.13</v>
+      </c>
+      <c r="AL68">
+        <v>1.25</v>
+      </c>
+      <c r="AM68">
+        <v>2.4</v>
+      </c>
+      <c r="AN68">
+        <v>2.33</v>
+      </c>
+      <c r="AO68">
+        <v>0.33</v>
+      </c>
+      <c r="AP68">
+        <v>2</v>
+      </c>
+      <c r="AQ68">
+        <v>0.5</v>
+      </c>
+      <c r="AR68">
+        <v>1.44</v>
+      </c>
+      <c r="AS68">
+        <v>1</v>
+      </c>
+      <c r="AT68">
+        <v>2.44</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>6</v>
+      </c>
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
+        <v>11</v>
+      </c>
+      <c r="AZ68">
+        <v>4</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>6</v>
+      </c>
+      <c r="BD68">
+        <v>1.28</v>
+      </c>
+      <c r="BE68">
+        <v>9</v>
+      </c>
+      <c r="BF68">
+        <v>5.06</v>
+      </c>
+      <c r="BG68">
+        <v>1.34</v>
+      </c>
+      <c r="BH68">
+        <v>2.85</v>
+      </c>
+      <c r="BI68">
+        <v>1.62</v>
+      </c>
+      <c r="BJ68">
+        <v>2.07</v>
+      </c>
+      <c r="BK68">
+        <v>2.05</v>
+      </c>
+      <c r="BL68">
+        <v>1.67</v>
+      </c>
+      <c r="BM68">
+        <v>2.75</v>
+      </c>
+      <c r="BN68">
+        <v>1.36</v>
+      </c>
+      <c r="BO68">
+        <v>3.8</v>
+      </c>
+      <c r="BP68">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,9 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['8', '34']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -536,6 +539,9 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1362,7 +1368,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1568,7 +1574,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2058,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2186,7 +2192,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2598,7 +2604,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2679,7 +2685,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2804,7 +2810,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3010,7 +3016,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3216,7 +3222,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3422,7 +3428,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3628,7 +3634,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3834,7 +3840,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4040,7 +4046,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4452,7 +4458,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4530,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -5276,7 +5282,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5357,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5894,7 +5900,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6100,7 +6106,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6178,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
         <v>1.75</v>
@@ -6306,7 +6312,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6512,7 +6518,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6924,7 +6930,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7002,7 +7008,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>2.25</v>
@@ -7336,7 +7342,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7417,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7542,7 +7548,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7954,7 +7960,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8572,7 +8578,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8778,7 +8784,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9396,7 +9402,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9474,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9683,7 +9689,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10014,7 +10020,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10220,7 +10226,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10301,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -10632,7 +10638,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10919,7 +10925,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11044,7 +11050,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11662,7 +11668,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11740,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -11868,7 +11874,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12074,7 +12080,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12692,7 +12698,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12898,7 +12904,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13104,7 +13110,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13182,7 +13188,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -13310,7 +13316,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13928,7 +13934,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14340,7 +14346,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14845,19 +14851,19 @@
         <v>2.44</v>
       </c>
       <c r="AU68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV68">
         <v>3</v>
       </c>
       <c r="AW68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX68">
         <v>1</v>
       </c>
       <c r="AY68">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ68">
         <v>4</v>
@@ -14909,6 +14915,418 @@
       </c>
       <c r="BP68">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7450713</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45550.40625</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>138</v>
+      </c>
+      <c r="P69" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q69">
+        <v>3.1</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>3.6</v>
+      </c>
+      <c r="T69">
+        <v>1.43</v>
+      </c>
+      <c r="U69">
+        <v>2.65</v>
+      </c>
+      <c r="V69">
+        <v>2.95</v>
+      </c>
+      <c r="W69">
+        <v>1.35</v>
+      </c>
+      <c r="X69">
+        <v>7.4</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>2.4</v>
+      </c>
+      <c r="AA69">
+        <v>3.2</v>
+      </c>
+      <c r="AB69">
+        <v>3</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>8.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.33</v>
+      </c>
+      <c r="AF69">
+        <v>3.1</v>
+      </c>
+      <c r="AG69">
+        <v>2.15</v>
+      </c>
+      <c r="AH69">
+        <v>1.67</v>
+      </c>
+      <c r="AI69">
+        <v>1.8</v>
+      </c>
+      <c r="AJ69">
+        <v>1.95</v>
+      </c>
+      <c r="AK69">
+        <v>1.35</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.6</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>0.33</v>
+      </c>
+      <c r="AP69">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69">
+        <v>0.25</v>
+      </c>
+      <c r="AR69">
+        <v>1.25</v>
+      </c>
+      <c r="AS69">
+        <v>1.4</v>
+      </c>
+      <c r="AT69">
+        <v>2.65</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>2</v>
+      </c>
+      <c r="AX69">
+        <v>4</v>
+      </c>
+      <c r="AY69">
+        <v>8</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
+        <v>7</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>12</v>
+      </c>
+      <c r="BD69">
+        <v>1.6</v>
+      </c>
+      <c r="BE69">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF69">
+        <v>2.91</v>
+      </c>
+      <c r="BG69">
+        <v>1.26</v>
+      </c>
+      <c r="BH69">
+        <v>3.25</v>
+      </c>
+      <c r="BI69">
+        <v>1.49</v>
+      </c>
+      <c r="BJ69">
+        <v>2.33</v>
+      </c>
+      <c r="BK69">
+        <v>1.85</v>
+      </c>
+      <c r="BL69">
+        <v>1.85</v>
+      </c>
+      <c r="BM69">
+        <v>2.38</v>
+      </c>
+      <c r="BN69">
+        <v>1.47</v>
+      </c>
+      <c r="BO69">
+        <v>3.2</v>
+      </c>
+      <c r="BP69">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7450716</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45550.52083333334</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q70">
+        <v>3.1</v>
+      </c>
+      <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>3.75</v>
+      </c>
+      <c r="T70">
+        <v>1.47</v>
+      </c>
+      <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>3.15</v>
+      </c>
+      <c r="W70">
+        <v>1.32</v>
+      </c>
+      <c r="X70">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>1.04</v>
+      </c>
+      <c r="Z70">
+        <v>2.3</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>3.2</v>
+      </c>
+      <c r="AC70">
+        <v>1.04</v>
+      </c>
+      <c r="AD70">
+        <v>7.6</v>
+      </c>
+      <c r="AE70">
+        <v>1.38</v>
+      </c>
+      <c r="AF70">
+        <v>2.9</v>
+      </c>
+      <c r="AG70">
+        <v>2.25</v>
+      </c>
+      <c r="AH70">
+        <v>1.62</v>
+      </c>
+      <c r="AI70">
+        <v>1.95</v>
+      </c>
+      <c r="AJ70">
+        <v>1.8</v>
+      </c>
+      <c r="AK70">
+        <v>1.4</v>
+      </c>
+      <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
+        <v>1.53</v>
+      </c>
+      <c r="AN70">
+        <v>2.25</v>
+      </c>
+      <c r="AO70">
+        <v>2.5</v>
+      </c>
+      <c r="AP70">
+        <v>1.8</v>
+      </c>
+      <c r="AQ70">
+        <v>2.6</v>
+      </c>
+      <c r="AR70">
+        <v>1.6</v>
+      </c>
+      <c r="AS70">
+        <v>1.5</v>
+      </c>
+      <c r="AT70">
+        <v>3.1</v>
+      </c>
+      <c r="AU70">
+        <v>4</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>10</v>
+      </c>
+      <c r="AZ70">
+        <v>5</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>3</v>
+      </c>
+      <c r="BD70">
+        <v>1.6</v>
+      </c>
+      <c r="BE70">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF70">
+        <v>2.91</v>
+      </c>
+      <c r="BG70">
+        <v>1.3</v>
+      </c>
+      <c r="BH70">
+        <v>3.08</v>
+      </c>
+      <c r="BI70">
+        <v>1.56</v>
+      </c>
+      <c r="BJ70">
+        <v>2.21</v>
+      </c>
+      <c r="BK70">
+        <v>1.91</v>
+      </c>
+      <c r="BL70">
+        <v>1.8</v>
+      </c>
+      <c r="BM70">
+        <v>2.57</v>
+      </c>
+      <c r="BN70">
+        <v>1.42</v>
+      </c>
+      <c r="BO70">
+        <v>3.56</v>
+      </c>
+      <c r="BP70">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,15 @@
     <t>['8', '34']</t>
   </si>
   <si>
+    <t>['7', '12', '47', '80']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -542,6 +551,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['15', '67']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1368,7 +1380,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1574,7 +1586,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1861,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2192,7 +2204,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2604,7 +2616,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2810,7 +2822,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3016,7 +3028,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3094,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3222,7 +3234,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3428,7 +3440,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3634,7 +3646,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3712,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3840,7 +3852,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4046,7 +4058,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4458,7 +4470,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4539,7 +4551,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4745,7 +4757,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5282,7 +5294,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5900,7 +5912,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -5981,7 +5993,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6106,7 +6118,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6312,7 +6324,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6518,7 +6530,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6596,7 +6608,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -6930,7 +6942,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7011,7 +7023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -7342,7 +7354,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7548,7 +7560,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7626,10 +7638,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -7960,7 +7972,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8244,7 +8256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8578,7 +8590,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8659,7 +8671,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ38">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -8784,7 +8796,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9277,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
         <v>2.02</v>
@@ -9402,7 +9414,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10020,7 +10032,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10226,7 +10238,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10638,7 +10650,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11050,7 +11062,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11543,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -11668,7 +11680,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11874,7 +11886,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12080,7 +12092,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12364,10 +12376,10 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12698,7 +12710,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12776,10 +12788,10 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -12904,7 +12916,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13110,7 +13122,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13316,7 +13328,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13934,7 +13946,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14346,7 +14358,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15170,7 +15182,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15327,6 +15339,624 @@
       </c>
       <c r="BP70">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7450725</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45555.54166666666</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>2.2</v>
+      </c>
+      <c r="S71">
+        <v>3.6</v>
+      </c>
+      <c r="T71">
+        <v>1.4</v>
+      </c>
+      <c r="U71">
+        <v>2.7</v>
+      </c>
+      <c r="V71">
+        <v>2.8</v>
+      </c>
+      <c r="W71">
+        <v>1.38</v>
+      </c>
+      <c r="X71">
+        <v>7</v>
+      </c>
+      <c r="Y71">
+        <v>1.07</v>
+      </c>
+      <c r="Z71">
+        <v>2.3</v>
+      </c>
+      <c r="AA71">
+        <v>3.25</v>
+      </c>
+      <c r="AB71">
+        <v>3</v>
+      </c>
+      <c r="AC71">
+        <v>1.06</v>
+      </c>
+      <c r="AD71">
+        <v>8.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.33</v>
+      </c>
+      <c r="AF71">
+        <v>3.3</v>
+      </c>
+      <c r="AG71">
+        <v>1.95</v>
+      </c>
+      <c r="AH71">
+        <v>1.85</v>
+      </c>
+      <c r="AI71">
+        <v>1.75</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>1.33</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.67</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>0.75</v>
+      </c>
+      <c r="AP71">
+        <v>1.5</v>
+      </c>
+      <c r="AQ71">
+        <v>0.6</v>
+      </c>
+      <c r="AR71">
+        <v>1.59</v>
+      </c>
+      <c r="AS71">
+        <v>1.52</v>
+      </c>
+      <c r="AT71">
+        <v>3.11</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71">
+        <v>8</v>
+      </c>
+      <c r="AX71">
+        <v>6</v>
+      </c>
+      <c r="AY71">
+        <v>15</v>
+      </c>
+      <c r="AZ71">
+        <v>10</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>2</v>
+      </c>
+      <c r="BE71">
+        <v>6.45</v>
+      </c>
+      <c r="BF71">
+        <v>2.22</v>
+      </c>
+      <c r="BG71">
+        <v>1.17</v>
+      </c>
+      <c r="BH71">
+        <v>3.84</v>
+      </c>
+      <c r="BI71">
+        <v>1.36</v>
+      </c>
+      <c r="BJ71">
+        <v>2.7</v>
+      </c>
+      <c r="BK71">
+        <v>2.2</v>
+      </c>
+      <c r="BL71">
+        <v>1.91</v>
+      </c>
+      <c r="BM71">
+        <v>2.07</v>
+      </c>
+      <c r="BN71">
+        <v>1.61</v>
+      </c>
+      <c r="BO71">
+        <v>2.69</v>
+      </c>
+      <c r="BP71">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7450723</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45555.64583333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q72">
+        <v>3.25</v>
+      </c>
+      <c r="R72">
+        <v>2.2</v>
+      </c>
+      <c r="S72">
+        <v>3.2</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>2.99</v>
+      </c>
+      <c r="V72">
+        <v>2.6</v>
+      </c>
+      <c r="W72">
+        <v>1.46</v>
+      </c>
+      <c r="X72">
+        <v>6.3</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>2.63</v>
+      </c>
+      <c r="AA72">
+        <v>3.3</v>
+      </c>
+      <c r="AB72">
+        <v>2.6</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>11</v>
+      </c>
+      <c r="AE72">
+        <v>1.2</v>
+      </c>
+      <c r="AF72">
+        <v>4</v>
+      </c>
+      <c r="AG72">
+        <v>1.85</v>
+      </c>
+      <c r="AH72">
+        <v>1.95</v>
+      </c>
+      <c r="AI72">
+        <v>1.67</v>
+      </c>
+      <c r="AJ72">
+        <v>2.1</v>
+      </c>
+      <c r="AK72">
+        <v>1.42</v>
+      </c>
+      <c r="AL72">
+        <v>1.3</v>
+      </c>
+      <c r="AM72">
+        <v>1.52</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>1.67</v>
+      </c>
+      <c r="AP72">
+        <v>3</v>
+      </c>
+      <c r="AQ72">
+        <v>1.25</v>
+      </c>
+      <c r="AR72">
+        <v>1.72</v>
+      </c>
+      <c r="AS72">
+        <v>1.27</v>
+      </c>
+      <c r="AT72">
+        <v>2.99</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>13</v>
+      </c>
+      <c r="AZ72">
+        <v>7</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>11</v>
+      </c>
+      <c r="BC72">
+        <v>16</v>
+      </c>
+      <c r="BD72">
+        <v>1.87</v>
+      </c>
+      <c r="BE72">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF72">
+        <v>2.27</v>
+      </c>
+      <c r="BG72">
+        <v>1.25</v>
+      </c>
+      <c r="BH72">
+        <v>3.3</v>
+      </c>
+      <c r="BI72">
+        <v>1.48</v>
+      </c>
+      <c r="BJ72">
+        <v>2.38</v>
+      </c>
+      <c r="BK72">
+        <v>2.38</v>
+      </c>
+      <c r="BL72">
+        <v>1.95</v>
+      </c>
+      <c r="BM72">
+        <v>2.35</v>
+      </c>
+      <c r="BN72">
+        <v>1.49</v>
+      </c>
+      <c r="BO72">
+        <v>3.15</v>
+      </c>
+      <c r="BP72">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7450724</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45556.30208333334</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>141</v>
+      </c>
+      <c r="P73" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q73">
+        <v>3.75</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
+        <v>2.88</v>
+      </c>
+      <c r="T73">
+        <v>1.41</v>
+      </c>
+      <c r="U73">
+        <v>2.78</v>
+      </c>
+      <c r="V73">
+        <v>2.82</v>
+      </c>
+      <c r="W73">
+        <v>1.4</v>
+      </c>
+      <c r="X73">
+        <v>7.2</v>
+      </c>
+      <c r="Y73">
+        <v>1.08</v>
+      </c>
+      <c r="Z73">
+        <v>3.1</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>2.25</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.3</v>
+      </c>
+      <c r="AF73">
+        <v>3.3</v>
+      </c>
+      <c r="AG73">
+        <v>1.95</v>
+      </c>
+      <c r="AH73">
+        <v>1.85</v>
+      </c>
+      <c r="AI73">
+        <v>1.75</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>1.6</v>
+      </c>
+      <c r="AL73">
+        <v>1.31</v>
+      </c>
+      <c r="AM73">
+        <v>1.35</v>
+      </c>
+      <c r="AN73">
+        <v>1.5</v>
+      </c>
+      <c r="AO73">
+        <v>2.25</v>
+      </c>
+      <c r="AP73">
+        <v>1.2</v>
+      </c>
+      <c r="AQ73">
+        <v>2.4</v>
+      </c>
+      <c r="AR73">
+        <v>1.47</v>
+      </c>
+      <c r="AS73">
+        <v>1.33</v>
+      </c>
+      <c r="AT73">
+        <v>2.8</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>9</v>
+      </c>
+      <c r="AW73">
+        <v>6</v>
+      </c>
+      <c r="AX73">
+        <v>11</v>
+      </c>
+      <c r="AY73">
+        <v>9</v>
+      </c>
+      <c r="AZ73">
+        <v>20</v>
+      </c>
+      <c r="BA73">
+        <v>2</v>
+      </c>
+      <c r="BB73">
+        <v>7</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>2.23</v>
+      </c>
+      <c r="BE73">
+        <v>6.45</v>
+      </c>
+      <c r="BF73">
+        <v>1.99</v>
+      </c>
+      <c r="BG73">
+        <v>1.25</v>
+      </c>
+      <c r="BH73">
+        <v>3.3</v>
+      </c>
+      <c r="BI73">
+        <v>1.48</v>
+      </c>
+      <c r="BJ73">
+        <v>2.38</v>
+      </c>
+      <c r="BK73">
+        <v>2.38</v>
+      </c>
+      <c r="BL73">
+        <v>1.9</v>
+      </c>
+      <c r="BM73">
+        <v>2.35</v>
+      </c>
+      <c r="BN73">
+        <v>1.49</v>
+      </c>
+      <c r="BO73">
+        <v>3.15</v>
+      </c>
+      <c r="BP73">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,9 +442,15 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['13', '71', '75']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
+    <t>['4', '48', '64']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -554,6 +560,9 @@
   </si>
   <si>
     <t>['15', '67']</t>
+  </si>
+  <si>
+    <t>['16', '59']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1380,7 +1389,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1461,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1586,7 +1595,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2204,7 +2213,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2285,7 +2294,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2616,7 +2625,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2822,7 +2831,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3028,7 +3037,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3234,7 +3243,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3440,7 +3449,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3521,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -3646,7 +3655,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3852,7 +3861,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3930,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>1.75</v>
@@ -4058,7 +4067,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4470,7 +4479,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5166,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
         <v>0.25</v>
@@ -5294,7 +5303,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5578,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5787,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -5912,7 +5921,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6118,7 +6127,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6199,7 +6208,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6324,7 +6333,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6530,7 +6539,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6942,7 +6951,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7354,7 +7363,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7560,7 +7569,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7844,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -7972,7 +7981,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8053,7 +8062,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8259,7 +8268,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -8590,7 +8599,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8668,7 +8677,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ38">
         <v>2.4</v>
@@ -8796,7 +8805,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9414,7 +9423,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9698,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>2.6</v>
@@ -9907,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10032,7 +10041,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10110,7 +10119,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -10238,7 +10247,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10650,7 +10659,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11062,7 +11071,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11680,7 +11689,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11886,7 +11895,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -11967,7 +11976,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.89</v>
@@ -12092,7 +12101,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12585,7 +12594,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.6</v>
@@ -12710,7 +12719,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12916,7 +12925,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -12994,10 +13003,10 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR59">
         <v>1.38</v>
@@ -13122,7 +13131,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13328,7 +13337,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13612,7 +13621,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13946,7 +13955,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14358,7 +14367,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15182,7 +15191,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15800,7 +15809,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15896,19 +15905,19 @@
         <v>3</v>
       </c>
       <c r="AV73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ73">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA73">
         <v>2</v>
@@ -15957,6 +15966,624 @@
       </c>
       <c r="BP73">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7450721</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45556.40625</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74" t="s">
+        <v>142</v>
+      </c>
+      <c r="P74" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q74">
+        <v>2.38</v>
+      </c>
+      <c r="R74">
+        <v>2.5</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>1.28</v>
+      </c>
+      <c r="U74">
+        <v>3.4</v>
+      </c>
+      <c r="V74">
+        <v>2.2</v>
+      </c>
+      <c r="W74">
+        <v>1.6</v>
+      </c>
+      <c r="X74">
+        <v>4.75</v>
+      </c>
+      <c r="Y74">
+        <v>1.15</v>
+      </c>
+      <c r="Z74">
+        <v>1.85</v>
+      </c>
+      <c r="AA74">
+        <v>3.7</v>
+      </c>
+      <c r="AB74">
+        <v>3.9</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>13</v>
+      </c>
+      <c r="AE74">
+        <v>1.11</v>
+      </c>
+      <c r="AF74">
+        <v>5.5</v>
+      </c>
+      <c r="AG74">
+        <v>1.53</v>
+      </c>
+      <c r="AH74">
+        <v>2.4</v>
+      </c>
+      <c r="AI74">
+        <v>1.5</v>
+      </c>
+      <c r="AJ74">
+        <v>2.5</v>
+      </c>
+      <c r="AK74">
+        <v>1.18</v>
+      </c>
+      <c r="AL74">
+        <v>1.23</v>
+      </c>
+      <c r="AM74">
+        <v>2.3</v>
+      </c>
+      <c r="AN74">
+        <v>2.25</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>2.4</v>
+      </c>
+      <c r="AQ74">
+        <v>0.8</v>
+      </c>
+      <c r="AR74">
+        <v>1.72</v>
+      </c>
+      <c r="AS74">
+        <v>1.17</v>
+      </c>
+      <c r="AT74">
+        <v>2.89</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>8</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>12</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>8</v>
+      </c>
+      <c r="BD74">
+        <v>1.37</v>
+      </c>
+      <c r="BE74">
+        <v>9.5</v>
+      </c>
+      <c r="BF74">
+        <v>3.82</v>
+      </c>
+      <c r="BG74">
+        <v>1.21</v>
+      </c>
+      <c r="BH74">
+        <v>3.7</v>
+      </c>
+      <c r="BI74">
+        <v>1.4</v>
+      </c>
+      <c r="BJ74">
+        <v>2.6</v>
+      </c>
+      <c r="BK74">
+        <v>2.2</v>
+      </c>
+      <c r="BL74">
+        <v>1.95</v>
+      </c>
+      <c r="BM74">
+        <v>2.15</v>
+      </c>
+      <c r="BN74">
+        <v>1.58</v>
+      </c>
+      <c r="BO74">
+        <v>2.85</v>
+      </c>
+      <c r="BP74">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7450728</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45556.52083333334</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>143</v>
+      </c>
+      <c r="P75" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q75">
+        <v>3.4</v>
+      </c>
+      <c r="R75">
+        <v>2.1</v>
+      </c>
+      <c r="S75">
+        <v>3.2</v>
+      </c>
+      <c r="T75">
+        <v>1.47</v>
+      </c>
+      <c r="U75">
+        <v>2.57</v>
+      </c>
+      <c r="V75">
+        <v>3.1</v>
+      </c>
+      <c r="W75">
+        <v>1.34</v>
+      </c>
+      <c r="X75">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>2.75</v>
+      </c>
+      <c r="AA75">
+        <v>3.3</v>
+      </c>
+      <c r="AB75">
+        <v>2.5</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>8</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.2</v>
+      </c>
+      <c r="AG75">
+        <v>2.05</v>
+      </c>
+      <c r="AH75">
+        <v>1.75</v>
+      </c>
+      <c r="AI75">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75">
+        <v>1.95</v>
+      </c>
+      <c r="AK75">
+        <v>1.51</v>
+      </c>
+      <c r="AL75">
+        <v>1.33</v>
+      </c>
+      <c r="AM75">
+        <v>1.38</v>
+      </c>
+      <c r="AN75">
+        <v>2.33</v>
+      </c>
+      <c r="AO75">
+        <v>1.75</v>
+      </c>
+      <c r="AP75">
+        <v>2.5</v>
+      </c>
+      <c r="AQ75">
+        <v>1.4</v>
+      </c>
+      <c r="AR75">
+        <v>1.41</v>
+      </c>
+      <c r="AS75">
+        <v>1.42</v>
+      </c>
+      <c r="AT75">
+        <v>2.83</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>11</v>
+      </c>
+      <c r="AZ75">
+        <v>8</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>9</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>2.1</v>
+      </c>
+      <c r="BE75">
+        <v>6.8</v>
+      </c>
+      <c r="BF75">
+        <v>2.1</v>
+      </c>
+      <c r="BG75">
+        <v>1.3</v>
+      </c>
+      <c r="BH75">
+        <v>3</v>
+      </c>
+      <c r="BI75">
+        <v>1.56</v>
+      </c>
+      <c r="BJ75">
+        <v>2.18</v>
+      </c>
+      <c r="BK75">
+        <v>2</v>
+      </c>
+      <c r="BL75">
+        <v>1.8</v>
+      </c>
+      <c r="BM75">
+        <v>2.55</v>
+      </c>
+      <c r="BN75">
+        <v>1.41</v>
+      </c>
+      <c r="BO75">
+        <v>3.5</v>
+      </c>
+      <c r="BP75">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7450720</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45556.63541666666</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>144</v>
+      </c>
+      <c r="P76" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q76">
+        <v>3.2</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>3.4</v>
+      </c>
+      <c r="T76">
+        <v>1.38</v>
+      </c>
+      <c r="U76">
+        <v>3.15</v>
+      </c>
+      <c r="V76">
+        <v>2.85</v>
+      </c>
+      <c r="W76">
+        <v>1.44</v>
+      </c>
+      <c r="X76">
+        <v>6.85</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.2</v>
+      </c>
+      <c r="AA76">
+        <v>3.3</v>
+      </c>
+      <c r="AB76">
+        <v>3.1</v>
+      </c>
+      <c r="AC76">
+        <v>1.03</v>
+      </c>
+      <c r="AD76">
+        <v>9</v>
+      </c>
+      <c r="AE76">
+        <v>1.22</v>
+      </c>
+      <c r="AF76">
+        <v>3.8</v>
+      </c>
+      <c r="AG76">
+        <v>1.88</v>
+      </c>
+      <c r="AH76">
+        <v>1.85</v>
+      </c>
+      <c r="AI76">
+        <v>1.7</v>
+      </c>
+      <c r="AJ76">
+        <v>2.05</v>
+      </c>
+      <c r="AK76">
+        <v>1.33</v>
+      </c>
+      <c r="AL76">
+        <v>1.25</v>
+      </c>
+      <c r="AM76">
+        <v>1.65</v>
+      </c>
+      <c r="AN76">
+        <v>1.33</v>
+      </c>
+      <c r="AO76">
+        <v>1.33</v>
+      </c>
+      <c r="AP76">
+        <v>1.75</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>1.53</v>
+      </c>
+      <c r="AS76">
+        <v>1.37</v>
+      </c>
+      <c r="AT76">
+        <v>2.9</v>
+      </c>
+      <c r="AU76">
+        <v>12</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>12</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>24</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>1</v>
+      </c>
+      <c r="BC76">
+        <v>3</v>
+      </c>
+      <c r="BD76">
+        <v>1.92</v>
+      </c>
+      <c r="BE76">
+        <v>7</v>
+      </c>
+      <c r="BF76">
+        <v>2.3</v>
+      </c>
+      <c r="BG76">
+        <v>1.27</v>
+      </c>
+      <c r="BH76">
+        <v>3.2</v>
+      </c>
+      <c r="BI76">
+        <v>1.5</v>
+      </c>
+      <c r="BJ76">
+        <v>2.3</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>1.8</v>
+      </c>
+      <c r="BM76">
+        <v>2.43</v>
+      </c>
+      <c r="BN76">
+        <v>1.46</v>
+      </c>
+      <c r="BO76">
+        <v>3.3</v>
+      </c>
+      <c r="BP76">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,15 @@
     <t>['4', '48', '64']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['10', '53', '81', '86', '89']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -563,6 +572,9 @@
   </si>
   <si>
     <t>['16', '59']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1595,7 +1607,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2088,7 +2100,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2213,7 +2225,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2625,7 +2637,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2831,7 +2843,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2909,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3037,7 +3049,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3243,7 +3255,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3324,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3449,7 +3461,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3527,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3655,7 +3667,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3861,7 +3873,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4067,7 +4079,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4354,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4479,7 +4491,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4763,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>2.4</v>
@@ -5303,7 +5315,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5921,7 +5933,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6127,7 +6139,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6333,7 +6345,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6539,7 +6551,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6823,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1.75</v>
@@ -6951,7 +6963,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7363,7 +7375,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7444,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7569,7 +7581,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7856,7 +7868,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -7981,7 +7993,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8474,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -8599,7 +8611,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8805,7 +8817,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9423,7 +9435,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9913,7 +9925,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>1.4</v>
@@ -10041,7 +10053,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10247,7 +10259,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10659,7 +10671,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10946,7 +10958,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11071,7 +11083,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11689,7 +11701,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11895,7 +11907,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -11973,7 +11985,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.4</v>
@@ -12101,7 +12113,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12179,7 +12191,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
         <v>1.75</v>
@@ -12719,7 +12731,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12925,7 +12937,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13131,7 +13143,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13212,7 +13224,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ60">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13337,7 +13349,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13418,7 +13430,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -13955,7 +13967,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14367,7 +14379,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15066,7 +15078,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15191,7 +15203,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15809,7 +15821,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16015,7 +16027,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16520,22 +16532,22 @@
         <v>2.9</v>
       </c>
       <c r="AU76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV76">
         <v>3</v>
       </c>
       <c r="AW76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY76">
         <v>24</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA76">
         <v>2</v>
@@ -16584,6 +16596,624 @@
       </c>
       <c r="BP76">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7450727</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45557.30208333334</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>145</v>
+      </c>
+      <c r="P77" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q77">
+        <v>3.2</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>3.6</v>
+      </c>
+      <c r="T77">
+        <v>1.42</v>
+      </c>
+      <c r="U77">
+        <v>2.83</v>
+      </c>
+      <c r="V77">
+        <v>3.11</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>7</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>2.4</v>
+      </c>
+      <c r="AA77">
+        <v>3.1</v>
+      </c>
+      <c r="AB77">
+        <v>2.8</v>
+      </c>
+      <c r="AC77">
+        <v>1.07</v>
+      </c>
+      <c r="AD77">
+        <v>8</v>
+      </c>
+      <c r="AE77">
+        <v>1.35</v>
+      </c>
+      <c r="AF77">
+        <v>3.1</v>
+      </c>
+      <c r="AG77">
+        <v>2.1</v>
+      </c>
+      <c r="AH77">
+        <v>1.7</v>
+      </c>
+      <c r="AI77">
+        <v>1.91</v>
+      </c>
+      <c r="AJ77">
+        <v>1.91</v>
+      </c>
+      <c r="AK77">
+        <v>1.4</v>
+      </c>
+      <c r="AL77">
+        <v>1.28</v>
+      </c>
+      <c r="AM77">
+        <v>1.53</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
+        <v>1.33</v>
+      </c>
+      <c r="AP77">
+        <v>1.4</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.21</v>
+      </c>
+      <c r="AS77">
+        <v>1.52</v>
+      </c>
+      <c r="AT77">
+        <v>2.73</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>11</v>
+      </c>
+      <c r="AX77">
+        <v>11</v>
+      </c>
+      <c r="AY77">
+        <v>17</v>
+      </c>
+      <c r="AZ77">
+        <v>14</v>
+      </c>
+      <c r="BA77">
+        <v>3</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>7</v>
+      </c>
+      <c r="BD77">
+        <v>2.14</v>
+      </c>
+      <c r="BE77">
+        <v>7.2</v>
+      </c>
+      <c r="BF77">
+        <v>2.03</v>
+      </c>
+      <c r="BG77">
+        <v>1.27</v>
+      </c>
+      <c r="BH77">
+        <v>3.2</v>
+      </c>
+      <c r="BI77">
+        <v>1.5</v>
+      </c>
+      <c r="BJ77">
+        <v>2.3</v>
+      </c>
+      <c r="BK77">
+        <v>1.91</v>
+      </c>
+      <c r="BL77">
+        <v>1.8</v>
+      </c>
+      <c r="BM77">
+        <v>2.43</v>
+      </c>
+      <c r="BN77">
+        <v>1.46</v>
+      </c>
+      <c r="BO77">
+        <v>3.3</v>
+      </c>
+      <c r="BP77">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7450726</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45557.40625</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>6</v>
+      </c>
+      <c r="O78" t="s">
+        <v>146</v>
+      </c>
+      <c r="P78" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>2.3</v>
+      </c>
+      <c r="S78">
+        <v>6.5</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>1.48</v>
+      </c>
+      <c r="AA78">
+        <v>4.2</v>
+      </c>
+      <c r="AB78">
+        <v>7</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>9.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.29</v>
+      </c>
+      <c r="AF78">
+        <v>3.53</v>
+      </c>
+      <c r="AG78">
+        <v>1.85</v>
+      </c>
+      <c r="AH78">
+        <v>1.95</v>
+      </c>
+      <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
+        <v>1.75</v>
+      </c>
+      <c r="AK78">
+        <v>1.12</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>2.38</v>
+      </c>
+      <c r="AN78">
+        <v>0.33</v>
+      </c>
+      <c r="AO78">
+        <v>0.25</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>0.2</v>
+      </c>
+      <c r="AR78">
+        <v>1.53</v>
+      </c>
+      <c r="AS78">
+        <v>1.42</v>
+      </c>
+      <c r="AT78">
+        <v>2.95</v>
+      </c>
+      <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AV78">
+        <v>2</v>
+      </c>
+      <c r="AW78">
+        <v>1</v>
+      </c>
+      <c r="AX78">
+        <v>5</v>
+      </c>
+      <c r="AY78">
+        <v>8</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
+        <v>2</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
+        <v>6</v>
+      </c>
+      <c r="BD78">
+        <v>1.36</v>
+      </c>
+      <c r="BE78">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF78">
+        <v>4.26</v>
+      </c>
+      <c r="BG78">
+        <v>1.27</v>
+      </c>
+      <c r="BH78">
+        <v>3.2</v>
+      </c>
+      <c r="BI78">
+        <v>1.5</v>
+      </c>
+      <c r="BJ78">
+        <v>2.3</v>
+      </c>
+      <c r="BK78">
+        <v>2</v>
+      </c>
+      <c r="BL78">
+        <v>1.8</v>
+      </c>
+      <c r="BM78">
+        <v>2.43</v>
+      </c>
+      <c r="BN78">
+        <v>1.46</v>
+      </c>
+      <c r="BO78">
+        <v>3.3</v>
+      </c>
+      <c r="BP78">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7450722</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45557.52083333334</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q79">
+        <v>2.3</v>
+      </c>
+      <c r="R79">
+        <v>2.2</v>
+      </c>
+      <c r="S79">
+        <v>5</v>
+      </c>
+      <c r="T79">
+        <v>1.38</v>
+      </c>
+      <c r="U79">
+        <v>3</v>
+      </c>
+      <c r="V79">
+        <v>2.92</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>1.65</v>
+      </c>
+      <c r="AA79">
+        <v>3.8</v>
+      </c>
+      <c r="AB79">
+        <v>5.25</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>9</v>
+      </c>
+      <c r="AE79">
+        <v>1.25</v>
+      </c>
+      <c r="AF79">
+        <v>3.6</v>
+      </c>
+      <c r="AG79">
+        <v>1.88</v>
+      </c>
+      <c r="AH79">
+        <v>1.88</v>
+      </c>
+      <c r="AI79">
+        <v>1.95</v>
+      </c>
+      <c r="AJ79">
+        <v>1.8</v>
+      </c>
+      <c r="AK79">
+        <v>1.17</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>2.15</v>
+      </c>
+      <c r="AN79">
+        <v>3</v>
+      </c>
+      <c r="AO79">
+        <v>0.33</v>
+      </c>
+      <c r="AP79">
+        <v>3</v>
+      </c>
+      <c r="AQ79">
+        <v>0.25</v>
+      </c>
+      <c r="AR79">
+        <v>1.89</v>
+      </c>
+      <c r="AS79">
+        <v>1.27</v>
+      </c>
+      <c r="AT79">
+        <v>3.16</v>
+      </c>
+      <c r="AU79">
+        <v>9</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>14</v>
+      </c>
+      <c r="AZ79">
+        <v>9</v>
+      </c>
+      <c r="BA79">
+        <v>8</v>
+      </c>
+      <c r="BB79">
+        <v>3</v>
+      </c>
+      <c r="BC79">
+        <v>11</v>
+      </c>
+      <c r="BD79">
+        <v>1.37</v>
+      </c>
+      <c r="BE79">
+        <v>8</v>
+      </c>
+      <c r="BF79">
+        <v>4.26</v>
+      </c>
+      <c r="BG79">
+        <v>1.25</v>
+      </c>
+      <c r="BH79">
+        <v>3.3</v>
+      </c>
+      <c r="BI79">
+        <v>1.48</v>
+      </c>
+      <c r="BJ79">
+        <v>2.38</v>
+      </c>
+      <c r="BK79">
+        <v>1.85</v>
+      </c>
+      <c r="BL79">
+        <v>1.85</v>
+      </c>
+      <c r="BM79">
+        <v>2.35</v>
+      </c>
+      <c r="BN79">
+        <v>1.49</v>
+      </c>
+      <c r="BO79">
+        <v>3.15</v>
+      </c>
+      <c r="BP79">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['4', '50']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2715,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>2.6</v>
@@ -3748,7 +3751,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -6011,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -10543,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -11164,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -13839,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>0.8</v>
@@ -14666,7 +14669,7 @@
         <v>3</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -17214,6 +17217,212 @@
       </c>
       <c r="BP79">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7450677</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45560.58333333334</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>95</v>
+      </c>
+      <c r="P80" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>2.25</v>
+      </c>
+      <c r="S80">
+        <v>3.4</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.15</v>
+      </c>
+      <c r="V80">
+        <v>2.51</v>
+      </c>
+      <c r="W80">
+        <v>1.49</v>
+      </c>
+      <c r="X80">
+        <v>6</v>
+      </c>
+      <c r="Y80">
+        <v>1.11</v>
+      </c>
+      <c r="Z80">
+        <v>2.35</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>2.88</v>
+      </c>
+      <c r="AC80">
+        <v>1.05</v>
+      </c>
+      <c r="AD80">
+        <v>9.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.25</v>
+      </c>
+      <c r="AF80">
+        <v>3.95</v>
+      </c>
+      <c r="AG80">
+        <v>1.7</v>
+      </c>
+      <c r="AH80">
+        <v>2.1</v>
+      </c>
+      <c r="AI80">
+        <v>1.62</v>
+      </c>
+      <c r="AJ80">
+        <v>2.2</v>
+      </c>
+      <c r="AK80">
+        <v>1.55</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.42</v>
+      </c>
+      <c r="AN80">
+        <v>1.25</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>1.5</v>
+      </c>
+      <c r="AR80">
+        <v>1.47</v>
+      </c>
+      <c r="AS80">
+        <v>0.93</v>
+      </c>
+      <c r="AT80">
+        <v>2.4</v>
+      </c>
+      <c r="AU80">
+        <v>9</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>6</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>15</v>
+      </c>
+      <c r="AZ80">
+        <v>7</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>12</v>
+      </c>
+      <c r="BD80">
+        <v>2</v>
+      </c>
+      <c r="BE80">
+        <v>7.2</v>
+      </c>
+      <c r="BF80">
+        <v>2.17</v>
+      </c>
+      <c r="BG80">
+        <v>1.18</v>
+      </c>
+      <c r="BH80">
+        <v>3.74</v>
+      </c>
+      <c r="BI80">
+        <v>1.38</v>
+      </c>
+      <c r="BJ80">
+        <v>2.62</v>
+      </c>
+      <c r="BK80">
+        <v>2.2</v>
+      </c>
+      <c r="BL80">
+        <v>2.03</v>
+      </c>
+      <c r="BM80">
+        <v>2.1</v>
+      </c>
+      <c r="BN80">
+        <v>1.59</v>
+      </c>
+      <c r="BO80">
+        <v>2.73</v>
+      </c>
+      <c r="BP80">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['34', '90+1', '90+6']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['32', '38']</t>
+  </si>
+  <si>
+    <t>['83', '90+8']</t>
   </si>
   <si>
     <t>['24', '37']</t>
@@ -939,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1291,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1610,7 +1622,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1688,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>0.75</v>
@@ -2228,7 +2240,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2640,7 +2652,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2718,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>2.6</v>
@@ -2846,7 +2858,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3052,7 +3064,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3258,7 +3270,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3464,7 +3476,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3670,7 +3682,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3876,7 +3888,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4082,7 +4094,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4163,7 +4175,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4369,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4494,7 +4506,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4778,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>2.4</v>
@@ -4987,7 +4999,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5193,7 +5205,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5318,7 +5330,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5396,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>2.6</v>
@@ -5936,7 +5948,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6014,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -6142,7 +6154,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6348,7 +6360,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6554,7 +6566,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6838,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>1.75</v>
@@ -6966,7 +6978,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7378,7 +7390,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7584,7 +7596,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7871,7 +7883,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -7996,7 +8008,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8486,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8614,7 +8626,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8820,7 +8832,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9438,7 +9450,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10056,7 +10068,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10262,7 +10274,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10546,10 +10558,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10674,7 +10686,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11086,7 +11098,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11164,7 +11176,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11373,7 +11385,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR51">
         <v>1.7</v>
@@ -11704,7 +11716,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11910,7 +11922,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -11988,7 +12000,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>1.4</v>
@@ -12116,7 +12128,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12734,7 +12746,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12940,7 +12952,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13146,7 +13158,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13352,7 +13364,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13433,7 +13445,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -13842,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63">
         <v>0.8</v>
@@ -13970,7 +13982,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14048,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14382,7 +14394,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14463,7 +14475,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14875,7 +14887,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -15206,7 +15218,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15824,7 +15836,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16030,7 +16042,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16854,7 +16866,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16932,7 +16944,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>0.2</v>
@@ -17141,7 +17153,7 @@
         <v>3</v>
       </c>
       <c r="AQ79">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR79">
         <v>1.89</v>
@@ -17266,7 +17278,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17344,7 +17356,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -17423,6 +17435,830 @@
       </c>
       <c r="BP80">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7450730</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45562.54166666666</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>148</v>
+      </c>
+      <c r="P81" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q81">
+        <v>3.5</v>
+      </c>
+      <c r="R81">
+        <v>2.3</v>
+      </c>
+      <c r="S81">
+        <v>2.75</v>
+      </c>
+      <c r="T81">
+        <v>1.33</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
+        <v>2.45</v>
+      </c>
+      <c r="W81">
+        <v>1.48</v>
+      </c>
+      <c r="X81">
+        <v>5.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.11</v>
+      </c>
+      <c r="Z81">
+        <v>3.1</v>
+      </c>
+      <c r="AA81">
+        <v>3.4</v>
+      </c>
+      <c r="AB81">
+        <v>2.2</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>11</v>
+      </c>
+      <c r="AE81">
+        <v>1.2</v>
+      </c>
+      <c r="AF81">
+        <v>4</v>
+      </c>
+      <c r="AG81">
+        <v>1.7</v>
+      </c>
+      <c r="AH81">
+        <v>2.1</v>
+      </c>
+      <c r="AI81">
+        <v>1.57</v>
+      </c>
+      <c r="AJ81">
+        <v>2.25</v>
+      </c>
+      <c r="AK81">
+        <v>1.57</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.38</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>0.25</v>
+      </c>
+      <c r="AP81">
+        <v>1.33</v>
+      </c>
+      <c r="AQ81">
+        <v>0.2</v>
+      </c>
+      <c r="AR81">
+        <v>1.75</v>
+      </c>
+      <c r="AS81">
+        <v>1.45</v>
+      </c>
+      <c r="AT81">
+        <v>3.2</v>
+      </c>
+      <c r="AU81">
+        <v>7</v>
+      </c>
+      <c r="AV81">
+        <v>8</v>
+      </c>
+      <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
+        <v>4</v>
+      </c>
+      <c r="AY81">
+        <v>14</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>7</v>
+      </c>
+      <c r="BB81">
+        <v>7</v>
+      </c>
+      <c r="BC81">
+        <v>14</v>
+      </c>
+      <c r="BD81">
+        <v>2.07</v>
+      </c>
+      <c r="BE81">
+        <v>7.5</v>
+      </c>
+      <c r="BF81">
+        <v>2.07</v>
+      </c>
+      <c r="BG81">
+        <v>1.26</v>
+      </c>
+      <c r="BH81">
+        <v>3.5</v>
+      </c>
+      <c r="BI81">
+        <v>1.48</v>
+      </c>
+      <c r="BJ81">
+        <v>2.48</v>
+      </c>
+      <c r="BK81">
+        <v>2.25</v>
+      </c>
+      <c r="BL81">
+        <v>1.98</v>
+      </c>
+      <c r="BM81">
+        <v>2.25</v>
+      </c>
+      <c r="BN81">
+        <v>1.57</v>
+      </c>
+      <c r="BO81">
+        <v>2.9</v>
+      </c>
+      <c r="BP81">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7450733</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45562.64583333334</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>149</v>
+      </c>
+      <c r="P82" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q82">
+        <v>3.1</v>
+      </c>
+      <c r="R82">
+        <v>2.3</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3</v>
+      </c>
+      <c r="V82">
+        <v>2.45</v>
+      </c>
+      <c r="W82">
+        <v>1.48</v>
+      </c>
+      <c r="X82">
+        <v>5.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>2.55</v>
+      </c>
+      <c r="AA82">
+        <v>3.5</v>
+      </c>
+      <c r="AB82">
+        <v>2.45</v>
+      </c>
+      <c r="AC82">
+        <v>1.05</v>
+      </c>
+      <c r="AD82">
+        <v>9.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.25</v>
+      </c>
+      <c r="AF82">
+        <v>3.95</v>
+      </c>
+      <c r="AG82">
+        <v>1.62</v>
+      </c>
+      <c r="AH82">
+        <v>2.25</v>
+      </c>
+      <c r="AI82">
+        <v>1.53</v>
+      </c>
+      <c r="AJ82">
+        <v>2.38</v>
+      </c>
+      <c r="AK82">
+        <v>1.48</v>
+      </c>
+      <c r="AL82">
+        <v>1.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.5</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>1</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1.3</v>
+      </c>
+      <c r="AS82">
+        <v>1.27</v>
+      </c>
+      <c r="AT82">
+        <v>2.57</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>10</v>
+      </c>
+      <c r="AW82">
+        <v>6</v>
+      </c>
+      <c r="AX82">
+        <v>8</v>
+      </c>
+      <c r="AY82">
+        <v>9</v>
+      </c>
+      <c r="AZ82">
+        <v>18</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>7</v>
+      </c>
+      <c r="BD82">
+        <v>2.43</v>
+      </c>
+      <c r="BE82">
+        <v>7</v>
+      </c>
+      <c r="BF82">
+        <v>1.82</v>
+      </c>
+      <c r="BG82">
+        <v>1.27</v>
+      </c>
+      <c r="BH82">
+        <v>3.2</v>
+      </c>
+      <c r="BI82">
+        <v>1.5</v>
+      </c>
+      <c r="BJ82">
+        <v>2.3</v>
+      </c>
+      <c r="BK82">
+        <v>2</v>
+      </c>
+      <c r="BL82">
+        <v>1.8</v>
+      </c>
+      <c r="BM82">
+        <v>2.43</v>
+      </c>
+      <c r="BN82">
+        <v>1.46</v>
+      </c>
+      <c r="BO82">
+        <v>3.3</v>
+      </c>
+      <c r="BP82">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7450737</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45563.40625</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s">
+        <v>79</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>150</v>
+      </c>
+      <c r="P83" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q83">
+        <v>1.91</v>
+      </c>
+      <c r="R83">
+        <v>2.38</v>
+      </c>
+      <c r="S83">
+        <v>7.5</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>2.9</v>
+      </c>
+      <c r="V83">
+        <v>2.62</v>
+      </c>
+      <c r="W83">
+        <v>1.42</v>
+      </c>
+      <c r="X83">
+        <v>6.25</v>
+      </c>
+      <c r="Y83">
+        <v>1.09</v>
+      </c>
+      <c r="Z83">
+        <v>1.38</v>
+      </c>
+      <c r="AA83">
+        <v>4.2</v>
+      </c>
+      <c r="AB83">
+        <v>8.5</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>9.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.55</v>
+      </c>
+      <c r="AG83">
+        <v>1.85</v>
+      </c>
+      <c r="AH83">
+        <v>1.95</v>
+      </c>
+      <c r="AI83">
+        <v>2.1</v>
+      </c>
+      <c r="AJ83">
+        <v>1.67</v>
+      </c>
+      <c r="AK83">
+        <v>1.06</v>
+      </c>
+      <c r="AL83">
+        <v>1.15</v>
+      </c>
+      <c r="AM83">
+        <v>2.95</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>0.5</v>
+      </c>
+      <c r="AP83">
+        <v>1.4</v>
+      </c>
+      <c r="AQ83">
+        <v>0.4</v>
+      </c>
+      <c r="AR83">
+        <v>1.5</v>
+      </c>
+      <c r="AS83">
+        <v>0.99</v>
+      </c>
+      <c r="AT83">
+        <v>2.49</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>2</v>
+      </c>
+      <c r="AW83">
+        <v>4</v>
+      </c>
+      <c r="AX83">
+        <v>2</v>
+      </c>
+      <c r="AY83">
+        <v>11</v>
+      </c>
+      <c r="AZ83">
+        <v>4</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>5</v>
+      </c>
+      <c r="BD83">
+        <v>1.13</v>
+      </c>
+      <c r="BE83">
+        <v>11.5</v>
+      </c>
+      <c r="BF83">
+        <v>8</v>
+      </c>
+      <c r="BG83">
+        <v>1.32</v>
+      </c>
+      <c r="BH83">
+        <v>3</v>
+      </c>
+      <c r="BI83">
+        <v>1.57</v>
+      </c>
+      <c r="BJ83">
+        <v>2.16</v>
+      </c>
+      <c r="BK83">
+        <v>2.38</v>
+      </c>
+      <c r="BL83">
+        <v>1.75</v>
+      </c>
+      <c r="BM83">
+        <v>2.6</v>
+      </c>
+      <c r="BN83">
+        <v>1.4</v>
+      </c>
+      <c r="BO83">
+        <v>3.55</v>
+      </c>
+      <c r="BP83">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7450735</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45563.52083333334</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s">
+        <v>71</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>151</v>
+      </c>
+      <c r="P84" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q84">
+        <v>3.25</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>3.4</v>
+      </c>
+      <c r="T84">
+        <v>1.42</v>
+      </c>
+      <c r="U84">
+        <v>2.6</v>
+      </c>
+      <c r="V84">
+        <v>3.14</v>
+      </c>
+      <c r="W84">
+        <v>1.34</v>
+      </c>
+      <c r="X84">
+        <v>7.2</v>
+      </c>
+      <c r="Y84">
+        <v>1.06</v>
+      </c>
+      <c r="Z84">
+        <v>2.55</v>
+      </c>
+      <c r="AA84">
+        <v>3.25</v>
+      </c>
+      <c r="AB84">
+        <v>2.63</v>
+      </c>
+      <c r="AC84">
+        <v>1.06</v>
+      </c>
+      <c r="AD84">
+        <v>8.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.36</v>
+      </c>
+      <c r="AF84">
+        <v>3.1</v>
+      </c>
+      <c r="AG84">
+        <v>2</v>
+      </c>
+      <c r="AH84">
+        <v>1.8</v>
+      </c>
+      <c r="AI84">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84">
+        <v>1.95</v>
+      </c>
+      <c r="AK84">
+        <v>1.4</v>
+      </c>
+      <c r="AL84">
+        <v>1.35</v>
+      </c>
+      <c r="AM84">
+        <v>1.4</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>0.25</v>
+      </c>
+      <c r="AP84">
+        <v>1.33</v>
+      </c>
+      <c r="AQ84">
+        <v>0.2</v>
+      </c>
+      <c r="AR84">
+        <v>1.58</v>
+      </c>
+      <c r="AS84">
+        <v>1.19</v>
+      </c>
+      <c r="AT84">
+        <v>2.77</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>14</v>
+      </c>
+      <c r="AX84">
+        <v>5</v>
+      </c>
+      <c r="AY84">
+        <v>19</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>14</v>
+      </c>
+      <c r="BB84">
+        <v>1</v>
+      </c>
+      <c r="BC84">
+        <v>15</v>
+      </c>
+      <c r="BD84">
+        <v>1.69</v>
+      </c>
+      <c r="BE84">
+        <v>8</v>
+      </c>
+      <c r="BF84">
+        <v>2.54</v>
+      </c>
+      <c r="BG84">
+        <v>1.21</v>
+      </c>
+      <c r="BH84">
+        <v>3.7</v>
+      </c>
+      <c r="BI84">
+        <v>1.4</v>
+      </c>
+      <c r="BJ84">
+        <v>2.75</v>
+      </c>
+      <c r="BK84">
+        <v>2.2</v>
+      </c>
+      <c r="BL84">
+        <v>1.95</v>
+      </c>
+      <c r="BM84">
+        <v>2.25</v>
+      </c>
+      <c r="BN84">
+        <v>1.57</v>
+      </c>
+      <c r="BO84">
+        <v>3</v>
+      </c>
+      <c r="BP84">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['83', '90+8']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -590,6 +593,9 @@
   </si>
   <si>
     <t>['4', '50']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1622,7 +1628,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2112,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0.2</v>
@@ -2240,7 +2246,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2527,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2652,7 +2658,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2858,7 +2864,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3064,7 +3070,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3145,7 +3151,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3270,7 +3276,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3476,7 +3482,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3682,7 +3688,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3888,7 +3894,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4094,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4506,7 +4512,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5330,7 +5336,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5948,7 +5954,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6154,7 +6160,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6232,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>1.4</v>
@@ -6360,7 +6366,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6566,7 +6572,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6647,7 +6653,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -6978,7 +6984,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7390,7 +7396,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7596,7 +7602,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8008,7 +8014,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8626,7 +8632,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8832,7 +8838,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9450,7 +9456,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9528,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -10068,7 +10074,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10274,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10686,7 +10692,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10767,7 +10773,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR48">
         <v>0.96</v>
@@ -11098,7 +11104,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11716,7 +11722,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11922,7 +11928,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12128,7 +12134,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12746,7 +12752,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12952,7 +12958,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13158,7 +13164,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13236,7 +13242,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13364,7 +13370,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13857,7 +13863,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ63">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -13982,7 +13988,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14394,7 +14400,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15218,7 +15224,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15296,7 +15302,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
         <v>2.6</v>
@@ -15836,7 +15842,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16042,7 +16048,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16866,7 +16872,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17278,7 +17284,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17690,7 +17696,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -17992,13 +17998,13 @@
         <v>7</v>
       </c>
       <c r="AV83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW83">
         <v>4</v>
       </c>
       <c r="AX83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY83">
         <v>11</v>
@@ -18195,31 +18201,31 @@
         <v>2.77</v>
       </c>
       <c r="AU84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW84">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AX84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY84">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ84">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB84">
         <v>1</v>
       </c>
       <c r="BC84">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD84">
         <v>1.69</v>
@@ -18259,6 +18265,212 @@
       </c>
       <c r="BP84">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7450734</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45563.63541666666</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>152</v>
+      </c>
+      <c r="P85" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q85">
+        <v>2.25</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>5.5</v>
+      </c>
+      <c r="T85">
+        <v>1.35</v>
+      </c>
+      <c r="U85">
+        <v>2.95</v>
+      </c>
+      <c r="V85">
+        <v>2.62</v>
+      </c>
+      <c r="W85">
+        <v>1.42</v>
+      </c>
+      <c r="X85">
+        <v>5.75</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>1.58</v>
+      </c>
+      <c r="AA85">
+        <v>3.85</v>
+      </c>
+      <c r="AB85">
+        <v>5.2</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>9.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.25</v>
+      </c>
+      <c r="AF85">
+        <v>3.8</v>
+      </c>
+      <c r="AG85">
+        <v>1.83</v>
+      </c>
+      <c r="AH85">
+        <v>1.93</v>
+      </c>
+      <c r="AI85">
+        <v>2</v>
+      </c>
+      <c r="AJ85">
+        <v>1.75</v>
+      </c>
+      <c r="AK85">
+        <v>1.14</v>
+      </c>
+      <c r="AL85">
+        <v>1.2</v>
+      </c>
+      <c r="AM85">
+        <v>2.3</v>
+      </c>
+      <c r="AN85">
+        <v>1.8</v>
+      </c>
+      <c r="AO85">
+        <v>0.8</v>
+      </c>
+      <c r="AP85">
+        <v>1.67</v>
+      </c>
+      <c r="AQ85">
+        <v>0.83</v>
+      </c>
+      <c r="AR85">
+        <v>1.53</v>
+      </c>
+      <c r="AS85">
+        <v>1.25</v>
+      </c>
+      <c r="AT85">
+        <v>2.78</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>7</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>10</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>1.23</v>
+      </c>
+      <c r="BE85">
+        <v>9.5</v>
+      </c>
+      <c r="BF85">
+        <v>5.4</v>
+      </c>
+      <c r="BG85">
+        <v>1.27</v>
+      </c>
+      <c r="BH85">
+        <v>3.2</v>
+      </c>
+      <c r="BI85">
+        <v>1.5</v>
+      </c>
+      <c r="BJ85">
+        <v>2.3</v>
+      </c>
+      <c r="BK85">
+        <v>2.38</v>
+      </c>
+      <c r="BL85">
+        <v>1.8</v>
+      </c>
+      <c r="BM85">
+        <v>2.43</v>
+      </c>
+      <c r="BN85">
+        <v>1.46</v>
+      </c>
+      <c r="BO85">
+        <v>3.3</v>
+      </c>
+      <c r="BP85">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['27', '55']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -596,6 +599,12 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['14', '61', '64']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1628,7 +1637,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1709,7 +1718,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2246,7 +2255,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2658,7 +2667,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2864,7 +2873,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3070,7 +3079,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3276,7 +3285,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3482,7 +3491,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3688,7 +3697,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3769,7 +3778,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3894,7 +3903,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -3975,7 +3984,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4100,7 +4109,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4178,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.2</v>
@@ -4384,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>0.2</v>
@@ -4512,7 +4521,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4590,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -5002,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.4</v>
@@ -5336,7 +5345,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5954,7 +5963,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6160,7 +6169,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6366,7 +6375,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6572,7 +6581,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6859,7 +6868,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -6984,7 +6993,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7062,7 +7071,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
         <v>2.4</v>
@@ -7396,7 +7405,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7602,7 +7611,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8014,7 +8023,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8092,7 +8101,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8632,7 +8641,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8838,7 +8847,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -8916,10 +8925,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9456,7 +9465,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9537,7 +9546,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10074,7 +10083,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10155,7 +10164,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR45">
         <v>1.15</v>
@@ -10280,7 +10289,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10692,7 +10701,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10976,7 +10985,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
         <v>0.2</v>
@@ -11104,7 +11113,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11185,7 +11194,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -11722,7 +11731,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11800,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -11928,7 +11937,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12134,7 +12143,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12215,7 +12224,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12624,7 +12633,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12752,7 +12761,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12958,7 +12967,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13164,7 +13173,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13370,7 +13379,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13988,7 +13997,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14275,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14400,7 +14409,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14687,7 +14696,7 @@
         <v>3</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -14890,7 +14899,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ68">
         <v>0.4</v>
@@ -15096,7 +15105,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69">
         <v>0.2</v>
@@ -15224,7 +15233,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15842,7 +15851,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16048,7 +16057,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16872,7 +16881,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17284,7 +17293,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17365,7 +17374,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17696,7 +17705,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18314,7 +18323,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18471,6 +18480,624 @@
       </c>
       <c r="BP85">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7450731</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45564.30208333334</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>117</v>
+      </c>
+      <c r="P86" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q86">
+        <v>2.88</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>3.6</v>
+      </c>
+      <c r="T86">
+        <v>1.36</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>2.2</v>
+      </c>
+      <c r="AA86">
+        <v>3.3</v>
+      </c>
+      <c r="AB86">
+        <v>3</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>8.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.28</v>
+      </c>
+      <c r="AF86">
+        <v>3.5</v>
+      </c>
+      <c r="AG86">
+        <v>1.85</v>
+      </c>
+      <c r="AH86">
+        <v>1.95</v>
+      </c>
+      <c r="AI86">
+        <v>1.7</v>
+      </c>
+      <c r="AJ86">
+        <v>2.05</v>
+      </c>
+      <c r="AK86">
+        <v>1.38</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.6</v>
+      </c>
+      <c r="AN86">
+        <v>1.75</v>
+      </c>
+      <c r="AO86">
+        <v>0.75</v>
+      </c>
+      <c r="AP86">
+        <v>2</v>
+      </c>
+      <c r="AQ86">
+        <v>0.6</v>
+      </c>
+      <c r="AR86">
+        <v>1.54</v>
+      </c>
+      <c r="AS86">
+        <v>1.36</v>
+      </c>
+      <c r="AT86">
+        <v>2.9</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>7</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>16</v>
+      </c>
+      <c r="AZ86">
+        <v>12</v>
+      </c>
+      <c r="BA86">
+        <v>4</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>7</v>
+      </c>
+      <c r="BD86">
+        <v>1.59</v>
+      </c>
+      <c r="BE86">
+        <v>8.5</v>
+      </c>
+      <c r="BF86">
+        <v>2.78</v>
+      </c>
+      <c r="BG86">
+        <v>1.2</v>
+      </c>
+      <c r="BH86">
+        <v>3.55</v>
+      </c>
+      <c r="BI86">
+        <v>1.41</v>
+      </c>
+      <c r="BJ86">
+        <v>2.52</v>
+      </c>
+      <c r="BK86">
+        <v>2.1</v>
+      </c>
+      <c r="BL86">
+        <v>1.9</v>
+      </c>
+      <c r="BM86">
+        <v>2.22</v>
+      </c>
+      <c r="BN86">
+        <v>1.65</v>
+      </c>
+      <c r="BO86">
+        <v>2.88</v>
+      </c>
+      <c r="BP86">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7450732</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45564.40625</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>85</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>153</v>
+      </c>
+      <c r="P87" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87">
+        <v>4.33</v>
+      </c>
+      <c r="R87">
+        <v>2.1</v>
+      </c>
+      <c r="S87">
+        <v>2.63</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>8</v>
+      </c>
+      <c r="Y87">
+        <v>1.08</v>
+      </c>
+      <c r="Z87">
+        <v>3.6</v>
+      </c>
+      <c r="AA87">
+        <v>3.4</v>
+      </c>
+      <c r="AB87">
+        <v>1.95</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>8.1</v>
+      </c>
+      <c r="AE87">
+        <v>1.33</v>
+      </c>
+      <c r="AF87">
+        <v>3.2</v>
+      </c>
+      <c r="AG87">
+        <v>2</v>
+      </c>
+      <c r="AH87">
+        <v>1.8</v>
+      </c>
+      <c r="AI87">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87">
+        <v>1.95</v>
+      </c>
+      <c r="AK87">
+        <v>1.75</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.28</v>
+      </c>
+      <c r="AN87">
+        <v>1.5</v>
+      </c>
+      <c r="AO87">
+        <v>1.75</v>
+      </c>
+      <c r="AP87">
+        <v>1.2</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>1.27</v>
+      </c>
+      <c r="AS87">
+        <v>1.22</v>
+      </c>
+      <c r="AT87">
+        <v>2.49</v>
+      </c>
+      <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>7</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>13</v>
+      </c>
+      <c r="AZ87">
+        <v>7</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>8</v>
+      </c>
+      <c r="BD87">
+        <v>2.1</v>
+      </c>
+      <c r="BE87">
+        <v>8</v>
+      </c>
+      <c r="BF87">
+        <v>1.91</v>
+      </c>
+      <c r="BG87">
+        <v>1.19</v>
+      </c>
+      <c r="BH87">
+        <v>3.56</v>
+      </c>
+      <c r="BI87">
+        <v>1.41</v>
+      </c>
+      <c r="BJ87">
+        <v>2.52</v>
+      </c>
+      <c r="BK87">
+        <v>1.92</v>
+      </c>
+      <c r="BL87">
+        <v>1.88</v>
+      </c>
+      <c r="BM87">
+        <v>2.17</v>
+      </c>
+      <c r="BN87">
+        <v>1.66</v>
+      </c>
+      <c r="BO87">
+        <v>2.88</v>
+      </c>
+      <c r="BP87">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7450736</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45564.52083333334</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>84</v>
+      </c>
+      <c r="H88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>95</v>
+      </c>
+      <c r="P88" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q88">
+        <v>2.6</v>
+      </c>
+      <c r="R88">
+        <v>2.2</v>
+      </c>
+      <c r="S88">
+        <v>4.33</v>
+      </c>
+      <c r="T88">
+        <v>1.37</v>
+      </c>
+      <c r="U88">
+        <v>2.8</v>
+      </c>
+      <c r="V88">
+        <v>2.7</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>6.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>1.92</v>
+      </c>
+      <c r="AA88">
+        <v>3.4</v>
+      </c>
+      <c r="AB88">
+        <v>3.65</v>
+      </c>
+      <c r="AC88">
+        <v>1.02</v>
+      </c>
+      <c r="AD88">
+        <v>10</v>
+      </c>
+      <c r="AE88">
+        <v>1.22</v>
+      </c>
+      <c r="AF88">
+        <v>3.8</v>
+      </c>
+      <c r="AG88">
+        <v>1.93</v>
+      </c>
+      <c r="AH88">
+        <v>1.83</v>
+      </c>
+      <c r="AI88">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>1.25</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.82</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>1.5</v>
+      </c>
+      <c r="AP88">
+        <v>1.6</v>
+      </c>
+      <c r="AQ88">
+        <v>1.8</v>
+      </c>
+      <c r="AR88">
+        <v>1.53</v>
+      </c>
+      <c r="AS88">
+        <v>0.93</v>
+      </c>
+      <c r="AT88">
+        <v>2.46</v>
+      </c>
+      <c r="AU88">
+        <v>2</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>6</v>
+      </c>
+      <c r="AZ88">
+        <v>5</v>
+      </c>
+      <c r="BA88">
+        <v>6</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>9</v>
+      </c>
+      <c r="BD88">
+        <v>1.51</v>
+      </c>
+      <c r="BE88">
+        <v>8.4</v>
+      </c>
+      <c r="BF88">
+        <v>3.08</v>
+      </c>
+      <c r="BG88">
+        <v>1.32</v>
+      </c>
+      <c r="BH88">
+        <v>2.78</v>
+      </c>
+      <c r="BI88">
+        <v>1.65</v>
+      </c>
+      <c r="BJ88">
+        <v>2.19</v>
+      </c>
+      <c r="BK88">
+        <v>2.08</v>
+      </c>
+      <c r="BL88">
+        <v>1.72</v>
+      </c>
+      <c r="BM88">
+        <v>2.7</v>
+      </c>
+      <c r="BN88">
+        <v>1.36</v>
+      </c>
+      <c r="BO88">
+        <v>3.72</v>
+      </c>
+      <c r="BP88">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['27', '55']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -556,9 +559,6 @@
     <t>['20', '32']</t>
   </si>
   <si>
-    <t>['86']</t>
-  </si>
-  <si>
     <t>['90+8']</t>
   </si>
   <si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1637,7 +1640,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2255,7 +2258,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2333,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -2667,7 +2670,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2873,7 +2876,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3079,7 +3082,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3285,7 +3288,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3491,7 +3494,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3697,7 +3700,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3903,7 +3906,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4109,7 +4112,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4521,7 +4524,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5345,7 +5348,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5632,7 +5635,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -5963,7 +5966,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6169,7 +6172,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6375,7 +6378,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6453,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6581,7 +6584,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6993,7 +6996,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7280,7 +7283,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7405,7 +7408,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7611,7 +7614,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8023,7 +8026,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8641,7 +8644,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8847,7 +8850,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9465,7 +9468,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10083,7 +10086,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10289,7 +10292,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10701,7 +10704,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10779,7 +10782,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>0.83</v>
@@ -11113,7 +11116,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11731,7 +11734,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11812,7 +11815,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -14487,7 +14490,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66">
         <v>0.2</v>
@@ -17705,7 +17708,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -19098,6 +19101,212 @@
       </c>
       <c r="BP88">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7450729</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>154</v>
+      </c>
+      <c r="P89" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q89">
+        <v>2.3</v>
+      </c>
+      <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1.36</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>1.7</v>
+      </c>
+      <c r="AA89">
+        <v>3.6</v>
+      </c>
+      <c r="AB89">
+        <v>4.5</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>9</v>
+      </c>
+      <c r="AE89">
+        <v>1.24</v>
+      </c>
+      <c r="AF89">
+        <v>3.22</v>
+      </c>
+      <c r="AG89">
+        <v>1.9</v>
+      </c>
+      <c r="AH89">
+        <v>1.9</v>
+      </c>
+      <c r="AI89">
+        <v>1.8</v>
+      </c>
+      <c r="AJ89">
+        <v>1.95</v>
+      </c>
+      <c r="AK89">
+        <v>1.14</v>
+      </c>
+      <c r="AL89">
+        <v>1.27</v>
+      </c>
+      <c r="AM89">
+        <v>2</v>
+      </c>
+      <c r="AN89">
+        <v>1.75</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>1.6</v>
+      </c>
+      <c r="AQ89">
+        <v>0.25</v>
+      </c>
+      <c r="AR89">
+        <v>1.42</v>
+      </c>
+      <c r="AS89">
+        <v>1.08</v>
+      </c>
+      <c r="AT89">
+        <v>2.5</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
+        <v>3</v>
+      </c>
+      <c r="AW89">
+        <v>9</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>6</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>9</v>
+      </c>
+      <c r="BD89">
+        <v>1.36</v>
+      </c>
+      <c r="BE89">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF89">
+        <v>4.26</v>
+      </c>
+      <c r="BG89">
+        <v>1.29</v>
+      </c>
+      <c r="BH89">
+        <v>3.3</v>
+      </c>
+      <c r="BI89">
+        <v>1.5</v>
+      </c>
+      <c r="BJ89">
+        <v>2.55</v>
+      </c>
+      <c r="BK89">
+        <v>1.92</v>
+      </c>
+      <c r="BL89">
+        <v>1.88</v>
+      </c>
+      <c r="BM89">
+        <v>2.33</v>
+      </c>
+      <c r="BN89">
+        <v>1.58</v>
+      </c>
+      <c r="BO89">
+        <v>2.9</v>
+      </c>
+      <c r="BP89">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -1333,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA3">
         <v>12</v>
@@ -1745,10 +1745,10 @@
         <v>6</v>
       </c>
       <c r="AY4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA4">
         <v>5</v>
@@ -1951,10 +1951,10 @@
         <v>7</v>
       </c>
       <c r="AY5">
+        <v>18</v>
+      </c>
+      <c r="AZ5">
         <v>13</v>
-      </c>
-      <c r="AZ5">
-        <v>10</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -2157,10 +2157,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6">
         <v>3</v>
@@ -2363,10 +2363,10 @@
         <v>16</v>
       </c>
       <c r="AY7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ8">
         <v>7</v>
@@ -2775,10 +2775,10 @@
         <v>3</v>
       </c>
       <c r="AY9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA9">
         <v>4</v>
@@ -2984,7 +2984,7 @@
         <v>10</v>
       </c>
       <c r="AZ10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA10">
         <v>1</v>
@@ -3187,10 +3187,10 @@
         <v>6</v>
       </c>
       <c r="AY11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA11">
         <v>4</v>
@@ -3393,10 +3393,10 @@
         <v>4</v>
       </c>
       <c r="AY12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA12">
         <v>3</v>
@@ -3599,10 +3599,10 @@
         <v>3</v>
       </c>
       <c r="AY13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA13">
         <v>4</v>
@@ -3805,10 +3805,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AZ14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA14">
         <v>11</v>
@@ -4011,10 +4011,10 @@
         <v>6</v>
       </c>
       <c r="AY15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA15">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>9</v>
       </c>
       <c r="AY16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA16">
         <v>2</v>
@@ -4423,10 +4423,10 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA17">
         <v>1</v>
@@ -4629,10 +4629,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA18">
         <v>2</v>
@@ -4835,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="AY19">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ19">
         <v>4</v>
@@ -5041,10 +5041,10 @@
         <v>5</v>
       </c>
       <c r="AY20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA20">
         <v>7</v>
@@ -5247,10 +5247,10 @@
         <v>2</v>
       </c>
       <c r="AY21">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5453,10 +5453,10 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA22">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ23">
         <v>4</v>
@@ -5865,10 +5865,10 @@
         <v>4</v>
       </c>
       <c r="AY24">
+        <v>20</v>
+      </c>
+      <c r="AZ24">
         <v>11</v>
-      </c>
-      <c r="AZ24">
-        <v>8</v>
       </c>
       <c r="BA24">
         <v>9</v>
@@ -6071,10 +6071,10 @@
         <v>6</v>
       </c>
       <c r="AY25">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA25">
         <v>7</v>
@@ -6277,10 +6277,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA26">
         <v>7</v>
@@ -6483,10 +6483,10 @@
         <v>3</v>
       </c>
       <c r="AY27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA27">
         <v>2</v>
@@ -6689,10 +6689,10 @@
         <v>4</v>
       </c>
       <c r="AY28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA28">
         <v>3</v>
@@ -6895,10 +6895,10 @@
         <v>6</v>
       </c>
       <c r="AY29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA29">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA30">
         <v>10</v>
@@ -7307,10 +7307,10 @@
         <v>1</v>
       </c>
       <c r="AY31">
+        <v>16</v>
+      </c>
+      <c r="AZ31">
         <v>11</v>
-      </c>
-      <c r="AZ31">
-        <v>8</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -7513,10 +7513,10 @@
         <v>10</v>
       </c>
       <c r="AY32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA32">
         <v>3</v>
@@ -7719,10 +7719,10 @@
         <v>2</v>
       </c>
       <c r="AY33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA33">
         <v>3</v>
@@ -7925,10 +7925,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ34">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA34">
         <v>7</v>
@@ -8131,10 +8131,10 @@
         <v>1</v>
       </c>
       <c r="AY35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8337,10 +8337,10 @@
         <v>5</v>
       </c>
       <c r="AY36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ36">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA36">
         <v>3</v>
@@ -8543,10 +8543,10 @@
         <v>6</v>
       </c>
       <c r="AY37">
+        <v>17</v>
+      </c>
+      <c r="AZ37">
         <v>12</v>
-      </c>
-      <c r="AZ37">
-        <v>10</v>
       </c>
       <c r="BA37">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>7</v>
       </c>
       <c r="AY38">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AZ38">
         <v>14</v>
@@ -8955,10 +8955,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA39">
         <v>3</v>
@@ -9161,10 +9161,10 @@
         <v>1</v>
       </c>
       <c r="AY40">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA40">
         <v>9</v>
@@ -9367,10 +9367,10 @@
         <v>8</v>
       </c>
       <c r="AY41">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ41">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA41">
         <v>2</v>
@@ -9573,10 +9573,10 @@
         <v>7</v>
       </c>
       <c r="AY42">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -9779,10 +9779,10 @@
         <v>6</v>
       </c>
       <c r="AY43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ43">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA43">
         <v>5</v>
@@ -9988,7 +9988,7 @@
         <v>6</v>
       </c>
       <c r="AZ44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA44">
         <v>1</v>
@@ -10191,10 +10191,10 @@
         <v>2</v>
       </c>
       <c r="AY45">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA45">
         <v>7</v>
@@ -10397,10 +10397,10 @@
         <v>6</v>
       </c>
       <c r="AY46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ46">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA46">
         <v>5</v>
@@ -10603,10 +10603,10 @@
         <v>4</v>
       </c>
       <c r="AY47">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ47">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA47">
         <v>6</v>
@@ -10809,10 +10809,10 @@
         <v>3</v>
       </c>
       <c r="AY48">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA48">
         <v>5</v>
@@ -11015,10 +11015,10 @@
         <v>4</v>
       </c>
       <c r="AY49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA49">
         <v>3</v>
@@ -11221,10 +11221,10 @@
         <v>1</v>
       </c>
       <c r="AY50">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ50">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11427,10 +11427,10 @@
         <v>1</v>
       </c>
       <c r="AY51">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ51">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA51">
         <v>7</v>
@@ -11633,10 +11633,10 @@
         <v>5</v>
       </c>
       <c r="AY52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA52">
         <v>1</v>
@@ -11839,10 +11839,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ53">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12045,10 +12045,10 @@
         <v>6</v>
       </c>
       <c r="AY54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA54">
         <v>2</v>
@@ -12251,10 +12251,10 @@
         <v>4</v>
       </c>
       <c r="AY55">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ55">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA55">
         <v>5</v>
@@ -12457,10 +12457,10 @@
         <v>6</v>
       </c>
       <c r="AY56">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ56">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA56">
         <v>2</v>
@@ -12663,10 +12663,10 @@
         <v>9</v>
       </c>
       <c r="AY57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ57">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -12869,10 +12869,10 @@
         <v>11</v>
       </c>
       <c r="AY58">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ58">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA58">
         <v>2</v>
@@ -13075,10 +13075,10 @@
         <v>5</v>
       </c>
       <c r="AY59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ59">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA59">
         <v>8</v>
@@ -13281,10 +13281,10 @@
         <v>5</v>
       </c>
       <c r="AY60">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ60">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -13487,10 +13487,10 @@
         <v>5</v>
       </c>
       <c r="AY61">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ61">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA61">
         <v>6</v>
@@ -13693,10 +13693,10 @@
         <v>5</v>
       </c>
       <c r="AY62">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ62">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA62">
         <v>4</v>
@@ -13899,10 +13899,10 @@
         <v>5</v>
       </c>
       <c r="AY63">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ63">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA63">
         <v>6</v>
@@ -14105,10 +14105,10 @@
         <v>8</v>
       </c>
       <c r="AY64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ64">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA64">
         <v>5</v>
@@ -14311,10 +14311,10 @@
         <v>10</v>
       </c>
       <c r="AY65">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ65">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA65">
         <v>11</v>
@@ -14517,10 +14517,10 @@
         <v>4</v>
       </c>
       <c r="AY66">
+        <v>19</v>
+      </c>
+      <c r="AZ66">
         <v>17</v>
-      </c>
-      <c r="AZ66">
-        <v>11</v>
       </c>
       <c r="BA66">
         <v>6</v>
@@ -14723,10 +14723,10 @@
         <v>2</v>
       </c>
       <c r="AY67">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA67">
         <v>6</v>
@@ -15135,10 +15135,10 @@
         <v>4</v>
       </c>
       <c r="AY69">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA69">
         <v>7</v>
@@ -15341,10 +15341,10 @@
         <v>2</v>
       </c>
       <c r="AY70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA70">
         <v>3</v>
@@ -15547,10 +15547,10 @@
         <v>6</v>
       </c>
       <c r="AY71">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA71">
         <v>4</v>
@@ -15753,10 +15753,10 @@
         <v>4</v>
       </c>
       <c r="AY72">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ72">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -15959,10 +15959,10 @@
         <v>8</v>
       </c>
       <c r="AY73">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ73">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA73">
         <v>2</v>
@@ -16165,10 +16165,10 @@
         <v>3</v>
       </c>
       <c r="AY74">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ74">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA74">
         <v>5</v>
@@ -16371,10 +16371,10 @@
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA75">
         <v>2</v>
@@ -16577,10 +16577,10 @@
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA76">
         <v>2</v>
@@ -16783,10 +16783,10 @@
         <v>11</v>
       </c>
       <c r="AY77">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ77">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA77">
         <v>3</v>
@@ -16989,10 +16989,10 @@
         <v>5</v>
       </c>
       <c r="AY78">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA78">
         <v>2</v>
@@ -17195,10 +17195,10 @@
         <v>6</v>
       </c>
       <c r="AY79">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA79">
         <v>8</v>
@@ -17401,10 +17401,10 @@
         <v>4</v>
       </c>
       <c r="AY80">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA80">
         <v>7</v>
@@ -17607,10 +17607,10 @@
         <v>4</v>
       </c>
       <c r="AY81">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ81">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA81">
         <v>7</v>
@@ -17813,10 +17813,10 @@
         <v>8</v>
       </c>
       <c r="AY82">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ82">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA82">
         <v>2</v>
@@ -18019,10 +18019,10 @@
         <v>4</v>
       </c>
       <c r="AY83">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA83">
         <v>5</v>
@@ -18225,10 +18225,10 @@
         <v>3</v>
       </c>
       <c r="AY84">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ84">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA84">
         <v>15</v>
@@ -18431,10 +18431,10 @@
         <v>7</v>
       </c>
       <c r="AY85">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ85">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA85">
         <v>6</v>
@@ -18637,10 +18637,10 @@
         <v>5</v>
       </c>
       <c r="AY86">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ86">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA86">
         <v>4</v>
@@ -18843,10 +18843,10 @@
         <v>2</v>
       </c>
       <c r="AY87">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA87">
         <v>5</v>
@@ -19049,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="AY88">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ88">
         <v>5</v>
@@ -19255,10 +19255,10 @@
         <v>3</v>
       </c>
       <c r="AY89">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ89">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA89">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -608,6 +608,12 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['31', '41', '57', '73', '75', '86']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1927,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3160,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>0.83</v>
@@ -3575,7 +3581,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -3984,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -6047,7 +6053,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -7692,7 +7698,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.25</v>
@@ -7898,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.2</v>
@@ -8107,7 +8113,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8310,7 +8316,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>0.8</v>
@@ -9343,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>2.02</v>
@@ -10164,7 +10170,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.6</v>
@@ -12430,10 +12436,10 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12639,7 +12645,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.6</v>
@@ -15523,7 +15529,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15932,7 +15938,7 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>2.4</v>
@@ -16344,7 +16350,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1.4</v>
@@ -16553,7 +16559,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -19307,6 +19313,418 @@
       </c>
       <c r="BP89">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7450742</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45569.54166666666</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>6</v>
+      </c>
+      <c r="N90">
+        <v>6</v>
+      </c>
+      <c r="O90" t="s">
+        <v>95</v>
+      </c>
+      <c r="P90" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q90">
+        <v>3.6</v>
+      </c>
+      <c r="R90">
+        <v>2.05</v>
+      </c>
+      <c r="S90">
+        <v>3.2</v>
+      </c>
+      <c r="T90">
+        <v>1.43</v>
+      </c>
+      <c r="U90">
+        <v>2.65</v>
+      </c>
+      <c r="V90">
+        <v>2.8</v>
+      </c>
+      <c r="W90">
+        <v>1.39</v>
+      </c>
+      <c r="X90">
+        <v>7</v>
+      </c>
+      <c r="Y90">
+        <v>1.07</v>
+      </c>
+      <c r="Z90">
+        <v>2.9</v>
+      </c>
+      <c r="AA90">
+        <v>3.1</v>
+      </c>
+      <c r="AB90">
+        <v>2.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.05</v>
+      </c>
+      <c r="AD90">
+        <v>8</v>
+      </c>
+      <c r="AE90">
+        <v>1.3</v>
+      </c>
+      <c r="AF90">
+        <v>3.3</v>
+      </c>
+      <c r="AG90">
+        <v>2.1</v>
+      </c>
+      <c r="AH90">
+        <v>1.7</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.95</v>
+      </c>
+      <c r="AK90">
+        <v>1.4</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>1.53</v>
+      </c>
+      <c r="AN90">
+        <v>1.2</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>1</v>
+      </c>
+      <c r="AQ90">
+        <v>1.4</v>
+      </c>
+      <c r="AR90">
+        <v>1.39</v>
+      </c>
+      <c r="AS90">
+        <v>1.28</v>
+      </c>
+      <c r="AT90">
+        <v>2.67</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>12</v>
+      </c>
+      <c r="AW90">
+        <v>8</v>
+      </c>
+      <c r="AX90">
+        <v>9</v>
+      </c>
+      <c r="AY90">
+        <v>16</v>
+      </c>
+      <c r="AZ90">
+        <v>23</v>
+      </c>
+      <c r="BA90">
+        <v>7</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>12</v>
+      </c>
+      <c r="BD90">
+        <v>2.2</v>
+      </c>
+      <c r="BE90">
+        <v>7.6</v>
+      </c>
+      <c r="BF90">
+        <v>1.95</v>
+      </c>
+      <c r="BG90">
+        <v>1.24</v>
+      </c>
+      <c r="BH90">
+        <v>3.22</v>
+      </c>
+      <c r="BI90">
+        <v>1.48</v>
+      </c>
+      <c r="BJ90">
+        <v>2.33</v>
+      </c>
+      <c r="BK90">
+        <v>1.85</v>
+      </c>
+      <c r="BL90">
+        <v>1.85</v>
+      </c>
+      <c r="BM90">
+        <v>2.38</v>
+      </c>
+      <c r="BN90">
+        <v>1.46</v>
+      </c>
+      <c r="BO90">
+        <v>3.14</v>
+      </c>
+      <c r="BP90">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7450745</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45569.64583333334</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>82</v>
+      </c>
+      <c r="H91" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>95</v>
+      </c>
+      <c r="P91" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q91">
+        <v>2.6</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>4.33</v>
+      </c>
+      <c r="T91">
+        <v>1.38</v>
+      </c>
+      <c r="U91">
+        <v>2.8</v>
+      </c>
+      <c r="V91">
+        <v>2.7</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>6.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>1.9</v>
+      </c>
+      <c r="AA91">
+        <v>3.5</v>
+      </c>
+      <c r="AB91">
+        <v>4</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>9</v>
+      </c>
+      <c r="AE91">
+        <v>1.22</v>
+      </c>
+      <c r="AF91">
+        <v>3.8</v>
+      </c>
+      <c r="AG91">
+        <v>2</v>
+      </c>
+      <c r="AH91">
+        <v>1.8</v>
+      </c>
+      <c r="AI91">
+        <v>1.8</v>
+      </c>
+      <c r="AJ91">
+        <v>1.95</v>
+      </c>
+      <c r="AK91">
+        <v>1.3</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.7</v>
+      </c>
+      <c r="AN91">
+        <v>2.5</v>
+      </c>
+      <c r="AO91">
+        <v>0.6</v>
+      </c>
+      <c r="AP91">
+        <v>2</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.38</v>
+      </c>
+      <c r="AS91">
+        <v>1.46</v>
+      </c>
+      <c r="AT91">
+        <v>2.84</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>8</v>
+      </c>
+      <c r="AW91">
+        <v>9</v>
+      </c>
+      <c r="AX91">
+        <v>2</v>
+      </c>
+      <c r="AY91">
+        <v>22</v>
+      </c>
+      <c r="AZ91">
+        <v>11</v>
+      </c>
+      <c r="BA91">
+        <v>8</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>12</v>
+      </c>
+      <c r="BD91">
+        <v>1.64</v>
+      </c>
+      <c r="BE91">
+        <v>8.5</v>
+      </c>
+      <c r="BF91">
+        <v>2.76</v>
+      </c>
+      <c r="BG91">
+        <v>1.16</v>
+      </c>
+      <c r="BH91">
+        <v>3.85</v>
+      </c>
+      <c r="BI91">
+        <v>1.36</v>
+      </c>
+      <c r="BJ91">
+        <v>2.7</v>
+      </c>
+      <c r="BK91">
+        <v>2.1</v>
+      </c>
+      <c r="BL91">
+        <v>2.05</v>
+      </c>
+      <c r="BM91">
+        <v>2.06</v>
+      </c>
+      <c r="BN91">
+        <v>1.62</v>
+      </c>
+      <c r="BO91">
+        <v>2.65</v>
+      </c>
+      <c r="BP91">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,12 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['58', '90+2']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -614,6 +620,15 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['33', '90+1']</t>
+  </si>
+  <si>
+    <t>['26', '54']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1521,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1646,7 +1661,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2139,7 +2154,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2264,7 +2279,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2548,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
         <v>0.83</v>
@@ -2676,7 +2691,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2757,7 +2772,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2882,7 +2897,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2960,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3088,7 +3103,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3294,7 +3309,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3375,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3500,7 +3515,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3578,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>1.4</v>
@@ -3706,7 +3721,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3784,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
         <v>1.8</v>
@@ -3912,7 +3927,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4118,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4530,7 +4545,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5226,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>0.2</v>
@@ -5354,7 +5369,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5435,7 +5450,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5844,10 +5859,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -5972,7 +5987,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6178,7 +6193,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6384,7 +6399,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6590,7 +6605,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6668,7 +6683,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
         <v>0.83</v>
@@ -7002,7 +7017,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7414,7 +7429,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7495,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7620,7 +7635,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8032,7 +8047,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8319,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -8525,7 +8540,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -8650,7 +8665,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8856,7 +8871,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9474,7 +9489,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9758,10 +9773,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -9964,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
         <v>1.4</v>
@@ -10092,7 +10107,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10298,7 +10313,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10379,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -10710,7 +10725,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10997,7 +11012,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11122,7 +11137,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11406,7 +11421,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>0.2</v>
@@ -11946,7 +11961,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12152,7 +12167,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12230,7 +12245,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12770,7 +12785,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12848,7 +12863,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
         <v>2.4</v>
@@ -12976,7 +12991,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13054,10 +13069,10 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.38</v>
@@ -13182,7 +13197,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13263,7 +13278,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13388,7 +13403,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14006,7 +14021,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14418,7 +14433,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14702,7 +14717,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67">
         <v>1.8</v>
@@ -15117,7 +15132,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15242,7 +15257,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15323,7 +15338,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15526,7 +15541,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15860,7 +15875,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16066,7 +16081,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16147,7 +16162,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -16556,7 +16571,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>1.4</v>
@@ -16762,10 +16777,10 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
+        <v>1.67</v>
+      </c>
+      <c r="AQ77">
         <v>1.4</v>
-      </c>
-      <c r="AQ77">
-        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.21</v>
@@ -16890,7 +16905,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16971,7 +16986,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17174,7 +17189,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ79">
         <v>0.2</v>
@@ -17302,7 +17317,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17714,7 +17729,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18332,7 +18347,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18744,7 +18759,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -18950,7 +18965,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19156,7 +19171,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19362,7 +19377,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19568,7 +19583,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19725,6 +19740,830 @@
       </c>
       <c r="BP91">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7450744</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45570.30208333334</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>155</v>
+      </c>
+      <c r="P92" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>3.5</v>
+      </c>
+      <c r="T92">
+        <v>1.35</v>
+      </c>
+      <c r="U92">
+        <v>3.18</v>
+      </c>
+      <c r="V92">
+        <v>2.74</v>
+      </c>
+      <c r="W92">
+        <v>1.45</v>
+      </c>
+      <c r="X92">
+        <v>6.6</v>
+      </c>
+      <c r="Y92">
+        <v>1.09</v>
+      </c>
+      <c r="Z92">
+        <v>2.3</v>
+      </c>
+      <c r="AA92">
+        <v>3.2</v>
+      </c>
+      <c r="AB92">
+        <v>3</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>9</v>
+      </c>
+      <c r="AE92">
+        <v>1.22</v>
+      </c>
+      <c r="AF92">
+        <v>3.35</v>
+      </c>
+      <c r="AG92">
+        <v>1.95</v>
+      </c>
+      <c r="AH92">
+        <v>1.85</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.35</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.62</v>
+      </c>
+      <c r="AN92">
+        <v>1.4</v>
+      </c>
+      <c r="AO92">
+        <v>0.8</v>
+      </c>
+      <c r="AP92">
+        <v>1.67</v>
+      </c>
+      <c r="AQ92">
+        <v>0.67</v>
+      </c>
+      <c r="AR92">
+        <v>1.35</v>
+      </c>
+      <c r="AS92">
+        <v>1.24</v>
+      </c>
+      <c r="AT92">
+        <v>2.59</v>
+      </c>
+      <c r="AU92">
+        <v>9</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>12</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>32</v>
+      </c>
+      <c r="AZ92">
+        <v>6</v>
+      </c>
+      <c r="BA92">
+        <v>14</v>
+      </c>
+      <c r="BB92">
+        <v>2</v>
+      </c>
+      <c r="BC92">
+        <v>16</v>
+      </c>
+      <c r="BD92">
+        <v>1.7</v>
+      </c>
+      <c r="BE92">
+        <v>8.4</v>
+      </c>
+      <c r="BF92">
+        <v>2.61</v>
+      </c>
+      <c r="BG92">
+        <v>1.25</v>
+      </c>
+      <c r="BH92">
+        <v>3.3</v>
+      </c>
+      <c r="BI92">
+        <v>1.48</v>
+      </c>
+      <c r="BJ92">
+        <v>2.38</v>
+      </c>
+      <c r="BK92">
+        <v>2.38</v>
+      </c>
+      <c r="BL92">
+        <v>1.9</v>
+      </c>
+      <c r="BM92">
+        <v>2.35</v>
+      </c>
+      <c r="BN92">
+        <v>1.49</v>
+      </c>
+      <c r="BO92">
+        <v>3.15</v>
+      </c>
+      <c r="BP92">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7450743</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45570.40625</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H93" t="s">
+        <v>86</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>95</v>
+      </c>
+      <c r="P93" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q93">
+        <v>4.33</v>
+      </c>
+      <c r="R93">
+        <v>2.1</v>
+      </c>
+      <c r="S93">
+        <v>2.63</v>
+      </c>
+      <c r="T93">
+        <v>1.42</v>
+      </c>
+      <c r="U93">
+        <v>2.65</v>
+      </c>
+      <c r="V93">
+        <v>2.85</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>7</v>
+      </c>
+      <c r="Y93">
+        <v>1.07</v>
+      </c>
+      <c r="Z93">
+        <v>3.75</v>
+      </c>
+      <c r="AA93">
+        <v>3.3</v>
+      </c>
+      <c r="AB93">
+        <v>2</v>
+      </c>
+      <c r="AC93">
+        <v>1.06</v>
+      </c>
+      <c r="AD93">
+        <v>8.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.33</v>
+      </c>
+      <c r="AF93">
+        <v>3.25</v>
+      </c>
+      <c r="AG93">
+        <v>2.05</v>
+      </c>
+      <c r="AH93">
+        <v>1.75</v>
+      </c>
+      <c r="AI93">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93">
+        <v>1.95</v>
+      </c>
+      <c r="AK93">
+        <v>1.85</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.22</v>
+      </c>
+      <c r="AN93">
+        <v>1.5</v>
+      </c>
+      <c r="AO93">
+        <v>2.6</v>
+      </c>
+      <c r="AP93">
+        <v>1.2</v>
+      </c>
+      <c r="AQ93">
+        <v>2.67</v>
+      </c>
+      <c r="AR93">
+        <v>1.66</v>
+      </c>
+      <c r="AS93">
+        <v>1.37</v>
+      </c>
+      <c r="AT93">
+        <v>3.03</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>11</v>
+      </c>
+      <c r="AY93">
+        <v>11</v>
+      </c>
+      <c r="AZ93">
+        <v>22</v>
+      </c>
+      <c r="BA93">
+        <v>6</v>
+      </c>
+      <c r="BB93">
+        <v>7</v>
+      </c>
+      <c r="BC93">
+        <v>13</v>
+      </c>
+      <c r="BD93">
+        <v>2.65</v>
+      </c>
+      <c r="BE93">
+        <v>8.1</v>
+      </c>
+      <c r="BF93">
+        <v>1.68</v>
+      </c>
+      <c r="BG93">
+        <v>1.24</v>
+      </c>
+      <c r="BH93">
+        <v>3.22</v>
+      </c>
+      <c r="BI93">
+        <v>1.59</v>
+      </c>
+      <c r="BJ93">
+        <v>2.28</v>
+      </c>
+      <c r="BK93">
+        <v>2.38</v>
+      </c>
+      <c r="BL93">
+        <v>1.95</v>
+      </c>
+      <c r="BM93">
+        <v>2.51</v>
+      </c>
+      <c r="BN93">
+        <v>1.5</v>
+      </c>
+      <c r="BO93">
+        <v>3.14</v>
+      </c>
+      <c r="BP93">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7450738</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45570.52083333334</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>87</v>
+      </c>
+      <c r="H94" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>95</v>
+      </c>
+      <c r="P94" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q94">
+        <v>2.63</v>
+      </c>
+      <c r="R94">
+        <v>2.25</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>2.85</v>
+      </c>
+      <c r="V94">
+        <v>2.65</v>
+      </c>
+      <c r="W94">
+        <v>1.42</v>
+      </c>
+      <c r="X94">
+        <v>6.25</v>
+      </c>
+      <c r="Y94">
+        <v>1.09</v>
+      </c>
+      <c r="Z94">
+        <v>2.05</v>
+      </c>
+      <c r="AA94">
+        <v>3.4</v>
+      </c>
+      <c r="AB94">
+        <v>3.6</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.28</v>
+      </c>
+      <c r="AF94">
+        <v>3.55</v>
+      </c>
+      <c r="AG94">
+        <v>1.8</v>
+      </c>
+      <c r="AH94">
+        <v>2</v>
+      </c>
+      <c r="AI94">
+        <v>1.67</v>
+      </c>
+      <c r="AJ94">
+        <v>2.1</v>
+      </c>
+      <c r="AK94">
+        <v>1.3</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.73</v>
+      </c>
+      <c r="AN94">
+        <v>1.75</v>
+      </c>
+      <c r="AO94">
+        <v>0.2</v>
+      </c>
+      <c r="AP94">
+        <v>1.4</v>
+      </c>
+      <c r="AQ94">
+        <v>0.67</v>
+      </c>
+      <c r="AR94">
+        <v>1.85</v>
+      </c>
+      <c r="AS94">
+        <v>1.33</v>
+      </c>
+      <c r="AT94">
+        <v>3.18</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>15</v>
+      </c>
+      <c r="AX94">
+        <v>8</v>
+      </c>
+      <c r="AY94">
+        <v>25</v>
+      </c>
+      <c r="AZ94">
+        <v>15</v>
+      </c>
+      <c r="BA94">
+        <v>17</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>22</v>
+      </c>
+      <c r="BD94">
+        <v>1.76</v>
+      </c>
+      <c r="BE94">
+        <v>7</v>
+      </c>
+      <c r="BF94">
+        <v>2.6</v>
+      </c>
+      <c r="BG94">
+        <v>1.21</v>
+      </c>
+      <c r="BH94">
+        <v>3.44</v>
+      </c>
+      <c r="BI94">
+        <v>1.5</v>
+      </c>
+      <c r="BJ94">
+        <v>2.5</v>
+      </c>
+      <c r="BK94">
+        <v>2.25</v>
+      </c>
+      <c r="BL94">
+        <v>1.95</v>
+      </c>
+      <c r="BM94">
+        <v>2.32</v>
+      </c>
+      <c r="BN94">
+        <v>1.57</v>
+      </c>
+      <c r="BO94">
+        <v>3.02</v>
+      </c>
+      <c r="BP94">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7450740</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45570.63541666666</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>156</v>
+      </c>
+      <c r="P95" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q95">
+        <v>2.1</v>
+      </c>
+      <c r="R95">
+        <v>2.3</v>
+      </c>
+      <c r="S95">
+        <v>5.5</v>
+      </c>
+      <c r="T95">
+        <v>1.3</v>
+      </c>
+      <c r="U95">
+        <v>3.25</v>
+      </c>
+      <c r="V95">
+        <v>2.4</v>
+      </c>
+      <c r="W95">
+        <v>1.5</v>
+      </c>
+      <c r="X95">
+        <v>5.25</v>
+      </c>
+      <c r="Y95">
+        <v>1.12</v>
+      </c>
+      <c r="Z95">
+        <v>1.6</v>
+      </c>
+      <c r="AA95">
+        <v>4.2</v>
+      </c>
+      <c r="AB95">
+        <v>5</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>13</v>
+      </c>
+      <c r="AE95">
+        <v>1.14</v>
+      </c>
+      <c r="AF95">
+        <v>4.8</v>
+      </c>
+      <c r="AG95">
+        <v>1.75</v>
+      </c>
+      <c r="AH95">
+        <v>2.05</v>
+      </c>
+      <c r="AI95">
+        <v>1.8</v>
+      </c>
+      <c r="AJ95">
+        <v>1.95</v>
+      </c>
+      <c r="AK95">
+        <v>1.07</v>
+      </c>
+      <c r="AL95">
+        <v>1.12</v>
+      </c>
+      <c r="AM95">
+        <v>3</v>
+      </c>
+      <c r="AN95">
+        <v>3</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>2.5</v>
+      </c>
+      <c r="AQ95">
+        <v>1.4</v>
+      </c>
+      <c r="AR95">
+        <v>1.94</v>
+      </c>
+      <c r="AS95">
+        <v>1.54</v>
+      </c>
+      <c r="AT95">
+        <v>3.48</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>7</v>
+      </c>
+      <c r="AW95">
+        <v>20</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>39</v>
+      </c>
+      <c r="AZ95">
+        <v>11</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>8</v>
+      </c>
+      <c r="BD95">
+        <v>1.29</v>
+      </c>
+      <c r="BE95">
+        <v>9.5</v>
+      </c>
+      <c r="BF95">
+        <v>4.76</v>
+      </c>
+      <c r="BG95">
+        <v>1.25</v>
+      </c>
+      <c r="BH95">
+        <v>3.3</v>
+      </c>
+      <c r="BI95">
+        <v>1.48</v>
+      </c>
+      <c r="BJ95">
+        <v>2.38</v>
+      </c>
+      <c r="BK95">
+        <v>2</v>
+      </c>
+      <c r="BL95">
+        <v>1.91</v>
+      </c>
+      <c r="BM95">
+        <v>2.35</v>
+      </c>
+      <c r="BN95">
+        <v>1.49</v>
+      </c>
+      <c r="BO95">
+        <v>3.15</v>
+      </c>
+      <c r="BP95">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,12 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['2', '8']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -629,6 +635,9 @@
   </si>
   <si>
     <t>['26', '54']</t>
+  </si>
+  <si>
+    <t>['21', '47', '68', '76']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
         <v>0.4</v>
@@ -1533,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1661,7 +1670,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2279,7 +2288,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2360,7 +2369,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2691,7 +2700,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2897,7 +2906,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3103,7 +3112,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3309,7 +3318,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3515,7 +3524,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3721,7 +3730,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3927,7 +3936,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4133,7 +4142,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4545,7 +4554,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4626,7 +4635,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4832,7 +4841,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5369,7 +5378,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5653,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ23">
         <v>0.25</v>
@@ -5987,7 +5996,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6193,7 +6202,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6274,7 +6283,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6399,7 +6408,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6605,7 +6614,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7017,7 +7026,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7098,7 +7107,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -7429,7 +7438,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7635,7 +7644,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7716,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -8047,7 +8056,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8665,7 +8674,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8743,10 +8752,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -8871,7 +8880,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9361,7 +9370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9489,7 +9498,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9982,7 +9991,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10107,7 +10116,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10313,7 +10322,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10725,7 +10734,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11137,7 +11146,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11627,10 +11636,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -11961,7 +11970,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12042,7 +12051,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR54">
         <v>1.89</v>
@@ -12167,7 +12176,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12785,7 +12794,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12866,7 +12875,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -12991,7 +13000,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13197,7 +13206,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13403,7 +13412,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13687,7 +13696,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14021,7 +14030,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14433,7 +14442,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15257,7 +15266,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15750,7 +15759,7 @@
         <v>3</v>
       </c>
       <c r="AQ72">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -15875,7 +15884,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15956,7 +15965,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16081,7 +16090,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16159,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16368,7 +16377,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -16905,7 +16914,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17317,7 +17326,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17729,7 +17738,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18347,7 +18356,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18759,7 +18768,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -18965,7 +18974,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19171,7 +19180,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19377,7 +19386,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19583,7 +19592,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19789,7 +19798,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -19995,7 +20004,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20201,7 +20210,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20294,22 +20303,22 @@
         <v>3.18</v>
       </c>
       <c r="AU94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV94">
         <v>5</v>
       </c>
       <c r="AW94">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AX94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY94">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ94">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA94">
         <v>17</v>
@@ -20407,7 +20416,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20500,19 +20509,19 @@
         <v>3.48</v>
       </c>
       <c r="AU95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV95">
         <v>7</v>
       </c>
       <c r="AW95">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AX95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY95">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AZ95">
         <v>11</v>
@@ -20564,6 +20573,624 @@
       </c>
       <c r="BP95">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7450746</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45571.40625</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <v>6</v>
+      </c>
+      <c r="O96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P96" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q96">
+        <v>3.1</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>3.6</v>
+      </c>
+      <c r="T96">
+        <v>1.42</v>
+      </c>
+      <c r="U96">
+        <v>2.85</v>
+      </c>
+      <c r="V96">
+        <v>3.1</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>7.7</v>
+      </c>
+      <c r="Y96">
+        <v>1.06</v>
+      </c>
+      <c r="Z96">
+        <v>2.4</v>
+      </c>
+      <c r="AA96">
+        <v>3.2</v>
+      </c>
+      <c r="AB96">
+        <v>2.9</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>7.4</v>
+      </c>
+      <c r="AE96">
+        <v>1.29</v>
+      </c>
+      <c r="AF96">
+        <v>2.92</v>
+      </c>
+      <c r="AG96">
+        <v>2.05</v>
+      </c>
+      <c r="AH96">
+        <v>1.75</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.38</v>
+      </c>
+      <c r="AL96">
+        <v>1.32</v>
+      </c>
+      <c r="AM96">
+        <v>1.54</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
+        <v>2.4</v>
+      </c>
+      <c r="AP96">
+        <v>0.75</v>
+      </c>
+      <c r="AQ96">
+        <v>2.5</v>
+      </c>
+      <c r="AR96">
+        <v>1.62</v>
+      </c>
+      <c r="AS96">
+        <v>1.48</v>
+      </c>
+      <c r="AT96">
+        <v>3.1</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>7</v>
+      </c>
+      <c r="AW96">
+        <v>4</v>
+      </c>
+      <c r="AX96">
+        <v>6</v>
+      </c>
+      <c r="AY96">
+        <v>14</v>
+      </c>
+      <c r="AZ96">
+        <v>14</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>7</v>
+      </c>
+      <c r="BC96">
+        <v>10</v>
+      </c>
+      <c r="BD96">
+        <v>1.85</v>
+      </c>
+      <c r="BE96">
+        <v>6.95</v>
+      </c>
+      <c r="BF96">
+        <v>2.43</v>
+      </c>
+      <c r="BG96">
+        <v>1.22</v>
+      </c>
+      <c r="BH96">
+        <v>3.35</v>
+      </c>
+      <c r="BI96">
+        <v>1.48</v>
+      </c>
+      <c r="BJ96">
+        <v>2.58</v>
+      </c>
+      <c r="BK96">
+        <v>2.1</v>
+      </c>
+      <c r="BL96">
+        <v>1.77</v>
+      </c>
+      <c r="BM96">
+        <v>2.27</v>
+      </c>
+      <c r="BN96">
+        <v>1.61</v>
+      </c>
+      <c r="BO96">
+        <v>3.08</v>
+      </c>
+      <c r="BP96">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7450741</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45571.52083333334</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>84</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q97">
+        <v>2.75</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>2.1</v>
+      </c>
+      <c r="AA97">
+        <v>3.3</v>
+      </c>
+      <c r="AB97">
+        <v>3.5</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>7.7</v>
+      </c>
+      <c r="AE97">
+        <v>1.27</v>
+      </c>
+      <c r="AF97">
+        <v>3.04</v>
+      </c>
+      <c r="AG97">
+        <v>2.05</v>
+      </c>
+      <c r="AH97">
+        <v>1.75</v>
+      </c>
+      <c r="AI97">
+        <v>1.8</v>
+      </c>
+      <c r="AJ97">
+        <v>1.95</v>
+      </c>
+      <c r="AK97">
+        <v>1.29</v>
+      </c>
+      <c r="AL97">
+        <v>1.3</v>
+      </c>
+      <c r="AM97">
+        <v>1.71</v>
+      </c>
+      <c r="AN97">
+        <v>3</v>
+      </c>
+      <c r="AO97">
+        <v>1.4</v>
+      </c>
+      <c r="AP97">
+        <v>3</v>
+      </c>
+      <c r="AQ97">
+        <v>1.17</v>
+      </c>
+      <c r="AR97">
+        <v>1.72</v>
+      </c>
+      <c r="AS97">
+        <v>1.39</v>
+      </c>
+      <c r="AT97">
+        <v>3.11</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>6</v>
+      </c>
+      <c r="AY97">
+        <v>14</v>
+      </c>
+      <c r="AZ97">
+        <v>12</v>
+      </c>
+      <c r="BA97">
+        <v>10</v>
+      </c>
+      <c r="BB97">
+        <v>1</v>
+      </c>
+      <c r="BC97">
+        <v>11</v>
+      </c>
+      <c r="BD97">
+        <v>1.87</v>
+      </c>
+      <c r="BE97">
+        <v>7.5</v>
+      </c>
+      <c r="BF97">
+        <v>2.37</v>
+      </c>
+      <c r="BG97">
+        <v>1.24</v>
+      </c>
+      <c r="BH97">
+        <v>3.22</v>
+      </c>
+      <c r="BI97">
+        <v>1.55</v>
+      </c>
+      <c r="BJ97">
+        <v>2.39</v>
+      </c>
+      <c r="BK97">
+        <v>1.91</v>
+      </c>
+      <c r="BL97">
+        <v>1.8</v>
+      </c>
+      <c r="BM97">
+        <v>2.44</v>
+      </c>
+      <c r="BN97">
+        <v>1.53</v>
+      </c>
+      <c r="BO97">
+        <v>3.22</v>
+      </c>
+      <c r="BP97">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7450739</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45571.63541666666</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>70</v>
+      </c>
+      <c r="H98" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>152</v>
+      </c>
+      <c r="P98" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q98">
+        <v>2.88</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>3.6</v>
+      </c>
+      <c r="T98">
+        <v>1.33</v>
+      </c>
+      <c r="U98">
+        <v>3.25</v>
+      </c>
+      <c r="V98">
+        <v>2.63</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.11</v>
+      </c>
+      <c r="Z98">
+        <v>2.25</v>
+      </c>
+      <c r="AA98">
+        <v>3.3</v>
+      </c>
+      <c r="AB98">
+        <v>3.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>11</v>
+      </c>
+      <c r="AE98">
+        <v>1.2</v>
+      </c>
+      <c r="AF98">
+        <v>4</v>
+      </c>
+      <c r="AG98">
+        <v>1.85</v>
+      </c>
+      <c r="AH98">
+        <v>1.95</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.49</v>
+      </c>
+      <c r="AL98">
+        <v>1.29</v>
+      </c>
+      <c r="AM98">
+        <v>1.47</v>
+      </c>
+      <c r="AN98">
+        <v>2.4</v>
+      </c>
+      <c r="AO98">
+        <v>1.25</v>
+      </c>
+      <c r="AP98">
+        <v>2.17</v>
+      </c>
+      <c r="AQ98">
+        <v>1.2</v>
+      </c>
+      <c r="AR98">
+        <v>1.72</v>
+      </c>
+      <c r="AS98">
+        <v>1.24</v>
+      </c>
+      <c r="AT98">
+        <v>2.96</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>11</v>
+      </c>
+      <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>8</v>
+      </c>
+      <c r="AY98">
+        <v>13</v>
+      </c>
+      <c r="AZ98">
+        <v>23</v>
+      </c>
+      <c r="BA98">
+        <v>2</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>5</v>
+      </c>
+      <c r="BD98">
+        <v>2.17</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>1.98</v>
+      </c>
+      <c r="BG98">
+        <v>1.26</v>
+      </c>
+      <c r="BH98">
+        <v>3.08</v>
+      </c>
+      <c r="BI98">
+        <v>1.56</v>
+      </c>
+      <c r="BJ98">
+        <v>2.38</v>
+      </c>
+      <c r="BK98">
+        <v>2.05</v>
+      </c>
+      <c r="BL98">
+        <v>1.7</v>
+      </c>
+      <c r="BM98">
+        <v>2.44</v>
+      </c>
+      <c r="BN98">
+        <v>1.53</v>
+      </c>
+      <c r="BO98">
+        <v>3.35</v>
+      </c>
+      <c r="BP98">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -639,6 +639,12 @@
   <si>
     <t>['21', '47', '68', '76']</t>
   </si>
+  <si>
+    <t>['16', '49']</t>
+  </si>
+  <si>
+    <t>['58', '63']</t>
+  </si>
 </sst>
 </file>
 
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2369,7 +2375,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3396,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -4632,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -6283,7 +6289,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -7104,7 +7110,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>2.5</v>
@@ -7516,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7725,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -9991,7 +9997,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10400,7 +10406,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ46">
         <v>2.67</v>
@@ -11639,7 +11645,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -11842,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>0.25</v>
@@ -12051,7 +12057,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
         <v>1.89</v>
@@ -14314,7 +14320,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ65">
         <v>0.6</v>
@@ -15138,7 +15144,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15759,7 +15765,7 @@
         <v>3</v>
       </c>
       <c r="AQ72">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16377,7 +16383,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -17816,7 +17822,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18846,7 +18852,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>2</v>
@@ -20909,7 +20915,7 @@
         <v>3</v>
       </c>
       <c r="AQ97">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21115,7 +21121,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ98">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.72</v>
@@ -21191,6 +21197,418 @@
       </c>
       <c r="BP98">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7450751</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45583.54166666666</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>95</v>
+      </c>
+      <c r="P99" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q99">
+        <v>4</v>
+      </c>
+      <c r="R99">
+        <v>1.91</v>
+      </c>
+      <c r="S99">
+        <v>3.25</v>
+      </c>
+      <c r="T99">
+        <v>1.57</v>
+      </c>
+      <c r="U99">
+        <v>2.25</v>
+      </c>
+      <c r="V99">
+        <v>3.75</v>
+      </c>
+      <c r="W99">
+        <v>1.25</v>
+      </c>
+      <c r="X99">
+        <v>13</v>
+      </c>
+      <c r="Y99">
+        <v>1.04</v>
+      </c>
+      <c r="Z99">
+        <v>3.2</v>
+      </c>
+      <c r="AA99">
+        <v>3</v>
+      </c>
+      <c r="AB99">
+        <v>2.4</v>
+      </c>
+      <c r="AC99">
+        <v>1.11</v>
+      </c>
+      <c r="AD99">
+        <v>6.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.49</v>
+      </c>
+      <c r="AF99">
+        <v>2.55</v>
+      </c>
+      <c r="AG99">
+        <v>2.4</v>
+      </c>
+      <c r="AH99">
+        <v>1.5</v>
+      </c>
+      <c r="AI99">
+        <v>2.1</v>
+      </c>
+      <c r="AJ99">
+        <v>1.67</v>
+      </c>
+      <c r="AK99">
+        <v>1.57</v>
+      </c>
+      <c r="AL99">
+        <v>1.33</v>
+      </c>
+      <c r="AM99">
+        <v>1.3</v>
+      </c>
+      <c r="AN99">
+        <v>1.2</v>
+      </c>
+      <c r="AO99">
+        <v>1.17</v>
+      </c>
+      <c r="AP99">
+        <v>1</v>
+      </c>
+      <c r="AQ99">
+        <v>1.43</v>
+      </c>
+      <c r="AR99">
+        <v>1.36</v>
+      </c>
+      <c r="AS99">
+        <v>1.36</v>
+      </c>
+      <c r="AT99">
+        <v>2.72</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>14</v>
+      </c>
+      <c r="BA99">
+        <v>8</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>0</v>
+      </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
+        <v>0</v>
+      </c>
+      <c r="BO99">
+        <v>0</v>
+      </c>
+      <c r="BP99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7450752</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45583.64583333334</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>95</v>
+      </c>
+      <c r="P100" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q100">
+        <v>4.5</v>
+      </c>
+      <c r="R100">
+        <v>2.3</v>
+      </c>
+      <c r="S100">
+        <v>2.38</v>
+      </c>
+      <c r="T100">
+        <v>1.36</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100">
+        <v>2.63</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>7</v>
+      </c>
+      <c r="Y100">
+        <v>1.1</v>
+      </c>
+      <c r="Z100">
+        <v>4.5</v>
+      </c>
+      <c r="AA100">
+        <v>3.7</v>
+      </c>
+      <c r="AB100">
+        <v>1.73</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.25</v>
+      </c>
+      <c r="AF100">
+        <v>3.75</v>
+      </c>
+      <c r="AG100">
+        <v>1.77</v>
+      </c>
+      <c r="AH100">
+        <v>1.98</v>
+      </c>
+      <c r="AI100">
+        <v>1.67</v>
+      </c>
+      <c r="AJ100">
+        <v>2.1</v>
+      </c>
+      <c r="AK100">
+        <v>1.95</v>
+      </c>
+      <c r="AL100">
+        <v>1.2</v>
+      </c>
+      <c r="AM100">
+        <v>1.18</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
+        <v>1.2</v>
+      </c>
+      <c r="AP100">
+        <v>0.83</v>
+      </c>
+      <c r="AQ100">
+        <v>1.5</v>
+      </c>
+      <c r="AR100">
+        <v>1.26</v>
+      </c>
+      <c r="AS100">
+        <v>1.51</v>
+      </c>
+      <c r="AT100">
+        <v>2.77</v>
+      </c>
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
+        <v>10</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>7</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>20</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
+        <v>5</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>0</v>
+      </c>
+      <c r="BI100">
+        <v>0</v>
+      </c>
+      <c r="BJ100">
+        <v>0</v>
+      </c>
+      <c r="BK100">
+        <v>0</v>
+      </c>
+      <c r="BL100">
+        <v>0</v>
+      </c>
+      <c r="BM100">
+        <v>0</v>
+      </c>
+      <c r="BN100">
+        <v>0</v>
+      </c>
+      <c r="BO100">
+        <v>0</v>
+      </c>
+      <c r="BP100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,12 @@
     <t>['90+7']</t>
   </si>
   <si>
+    <t>['1', '14', '86']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -644,6 +650,15 @@
   </si>
   <si>
     <t>['58', '63']</t>
+  </si>
+  <si>
+    <t>['22', '24', '42', '56']</t>
+  </si>
+  <si>
+    <t>['20', '24', '58']</t>
+  </si>
+  <si>
+    <t>['53', '57']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1676,7 +1691,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2294,7 +2309,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2372,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1.43</v>
@@ -2706,7 +2721,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2784,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ9">
         <v>2.67</v>
@@ -2912,7 +2927,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2993,7 +3008,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3118,7 +3133,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3324,7 +3339,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3530,7 +3545,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3736,7 +3751,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3817,7 +3832,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3942,7 +3957,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4023,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4148,7 +4163,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4226,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>0.2</v>
@@ -4560,7 +4575,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5050,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>0.4</v>
@@ -5384,7 +5399,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6002,7 +6017,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6080,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6208,7 +6223,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6414,7 +6429,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6492,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>0.72</v>
@@ -6620,7 +6635,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6907,7 +6922,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -7032,7 +7047,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7444,7 +7459,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7650,7 +7665,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8062,7 +8077,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8680,7 +8695,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8886,7 +8901,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -8964,10 +8979,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9173,7 +9188,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9504,7 +9519,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10122,7 +10137,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10328,7 +10343,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10612,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ47">
         <v>0.4</v>
@@ -10740,7 +10755,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10818,7 +10833,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>0.83</v>
@@ -11152,7 +11167,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11233,7 +11248,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -11976,7 +11991,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12182,7 +12197,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12263,7 +12278,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12672,7 +12687,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -12800,7 +12815,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13006,7 +13021,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13212,7 +13227,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13418,7 +13433,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13705,7 +13720,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
         <v>1.9</v>
@@ -13908,7 +13923,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14036,7 +14051,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14117,7 +14132,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.8</v>
@@ -14448,7 +14463,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14526,7 +14541,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
         <v>0.2</v>
@@ -14735,7 +14750,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -15272,7 +15287,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15890,7 +15905,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16096,7 +16111,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16920,7 +16935,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17332,7 +17347,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17410,10 +17425,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17744,7 +17759,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -17825,7 +17840,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18234,7 +18249,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ84">
         <v>0.2</v>
@@ -18362,7 +18377,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18646,7 +18661,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86">
         <v>0.6</v>
@@ -18774,7 +18789,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -18855,7 +18870,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -18980,7 +18995,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19061,7 +19076,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -19186,7 +19201,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19264,7 +19279,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>0.25</v>
@@ -19392,7 +19407,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19598,7 +19613,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19804,7 +19819,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20010,7 +20025,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20216,7 +20231,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20422,7 +20437,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20628,7 +20643,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21246,7 +21261,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21452,7 +21467,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21609,6 +21624,624 @@
       </c>
       <c r="BP100">
         <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7450753</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45584.40625</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s">
+        <v>82</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>7</v>
+      </c>
+      <c r="O101" t="s">
+        <v>159</v>
+      </c>
+      <c r="P101" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q101">
+        <v>3.2</v>
+      </c>
+      <c r="R101">
+        <v>2.2</v>
+      </c>
+      <c r="S101">
+        <v>3.25</v>
+      </c>
+      <c r="T101">
+        <v>1.4</v>
+      </c>
+      <c r="U101">
+        <v>2.75</v>
+      </c>
+      <c r="V101">
+        <v>2.75</v>
+      </c>
+      <c r="W101">
+        <v>1.4</v>
+      </c>
+      <c r="X101">
+        <v>8</v>
+      </c>
+      <c r="Y101">
+        <v>1.08</v>
+      </c>
+      <c r="Z101">
+        <v>2.6</v>
+      </c>
+      <c r="AA101">
+        <v>3.3</v>
+      </c>
+      <c r="AB101">
+        <v>2.63</v>
+      </c>
+      <c r="AC101">
+        <v>1.06</v>
+      </c>
+      <c r="AD101">
+        <v>8.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.28</v>
+      </c>
+      <c r="AF101">
+        <v>3.5</v>
+      </c>
+      <c r="AG101">
+        <v>1.85</v>
+      </c>
+      <c r="AH101">
+        <v>1.95</v>
+      </c>
+      <c r="AI101">
+        <v>1.7</v>
+      </c>
+      <c r="AJ101">
+        <v>2.05</v>
+      </c>
+      <c r="AK101">
+        <v>1.42</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.52</v>
+      </c>
+      <c r="AN101">
+        <v>1.33</v>
+      </c>
+      <c r="AO101">
+        <v>1</v>
+      </c>
+      <c r="AP101">
+        <v>1.14</v>
+      </c>
+      <c r="AQ101">
+        <v>1.29</v>
+      </c>
+      <c r="AR101">
+        <v>1.68</v>
+      </c>
+      <c r="AS101">
+        <v>1.45</v>
+      </c>
+      <c r="AT101">
+        <v>3.13</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>3</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>12</v>
+      </c>
+      <c r="AZ101">
+        <v>17</v>
+      </c>
+      <c r="BA101">
+        <v>5</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>7</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>0</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>2.25</v>
+      </c>
+      <c r="BL101">
+        <v>0</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7450750</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45584.52083333334</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>83</v>
+      </c>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102" t="s">
+        <v>160</v>
+      </c>
+      <c r="P102" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q102">
+        <v>2.88</v>
+      </c>
+      <c r="R102">
+        <v>2.4</v>
+      </c>
+      <c r="S102">
+        <v>3.1</v>
+      </c>
+      <c r="T102">
+        <v>1.3</v>
+      </c>
+      <c r="U102">
+        <v>3.4</v>
+      </c>
+      <c r="V102">
+        <v>2.5</v>
+      </c>
+      <c r="W102">
+        <v>1.5</v>
+      </c>
+      <c r="X102">
+        <v>6</v>
+      </c>
+      <c r="Y102">
+        <v>1.13</v>
+      </c>
+      <c r="Z102">
+        <v>2.45</v>
+      </c>
+      <c r="AA102">
+        <v>3.6</v>
+      </c>
+      <c r="AB102">
+        <v>2.65</v>
+      </c>
+      <c r="AC102">
+        <v>1.04</v>
+      </c>
+      <c r="AD102">
+        <v>10</v>
+      </c>
+      <c r="AE102">
+        <v>1.18</v>
+      </c>
+      <c r="AF102">
+        <v>4.5</v>
+      </c>
+      <c r="AG102">
+        <v>1.6</v>
+      </c>
+      <c r="AH102">
+        <v>2.2</v>
+      </c>
+      <c r="AI102">
+        <v>1.5</v>
+      </c>
+      <c r="AJ102">
+        <v>2.5</v>
+      </c>
+      <c r="AK102">
+        <v>1.47</v>
+      </c>
+      <c r="AL102">
+        <v>1.22</v>
+      </c>
+      <c r="AM102">
+        <v>1.53</v>
+      </c>
+      <c r="AN102">
+        <v>2</v>
+      </c>
+      <c r="AO102">
+        <v>1.8</v>
+      </c>
+      <c r="AP102">
+        <v>1.67</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1.67</v>
+      </c>
+      <c r="AS102">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT102">
+        <v>2.61</v>
+      </c>
+      <c r="AU102">
+        <v>4</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>8</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+      <c r="AY102">
+        <v>18</v>
+      </c>
+      <c r="AZ102">
+        <v>14</v>
+      </c>
+      <c r="BA102">
+        <v>8</v>
+      </c>
+      <c r="BB102">
+        <v>4</v>
+      </c>
+      <c r="BC102">
+        <v>12</v>
+      </c>
+      <c r="BD102">
+        <v>1.72</v>
+      </c>
+      <c r="BE102">
+        <v>6.9</v>
+      </c>
+      <c r="BF102">
+        <v>2.5</v>
+      </c>
+      <c r="BG102">
+        <v>1.28</v>
+      </c>
+      <c r="BH102">
+        <v>3.3</v>
+      </c>
+      <c r="BI102">
+        <v>1.55</v>
+      </c>
+      <c r="BJ102">
+        <v>2.25</v>
+      </c>
+      <c r="BK102">
+        <v>1.98</v>
+      </c>
+      <c r="BL102">
+        <v>1.72</v>
+      </c>
+      <c r="BM102">
+        <v>2.65</v>
+      </c>
+      <c r="BN102">
+        <v>1.41</v>
+      </c>
+      <c r="BO102">
+        <v>3.7</v>
+      </c>
+      <c r="BP102">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7450747</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45584.63541666666</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>76</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>95</v>
+      </c>
+      <c r="P103" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q103">
+        <v>3.4</v>
+      </c>
+      <c r="R103">
+        <v>2.2</v>
+      </c>
+      <c r="S103">
+        <v>3</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>2.75</v>
+      </c>
+      <c r="W103">
+        <v>1.4</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>2.92</v>
+      </c>
+      <c r="AA103">
+        <v>3.1</v>
+      </c>
+      <c r="AB103">
+        <v>2.38</v>
+      </c>
+      <c r="AC103">
+        <v>1.06</v>
+      </c>
+      <c r="AD103">
+        <v>8.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.28</v>
+      </c>
+      <c r="AF103">
+        <v>3.5</v>
+      </c>
+      <c r="AG103">
+        <v>1.75</v>
+      </c>
+      <c r="AH103">
+        <v>1.96</v>
+      </c>
+      <c r="AI103">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.6</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.36</v>
+      </c>
+      <c r="AN103">
+        <v>1.6</v>
+      </c>
+      <c r="AO103">
+        <v>2</v>
+      </c>
+      <c r="AP103">
+        <v>1.33</v>
+      </c>
+      <c r="AQ103">
+        <v>2.17</v>
+      </c>
+      <c r="AR103">
+        <v>1.6</v>
+      </c>
+      <c r="AS103">
+        <v>1.21</v>
+      </c>
+      <c r="AT103">
+        <v>2.81</v>
+      </c>
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>8</v>
+      </c>
+      <c r="AW103">
+        <v>2</v>
+      </c>
+      <c r="AX103">
+        <v>2</v>
+      </c>
+      <c r="AY103">
+        <v>6</v>
+      </c>
+      <c r="AZ103">
+        <v>18</v>
+      </c>
+      <c r="BA103">
+        <v>2</v>
+      </c>
+      <c r="BB103">
+        <v>6</v>
+      </c>
+      <c r="BC103">
+        <v>8</v>
+      </c>
+      <c r="BD103">
+        <v>1.98</v>
+      </c>
+      <c r="BE103">
+        <v>6.8</v>
+      </c>
+      <c r="BF103">
+        <v>2.1</v>
+      </c>
+      <c r="BG103">
+        <v>1.25</v>
+      </c>
+      <c r="BH103">
+        <v>3.5</v>
+      </c>
+      <c r="BI103">
+        <v>1.48</v>
+      </c>
+      <c r="BJ103">
+        <v>2.42</v>
+      </c>
+      <c r="BK103">
+        <v>2.38</v>
+      </c>
+      <c r="BL103">
+        <v>1.82</v>
+      </c>
+      <c r="BM103">
+        <v>2.45</v>
+      </c>
+      <c r="BN103">
+        <v>1.47</v>
+      </c>
+      <c r="BO103">
+        <v>3.35</v>
+      </c>
+      <c r="BP103">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,12 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['32', '61', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+13']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -659,6 +665,9 @@
   </si>
   <si>
     <t>['53', '57']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1691,7 +1700,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1769,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
         <v>0.6</v>
@@ -2309,7 +2318,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2721,7 +2730,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2927,7 +2936,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3133,7 +3142,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3339,7 +3348,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3545,7 +3554,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3751,7 +3760,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3957,7 +3966,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4163,7 +4172,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4244,7 +4253,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4450,7 +4459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4575,7 +4584,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4859,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>2.5</v>
@@ -5271,10 +5280,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5399,7 +5408,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5477,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
         <v>2.67</v>
@@ -5686,7 +5695,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -6017,7 +6026,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6223,7 +6232,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6429,7 +6438,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6635,7 +6644,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6919,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>2.17</v>
@@ -7047,7 +7056,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7334,7 +7343,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7459,7 +7468,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7665,7 +7674,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7952,7 +7961,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8077,7 +8086,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8567,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -8695,7 +8704,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8901,7 +8910,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9519,7 +9528,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9803,7 +9812,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
         <v>2.67</v>
@@ -10137,7 +10146,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10343,7 +10352,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10755,7 +10764,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11167,7 +11176,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11245,7 +11254,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11454,7 +11463,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ51">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR51">
         <v>1.7</v>
@@ -11866,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -11991,7 +12000,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12069,7 +12078,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>1.43</v>
@@ -12197,7 +12206,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12815,7 +12824,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13021,7 +13030,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13099,7 +13108,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -13227,7 +13236,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13433,7 +13442,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13514,7 +13523,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -14051,7 +14060,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14129,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -14463,7 +14472,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14544,7 +14553,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -15287,7 +15296,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15905,7 +15914,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16111,7 +16120,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16601,7 +16610,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>1.4</v>
@@ -16935,7 +16944,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17013,7 +17022,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17222,7 +17231,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ79">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR79">
         <v>1.89</v>
@@ -17347,7 +17356,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17631,10 +17640,10 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -17759,7 +17768,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18043,7 +18052,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>0.4</v>
@@ -18252,7 +18261,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ84">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -18377,7 +18386,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18789,7 +18798,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -18995,7 +19004,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19201,7 +19210,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19282,7 +19291,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19407,7 +19416,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19613,7 +19622,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19819,7 +19828,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20025,7 +20034,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20231,7 +20240,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20309,7 +20318,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20437,7 +20446,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20643,7 +20652,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21261,7 +21270,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21467,7 +21476,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21673,7 +21682,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21879,7 +21888,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22085,7 +22094,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22242,6 +22251,624 @@
       </c>
       <c r="BP103">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7450748</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45585.30208333334</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>95</v>
+      </c>
+      <c r="P104" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q104">
+        <v>2.63</v>
+      </c>
+      <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>4.33</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>9</v>
+      </c>
+      <c r="Y104">
+        <v>1.07</v>
+      </c>
+      <c r="Z104">
+        <v>1.91</v>
+      </c>
+      <c r="AA104">
+        <v>3.4</v>
+      </c>
+      <c r="AB104">
+        <v>4</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>9</v>
+      </c>
+      <c r="AE104">
+        <v>1.33</v>
+      </c>
+      <c r="AF104">
+        <v>3.25</v>
+      </c>
+      <c r="AG104">
+        <v>2.05</v>
+      </c>
+      <c r="AH104">
+        <v>1.75</v>
+      </c>
+      <c r="AI104">
+        <v>1.91</v>
+      </c>
+      <c r="AJ104">
+        <v>1.91</v>
+      </c>
+      <c r="AK104">
+        <v>1.28</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.72</v>
+      </c>
+      <c r="AN104">
+        <v>1.33</v>
+      </c>
+      <c r="AO104">
+        <v>0.2</v>
+      </c>
+      <c r="AP104">
+        <v>1.29</v>
+      </c>
+      <c r="AQ104">
+        <v>0.33</v>
+      </c>
+      <c r="AR104">
+        <v>1.78</v>
+      </c>
+      <c r="AS104">
+        <v>1.11</v>
+      </c>
+      <c r="AT104">
+        <v>2.89</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>5</v>
+      </c>
+      <c r="AW104">
+        <v>7</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>14</v>
+      </c>
+      <c r="AZ104">
+        <v>17</v>
+      </c>
+      <c r="BA104">
+        <v>7</v>
+      </c>
+      <c r="BB104">
+        <v>6</v>
+      </c>
+      <c r="BC104">
+        <v>13</v>
+      </c>
+      <c r="BD104">
+        <v>1.55</v>
+      </c>
+      <c r="BE104">
+        <v>6.2</v>
+      </c>
+      <c r="BF104">
+        <v>3.2</v>
+      </c>
+      <c r="BG104">
+        <v>1.27</v>
+      </c>
+      <c r="BH104">
+        <v>3.04</v>
+      </c>
+      <c r="BI104">
+        <v>1.53</v>
+      </c>
+      <c r="BJ104">
+        <v>2.21</v>
+      </c>
+      <c r="BK104">
+        <v>2</v>
+      </c>
+      <c r="BL104">
+        <v>1.73</v>
+      </c>
+      <c r="BM104">
+        <v>2.49</v>
+      </c>
+      <c r="BN104">
+        <v>1.42</v>
+      </c>
+      <c r="BO104">
+        <v>3.35</v>
+      </c>
+      <c r="BP104">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7450749</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45585.40625</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>87</v>
+      </c>
+      <c r="H105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105" t="s">
+        <v>161</v>
+      </c>
+      <c r="P105" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q105">
+        <v>2.5</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>4.5</v>
+      </c>
+      <c r="T105">
+        <v>1.36</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>2.75</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>8</v>
+      </c>
+      <c r="Y105">
+        <v>1.08</v>
+      </c>
+      <c r="Z105">
+        <v>1.85</v>
+      </c>
+      <c r="AA105">
+        <v>3.4</v>
+      </c>
+      <c r="AB105">
+        <v>4.2</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.28</v>
+      </c>
+      <c r="AF105">
+        <v>3.4</v>
+      </c>
+      <c r="AG105">
+        <v>1.95</v>
+      </c>
+      <c r="AH105">
+        <v>1.85</v>
+      </c>
+      <c r="AI105">
+        <v>1.8</v>
+      </c>
+      <c r="AJ105">
+        <v>1.95</v>
+      </c>
+      <c r="AK105">
+        <v>1.18</v>
+      </c>
+      <c r="AL105">
+        <v>1.22</v>
+      </c>
+      <c r="AM105">
+        <v>1.9</v>
+      </c>
+      <c r="AN105">
+        <v>1.4</v>
+      </c>
+      <c r="AO105">
+        <v>0.25</v>
+      </c>
+      <c r="AP105">
+        <v>1.67</v>
+      </c>
+      <c r="AQ105">
+        <v>0.2</v>
+      </c>
+      <c r="AR105">
+        <v>1.93</v>
+      </c>
+      <c r="AS105">
+        <v>1.09</v>
+      </c>
+      <c r="AT105">
+        <v>3.02</v>
+      </c>
+      <c r="AU105">
+        <v>11</v>
+      </c>
+      <c r="AV105">
+        <v>5</v>
+      </c>
+      <c r="AW105">
+        <v>9</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>23</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>9</v>
+      </c>
+      <c r="BB105">
+        <v>8</v>
+      </c>
+      <c r="BC105">
+        <v>17</v>
+      </c>
+      <c r="BD105">
+        <v>1.37</v>
+      </c>
+      <c r="BE105">
+        <v>6.8</v>
+      </c>
+      <c r="BF105">
+        <v>4.1</v>
+      </c>
+      <c r="BG105">
+        <v>1.26</v>
+      </c>
+      <c r="BH105">
+        <v>3.08</v>
+      </c>
+      <c r="BI105">
+        <v>1.5</v>
+      </c>
+      <c r="BJ105">
+        <v>2.28</v>
+      </c>
+      <c r="BK105">
+        <v>1.85</v>
+      </c>
+      <c r="BL105">
+        <v>1.83</v>
+      </c>
+      <c r="BM105">
+        <v>2.43</v>
+      </c>
+      <c r="BN105">
+        <v>1.44</v>
+      </c>
+      <c r="BO105">
+        <v>3.28</v>
+      </c>
+      <c r="BP105">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7450755</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45585.52083333334</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s">
+        <v>73</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>162</v>
+      </c>
+      <c r="P106" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q106">
+        <v>2.4</v>
+      </c>
+      <c r="R106">
+        <v>2.25</v>
+      </c>
+      <c r="S106">
+        <v>4.5</v>
+      </c>
+      <c r="T106">
+        <v>1.36</v>
+      </c>
+      <c r="U106">
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <v>2.75</v>
+      </c>
+      <c r="W106">
+        <v>1.4</v>
+      </c>
+      <c r="X106">
+        <v>7</v>
+      </c>
+      <c r="Y106">
+        <v>1.1</v>
+      </c>
+      <c r="Z106">
+        <v>1.8</v>
+      </c>
+      <c r="AA106">
+        <v>3.6</v>
+      </c>
+      <c r="AB106">
+        <v>4.2</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>9</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.6</v>
+      </c>
+      <c r="AG106">
+        <v>1.85</v>
+      </c>
+      <c r="AH106">
+        <v>1.95</v>
+      </c>
+      <c r="AI106">
+        <v>1.75</v>
+      </c>
+      <c r="AJ106">
+        <v>2</v>
+      </c>
+      <c r="AK106">
+        <v>1.18</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.9</v>
+      </c>
+      <c r="AN106">
+        <v>1.4</v>
+      </c>
+      <c r="AO106">
+        <v>0.2</v>
+      </c>
+      <c r="AP106">
+        <v>1.67</v>
+      </c>
+      <c r="AQ106">
+        <v>0.17</v>
+      </c>
+      <c r="AR106">
+        <v>1.53</v>
+      </c>
+      <c r="AS106">
+        <v>1.53</v>
+      </c>
+      <c r="AT106">
+        <v>3.06</v>
+      </c>
+      <c r="AU106">
+        <v>5</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>9</v>
+      </c>
+      <c r="AX106">
+        <v>2</v>
+      </c>
+      <c r="AY106">
+        <v>15</v>
+      </c>
+      <c r="AZ106">
+        <v>6</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>1</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>1.52</v>
+      </c>
+      <c r="BE106">
+        <v>6.3</v>
+      </c>
+      <c r="BF106">
+        <v>3.2</v>
+      </c>
+      <c r="BG106">
+        <v>1.2</v>
+      </c>
+      <c r="BH106">
+        <v>3.52</v>
+      </c>
+      <c r="BI106">
+        <v>1.42</v>
+      </c>
+      <c r="BJ106">
+        <v>2.49</v>
+      </c>
+      <c r="BK106">
+        <v>1.83</v>
+      </c>
+      <c r="BL106">
+        <v>1.85</v>
+      </c>
+      <c r="BM106">
+        <v>2.21</v>
+      </c>
+      <c r="BN106">
+        <v>1.53</v>
+      </c>
+      <c r="BO106">
+        <v>2.92</v>
+      </c>
+      <c r="BP106">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['90+13']</t>
+  </si>
+  <si>
+    <t>['51', '66']</t>
   </si>
   <si>
     <t>['24', '37']</t>
@@ -1029,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1372,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ2">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1700,7 +1703,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2318,7 +2321,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2730,7 +2733,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2936,7 +2939,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3142,7 +3145,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3348,7 +3351,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3554,7 +3557,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3760,7 +3763,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3838,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3966,7 +3969,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4172,7 +4175,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4584,7 +4587,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5077,7 +5080,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5408,7 +5411,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6026,7 +6029,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6232,7 +6235,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6438,7 +6441,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6644,7 +6647,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6722,7 +6725,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.83</v>
@@ -7056,7 +7059,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7468,7 +7471,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7674,7 +7677,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8086,7 +8089,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8704,7 +8707,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8910,7 +8913,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9528,7 +9531,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10146,7 +10149,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10352,7 +10355,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10639,7 +10642,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ47">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10764,7 +10767,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11176,7 +11179,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12000,7 +12003,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12206,7 +12209,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12824,7 +12827,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12902,7 +12905,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>2.5</v>
@@ -13030,7 +13033,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13236,7 +13239,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13442,7 +13445,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14060,7 +14063,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14472,7 +14475,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14965,7 +14968,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ68">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -15296,7 +15299,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15580,7 +15583,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15914,7 +15917,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16120,7 +16123,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16944,7 +16947,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17356,7 +17359,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17768,7 +17771,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18055,7 +18058,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR83">
         <v>1.5</v>
@@ -18386,7 +18389,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18798,7 +18801,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19004,7 +19007,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19210,7 +19213,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19416,7 +19419,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19622,7 +19625,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19828,7 +19831,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20034,7 +20037,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20112,7 +20115,7 @@
         <v>2.6</v>
       </c>
       <c r="AP93">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>2.67</v>
@@ -20240,7 +20243,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20446,7 +20449,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20652,7 +20655,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21270,7 +21273,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21476,7 +21479,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21682,7 +21685,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21888,7 +21891,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22094,7 +22097,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22506,7 +22509,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22869,6 +22872,212 @@
       </c>
       <c r="BP106">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7450754</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45586.58333333334</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>163</v>
+      </c>
+      <c r="P107" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q107">
+        <v>2.5</v>
+      </c>
+      <c r="R107">
+        <v>2.2</v>
+      </c>
+      <c r="S107">
+        <v>4.5</v>
+      </c>
+      <c r="T107">
+        <v>1.36</v>
+      </c>
+      <c r="U107">
+        <v>3</v>
+      </c>
+      <c r="V107">
+        <v>2.75</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>8</v>
+      </c>
+      <c r="Y107">
+        <v>1.08</v>
+      </c>
+      <c r="Z107">
+        <v>1.83</v>
+      </c>
+      <c r="AA107">
+        <v>3.7</v>
+      </c>
+      <c r="AB107">
+        <v>4</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>9.5</v>
+      </c>
+      <c r="AE107">
+        <v>1.3</v>
+      </c>
+      <c r="AF107">
+        <v>3.3</v>
+      </c>
+      <c r="AG107">
+        <v>1.85</v>
+      </c>
+      <c r="AH107">
+        <v>1.95</v>
+      </c>
+      <c r="AI107">
+        <v>1.8</v>
+      </c>
+      <c r="AJ107">
+        <v>1.95</v>
+      </c>
+      <c r="AK107">
+        <v>1.16</v>
+      </c>
+      <c r="AL107">
+        <v>1.22</v>
+      </c>
+      <c r="AM107">
+        <v>2</v>
+      </c>
+      <c r="AN107">
+        <v>1.2</v>
+      </c>
+      <c r="AO107">
+        <v>0.4</v>
+      </c>
+      <c r="AP107">
+        <v>1.5</v>
+      </c>
+      <c r="AQ107">
+        <v>0.33</v>
+      </c>
+      <c r="AR107">
+        <v>1.56</v>
+      </c>
+      <c r="AS107">
+        <v>0.89</v>
+      </c>
+      <c r="AT107">
+        <v>2.45</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>2</v>
+      </c>
+      <c r="AW107">
+        <v>12</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>17</v>
+      </c>
+      <c r="AZ107">
+        <v>10</v>
+      </c>
+      <c r="BA107">
+        <v>7</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>10</v>
+      </c>
+      <c r="BD107">
+        <v>1.44</v>
+      </c>
+      <c r="BE107">
+        <v>6.5</v>
+      </c>
+      <c r="BF107">
+        <v>3.55</v>
+      </c>
+      <c r="BG107">
+        <v>1.2</v>
+      </c>
+      <c r="BH107">
+        <v>3.54</v>
+      </c>
+      <c r="BI107">
+        <v>1.41</v>
+      </c>
+      <c r="BJ107">
+        <v>2.52</v>
+      </c>
+      <c r="BK107">
+        <v>2.25</v>
+      </c>
+      <c r="BL107">
+        <v>1.91</v>
+      </c>
+      <c r="BM107">
+        <v>2.21</v>
+      </c>
+      <c r="BN107">
+        <v>1.53</v>
+      </c>
+      <c r="BO107">
+        <v>2.88</v>
+      </c>
+      <c r="BP107">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -23014,22 +23014,22 @@
         <v>2.45</v>
       </c>
       <c r="AU107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV107">
         <v>2</v>
       </c>
       <c r="AW107">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY107">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA107">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,9 @@
     <t>['51', '66']</t>
   </si>
   <si>
+    <t>['16', '44']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -671,6 +674,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1703,7 +1709,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2321,7 +2327,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2733,7 +2739,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2939,7 +2945,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3145,7 +3151,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3351,7 +3357,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3557,7 +3563,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3763,7 +3769,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3969,7 +3975,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4175,7 +4181,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4587,7 +4593,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5411,7 +5417,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5698,7 +5704,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -6029,7 +6035,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6235,7 +6241,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6441,7 +6447,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6647,7 +6653,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7059,7 +7065,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7346,7 +7352,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7471,7 +7477,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7677,7 +7683,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8089,7 +8095,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8707,7 +8713,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8913,7 +8919,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9403,7 +9409,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9531,7 +9537,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10149,7 +10155,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10355,7 +10361,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10767,7 +10773,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11179,7 +11185,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11669,7 +11675,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11878,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -12003,7 +12009,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12209,7 +12215,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12827,7 +12833,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13033,7 +13039,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13239,7 +13245,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13445,7 +13451,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14063,7 +14069,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14475,7 +14481,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15299,7 +15305,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15917,7 +15923,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16123,7 +16129,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16947,7 +16953,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17359,7 +17365,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17771,7 +17777,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18389,7 +18395,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18801,7 +18807,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19007,7 +19013,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19213,7 +19219,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19294,7 +19300,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19419,7 +19425,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19625,7 +19631,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19831,7 +19837,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20037,7 +20043,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20243,7 +20249,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20449,7 +20455,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20655,7 +20661,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20733,7 +20739,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96">
         <v>2.5</v>
@@ -21273,7 +21279,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21479,7 +21485,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21685,7 +21691,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21891,7 +21897,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22097,7 +22103,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22509,7 +22515,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22590,7 +22596,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR105">
         <v>1.93</v>
@@ -23078,6 +23084,212 @@
       </c>
       <c r="BP107">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7450719</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45588.5625</v>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>71</v>
+      </c>
+      <c r="H108" t="s">
+        <v>78</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>164</v>
+      </c>
+      <c r="P108" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q108">
+        <v>2.5</v>
+      </c>
+      <c r="R108">
+        <v>2.2</v>
+      </c>
+      <c r="S108">
+        <v>4.5</v>
+      </c>
+      <c r="T108">
+        <v>1.44</v>
+      </c>
+      <c r="U108">
+        <v>2.67</v>
+      </c>
+      <c r="V108">
+        <v>3.04</v>
+      </c>
+      <c r="W108">
+        <v>1.35</v>
+      </c>
+      <c r="X108">
+        <v>7.9</v>
+      </c>
+      <c r="Y108">
+        <v>1.06</v>
+      </c>
+      <c r="Z108">
+        <v>1.85</v>
+      </c>
+      <c r="AA108">
+        <v>3.6</v>
+      </c>
+      <c r="AB108">
+        <v>4</v>
+      </c>
+      <c r="AC108">
+        <v>1.03</v>
+      </c>
+      <c r="AD108">
+        <v>8.1</v>
+      </c>
+      <c r="AE108">
+        <v>1.33</v>
+      </c>
+      <c r="AF108">
+        <v>2.93</v>
+      </c>
+      <c r="AG108">
+        <v>2</v>
+      </c>
+      <c r="AH108">
+        <v>1.8</v>
+      </c>
+      <c r="AI108">
+        <v>1.91</v>
+      </c>
+      <c r="AJ108">
+        <v>1.91</v>
+      </c>
+      <c r="AK108">
+        <v>1.17</v>
+      </c>
+      <c r="AL108">
+        <v>1.28</v>
+      </c>
+      <c r="AM108">
+        <v>2.2</v>
+      </c>
+      <c r="AN108">
+        <v>0.75</v>
+      </c>
+      <c r="AO108">
+        <v>0.2</v>
+      </c>
+      <c r="AP108">
+        <v>1.2</v>
+      </c>
+      <c r="AQ108">
+        <v>0.17</v>
+      </c>
+      <c r="AR108">
+        <v>1.61</v>
+      </c>
+      <c r="AS108">
+        <v>1.12</v>
+      </c>
+      <c r="AT108">
+        <v>2.73</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>9</v>
+      </c>
+      <c r="AW108">
+        <v>6</v>
+      </c>
+      <c r="AX108">
+        <v>8</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>21</v>
+      </c>
+      <c r="BA108">
+        <v>5</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>1.57</v>
+      </c>
+      <c r="BE108">
+        <v>7.6</v>
+      </c>
+      <c r="BF108">
+        <v>3.1</v>
+      </c>
+      <c r="BG108">
+        <v>1.42</v>
+      </c>
+      <c r="BH108">
+        <v>2.62</v>
+      </c>
+      <c r="BI108">
+        <v>1.7</v>
+      </c>
+      <c r="BJ108">
+        <v>2.05</v>
+      </c>
+      <c r="BK108">
+        <v>2.05</v>
+      </c>
+      <c r="BL108">
+        <v>1.7</v>
+      </c>
+      <c r="BM108">
+        <v>2.7</v>
+      </c>
+      <c r="BN108">
+        <v>1.4</v>
+      </c>
+      <c r="BO108">
+        <v>3.6</v>
+      </c>
+      <c r="BP108">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,12 @@
     <t>['16', '44']</t>
   </si>
   <si>
+    <t>['43', '66', '81']</t>
+  </si>
+  <si>
+    <t>['36', '83']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -677,6 +683,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['4', '46', '63']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1387,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1584,7 +1593,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1709,7 +1718,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2327,7 +2336,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2739,7 +2748,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2945,7 +2954,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3151,7 +3160,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3357,7 +3366,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3563,7 +3572,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3769,7 +3778,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3975,7 +3984,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4181,7 +4190,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4465,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -4593,7 +4602,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5086,7 +5095,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5417,7 +5426,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5910,7 +5919,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -6035,7 +6044,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6241,7 +6250,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6447,7 +6456,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6653,7 +6662,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7065,7 +7074,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7477,7 +7486,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7683,7 +7692,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8095,7 +8104,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8173,7 +8182,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.4</v>
@@ -8382,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -8713,7 +8722,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8919,7 +8928,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9537,7 +9546,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10155,7 +10164,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10361,7 +10370,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10648,7 +10657,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10773,7 +10782,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11057,7 +11066,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11185,7 +11194,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12009,7 +12018,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12215,7 +12224,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12833,7 +12842,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13039,7 +13048,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13120,7 +13129,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
         <v>1.38</v>
@@ -13245,7 +13254,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13451,7 +13460,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14069,7 +14078,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14481,7 +14490,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14971,10 +14980,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -15305,7 +15314,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15923,7 +15932,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16129,7 +16138,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16210,7 +16219,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -16953,7 +16962,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17365,7 +17374,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17777,7 +17786,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18064,7 +18073,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR83">
         <v>1.5</v>
@@ -18395,7 +18404,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18807,7 +18816,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19013,7 +19022,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19091,7 +19100,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>2</v>
@@ -19219,7 +19228,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19425,7 +19434,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19631,7 +19640,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19837,7 +19846,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -19918,7 +19927,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20043,7 +20052,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20249,7 +20258,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20455,7 +20464,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20661,7 +20670,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21279,7 +21288,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21485,7 +21494,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21691,7 +21700,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21897,7 +21906,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22103,7 +22112,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22515,7 +22524,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23008,7 +23017,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23133,7 +23142,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23290,6 +23299,418 @@
       </c>
       <c r="BP108">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7450760</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45590.54166666666</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>84</v>
+      </c>
+      <c r="H109" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>6</v>
+      </c>
+      <c r="O109" t="s">
+        <v>165</v>
+      </c>
+      <c r="P109" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q109">
+        <v>2.05</v>
+      </c>
+      <c r="R109">
+        <v>2.38</v>
+      </c>
+      <c r="S109">
+        <v>6</v>
+      </c>
+      <c r="T109">
+        <v>1.38</v>
+      </c>
+      <c r="U109">
+        <v>2.8</v>
+      </c>
+      <c r="V109">
+        <v>2.8</v>
+      </c>
+      <c r="W109">
+        <v>1.38</v>
+      </c>
+      <c r="X109">
+        <v>6.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.08</v>
+      </c>
+      <c r="Z109">
+        <v>1.48</v>
+      </c>
+      <c r="AA109">
+        <v>4.33</v>
+      </c>
+      <c r="AB109">
+        <v>6</v>
+      </c>
+      <c r="AC109">
+        <v>1.03</v>
+      </c>
+      <c r="AD109">
+        <v>9</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>3.6</v>
+      </c>
+      <c r="AG109">
+        <v>1.75</v>
+      </c>
+      <c r="AH109">
+        <v>2.05</v>
+      </c>
+      <c r="AI109">
+        <v>1.95</v>
+      </c>
+      <c r="AJ109">
+        <v>1.8</v>
+      </c>
+      <c r="AK109">
+        <v>1.11</v>
+      </c>
+      <c r="AL109">
+        <v>1.2</v>
+      </c>
+      <c r="AM109">
+        <v>2.5</v>
+      </c>
+      <c r="AN109">
+        <v>1.6</v>
+      </c>
+      <c r="AO109">
+        <v>0.67</v>
+      </c>
+      <c r="AP109">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109">
+        <v>0.71</v>
+      </c>
+      <c r="AR109">
+        <v>1.42</v>
+      </c>
+      <c r="AS109">
+        <v>1.17</v>
+      </c>
+      <c r="AT109">
+        <v>2.59</v>
+      </c>
+      <c r="AU109">
+        <v>6</v>
+      </c>
+      <c r="AV109">
+        <v>9</v>
+      </c>
+      <c r="AW109">
+        <v>4</v>
+      </c>
+      <c r="AX109">
+        <v>4</v>
+      </c>
+      <c r="AY109">
+        <v>16</v>
+      </c>
+      <c r="AZ109">
+        <v>15</v>
+      </c>
+      <c r="BA109">
+        <v>13</v>
+      </c>
+      <c r="BB109">
+        <v>1</v>
+      </c>
+      <c r="BC109">
+        <v>14</v>
+      </c>
+      <c r="BD109">
+        <v>1.22</v>
+      </c>
+      <c r="BE109">
+        <v>8.6</v>
+      </c>
+      <c r="BF109">
+        <v>5.9</v>
+      </c>
+      <c r="BG109">
+        <v>1.24</v>
+      </c>
+      <c r="BH109">
+        <v>3.22</v>
+      </c>
+      <c r="BI109">
+        <v>1.48</v>
+      </c>
+      <c r="BJ109">
+        <v>2.33</v>
+      </c>
+      <c r="BK109">
+        <v>2</v>
+      </c>
+      <c r="BL109">
+        <v>1.8</v>
+      </c>
+      <c r="BM109">
+        <v>2.38</v>
+      </c>
+      <c r="BN109">
+        <v>1.46</v>
+      </c>
+      <c r="BO109">
+        <v>3.14</v>
+      </c>
+      <c r="BP109">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7450761</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45590.64583333334</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H110" t="s">
+        <v>79</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>166</v>
+      </c>
+      <c r="P110" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q110">
+        <v>1.8</v>
+      </c>
+      <c r="R110">
+        <v>2.63</v>
+      </c>
+      <c r="S110">
+        <v>7</v>
+      </c>
+      <c r="T110">
+        <v>1.3</v>
+      </c>
+      <c r="U110">
+        <v>3.25</v>
+      </c>
+      <c r="V110">
+        <v>2.35</v>
+      </c>
+      <c r="W110">
+        <v>1.53</v>
+      </c>
+      <c r="X110">
+        <v>5.25</v>
+      </c>
+      <c r="Y110">
+        <v>1.12</v>
+      </c>
+      <c r="Z110">
+        <v>1.33</v>
+      </c>
+      <c r="AA110">
+        <v>5</v>
+      </c>
+      <c r="AB110">
+        <v>8.5</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>13</v>
+      </c>
+      <c r="AE110">
+        <v>1.14</v>
+      </c>
+      <c r="AF110">
+        <v>4.8</v>
+      </c>
+      <c r="AG110">
+        <v>1.5</v>
+      </c>
+      <c r="AH110">
+        <v>2.5</v>
+      </c>
+      <c r="AI110">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110">
+        <v>1.95</v>
+      </c>
+      <c r="AK110">
+        <v>1.06</v>
+      </c>
+      <c r="AL110">
+        <v>1.13</v>
+      </c>
+      <c r="AM110">
+        <v>3.1</v>
+      </c>
+      <c r="AN110">
+        <v>3</v>
+      </c>
+      <c r="AO110">
+        <v>0.33</v>
+      </c>
+      <c r="AP110">
+        <v>3</v>
+      </c>
+      <c r="AQ110">
+        <v>0.29</v>
+      </c>
+      <c r="AR110">
+        <v>1.69</v>
+      </c>
+      <c r="AS110">
+        <v>0.88</v>
+      </c>
+      <c r="AT110">
+        <v>2.57</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>7</v>
+      </c>
+      <c r="AW110">
+        <v>12</v>
+      </c>
+      <c r="AX110">
+        <v>5</v>
+      </c>
+      <c r="AY110">
+        <v>19</v>
+      </c>
+      <c r="AZ110">
+        <v>14</v>
+      </c>
+      <c r="BA110">
+        <v>5</v>
+      </c>
+      <c r="BB110">
+        <v>6</v>
+      </c>
+      <c r="BC110">
+        <v>11</v>
+      </c>
+      <c r="BD110">
+        <v>1.11</v>
+      </c>
+      <c r="BE110">
+        <v>13</v>
+      </c>
+      <c r="BF110">
+        <v>8.15</v>
+      </c>
+      <c r="BG110">
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <v>0</v>
+      </c>
+      <c r="BI110">
+        <v>0</v>
+      </c>
+      <c r="BJ110">
+        <v>0</v>
+      </c>
+      <c r="BK110">
+        <v>2.1</v>
+      </c>
+      <c r="BL110">
+        <v>2.05</v>
+      </c>
+      <c r="BM110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <v>0</v>
+      </c>
+      <c r="BO110">
+        <v>0</v>
+      </c>
+      <c r="BP110">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,9 @@
     <t>['36', '83']</t>
   </si>
   <si>
+    <t>['6', '44', '72', '77', '80', '86']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -686,6 +689,9 @@
   </si>
   <si>
     <t>['4', '46', '63']</t>
+  </si>
+  <si>
+    <t>['1', '8']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1590,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ3">
         <v>0.71</v>
@@ -1718,7 +1724,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2336,7 +2342,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2414,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
         <v>1.43</v>
@@ -2748,7 +2754,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2829,7 +2835,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ9">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2954,7 +2960,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3160,7 +3166,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3366,7 +3372,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3447,7 +3453,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3572,7 +3578,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3778,7 +3784,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3984,7 +3990,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4190,7 +4196,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4602,7 +4608,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5426,7 +5432,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5507,7 +5513,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -6044,7 +6050,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6250,7 +6256,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6456,7 +6462,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6534,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
         <v>1.29</v>
@@ -6662,7 +6668,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7074,7 +7080,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7486,7 +7492,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7692,7 +7698,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8104,7 +8110,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8597,7 +8603,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -8722,7 +8728,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8928,7 +8934,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9418,7 +9424,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9546,7 +9552,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9833,7 +9839,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10164,7 +10170,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10370,7 +10376,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10451,7 +10457,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ46">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -10782,7 +10788,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10860,7 +10866,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48">
         <v>0.83</v>
@@ -11194,7 +11200,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11684,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -12018,7 +12024,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12224,7 +12230,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12842,7 +12848,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13048,7 +13054,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13254,7 +13260,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13335,7 +13341,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13460,7 +13466,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14078,7 +14084,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14490,7 +14496,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14568,7 +14574,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
         <v>0.17</v>
@@ -15314,7 +15320,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15395,7 +15401,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15932,7 +15938,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16138,7 +16144,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16837,7 +16843,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR77">
         <v>1.21</v>
@@ -16962,7 +16968,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17374,7 +17380,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17786,7 +17792,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18404,7 +18410,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18816,7 +18822,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19022,7 +19028,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19228,7 +19234,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19306,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ89">
         <v>0.17</v>
@@ -19434,7 +19440,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19640,7 +19646,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19846,7 +19852,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20052,7 +20058,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20133,7 +20139,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR93">
         <v>1.66</v>
@@ -20258,7 +20264,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20464,7 +20470,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20545,7 +20551,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -20670,7 +20676,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20748,7 +20754,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96">
         <v>2.5</v>
@@ -21288,7 +21294,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21494,7 +21500,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21700,7 +21706,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21906,7 +21912,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22112,7 +22118,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22190,7 +22196,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ103">
         <v>2.17</v>
@@ -22524,7 +22530,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23142,7 +23148,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23220,7 +23226,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ108">
         <v>0.17</v>
@@ -23348,7 +23354,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23710,6 +23716,418 @@
         <v>0</v>
       </c>
       <c r="BP110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7450756</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45591.40625</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s">
+        <v>77</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
+      <c r="L111">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>8</v>
+      </c>
+      <c r="O111" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q111">
+        <v>2.5</v>
+      </c>
+      <c r="R111">
+        <v>2.2</v>
+      </c>
+      <c r="S111">
+        <v>4.33</v>
+      </c>
+      <c r="T111">
+        <v>1.33</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>2.55</v>
+      </c>
+      <c r="W111">
+        <v>1.45</v>
+      </c>
+      <c r="X111">
+        <v>5.75</v>
+      </c>
+      <c r="Y111">
+        <v>1.1</v>
+      </c>
+      <c r="Z111">
+        <v>1.85</v>
+      </c>
+      <c r="AA111">
+        <v>3.6</v>
+      </c>
+      <c r="AB111">
+        <v>4</v>
+      </c>
+      <c r="AC111">
+        <v>1.04</v>
+      </c>
+      <c r="AD111">
+        <v>10</v>
+      </c>
+      <c r="AE111">
+        <v>1.22</v>
+      </c>
+      <c r="AF111">
+        <v>4</v>
+      </c>
+      <c r="AG111">
+        <v>1.85</v>
+      </c>
+      <c r="AH111">
+        <v>1.95</v>
+      </c>
+      <c r="AI111">
+        <v>1.75</v>
+      </c>
+      <c r="AJ111">
+        <v>2</v>
+      </c>
+      <c r="AK111">
+        <v>1.22</v>
+      </c>
+      <c r="AL111">
+        <v>1.22</v>
+      </c>
+      <c r="AM111">
+        <v>2</v>
+      </c>
+      <c r="AN111">
+        <v>1.33</v>
+      </c>
+      <c r="AO111">
+        <v>1.4</v>
+      </c>
+      <c r="AP111">
+        <v>1.57</v>
+      </c>
+      <c r="AQ111">
+        <v>1.17</v>
+      </c>
+      <c r="AR111">
+        <v>1.46</v>
+      </c>
+      <c r="AS111">
+        <v>1.48</v>
+      </c>
+      <c r="AT111">
+        <v>2.94</v>
+      </c>
+      <c r="AU111">
+        <v>10</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
+        <v>6</v>
+      </c>
+      <c r="AX111">
+        <v>4</v>
+      </c>
+      <c r="AY111">
+        <v>19</v>
+      </c>
+      <c r="AZ111">
+        <v>9</v>
+      </c>
+      <c r="BA111">
+        <v>6</v>
+      </c>
+      <c r="BB111">
+        <v>4</v>
+      </c>
+      <c r="BC111">
+        <v>10</v>
+      </c>
+      <c r="BD111">
+        <v>1.75</v>
+      </c>
+      <c r="BE111">
+        <v>8</v>
+      </c>
+      <c r="BF111">
+        <v>2.42</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>2.1</v>
+      </c>
+      <c r="BL111">
+        <v>1.92</v>
+      </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7450764</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45591.52083333334</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>86</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>95</v>
+      </c>
+      <c r="P112" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q112">
+        <v>5</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>2.63</v>
+      </c>
+      <c r="T112">
+        <v>1.48</v>
+      </c>
+      <c r="U112">
+        <v>2.45</v>
+      </c>
+      <c r="V112">
+        <v>3.2</v>
+      </c>
+      <c r="W112">
+        <v>1.3</v>
+      </c>
+      <c r="X112">
+        <v>8</v>
+      </c>
+      <c r="Y112">
+        <v>1.05</v>
+      </c>
+      <c r="Z112">
+        <v>4.33</v>
+      </c>
+      <c r="AA112">
+        <v>3.2</v>
+      </c>
+      <c r="AB112">
+        <v>1.91</v>
+      </c>
+      <c r="AC112">
+        <v>1.07</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>1.36</v>
+      </c>
+      <c r="AF112">
+        <v>3.1</v>
+      </c>
+      <c r="AG112">
+        <v>2.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.5</v>
+      </c>
+      <c r="AI112">
+        <v>2.1</v>
+      </c>
+      <c r="AJ112">
+        <v>1.67</v>
+      </c>
+      <c r="AK112">
+        <v>1.83</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>1.22</v>
+      </c>
+      <c r="AN112">
+        <v>1.2</v>
+      </c>
+      <c r="AO112">
+        <v>2.67</v>
+      </c>
+      <c r="AP112">
+        <v>1.17</v>
+      </c>
+      <c r="AQ112">
+        <v>2.43</v>
+      </c>
+      <c r="AR112">
+        <v>1.59</v>
+      </c>
+      <c r="AS112">
+        <v>1.47</v>
+      </c>
+      <c r="AT112">
+        <v>3.06</v>
+      </c>
+      <c r="AU112">
+        <v>3</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>4</v>
+      </c>
+      <c r="AX112">
+        <v>5</v>
+      </c>
+      <c r="AY112">
+        <v>7</v>
+      </c>
+      <c r="AZ112">
+        <v>10</v>
+      </c>
+      <c r="BA112">
+        <v>3</v>
+      </c>
+      <c r="BB112">
+        <v>6</v>
+      </c>
+      <c r="BC112">
+        <v>9</v>
+      </c>
+      <c r="BD112">
+        <v>2.64</v>
+      </c>
+      <c r="BE112">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF112">
+        <v>1.65</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>0</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>['6', '44', '72', '77', '80', '86']</t>
+  </si>
+  <si>
+    <t>['17', '72']</t>
   </si>
   <si>
     <t>['24', '37']</t>
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1724,7 +1727,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1805,7 +1808,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2342,7 +2345,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2626,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ8">
         <v>0.83</v>
@@ -2754,7 +2757,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2960,7 +2963,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3166,7 +3169,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3372,7 +3375,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3578,7 +3581,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3784,7 +3787,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3990,7 +3993,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4196,7 +4199,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4608,7 +4611,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5432,7 +5435,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5922,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ24">
         <v>0.71</v>
@@ -6050,7 +6053,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6256,7 +6259,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6462,7 +6465,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6668,7 +6671,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7080,7 +7083,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7492,7 +7495,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7698,7 +7701,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8110,7 +8113,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8728,7 +8731,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8934,7 +8937,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9552,7 +9555,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9633,7 +9636,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10170,7 +10173,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10251,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.15</v>
@@ -10376,7 +10379,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10788,7 +10791,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11200,7 +11203,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11484,7 +11487,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ51">
         <v>0.17</v>
@@ -12024,7 +12027,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12230,7 +12233,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12848,7 +12851,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13054,7 +13057,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13260,7 +13263,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13466,7 +13469,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14084,7 +14087,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14371,7 +14374,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14496,7 +14499,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14780,7 +14783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -15320,7 +15323,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15938,7 +15941,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16144,7 +16147,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16968,7 +16971,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17252,7 +17255,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ79">
         <v>0.33</v>
@@ -17380,7 +17383,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17792,7 +17795,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18410,7 +18413,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18697,7 +18700,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ86">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -18822,7 +18825,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19028,7 +19031,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19234,7 +19237,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19440,7 +19443,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19646,7 +19649,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19852,7 +19855,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20058,7 +20061,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20264,7 +20267,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20470,7 +20473,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20548,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ95">
         <v>1.17</v>
@@ -20676,7 +20679,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21294,7 +21297,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21500,7 +21503,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21706,7 +21709,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21912,7 +21915,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22118,7 +22121,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22530,7 +22533,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23148,7 +23151,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23354,7 +23357,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23766,7 +23769,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -23859,22 +23862,22 @@
         <v>2.94</v>
       </c>
       <c r="AU111">
+        <v>12</v>
+      </c>
+      <c r="AV111">
+        <v>3</v>
+      </c>
+      <c r="AW111">
+        <v>5</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>23</v>
+      </c>
+      <c r="AZ111">
         <v>10</v>
-      </c>
-      <c r="AV111">
-        <v>4</v>
-      </c>
-      <c r="AW111">
-        <v>6</v>
-      </c>
-      <c r="AX111">
-        <v>4</v>
-      </c>
-      <c r="AY111">
-        <v>19</v>
-      </c>
-      <c r="AZ111">
-        <v>9</v>
       </c>
       <c r="BA111">
         <v>6</v>
@@ -24065,19 +24068,19 @@
         <v>3.06</v>
       </c>
       <c r="AU112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV112">
         <v>4</v>
       </c>
       <c r="AW112">
+        <v>7</v>
+      </c>
+      <c r="AX112">
         <v>4</v>
       </c>
-      <c r="AX112">
-        <v>5</v>
-      </c>
       <c r="AY112">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ112">
         <v>10</v>
@@ -24101,34 +24104,240 @@
         <v>1.65</v>
       </c>
       <c r="BG112">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BH112">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="BI112">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BJ112">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="BK112">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BL112">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BM112">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="BN112">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BO112">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="BP112">
-        <v>0</v>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7450758</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45591.63541666666</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s">
+        <v>81</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>168</v>
+      </c>
+      <c r="P113" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q113">
+        <v>2</v>
+      </c>
+      <c r="R113">
+        <v>2.5</v>
+      </c>
+      <c r="S113">
+        <v>6</v>
+      </c>
+      <c r="T113">
+        <v>1.33</v>
+      </c>
+      <c r="U113">
+        <v>3.1</v>
+      </c>
+      <c r="V113">
+        <v>2.45</v>
+      </c>
+      <c r="W113">
+        <v>1.48</v>
+      </c>
+      <c r="X113">
+        <v>5.75</v>
+      </c>
+      <c r="Y113">
+        <v>1.1</v>
+      </c>
+      <c r="Z113">
+        <v>1.48</v>
+      </c>
+      <c r="AA113">
+        <v>4.1</v>
+      </c>
+      <c r="AB113">
+        <v>5.8</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>10</v>
+      </c>
+      <c r="AE113">
+        <v>1.22</v>
+      </c>
+      <c r="AF113">
+        <v>4.2</v>
+      </c>
+      <c r="AG113">
+        <v>1.7</v>
+      </c>
+      <c r="AH113">
+        <v>2.12</v>
+      </c>
+      <c r="AI113">
+        <v>1.8</v>
+      </c>
+      <c r="AJ113">
+        <v>1.95</v>
+      </c>
+      <c r="AK113">
+        <v>1.11</v>
+      </c>
+      <c r="AL113">
+        <v>1.17</v>
+      </c>
+      <c r="AM113">
+        <v>2.6</v>
+      </c>
+      <c r="AN113">
+        <v>2.5</v>
+      </c>
+      <c r="AO113">
+        <v>0.6</v>
+      </c>
+      <c r="AP113">
+        <v>2.57</v>
+      </c>
+      <c r="AQ113">
+        <v>0.5</v>
+      </c>
+      <c r="AR113">
+        <v>1.89</v>
+      </c>
+      <c r="AS113">
+        <v>1.42</v>
+      </c>
+      <c r="AT113">
+        <v>3.31</v>
+      </c>
+      <c r="AU113">
+        <v>10</v>
+      </c>
+      <c r="AV113">
+        <v>3</v>
+      </c>
+      <c r="AW113">
+        <v>5</v>
+      </c>
+      <c r="AX113">
+        <v>9</v>
+      </c>
+      <c r="AY113">
+        <v>18</v>
+      </c>
+      <c r="AZ113">
+        <v>15</v>
+      </c>
+      <c r="BA113">
+        <v>5</v>
+      </c>
+      <c r="BB113">
+        <v>5</v>
+      </c>
+      <c r="BC113">
+        <v>10</v>
+      </c>
+      <c r="BD113">
+        <v>1.31</v>
+      </c>
+      <c r="BE113">
+        <v>9.5</v>
+      </c>
+      <c r="BF113">
+        <v>4.13</v>
+      </c>
+      <c r="BG113">
+        <v>1.25</v>
+      </c>
+      <c r="BH113">
+        <v>3.14</v>
+      </c>
+      <c r="BI113">
+        <v>1.49</v>
+      </c>
+      <c r="BJ113">
+        <v>2.3</v>
+      </c>
+      <c r="BK113">
+        <v>2.38</v>
+      </c>
+      <c r="BL113">
+        <v>1.92</v>
+      </c>
+      <c r="BM113">
+        <v>2.38</v>
+      </c>
+      <c r="BN113">
+        <v>1.46</v>
+      </c>
+      <c r="BO113">
+        <v>3.22</v>
+      </c>
+      <c r="BP113">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,15 @@
     <t>['17', '72']</t>
   </si>
   <si>
+    <t>['33', '57']</t>
+  </si>
+  <si>
+    <t>['10', '51', '67']</t>
+  </si>
+  <si>
+    <t>['28', '45+1', '60', '65']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -695,6 +704,15 @@
   </si>
   <si>
     <t>['1', '8']</t>
+  </si>
+  <si>
+    <t>['51', '84']</t>
+  </si>
+  <si>
+    <t>['38', '58']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
         <v>0.29</v>
@@ -1727,7 +1745,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2014,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2217,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2345,7 +2363,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2632,7 +2650,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2757,7 +2775,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2963,7 +2981,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3169,7 +3187,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3250,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3375,7 +3393,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3581,7 +3599,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3659,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -3787,7 +3805,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3993,7 +4011,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4071,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>2.17</v>
@@ -4199,7 +4217,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4611,7 +4629,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5435,7 +5453,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5719,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ23">
         <v>0.17</v>
@@ -6053,7 +6071,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6134,7 +6152,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6259,7 +6277,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6337,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
         <v>1.43</v>
@@ -6465,7 +6483,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6671,7 +6689,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6752,7 +6770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -7083,7 +7101,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7495,7 +7513,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7576,7 +7594,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7701,7 +7719,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7985,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -8113,7 +8131,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8194,7 +8212,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8731,7 +8749,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8809,7 +8827,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38">
         <v>2.5</v>
@@ -8937,7 +8955,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9430,7 +9448,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>2.02</v>
@@ -9555,7 +9573,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9633,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -10045,7 +10063,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
         <v>1.43</v>
@@ -10173,7 +10191,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10251,7 +10269,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>0.5</v>
@@ -10379,7 +10397,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10791,7 +10809,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10872,7 +10890,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ48">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>0.96</v>
@@ -11078,7 +11096,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11203,7 +11221,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12027,7 +12045,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12233,7 +12251,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12311,7 +12329,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ55">
         <v>2.17</v>
@@ -12520,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12726,7 +12744,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.6</v>
@@ -12851,7 +12869,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13057,7 +13075,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13263,7 +13281,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13341,7 +13359,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>1.17</v>
@@ -13469,7 +13487,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13753,7 +13771,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ62">
         <v>1.29</v>
@@ -13962,7 +13980,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14087,7 +14105,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14499,7 +14517,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15198,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15323,7 +15341,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15401,7 +15419,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ70">
         <v>2.43</v>
@@ -15610,7 +15628,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15941,7 +15959,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16147,7 +16165,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16225,7 +16243,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ74">
         <v>0.71</v>
@@ -16431,7 +16449,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
         <v>1.43</v>
@@ -16640,7 +16658,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -16843,7 +16861,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -16971,7 +16989,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17052,7 +17070,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17383,7 +17401,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17795,7 +17813,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18413,7 +18431,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18491,10 +18509,10 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR85">
         <v>1.53</v>
@@ -18825,7 +18843,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19031,7 +19049,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19237,7 +19255,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19443,7 +19461,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19524,7 +19542,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -19649,7 +19667,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19727,10 +19745,10 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR91">
         <v>1.38</v>
@@ -19855,7 +19873,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -19933,7 +19951,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92">
         <v>0.71</v>
@@ -20061,7 +20079,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20267,7 +20285,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20348,7 +20366,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR94">
         <v>1.85</v>
@@ -20473,7 +20491,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20679,7 +20697,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21169,7 +21187,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ98">
         <v>1.5</v>
@@ -21297,7 +21315,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21503,7 +21521,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21709,7 +21727,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21915,7 +21933,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22121,7 +22139,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22533,7 +22551,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23151,7 +23169,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23357,7 +23375,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23769,7 +23787,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24338,6 +24356,830 @@
       </c>
       <c r="BP113">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7450762</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45592.34375</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s">
+        <v>83</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>169</v>
+      </c>
+      <c r="P114" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q114">
+        <v>3.1</v>
+      </c>
+      <c r="R114">
+        <v>2.25</v>
+      </c>
+      <c r="S114">
+        <v>3.25</v>
+      </c>
+      <c r="T114">
+        <v>1.38</v>
+      </c>
+      <c r="U114">
+        <v>2.8</v>
+      </c>
+      <c r="V114">
+        <v>2.75</v>
+      </c>
+      <c r="W114">
+        <v>1.4</v>
+      </c>
+      <c r="X114">
+        <v>6.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.08</v>
+      </c>
+      <c r="Z114">
+        <v>2.45</v>
+      </c>
+      <c r="AA114">
+        <v>3.5</v>
+      </c>
+      <c r="AB114">
+        <v>2.7</v>
+      </c>
+      <c r="AC114">
+        <v>1.03</v>
+      </c>
+      <c r="AD114">
+        <v>9</v>
+      </c>
+      <c r="AE114">
+        <v>1.22</v>
+      </c>
+      <c r="AF114">
+        <v>3.8</v>
+      </c>
+      <c r="AG114">
+        <v>1.8</v>
+      </c>
+      <c r="AH114">
+        <v>2</v>
+      </c>
+      <c r="AI114">
+        <v>1.62</v>
+      </c>
+      <c r="AJ114">
+        <v>2.2</v>
+      </c>
+      <c r="AK114">
+        <v>1.45</v>
+      </c>
+      <c r="AL114">
+        <v>1.25</v>
+      </c>
+      <c r="AM114">
+        <v>1.5</v>
+      </c>
+      <c r="AN114">
+        <v>1.67</v>
+      </c>
+      <c r="AO114">
+        <v>0.67</v>
+      </c>
+      <c r="AP114">
+        <v>1.57</v>
+      </c>
+      <c r="AQ114">
+        <v>0.71</v>
+      </c>
+      <c r="AR114">
+        <v>1.55</v>
+      </c>
+      <c r="AS114">
+        <v>1.34</v>
+      </c>
+      <c r="AT114">
+        <v>2.89</v>
+      </c>
+      <c r="AU114">
+        <v>9</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>8</v>
+      </c>
+      <c r="AX114">
+        <v>3</v>
+      </c>
+      <c r="AY114">
+        <v>25</v>
+      </c>
+      <c r="AZ114">
+        <v>12</v>
+      </c>
+      <c r="BA114">
+        <v>11</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>11</v>
+      </c>
+      <c r="BD114">
+        <v>2.32</v>
+      </c>
+      <c r="BE114">
+        <v>6.4</v>
+      </c>
+      <c r="BF114">
+        <v>1.93</v>
+      </c>
+      <c r="BG114">
+        <v>1.19</v>
+      </c>
+      <c r="BH114">
+        <v>3.56</v>
+      </c>
+      <c r="BI114">
+        <v>1.41</v>
+      </c>
+      <c r="BJ114">
+        <v>2.52</v>
+      </c>
+      <c r="BK114">
+        <v>2.25</v>
+      </c>
+      <c r="BL114">
+        <v>1.95</v>
+      </c>
+      <c r="BM114">
+        <v>2.19</v>
+      </c>
+      <c r="BN114">
+        <v>1.54</v>
+      </c>
+      <c r="BO114">
+        <v>2.88</v>
+      </c>
+      <c r="BP114">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7450757</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45592.44791666666</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>70</v>
+      </c>
+      <c r="H115" t="s">
+        <v>85</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115" t="s">
+        <v>170</v>
+      </c>
+      <c r="P115" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q115">
+        <v>2.25</v>
+      </c>
+      <c r="R115">
+        <v>2.38</v>
+      </c>
+      <c r="S115">
+        <v>4.75</v>
+      </c>
+      <c r="T115">
+        <v>1.33</v>
+      </c>
+      <c r="U115">
+        <v>3.25</v>
+      </c>
+      <c r="V115">
+        <v>2.5</v>
+      </c>
+      <c r="W115">
+        <v>1.5</v>
+      </c>
+      <c r="X115">
+        <v>6.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.11</v>
+      </c>
+      <c r="Z115">
+        <v>1.7</v>
+      </c>
+      <c r="AA115">
+        <v>3.8</v>
+      </c>
+      <c r="AB115">
+        <v>4.5</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>10</v>
+      </c>
+      <c r="AE115">
+        <v>1.22</v>
+      </c>
+      <c r="AF115">
+        <v>4</v>
+      </c>
+      <c r="AG115">
+        <v>1.67</v>
+      </c>
+      <c r="AH115">
+        <v>2.15</v>
+      </c>
+      <c r="AI115">
+        <v>1.67</v>
+      </c>
+      <c r="AJ115">
+        <v>2.1</v>
+      </c>
+      <c r="AK115">
+        <v>1.22</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>1.85</v>
+      </c>
+      <c r="AN115">
+        <v>2.17</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>2.29</v>
+      </c>
+      <c r="AQ115">
+        <v>0.86</v>
+      </c>
+      <c r="AR115">
+        <v>1.74</v>
+      </c>
+      <c r="AS115">
+        <v>1.46</v>
+      </c>
+      <c r="AT115">
+        <v>3.2</v>
+      </c>
+      <c r="AU115">
+        <v>6</v>
+      </c>
+      <c r="AV115">
+        <v>9</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
+        <v>7</v>
+      </c>
+      <c r="AY115">
+        <v>9</v>
+      </c>
+      <c r="AZ115">
+        <v>19</v>
+      </c>
+      <c r="BA115">
+        <v>3</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>8</v>
+      </c>
+      <c r="BD115">
+        <v>1.67</v>
+      </c>
+      <c r="BE115">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF115">
+        <v>2.55</v>
+      </c>
+      <c r="BG115">
+        <v>1.17</v>
+      </c>
+      <c r="BH115">
+        <v>3.82</v>
+      </c>
+      <c r="BI115">
+        <v>1.36</v>
+      </c>
+      <c r="BJ115">
+        <v>2.7</v>
+      </c>
+      <c r="BK115">
+        <v>2.25</v>
+      </c>
+      <c r="BL115">
+        <v>1.98</v>
+      </c>
+      <c r="BM115">
+        <v>2.07</v>
+      </c>
+      <c r="BN115">
+        <v>1.61</v>
+      </c>
+      <c r="BO115">
+        <v>2.69</v>
+      </c>
+      <c r="BP115">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7450763</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45592.5625</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>82</v>
+      </c>
+      <c r="H116" t="s">
+        <v>87</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>95</v>
+      </c>
+      <c r="P116" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q116">
+        <v>2.75</v>
+      </c>
+      <c r="R116">
+        <v>2.25</v>
+      </c>
+      <c r="S116">
+        <v>3.6</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>3.25</v>
+      </c>
+      <c r="V116">
+        <v>2.63</v>
+      </c>
+      <c r="W116">
+        <v>1.44</v>
+      </c>
+      <c r="X116">
+        <v>6.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.11</v>
+      </c>
+      <c r="Z116">
+        <v>3.15</v>
+      </c>
+      <c r="AA116">
+        <v>4.17</v>
+      </c>
+      <c r="AB116">
+        <v>1.81</v>
+      </c>
+      <c r="AC116">
+        <v>1.05</v>
+      </c>
+      <c r="AD116">
+        <v>9.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.25</v>
+      </c>
+      <c r="AF116">
+        <v>3.75</v>
+      </c>
+      <c r="AG116">
+        <v>1.76</v>
+      </c>
+      <c r="AH116">
+        <v>1.95</v>
+      </c>
+      <c r="AI116">
+        <v>1.62</v>
+      </c>
+      <c r="AJ116">
+        <v>2.2</v>
+      </c>
+      <c r="AK116">
+        <v>1.3</v>
+      </c>
+      <c r="AL116">
+        <v>1.22</v>
+      </c>
+      <c r="AM116">
+        <v>1.75</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>0.83</v>
+      </c>
+      <c r="AP116">
+        <v>1.67</v>
+      </c>
+      <c r="AQ116">
+        <v>1.14</v>
+      </c>
+      <c r="AR116">
+        <v>1.38</v>
+      </c>
+      <c r="AS116">
+        <v>1.22</v>
+      </c>
+      <c r="AT116">
+        <v>2.6</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>3</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>11</v>
+      </c>
+      <c r="AZ116">
+        <v>15</v>
+      </c>
+      <c r="BA116">
+        <v>1</v>
+      </c>
+      <c r="BB116">
+        <v>9</v>
+      </c>
+      <c r="BC116">
+        <v>10</v>
+      </c>
+      <c r="BD116">
+        <v>1.62</v>
+      </c>
+      <c r="BE116">
+        <v>8.6</v>
+      </c>
+      <c r="BF116">
+        <v>2.7</v>
+      </c>
+      <c r="BG116">
+        <v>1.19</v>
+      </c>
+      <c r="BH116">
+        <v>3.56</v>
+      </c>
+      <c r="BI116">
+        <v>1.41</v>
+      </c>
+      <c r="BJ116">
+        <v>2.52</v>
+      </c>
+      <c r="BK116">
+        <v>2.25</v>
+      </c>
+      <c r="BL116">
+        <v>2.05</v>
+      </c>
+      <c r="BM116">
+        <v>2.19</v>
+      </c>
+      <c r="BN116">
+        <v>1.54</v>
+      </c>
+      <c r="BO116">
+        <v>2.88</v>
+      </c>
+      <c r="BP116">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7450759</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45592.67708333334</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>171</v>
+      </c>
+      <c r="P117" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q117">
+        <v>2.2</v>
+      </c>
+      <c r="R117">
+        <v>2.3</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.63</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>2.47</v>
+      </c>
+      <c r="AA117">
+        <v>4.11</v>
+      </c>
+      <c r="AB117">
+        <v>2.18</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>9.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.25</v>
+      </c>
+      <c r="AF117">
+        <v>3.75</v>
+      </c>
+      <c r="AG117">
+        <v>1.8</v>
+      </c>
+      <c r="AH117">
+        <v>1.9</v>
+      </c>
+      <c r="AI117">
+        <v>1.8</v>
+      </c>
+      <c r="AJ117">
+        <v>1.95</v>
+      </c>
+      <c r="AK117">
+        <v>1.12</v>
+      </c>
+      <c r="AL117">
+        <v>1.18</v>
+      </c>
+      <c r="AM117">
+        <v>2.2</v>
+      </c>
+      <c r="AN117">
+        <v>1.67</v>
+      </c>
+      <c r="AO117">
+        <v>1.4</v>
+      </c>
+      <c r="AP117">
+        <v>1.86</v>
+      </c>
+      <c r="AQ117">
+        <v>1.17</v>
+      </c>
+      <c r="AR117">
+        <v>1.54</v>
+      </c>
+      <c r="AS117">
+        <v>1.54</v>
+      </c>
+      <c r="AT117">
+        <v>3.08</v>
+      </c>
+      <c r="AU117">
+        <v>9</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>12</v>
+      </c>
+      <c r="AX117">
+        <v>5</v>
+      </c>
+      <c r="AY117">
+        <v>31</v>
+      </c>
+      <c r="AZ117">
+        <v>9</v>
+      </c>
+      <c r="BA117">
+        <v>11</v>
+      </c>
+      <c r="BB117">
+        <v>3</v>
+      </c>
+      <c r="BC117">
+        <v>14</v>
+      </c>
+      <c r="BD117">
+        <v>1.41</v>
+      </c>
+      <c r="BE117">
+        <v>8.9</v>
+      </c>
+      <c r="BF117">
+        <v>3.52</v>
+      </c>
+      <c r="BG117">
+        <v>1.28</v>
+      </c>
+      <c r="BH117">
+        <v>2.97</v>
+      </c>
+      <c r="BI117">
+        <v>1.55</v>
+      </c>
+      <c r="BJ117">
+        <v>2.17</v>
+      </c>
+      <c r="BK117">
+        <v>1.99</v>
+      </c>
+      <c r="BL117">
+        <v>1.73</v>
+      </c>
+      <c r="BM117">
+        <v>2.56</v>
+      </c>
+      <c r="BN117">
+        <v>1.4</v>
+      </c>
+      <c r="BO117">
+        <v>3.44</v>
+      </c>
+      <c r="BP117">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,27 @@
     <t>['28', '45+1', '60', '65']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['8', '28', '38', '75']</t>
+  </si>
+  <si>
+    <t>['33', '44']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['36', '87']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['1', '55', '90+6']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -713,6 +734,21 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['37', '63']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['65', '69']</t>
+  </si>
+  <si>
+    <t>['4', '44']</t>
+  </si>
+  <si>
+    <t>['37', '88']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1745,7 +1781,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1823,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -2032,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2235,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.71</v>
@@ -2363,7 +2399,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2444,7 +2480,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2775,7 +2811,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2853,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
         <v>2.43</v>
@@ -2981,7 +3017,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3062,7 +3098,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3187,7 +3223,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3265,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
         <v>1.14</v>
@@ -3393,7 +3429,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3471,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ12">
         <v>1.17</v>
@@ -3599,7 +3635,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3805,7 +3841,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3883,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4011,7 +4047,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4092,7 +4128,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4217,7 +4253,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4295,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4504,7 +4540,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4629,7 +4665,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4913,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5119,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ20">
         <v>0.29</v>
@@ -5325,10 +5361,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5453,7 +5489,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5531,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22">
         <v>2.43</v>
@@ -5740,7 +5776,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ23">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -6071,7 +6107,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6149,10 +6185,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6277,7 +6313,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6355,10 +6391,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6483,7 +6519,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6564,7 +6600,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>0.72</v>
@@ -6689,7 +6725,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6767,7 +6803,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
         <v>1.14</v>
@@ -6973,10 +7009,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ29">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -7101,7 +7137,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7182,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -7388,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7513,7 +7549,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7591,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ32">
         <v>0.71</v>
@@ -7719,7 +7755,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7797,7 +7833,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8006,7 +8042,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8131,7 +8167,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8415,7 +8451,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>0.71</v>
@@ -8621,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8749,7 +8785,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8830,7 +8866,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ38">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -8955,7 +8991,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9033,10 +9069,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9242,7 +9278,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9448,7 +9484,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>2.02</v>
@@ -9573,7 +9609,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9651,7 +9687,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9857,7 +9893,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>2.43</v>
@@ -10066,7 +10102,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10191,7 +10227,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10397,7 +10433,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10475,7 +10511,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ46">
         <v>2.43</v>
@@ -10681,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>0.29</v>
@@ -10809,7 +10845,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11221,7 +11257,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11299,10 +11335,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -11508,7 +11544,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ51">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR51">
         <v>1.7</v>
@@ -11920,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -12045,7 +12081,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12123,10 +12159,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR54">
         <v>1.89</v>
@@ -12251,7 +12287,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12332,7 +12368,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ55">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12535,10 +12571,10 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12741,7 +12777,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ57">
         <v>1.17</v>
@@ -12869,7 +12905,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12947,10 +12983,10 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13075,7 +13111,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13153,7 +13189,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>0.71</v>
@@ -13281,7 +13317,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13359,7 +13395,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.17</v>
@@ -13487,7 +13523,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13568,7 +13604,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -13774,7 +13810,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR62">
         <v>1.9</v>
@@ -13977,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>1.14</v>
@@ -14105,7 +14141,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14183,10 +14219,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.8</v>
@@ -14389,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14517,7 +14553,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14598,7 +14634,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14804,7 +14840,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -15341,7 +15377,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15419,7 +15455,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>2.43</v>
@@ -15625,10 +15661,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15959,7 +15995,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16037,10 +16073,10 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16165,7 +16201,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16452,7 +16488,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -16655,7 +16691,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
         <v>1.17</v>
@@ -16989,7 +17025,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17067,7 +17103,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78">
         <v>0.71</v>
@@ -17276,7 +17312,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ79">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR79">
         <v>1.89</v>
@@ -17401,7 +17437,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17479,10 +17515,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17685,10 +17721,10 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -17813,7 +17849,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -17891,10 +17927,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18097,7 +18133,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ83">
         <v>0.29</v>
@@ -18303,10 +18339,10 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -18431,7 +18467,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18509,7 +18545,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.14</v>
@@ -18715,7 +18751,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ86">
         <v>0.5</v>
@@ -18843,7 +18879,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -18924,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19049,7 +19085,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19130,7 +19166,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -19255,7 +19291,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19336,7 +19372,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ89">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19461,7 +19497,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19539,7 +19575,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
         <v>1.17</v>
@@ -19667,7 +19703,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19748,7 +19784,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR91">
         <v>1.38</v>
@@ -19873,7 +19909,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20079,7 +20115,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20157,7 +20193,7 @@
         <v>2.6</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ93">
         <v>2.43</v>
@@ -20285,7 +20321,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20363,7 +20399,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ94">
         <v>0.71</v>
@@ -20491,7 +20527,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20697,7 +20733,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20778,7 +20814,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ96">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -20984,7 +21020,7 @@
         <v>3</v>
       </c>
       <c r="AQ97">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21315,7 +21351,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21396,7 +21432,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -21521,7 +21557,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21599,7 +21635,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ100">
         <v>1.5</v>
@@ -21727,7 +21763,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21805,10 +21841,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -21933,7 +21969,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22011,10 +22047,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR102">
         <v>1.67</v>
@@ -22139,7 +22175,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22220,7 +22256,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ103">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR103">
         <v>1.6</v>
@@ -22423,10 +22459,10 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ104">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -22551,7 +22587,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22629,10 +22665,10 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ105">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR105">
         <v>1.93</v>
@@ -22835,10 +22871,10 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ106">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR106">
         <v>1.53</v>
@@ -23041,7 +23077,7 @@
         <v>0.4</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
         <v>0.29</v>
@@ -23169,7 +23205,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23250,7 +23286,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23375,7 +23411,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23787,7 +23823,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24405,7 +24441,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24692,7 +24728,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ115">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>1.74</v>
@@ -24817,7 +24853,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25023,7 +25059,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25101,7 +25137,7 @@
         <v>1.4</v>
       </c>
       <c r="AP117">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.17</v>
@@ -25180,6 +25216,1860 @@
       </c>
       <c r="BP117">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7450773</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45598.44791666666</v>
+      </c>
+      <c r="F118">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>86</v>
+      </c>
+      <c r="H118" t="s">
+        <v>78</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>172</v>
+      </c>
+      <c r="P118" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q118">
+        <v>1.95</v>
+      </c>
+      <c r="R118">
+        <v>2.3</v>
+      </c>
+      <c r="S118">
+        <v>7.5</v>
+      </c>
+      <c r="T118">
+        <v>1.39</v>
+      </c>
+      <c r="U118">
+        <v>2.8</v>
+      </c>
+      <c r="V118">
+        <v>2.9</v>
+      </c>
+      <c r="W118">
+        <v>1.37</v>
+      </c>
+      <c r="X118">
+        <v>7</v>
+      </c>
+      <c r="Y118">
+        <v>1.07</v>
+      </c>
+      <c r="Z118">
+        <v>1.4</v>
+      </c>
+      <c r="AA118">
+        <v>4.75</v>
+      </c>
+      <c r="AB118">
+        <v>7</v>
+      </c>
+      <c r="AC118">
+        <v>1.05</v>
+      </c>
+      <c r="AD118">
+        <v>9.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.3</v>
+      </c>
+      <c r="AF118">
+        <v>3.3</v>
+      </c>
+      <c r="AG118">
+        <v>1.95</v>
+      </c>
+      <c r="AH118">
+        <v>1.85</v>
+      </c>
+      <c r="AI118">
+        <v>2.2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.62</v>
+      </c>
+      <c r="AK118">
+        <v>1.03</v>
+      </c>
+      <c r="AL118">
+        <v>1.15</v>
+      </c>
+      <c r="AM118">
+        <v>3</v>
+      </c>
+      <c r="AN118">
+        <v>1.67</v>
+      </c>
+      <c r="AO118">
+        <v>0.17</v>
+      </c>
+      <c r="AP118">
+        <v>1.86</v>
+      </c>
+      <c r="AQ118">
+        <v>0.14</v>
+      </c>
+      <c r="AR118">
+        <v>1.58</v>
+      </c>
+      <c r="AS118">
+        <v>1.3</v>
+      </c>
+      <c r="AT118">
+        <v>2.88</v>
+      </c>
+      <c r="AU118">
+        <v>4</v>
+      </c>
+      <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>10</v>
+      </c>
+      <c r="AX118">
+        <v>1</v>
+      </c>
+      <c r="AY118">
+        <v>18</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>1</v>
+      </c>
+      <c r="BC118">
+        <v>8</v>
+      </c>
+      <c r="BD118">
+        <v>1.08</v>
+      </c>
+      <c r="BE118">
+        <v>11</v>
+      </c>
+      <c r="BF118">
+        <v>8.5</v>
+      </c>
+      <c r="BG118">
+        <v>1.42</v>
+      </c>
+      <c r="BH118">
+        <v>2.62</v>
+      </c>
+      <c r="BI118">
+        <v>1.78</v>
+      </c>
+      <c r="BJ118">
+        <v>1.9</v>
+      </c>
+      <c r="BK118">
+        <v>2.38</v>
+      </c>
+      <c r="BL118">
+        <v>1.5</v>
+      </c>
+      <c r="BM118">
+        <v>3.4</v>
+      </c>
+      <c r="BN118">
+        <v>1.26</v>
+      </c>
+      <c r="BO118">
+        <v>4.15</v>
+      </c>
+      <c r="BP118">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7450770</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45598.5625</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" t="s">
+        <v>73</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <v>4</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>6</v>
+      </c>
+      <c r="O119" t="s">
+        <v>173</v>
+      </c>
+      <c r="P119" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q119">
+        <v>3.6</v>
+      </c>
+      <c r="R119">
+        <v>2.3</v>
+      </c>
+      <c r="S119">
+        <v>2.63</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3</v>
+      </c>
+      <c r="V119">
+        <v>2.45</v>
+      </c>
+      <c r="W119">
+        <v>1.48</v>
+      </c>
+      <c r="X119">
+        <v>5.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>3.2</v>
+      </c>
+      <c r="AA119">
+        <v>3.7</v>
+      </c>
+      <c r="AB119">
+        <v>2.1</v>
+      </c>
+      <c r="AC119">
+        <v>1.05</v>
+      </c>
+      <c r="AD119">
+        <v>9.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.25</v>
+      </c>
+      <c r="AF119">
+        <v>3.95</v>
+      </c>
+      <c r="AG119">
+        <v>1.65</v>
+      </c>
+      <c r="AH119">
+        <v>2.2</v>
+      </c>
+      <c r="AI119">
+        <v>1.57</v>
+      </c>
+      <c r="AJ119">
+        <v>2.25</v>
+      </c>
+      <c r="AK119">
+        <v>1.7</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.33</v>
+      </c>
+      <c r="AN119">
+        <v>1.14</v>
+      </c>
+      <c r="AO119">
+        <v>0.17</v>
+      </c>
+      <c r="AP119">
+        <v>1.38</v>
+      </c>
+      <c r="AQ119">
+        <v>0.14</v>
+      </c>
+      <c r="AR119">
+        <v>1.67</v>
+      </c>
+      <c r="AS119">
+        <v>1.4</v>
+      </c>
+      <c r="AT119">
+        <v>3.07</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>9</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>7</v>
+      </c>
+      <c r="AY119">
+        <v>12</v>
+      </c>
+      <c r="AZ119">
+        <v>21</v>
+      </c>
+      <c r="BA119">
+        <v>2</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>7</v>
+      </c>
+      <c r="BD119">
+        <v>2.1</v>
+      </c>
+      <c r="BE119">
+        <v>7.1</v>
+      </c>
+      <c r="BF119">
+        <v>1.95</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>1.29</v>
+      </c>
+      <c r="BJ119">
+        <v>3.25</v>
+      </c>
+      <c r="BK119">
+        <v>1.83</v>
+      </c>
+      <c r="BL119">
+        <v>2.32</v>
+      </c>
+      <c r="BM119">
+        <v>1.9</v>
+      </c>
+      <c r="BN119">
+        <v>1.78</v>
+      </c>
+      <c r="BO119">
+        <v>2.48</v>
+      </c>
+      <c r="BP119">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7450771</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45598.67708333334</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>174</v>
+      </c>
+      <c r="P120" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q120">
+        <v>6.5</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>2.05</v>
+      </c>
+      <c r="T120">
+        <v>1.38</v>
+      </c>
+      <c r="U120">
+        <v>2.85</v>
+      </c>
+      <c r="V120">
+        <v>2.75</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>6.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.08</v>
+      </c>
+      <c r="Z120">
+        <v>4.78</v>
+      </c>
+      <c r="AA120">
+        <v>3.69</v>
+      </c>
+      <c r="AB120">
+        <v>1.62</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>9</v>
+      </c>
+      <c r="AE120">
+        <v>1.28</v>
+      </c>
+      <c r="AF120">
+        <v>3.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.87</v>
+      </c>
+      <c r="AH120">
+        <v>1.84</v>
+      </c>
+      <c r="AI120">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120">
+        <v>1.8</v>
+      </c>
+      <c r="AK120">
+        <v>2.15</v>
+      </c>
+      <c r="AL120">
+        <v>1.2</v>
+      </c>
+      <c r="AM120">
+        <v>1.12</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>2.17</v>
+      </c>
+      <c r="AP120">
+        <v>1.29</v>
+      </c>
+      <c r="AQ120">
+        <v>1.86</v>
+      </c>
+      <c r="AR120">
+        <v>1.38</v>
+      </c>
+      <c r="AS120">
+        <v>1.32</v>
+      </c>
+      <c r="AT120">
+        <v>2.7</v>
+      </c>
+      <c r="AU120">
+        <v>10</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>6</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>18</v>
+      </c>
+      <c r="AZ120">
+        <v>14</v>
+      </c>
+      <c r="BA120">
+        <v>5</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>10</v>
+      </c>
+      <c r="BD120">
+        <v>4.3</v>
+      </c>
+      <c r="BE120">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF120">
+        <v>1.29</v>
+      </c>
+      <c r="BG120">
+        <v>1.25</v>
+      </c>
+      <c r="BH120">
+        <v>3.45</v>
+      </c>
+      <c r="BI120">
+        <v>1.5</v>
+      </c>
+      <c r="BJ120">
+        <v>2.38</v>
+      </c>
+      <c r="BK120">
+        <v>2.38</v>
+      </c>
+      <c r="BL120">
+        <v>1.78</v>
+      </c>
+      <c r="BM120">
+        <v>2.55</v>
+      </c>
+      <c r="BN120">
+        <v>1.44</v>
+      </c>
+      <c r="BO120">
+        <v>3.65</v>
+      </c>
+      <c r="BP120">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7450772</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45599.34375</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s">
+        <v>84</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>107</v>
+      </c>
+      <c r="P121" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q121">
+        <v>3.5</v>
+      </c>
+      <c r="R121">
+        <v>2.05</v>
+      </c>
+      <c r="S121">
+        <v>3.25</v>
+      </c>
+      <c r="T121">
+        <v>1.48</v>
+      </c>
+      <c r="U121">
+        <v>2.5</v>
+      </c>
+      <c r="V121">
+        <v>3.1</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>7.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>2.8</v>
+      </c>
+      <c r="AA121">
+        <v>3.1</v>
+      </c>
+      <c r="AB121">
+        <v>2.6</v>
+      </c>
+      <c r="AC121">
+        <v>1.08</v>
+      </c>
+      <c r="AD121">
+        <v>7.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.4</v>
+      </c>
+      <c r="AF121">
+        <v>2.9</v>
+      </c>
+      <c r="AG121">
+        <v>2.2</v>
+      </c>
+      <c r="AH121">
+        <v>1.65</v>
+      </c>
+      <c r="AI121">
+        <v>1.91</v>
+      </c>
+      <c r="AJ121">
+        <v>1.91</v>
+      </c>
+      <c r="AK121">
+        <v>1.5</v>
+      </c>
+      <c r="AL121">
+        <v>1.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.4</v>
+      </c>
+      <c r="AN121">
+        <v>1.5</v>
+      </c>
+      <c r="AO121">
+        <v>1.43</v>
+      </c>
+      <c r="AP121">
+        <v>1.43</v>
+      </c>
+      <c r="AQ121">
+        <v>1.38</v>
+      </c>
+      <c r="AR121">
+        <v>1.57</v>
+      </c>
+      <c r="AS121">
+        <v>1.31</v>
+      </c>
+      <c r="AT121">
+        <v>2.88</v>
+      </c>
+      <c r="AU121">
+        <v>6</v>
+      </c>
+      <c r="AV121">
+        <v>7</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>7</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>18</v>
+      </c>
+      <c r="BA121">
+        <v>4</v>
+      </c>
+      <c r="BB121">
+        <v>9</v>
+      </c>
+      <c r="BC121">
+        <v>13</v>
+      </c>
+      <c r="BD121">
+        <v>2.45</v>
+      </c>
+      <c r="BE121">
+        <v>5.75</v>
+      </c>
+      <c r="BF121">
+        <v>1.82</v>
+      </c>
+      <c r="BG121">
+        <v>1.33</v>
+      </c>
+      <c r="BH121">
+        <v>3</v>
+      </c>
+      <c r="BI121">
+        <v>1.62</v>
+      </c>
+      <c r="BJ121">
+        <v>2.15</v>
+      </c>
+      <c r="BK121">
+        <v>2.08</v>
+      </c>
+      <c r="BL121">
+        <v>1.65</v>
+      </c>
+      <c r="BM121">
+        <v>2.82</v>
+      </c>
+      <c r="BN121">
+        <v>1.37</v>
+      </c>
+      <c r="BO121">
+        <v>4</v>
+      </c>
+      <c r="BP121">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7450766</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45599.44791666666</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>87</v>
+      </c>
+      <c r="H122" t="s">
+        <v>70</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>95</v>
+      </c>
+      <c r="P122" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q122">
+        <v>2.88</v>
+      </c>
+      <c r="R122">
+        <v>2.3</v>
+      </c>
+      <c r="S122">
+        <v>3.4</v>
+      </c>
+      <c r="T122">
+        <v>1.33</v>
+      </c>
+      <c r="U122">
+        <v>3.1</v>
+      </c>
+      <c r="V122">
+        <v>2.4</v>
+      </c>
+      <c r="W122">
+        <v>1.5</v>
+      </c>
+      <c r="X122">
+        <v>5.25</v>
+      </c>
+      <c r="Y122">
+        <v>1.12</v>
+      </c>
+      <c r="Z122">
+        <v>2.25</v>
+      </c>
+      <c r="AA122">
+        <v>3.5</v>
+      </c>
+      <c r="AB122">
+        <v>3</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>10</v>
+      </c>
+      <c r="AE122">
+        <v>1.22</v>
+      </c>
+      <c r="AF122">
+        <v>4.2</v>
+      </c>
+      <c r="AG122">
+        <v>1.65</v>
+      </c>
+      <c r="AH122">
+        <v>2.2</v>
+      </c>
+      <c r="AI122">
+        <v>1.57</v>
+      </c>
+      <c r="AJ122">
+        <v>2.25</v>
+      </c>
+      <c r="AK122">
+        <v>1.42</v>
+      </c>
+      <c r="AL122">
+        <v>1.25</v>
+      </c>
+      <c r="AM122">
+        <v>1.57</v>
+      </c>
+      <c r="AN122">
+        <v>1.67</v>
+      </c>
+      <c r="AO122">
+        <v>2</v>
+      </c>
+      <c r="AP122">
+        <v>1.43</v>
+      </c>
+      <c r="AQ122">
+        <v>2.14</v>
+      </c>
+      <c r="AR122">
+        <v>2.04</v>
+      </c>
+      <c r="AS122">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT122">
+        <v>2.98</v>
+      </c>
+      <c r="AU122">
+        <v>3</v>
+      </c>
+      <c r="AV122">
+        <v>6</v>
+      </c>
+      <c r="AW122">
+        <v>10</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>19</v>
+      </c>
+      <c r="AZ122">
+        <v>9</v>
+      </c>
+      <c r="BA122">
+        <v>6</v>
+      </c>
+      <c r="BB122">
+        <v>3</v>
+      </c>
+      <c r="BC122">
+        <v>9</v>
+      </c>
+      <c r="BD122">
+        <v>1.62</v>
+      </c>
+      <c r="BE122">
+        <v>6.1</v>
+      </c>
+      <c r="BF122">
+        <v>2.85</v>
+      </c>
+      <c r="BG122">
+        <v>1.22</v>
+      </c>
+      <c r="BH122">
+        <v>3.75</v>
+      </c>
+      <c r="BI122">
+        <v>1.42</v>
+      </c>
+      <c r="BJ122">
+        <v>2.62</v>
+      </c>
+      <c r="BK122">
+        <v>2.1</v>
+      </c>
+      <c r="BL122">
+        <v>1.92</v>
+      </c>
+      <c r="BM122">
+        <v>2.28</v>
+      </c>
+      <c r="BN122">
+        <v>1.52</v>
+      </c>
+      <c r="BO122">
+        <v>3.2</v>
+      </c>
+      <c r="BP122">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7450768</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45599.5625</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>80</v>
+      </c>
+      <c r="H123" t="s">
+        <v>75</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>175</v>
+      </c>
+      <c r="P123" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q123">
+        <v>3.5</v>
+      </c>
+      <c r="R123">
+        <v>2.3</v>
+      </c>
+      <c r="S123">
+        <v>2.75</v>
+      </c>
+      <c r="T123">
+        <v>1.33</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123">
+        <v>2.45</v>
+      </c>
+      <c r="W123">
+        <v>1.48</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.11</v>
+      </c>
+      <c r="Z123">
+        <v>2.99</v>
+      </c>
+      <c r="AA123">
+        <v>3.58</v>
+      </c>
+      <c r="AB123">
+        <v>2.21</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>9.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.22</v>
+      </c>
+      <c r="AF123">
+        <v>4</v>
+      </c>
+      <c r="AG123">
+        <v>1.72</v>
+      </c>
+      <c r="AH123">
+        <v>2.13</v>
+      </c>
+      <c r="AI123">
+        <v>1.57</v>
+      </c>
+      <c r="AJ123">
+        <v>2.25</v>
+      </c>
+      <c r="AK123">
+        <v>1.6</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>1.38</v>
+      </c>
+      <c r="AN123">
+        <v>0.83</v>
+      </c>
+      <c r="AO123">
+        <v>2.5</v>
+      </c>
+      <c r="AP123">
+        <v>0.71</v>
+      </c>
+      <c r="AQ123">
+        <v>2.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.23</v>
+      </c>
+      <c r="AS123">
+        <v>1.53</v>
+      </c>
+      <c r="AT123">
+        <v>2.76</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>9</v>
+      </c>
+      <c r="AW123">
+        <v>7</v>
+      </c>
+      <c r="AX123">
+        <v>7</v>
+      </c>
+      <c r="AY123">
+        <v>14</v>
+      </c>
+      <c r="AZ123">
+        <v>18</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>9</v>
+      </c>
+      <c r="BD123">
+        <v>2.35</v>
+      </c>
+      <c r="BE123">
+        <v>7</v>
+      </c>
+      <c r="BF123">
+        <v>1.78</v>
+      </c>
+      <c r="BG123">
+        <v>1.18</v>
+      </c>
+      <c r="BH123">
+        <v>4.2</v>
+      </c>
+      <c r="BI123">
+        <v>1.37</v>
+      </c>
+      <c r="BJ123">
+        <v>2.82</v>
+      </c>
+      <c r="BK123">
+        <v>2.38</v>
+      </c>
+      <c r="BL123">
+        <v>2.08</v>
+      </c>
+      <c r="BM123">
+        <v>2.12</v>
+      </c>
+      <c r="BN123">
+        <v>1.62</v>
+      </c>
+      <c r="BO123">
+        <v>2.82</v>
+      </c>
+      <c r="BP123">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7450769</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45599.67708333334</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124" t="s">
+        <v>82</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>176</v>
+      </c>
+      <c r="P124" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q124">
+        <v>2.05</v>
+      </c>
+      <c r="R124">
+        <v>2.5</v>
+      </c>
+      <c r="S124">
+        <v>5.5</v>
+      </c>
+      <c r="T124">
+        <v>1.33</v>
+      </c>
+      <c r="U124">
+        <v>3.25</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.73</v>
+      </c>
+      <c r="AA124">
+        <v>3.84</v>
+      </c>
+      <c r="AB124">
+        <v>4.41</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.22</v>
+      </c>
+      <c r="AF124">
+        <v>4</v>
+      </c>
+      <c r="AG124">
+        <v>1.78</v>
+      </c>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>1.75</v>
+      </c>
+      <c r="AJ124">
+        <v>2</v>
+      </c>
+      <c r="AK124">
+        <v>1.12</v>
+      </c>
+      <c r="AL124">
+        <v>1.18</v>
+      </c>
+      <c r="AM124">
+        <v>2.25</v>
+      </c>
+      <c r="AN124">
+        <v>1.86</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>2</v>
+      </c>
+      <c r="AQ124">
+        <v>1.13</v>
+      </c>
+      <c r="AR124">
+        <v>1.68</v>
+      </c>
+      <c r="AS124">
+        <v>1.45</v>
+      </c>
+      <c r="AT124">
+        <v>3.13</v>
+      </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>5</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>19</v>
+      </c>
+      <c r="AZ124">
+        <v>8</v>
+      </c>
+      <c r="BA124">
+        <v>7</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>10</v>
+      </c>
+      <c r="BD124">
+        <v>1.25</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>4.75</v>
+      </c>
+      <c r="BG124">
+        <v>1.31</v>
+      </c>
+      <c r="BH124">
+        <v>3.1</v>
+      </c>
+      <c r="BI124">
+        <v>1.58</v>
+      </c>
+      <c r="BJ124">
+        <v>2.2</v>
+      </c>
+      <c r="BK124">
+        <v>2.02</v>
+      </c>
+      <c r="BL124">
+        <v>1.68</v>
+      </c>
+      <c r="BM124">
+        <v>2.72</v>
+      </c>
+      <c r="BN124">
+        <v>1.39</v>
+      </c>
+      <c r="BO124">
+        <v>3.85</v>
+      </c>
+      <c r="BP124">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7450765</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45600.58333333334</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>72</v>
+      </c>
+      <c r="H125" t="s">
+        <v>85</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>177</v>
+      </c>
+      <c r="P125" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q125">
+        <v>2.75</v>
+      </c>
+      <c r="R125">
+        <v>2.1</v>
+      </c>
+      <c r="S125">
+        <v>4</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.75</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>9</v>
+      </c>
+      <c r="Y125">
+        <v>1.07</v>
+      </c>
+      <c r="Z125">
+        <v>2.05</v>
+      </c>
+      <c r="AA125">
+        <v>3.3</v>
+      </c>
+      <c r="AB125">
+        <v>3.3</v>
+      </c>
+      <c r="AC125">
+        <v>1.06</v>
+      </c>
+      <c r="AD125">
+        <v>8.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.33</v>
+      </c>
+      <c r="AF125">
+        <v>3.2</v>
+      </c>
+      <c r="AG125">
+        <v>2.05</v>
+      </c>
+      <c r="AH125">
+        <v>1.75</v>
+      </c>
+      <c r="AI125">
+        <v>1.91</v>
+      </c>
+      <c r="AJ125">
+        <v>1.91</v>
+      </c>
+      <c r="AK125">
+        <v>1.33</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.66</v>
+      </c>
+      <c r="AN125">
+        <v>1.29</v>
+      </c>
+      <c r="AO125">
+        <v>0.86</v>
+      </c>
+      <c r="AP125">
+        <v>1.13</v>
+      </c>
+      <c r="AQ125">
+        <v>1.13</v>
+      </c>
+      <c r="AR125">
+        <v>1.75</v>
+      </c>
+      <c r="AS125">
+        <v>1.58</v>
+      </c>
+      <c r="AT125">
+        <v>3.33</v>
+      </c>
+      <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>2</v>
+      </c>
+      <c r="AX125">
+        <v>5</v>
+      </c>
+      <c r="AY125">
+        <v>14</v>
+      </c>
+      <c r="AZ125">
+        <v>14</v>
+      </c>
+      <c r="BA125">
+        <v>7</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>13</v>
+      </c>
+      <c r="BD125">
+        <v>1.74</v>
+      </c>
+      <c r="BE125">
+        <v>7</v>
+      </c>
+      <c r="BF125">
+        <v>2.6</v>
+      </c>
+      <c r="BG125">
+        <v>1.25</v>
+      </c>
+      <c r="BH125">
+        <v>3.3</v>
+      </c>
+      <c r="BI125">
+        <v>1.48</v>
+      </c>
+      <c r="BJ125">
+        <v>2.38</v>
+      </c>
+      <c r="BK125">
+        <v>1.85</v>
+      </c>
+      <c r="BL125">
+        <v>1.85</v>
+      </c>
+      <c r="BM125">
+        <v>2.35</v>
+      </c>
+      <c r="BN125">
+        <v>1.49</v>
+      </c>
+      <c r="BO125">
+        <v>3.15</v>
+      </c>
+      <c r="BP125">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7450767</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45600.6875</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>83</v>
+      </c>
+      <c r="H126" t="s">
+        <v>71</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>178</v>
+      </c>
+      <c r="P126" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q126">
+        <v>3.2</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>3.6</v>
+      </c>
+      <c r="T126">
+        <v>1.4</v>
+      </c>
+      <c r="U126">
+        <v>2.75</v>
+      </c>
+      <c r="V126">
+        <v>3</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>8</v>
+      </c>
+      <c r="Y126">
+        <v>1.08</v>
+      </c>
+      <c r="Z126">
+        <v>2.38</v>
+      </c>
+      <c r="AA126">
+        <v>3.2</v>
+      </c>
+      <c r="AB126">
+        <v>2.75</v>
+      </c>
+      <c r="AC126">
+        <v>1.07</v>
+      </c>
+      <c r="AD126">
+        <v>8</v>
+      </c>
+      <c r="AE126">
+        <v>1.33</v>
+      </c>
+      <c r="AF126">
+        <v>3.1</v>
+      </c>
+      <c r="AG126">
+        <v>2.15</v>
+      </c>
+      <c r="AH126">
+        <v>1.67</v>
+      </c>
+      <c r="AI126">
+        <v>1.91</v>
+      </c>
+      <c r="AJ126">
+        <v>1.91</v>
+      </c>
+      <c r="AK126">
+        <v>1.38</v>
+      </c>
+      <c r="AL126">
+        <v>1.28</v>
+      </c>
+      <c r="AM126">
+        <v>1.55</v>
+      </c>
+      <c r="AN126">
+        <v>1.67</v>
+      </c>
+      <c r="AO126">
+        <v>0.33</v>
+      </c>
+      <c r="AP126">
+        <v>1.86</v>
+      </c>
+      <c r="AQ126">
+        <v>0.29</v>
+      </c>
+      <c r="AR126">
+        <v>1.67</v>
+      </c>
+      <c r="AS126">
+        <v>1.19</v>
+      </c>
+      <c r="AT126">
+        <v>2.86</v>
+      </c>
+      <c r="AU126">
+        <v>8</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>8</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>21</v>
+      </c>
+      <c r="AZ126">
+        <v>8</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>6</v>
+      </c>
+      <c r="BC126">
+        <v>12</v>
+      </c>
+      <c r="BD126">
+        <v>1.62</v>
+      </c>
+      <c r="BE126">
+        <v>6.1</v>
+      </c>
+      <c r="BF126">
+        <v>2.88</v>
+      </c>
+      <c r="BG126">
+        <v>1.22</v>
+      </c>
+      <c r="BH126">
+        <v>3.75</v>
+      </c>
+      <c r="BI126">
+        <v>1.42</v>
+      </c>
+      <c r="BJ126">
+        <v>2.62</v>
+      </c>
+      <c r="BK126">
+        <v>1.75</v>
+      </c>
+      <c r="BL126">
+        <v>1.92</v>
+      </c>
+      <c r="BM126">
+        <v>2.28</v>
+      </c>
+      <c r="BN126">
+        <v>1.52</v>
+      </c>
+      <c r="BO126">
+        <v>3.2</v>
+      </c>
+      <c r="BP126">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -27009,19 +27009,19 @@
         <v>8</v>
       </c>
       <c r="AV126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW126">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX126">
         <v>5</v>
       </c>
       <c r="AY126">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ126">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA126">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,9 @@
     <t>['1', '55', '90+6']</t>
   </si>
   <si>
+    <t>['37', '70']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -749,6 +752,12 @@
   </si>
   <si>
     <t>['37', '88']</t>
+  </si>
+  <si>
+    <t>['7', '38', '75']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1781,7 +1790,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1862,7 +1871,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2065,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ5">
         <v>1.13</v>
@@ -2399,7 +2408,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2811,7 +2820,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3017,7 +3026,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3223,7 +3232,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3429,7 +3438,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3510,7 +3519,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ12">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3635,7 +3644,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3841,7 +3850,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4047,7 +4056,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4253,7 +4262,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4537,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
         <v>0.29</v>
@@ -4665,7 +4674,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5489,7 +5498,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6107,7 +6116,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6313,7 +6322,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6519,7 +6528,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6725,7 +6734,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7137,7 +7146,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7421,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ31">
         <v>0.14</v>
@@ -7549,7 +7558,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7755,7 +7764,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8167,7 +8176,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8245,7 +8254,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>1.17</v>
@@ -8660,7 +8669,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -8785,7 +8794,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8991,7 +9000,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9275,7 +9284,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ40">
         <v>1.13</v>
@@ -9609,7 +9618,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9690,7 +9699,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10227,7 +10236,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10308,7 +10317,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR45">
         <v>1.15</v>
@@ -10433,7 +10442,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10845,7 +10854,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11129,7 +11138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ49">
         <v>0.71</v>
@@ -11257,7 +11266,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12081,7 +12090,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12287,7 +12296,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12905,7 +12914,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13111,7 +13120,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13317,7 +13326,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13398,7 +13407,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13523,7 +13532,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13601,7 +13610,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ61">
         <v>0.29</v>
@@ -14141,7 +14150,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14428,7 +14437,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14553,7 +14562,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15043,7 +15052,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>0.29</v>
@@ -15377,7 +15386,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15867,7 +15876,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -15995,7 +16004,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16201,7 +16210,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16900,7 +16909,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR77">
         <v>1.21</v>
@@ -17025,7 +17034,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17437,7 +17446,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17849,7 +17858,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18467,7 +18476,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18754,7 +18763,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -18879,7 +18888,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19085,7 +19094,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19163,7 +19172,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>2.14</v>
@@ -19291,7 +19300,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19497,7 +19506,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19703,7 +19712,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19909,7 +19918,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20115,7 +20124,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20321,7 +20330,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20527,7 +20536,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20608,7 +20617,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ95">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -20733,7 +20742,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21017,7 +21026,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ97">
         <v>1.38</v>
@@ -21351,7 +21360,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21557,7 +21566,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21763,7 +21772,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21969,7 +21978,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22175,7 +22184,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22587,7 +22596,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23205,7 +23214,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23411,7 +23420,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23489,7 +23498,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ109">
         <v>0.71</v>
@@ -23695,7 +23704,7 @@
         <v>0.33</v>
       </c>
       <c r="AP110">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ110">
         <v>0.29</v>
@@ -23823,7 +23832,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -23904,7 +23913,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ111">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24316,7 +24325,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ113">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -24441,7 +24450,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24853,7 +24862,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25059,7 +25068,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25471,7 +25480,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25883,7 +25892,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26089,7 +26098,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26295,7 +26304,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26501,7 +26510,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26707,7 +26716,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27070,6 +27079,418 @@
       </c>
       <c r="BP126">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7450778</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45604.58333333334</v>
+      </c>
+      <c r="F127">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>179</v>
+      </c>
+      <c r="P127" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q127">
+        <v>2.5</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>4.75</v>
+      </c>
+      <c r="T127">
+        <v>1.44</v>
+      </c>
+      <c r="U127">
+        <v>2.6</v>
+      </c>
+      <c r="V127">
+        <v>3</v>
+      </c>
+      <c r="W127">
+        <v>1.33</v>
+      </c>
+      <c r="X127">
+        <v>7.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.06</v>
+      </c>
+      <c r="Z127">
+        <v>1.83</v>
+      </c>
+      <c r="AA127">
+        <v>3.5</v>
+      </c>
+      <c r="AB127">
+        <v>4.33</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>9</v>
+      </c>
+      <c r="AE127">
+        <v>1.29</v>
+      </c>
+      <c r="AF127">
+        <v>3.3</v>
+      </c>
+      <c r="AG127">
+        <v>2</v>
+      </c>
+      <c r="AH127">
+        <v>1.8</v>
+      </c>
+      <c r="AI127">
+        <v>1.91</v>
+      </c>
+      <c r="AJ127">
+        <v>1.91</v>
+      </c>
+      <c r="AK127">
+        <v>1.15</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>2.1</v>
+      </c>
+      <c r="AN127">
+        <v>1.5</v>
+      </c>
+      <c r="AO127">
+        <v>1.17</v>
+      </c>
+      <c r="AP127">
+        <v>1.29</v>
+      </c>
+      <c r="AQ127">
+        <v>1.43</v>
+      </c>
+      <c r="AR127">
+        <v>1.46</v>
+      </c>
+      <c r="AS127">
+        <v>1.42</v>
+      </c>
+      <c r="AT127">
+        <v>2.88</v>
+      </c>
+      <c r="AU127">
+        <v>7</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>3</v>
+      </c>
+      <c r="AY127">
+        <v>16</v>
+      </c>
+      <c r="AZ127">
+        <v>8</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>2</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>1.58</v>
+      </c>
+      <c r="BE127">
+        <v>8.5</v>
+      </c>
+      <c r="BF127">
+        <v>2.82</v>
+      </c>
+      <c r="BG127">
+        <v>1.26</v>
+      </c>
+      <c r="BH127">
+        <v>3.08</v>
+      </c>
+      <c r="BI127">
+        <v>1.51</v>
+      </c>
+      <c r="BJ127">
+        <v>2.26</v>
+      </c>
+      <c r="BK127">
+        <v>1.92</v>
+      </c>
+      <c r="BL127">
+        <v>1.79</v>
+      </c>
+      <c r="BM127">
+        <v>2.43</v>
+      </c>
+      <c r="BN127">
+        <v>1.44</v>
+      </c>
+      <c r="BO127">
+        <v>3.28</v>
+      </c>
+      <c r="BP127">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7450779</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45604.6875</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>95</v>
+      </c>
+      <c r="P128" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q128">
+        <v>2.2</v>
+      </c>
+      <c r="R128">
+        <v>2.5</v>
+      </c>
+      <c r="S128">
+        <v>4.75</v>
+      </c>
+      <c r="T128">
+        <v>1.3</v>
+      </c>
+      <c r="U128">
+        <v>3.2</v>
+      </c>
+      <c r="V128">
+        <v>2.38</v>
+      </c>
+      <c r="W128">
+        <v>1.53</v>
+      </c>
+      <c r="X128">
+        <v>5.25</v>
+      </c>
+      <c r="Y128">
+        <v>1.12</v>
+      </c>
+      <c r="Z128">
+        <v>1.65</v>
+      </c>
+      <c r="AA128">
+        <v>4.1</v>
+      </c>
+      <c r="AB128">
+        <v>4.75</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>13</v>
+      </c>
+      <c r="AE128">
+        <v>1.14</v>
+      </c>
+      <c r="AF128">
+        <v>4.8</v>
+      </c>
+      <c r="AG128">
+        <v>1.57</v>
+      </c>
+      <c r="AH128">
+        <v>2.35</v>
+      </c>
+      <c r="AI128">
+        <v>1.62</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>1.13</v>
+      </c>
+      <c r="AL128">
+        <v>1.17</v>
+      </c>
+      <c r="AM128">
+        <v>2.45</v>
+      </c>
+      <c r="AN128">
+        <v>3</v>
+      </c>
+      <c r="AO128">
+        <v>0.5</v>
+      </c>
+      <c r="AP128">
+        <v>2.63</v>
+      </c>
+      <c r="AQ128">
+        <v>0.86</v>
+      </c>
+      <c r="AR128">
+        <v>1.7</v>
+      </c>
+      <c r="AS128">
+        <v>1.39</v>
+      </c>
+      <c r="AT128">
+        <v>3.09</v>
+      </c>
+      <c r="AU128">
+        <v>12</v>
+      </c>
+      <c r="AV128">
+        <v>3</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>7</v>
+      </c>
+      <c r="AY128">
+        <v>24</v>
+      </c>
+      <c r="AZ128">
+        <v>12</v>
+      </c>
+      <c r="BA128">
+        <v>17</v>
+      </c>
+      <c r="BB128">
+        <v>6</v>
+      </c>
+      <c r="BC128">
+        <v>23</v>
+      </c>
+      <c r="BD128">
+        <v>1.32</v>
+      </c>
+      <c r="BE128">
+        <v>9.9</v>
+      </c>
+      <c r="BF128">
+        <v>4.05</v>
+      </c>
+      <c r="BG128">
+        <v>1.18</v>
+      </c>
+      <c r="BH128">
+        <v>3.95</v>
+      </c>
+      <c r="BI128">
+        <v>1.3</v>
+      </c>
+      <c r="BJ128">
+        <v>2.88</v>
+      </c>
+      <c r="BK128">
+        <v>2.1</v>
+      </c>
+      <c r="BL128">
+        <v>2.16</v>
+      </c>
+      <c r="BM128">
+        <v>1.98</v>
+      </c>
+      <c r="BN128">
+        <v>1.74</v>
+      </c>
+      <c r="BO128">
+        <v>2.49</v>
+      </c>
+      <c r="BP128">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['37', '70']</t>
   </si>
   <si>
+    <t>['45+3', '70', '90+3']</t>
+  </si>
+  <si>
+    <t>['7', '71']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -758,6 +764,12 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['15', '39', '62', '90+7']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1790,7 +1802,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2283,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2408,7 +2420,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2486,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
         <v>1.38</v>
@@ -2695,7 +2707,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2820,7 +2832,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3026,7 +3038,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3232,7 +3244,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3313,7 +3325,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3438,7 +3450,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3644,7 +3656,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3725,7 +3737,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -3850,7 +3862,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4056,7 +4068,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4134,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ15">
         <v>1.86</v>
@@ -4262,7 +4274,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4674,7 +4686,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5498,7 +5510,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5991,7 +6003,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ24">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -6116,7 +6128,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6322,7 +6334,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6528,7 +6540,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6606,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1.13</v>
@@ -6734,7 +6746,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6815,7 +6827,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -7146,7 +7158,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7558,7 +7570,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7639,7 +7651,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7764,7 +7776,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8048,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ34">
         <v>0.29</v>
@@ -8176,7 +8188,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8257,7 +8269,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8463,7 +8475,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -8794,7 +8806,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9000,7 +9012,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9490,7 +9502,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -9618,7 +9630,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10236,7 +10248,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10314,7 +10326,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
         <v>0.86</v>
@@ -10442,7 +10454,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10854,7 +10866,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10932,10 +10944,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR48">
         <v>0.96</v>
@@ -11141,7 +11153,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ49">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11266,7 +11278,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11756,7 +11768,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -12090,7 +12102,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12296,7 +12308,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12789,7 +12801,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ57">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR57">
         <v>1.6</v>
@@ -12914,7 +12926,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13120,7 +13132,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13201,7 +13213,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR59">
         <v>1.38</v>
@@ -13326,7 +13338,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13532,7 +13544,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14025,7 +14037,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14150,7 +14162,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14562,7 +14574,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14640,7 +14652,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
         <v>0.14</v>
@@ -15261,7 +15273,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15386,7 +15398,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16004,7 +16016,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16210,7 +16222,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16291,7 +16303,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -16494,7 +16506,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ75">
         <v>1.38</v>
@@ -16703,7 +16715,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17034,7 +17046,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17115,7 +17127,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ78">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17446,7 +17458,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17858,7 +17870,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18476,7 +18488,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18557,7 +18569,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>1.53</v>
@@ -18888,7 +18900,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19094,7 +19106,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19300,7 +19312,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19378,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>0.14</v>
@@ -19506,7 +19518,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19587,7 +19599,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -19712,7 +19724,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19790,7 +19802,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ91">
         <v>1.13</v>
@@ -19918,7 +19930,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -19999,7 +20011,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20124,7 +20136,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20330,7 +20342,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20411,7 +20423,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ94">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR94">
         <v>1.85</v>
@@ -20536,7 +20548,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20742,7 +20754,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20820,7 +20832,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>2.57</v>
@@ -21360,7 +21372,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21566,7 +21578,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21772,7 +21784,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21978,7 +21990,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22184,7 +22196,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22262,7 +22274,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
         <v>1.86</v>
@@ -22596,7 +22608,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23214,7 +23226,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23292,7 +23304,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
         <v>0.14</v>
@@ -23420,7 +23432,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23501,7 +23513,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ109">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -23832,7 +23844,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -23910,7 +23922,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
         <v>1.43</v>
@@ -24116,7 +24128,7 @@
         <v>2.67</v>
       </c>
       <c r="AP112">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
         <v>2.43</v>
@@ -24450,7 +24462,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24531,7 +24543,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ114">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24862,7 +24874,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24940,10 +24952,10 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ116">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -25068,7 +25080,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25149,7 +25161,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25480,7 +25492,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25892,7 +25904,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26098,7 +26110,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26304,7 +26316,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26510,7 +26522,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26716,7 +26728,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27128,7 +27140,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27334,7 +27346,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27427,19 +27439,19 @@
         <v>3.09</v>
       </c>
       <c r="AU128">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY128">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ128">
         <v>12</v>
@@ -27448,10 +27460,10 @@
         <v>17</v>
       </c>
       <c r="BB128">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC128">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD128">
         <v>1.32</v>
@@ -27491,6 +27503,830 @@
       </c>
       <c r="BP128">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7450776</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45605.34375</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>85</v>
+      </c>
+      <c r="H129" t="s">
+        <v>80</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129" t="s">
+        <v>95</v>
+      </c>
+      <c r="P129" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q129">
+        <v>2.38</v>
+      </c>
+      <c r="R129">
+        <v>2.25</v>
+      </c>
+      <c r="S129">
+        <v>4.5</v>
+      </c>
+      <c r="T129">
+        <v>1.4</v>
+      </c>
+      <c r="U129">
+        <v>2.75</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>8</v>
+      </c>
+      <c r="Y129">
+        <v>1.08</v>
+      </c>
+      <c r="Z129">
+        <v>1.75</v>
+      </c>
+      <c r="AA129">
+        <v>3.6</v>
+      </c>
+      <c r="AB129">
+        <v>4.33</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>7.6</v>
+      </c>
+      <c r="AE129">
+        <v>1.24</v>
+      </c>
+      <c r="AF129">
+        <v>3.22</v>
+      </c>
+      <c r="AG129">
+        <v>1.8</v>
+      </c>
+      <c r="AH129">
+        <v>2</v>
+      </c>
+      <c r="AI129">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.25</v>
+      </c>
+      <c r="AL129">
+        <v>1.25</v>
+      </c>
+      <c r="AM129">
+        <v>1.65</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
+        <v>0.71</v>
+      </c>
+      <c r="AP129">
+        <v>1</v>
+      </c>
+      <c r="AQ129">
+        <v>0.75</v>
+      </c>
+      <c r="AR129">
+        <v>1.39</v>
+      </c>
+      <c r="AS129">
+        <v>1.26</v>
+      </c>
+      <c r="AT129">
+        <v>2.65</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>2</v>
+      </c>
+      <c r="AW129">
+        <v>8</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>19</v>
+      </c>
+      <c r="AZ129">
+        <v>8</v>
+      </c>
+      <c r="BA129">
+        <v>6</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>10</v>
+      </c>
+      <c r="BD129">
+        <v>1.3</v>
+      </c>
+      <c r="BE129">
+        <v>8.1</v>
+      </c>
+      <c r="BF129">
+        <v>4.7</v>
+      </c>
+      <c r="BG129">
+        <v>1.23</v>
+      </c>
+      <c r="BH129">
+        <v>3.5</v>
+      </c>
+      <c r="BI129">
+        <v>1.32</v>
+      </c>
+      <c r="BJ129">
+        <v>2.78</v>
+      </c>
+      <c r="BK129">
+        <v>2.25</v>
+      </c>
+      <c r="BL129">
+        <v>2.08</v>
+      </c>
+      <c r="BM129">
+        <v>2.04</v>
+      </c>
+      <c r="BN129">
+        <v>1.69</v>
+      </c>
+      <c r="BO129">
+        <v>2.62</v>
+      </c>
+      <c r="BP129">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7450774</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45605.44791666666</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>72</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>7</v>
+      </c>
+      <c r="O130" t="s">
+        <v>180</v>
+      </c>
+      <c r="P130" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q130">
+        <v>2.5</v>
+      </c>
+      <c r="R130">
+        <v>2.25</v>
+      </c>
+      <c r="S130">
+        <v>4.33</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>3</v>
+      </c>
+      <c r="V130">
+        <v>2.75</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>7</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>1.9</v>
+      </c>
+      <c r="AA130">
+        <v>3.4</v>
+      </c>
+      <c r="AB130">
+        <v>4</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>7.8</v>
+      </c>
+      <c r="AE130">
+        <v>1.22</v>
+      </c>
+      <c r="AF130">
+        <v>3.35</v>
+      </c>
+      <c r="AG130">
+        <v>1.75</v>
+      </c>
+      <c r="AH130">
+        <v>2.05</v>
+      </c>
+      <c r="AI130">
+        <v>1.67</v>
+      </c>
+      <c r="AJ130">
+        <v>2.1</v>
+      </c>
+      <c r="AK130">
+        <v>1.22</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.73</v>
+      </c>
+      <c r="AN130">
+        <v>1.57</v>
+      </c>
+      <c r="AO130">
+        <v>1.17</v>
+      </c>
+      <c r="AP130">
+        <v>1.38</v>
+      </c>
+      <c r="AQ130">
+        <v>1.43</v>
+      </c>
+      <c r="AR130">
+        <v>1.6</v>
+      </c>
+      <c r="AS130">
+        <v>1.47</v>
+      </c>
+      <c r="AT130">
+        <v>3.07</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>8</v>
+      </c>
+      <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>14</v>
+      </c>
+      <c r="AZ130">
+        <v>14</v>
+      </c>
+      <c r="BA130">
+        <v>6</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.65</v>
+      </c>
+      <c r="BE130">
+        <v>8.4</v>
+      </c>
+      <c r="BF130">
+        <v>2.63</v>
+      </c>
+      <c r="BG130">
+        <v>1.25</v>
+      </c>
+      <c r="BH130">
+        <v>3.14</v>
+      </c>
+      <c r="BI130">
+        <v>1.49</v>
+      </c>
+      <c r="BJ130">
+        <v>2.3</v>
+      </c>
+      <c r="BK130">
+        <v>1.88</v>
+      </c>
+      <c r="BL130">
+        <v>1.82</v>
+      </c>
+      <c r="BM130">
+        <v>2.41</v>
+      </c>
+      <c r="BN130">
+        <v>1.45</v>
+      </c>
+      <c r="BO130">
+        <v>3.22</v>
+      </c>
+      <c r="BP130">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7450781</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45605.5625</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>82</v>
+      </c>
+      <c r="H131" t="s">
+        <v>83</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>181</v>
+      </c>
+      <c r="P131" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q131">
+        <v>2.6</v>
+      </c>
+      <c r="R131">
+        <v>2.25</v>
+      </c>
+      <c r="S131">
+        <v>4</v>
+      </c>
+      <c r="T131">
+        <v>1.33</v>
+      </c>
+      <c r="U131">
+        <v>3.25</v>
+      </c>
+      <c r="V131">
+        <v>2.63</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>6.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.11</v>
+      </c>
+      <c r="Z131">
+        <v>1.95</v>
+      </c>
+      <c r="AA131">
+        <v>3.5</v>
+      </c>
+      <c r="AB131">
+        <v>3.7</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>9.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.18</v>
+      </c>
+      <c r="AF131">
+        <v>3.72</v>
+      </c>
+      <c r="AG131">
+        <v>1.73</v>
+      </c>
+      <c r="AH131">
+        <v>2.08</v>
+      </c>
+      <c r="AI131">
+        <v>1.67</v>
+      </c>
+      <c r="AJ131">
+        <v>2.1</v>
+      </c>
+      <c r="AK131">
+        <v>1.25</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.57</v>
+      </c>
+      <c r="AN131">
+        <v>1.67</v>
+      </c>
+      <c r="AO131">
+        <v>0.71</v>
+      </c>
+      <c r="AP131">
+        <v>1.86</v>
+      </c>
+      <c r="AQ131">
+        <v>0.63</v>
+      </c>
+      <c r="AR131">
+        <v>1.36</v>
+      </c>
+      <c r="AS131">
+        <v>1.35</v>
+      </c>
+      <c r="AT131">
+        <v>2.71</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>7</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>16</v>
+      </c>
+      <c r="AZ131">
+        <v>16</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.63</v>
+      </c>
+      <c r="BE131">
+        <v>6.8</v>
+      </c>
+      <c r="BF131">
+        <v>2.9</v>
+      </c>
+      <c r="BG131">
+        <v>1.16</v>
+      </c>
+      <c r="BH131">
+        <v>3.88</v>
+      </c>
+      <c r="BI131">
+        <v>1.35</v>
+      </c>
+      <c r="BJ131">
+        <v>2.74</v>
+      </c>
+      <c r="BK131">
+        <v>2.2</v>
+      </c>
+      <c r="BL131">
+        <v>2.08</v>
+      </c>
+      <c r="BM131">
+        <v>2.05</v>
+      </c>
+      <c r="BN131">
+        <v>1.62</v>
+      </c>
+      <c r="BO131">
+        <v>2.65</v>
+      </c>
+      <c r="BP131">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7450782</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45605.67708333334</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>87</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>95</v>
+      </c>
+      <c r="P132" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q132">
+        <v>3.1</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>3.5</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>1.36</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.08</v>
+      </c>
+      <c r="Z132">
+        <v>2.23</v>
+      </c>
+      <c r="AA132">
+        <v>3.28</v>
+      </c>
+      <c r="AB132">
+        <v>3.21</v>
+      </c>
+      <c r="AC132">
+        <v>1.06</v>
+      </c>
+      <c r="AD132">
+        <v>8.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.3</v>
+      </c>
+      <c r="AF132">
+        <v>3.3</v>
+      </c>
+      <c r="AG132">
+        <v>2</v>
+      </c>
+      <c r="AH132">
+        <v>1.82</v>
+      </c>
+      <c r="AI132">
+        <v>1.8</v>
+      </c>
+      <c r="AJ132">
+        <v>1.95</v>
+      </c>
+      <c r="AK132">
+        <v>1.3</v>
+      </c>
+      <c r="AL132">
+        <v>1.28</v>
+      </c>
+      <c r="AM132">
+        <v>1.53</v>
+      </c>
+      <c r="AN132">
+        <v>1.17</v>
+      </c>
+      <c r="AO132">
+        <v>1.14</v>
+      </c>
+      <c r="AP132">
+        <v>1</v>
+      </c>
+      <c r="AQ132">
+        <v>1.38</v>
+      </c>
+      <c r="AR132">
+        <v>1.49</v>
+      </c>
+      <c r="AS132">
+        <v>1.24</v>
+      </c>
+      <c r="AT132">
+        <v>2.73</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>11</v>
+      </c>
+      <c r="AX132">
+        <v>9</v>
+      </c>
+      <c r="AY132">
+        <v>16</v>
+      </c>
+      <c r="AZ132">
+        <v>18</v>
+      </c>
+      <c r="BA132">
+        <v>5</v>
+      </c>
+      <c r="BB132">
+        <v>1</v>
+      </c>
+      <c r="BC132">
+        <v>6</v>
+      </c>
+      <c r="BD132">
+        <v>1.91</v>
+      </c>
+      <c r="BE132">
+        <v>8</v>
+      </c>
+      <c r="BF132">
+        <v>2.2</v>
+      </c>
+      <c r="BG132">
+        <v>1.32</v>
+      </c>
+      <c r="BH132">
+        <v>3.15</v>
+      </c>
+      <c r="BI132">
+        <v>1.55</v>
+      </c>
+      <c r="BJ132">
+        <v>2.3</v>
+      </c>
+      <c r="BK132">
+        <v>1.91</v>
+      </c>
+      <c r="BL132">
+        <v>1.8</v>
+      </c>
+      <c r="BM132">
+        <v>2.45</v>
+      </c>
+      <c r="BN132">
+        <v>1.48</v>
+      </c>
+      <c r="BO132">
+        <v>3.3</v>
+      </c>
+      <c r="BP132">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,15 @@
     <t>['7', '71']</t>
   </si>
   <si>
+    <t>['67', '74']</t>
+  </si>
+  <si>
+    <t>['68', '90+11']</t>
+  </si>
+  <si>
+    <t>['4', '38', '50', '58', '69']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -770,6 +779,12 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['4', '87']</t>
+  </si>
+  <si>
+    <t>['28', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1802,7 +1817,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2420,7 +2435,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2704,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2832,7 +2847,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2913,7 +2928,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3038,7 +3053,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3116,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1.13</v>
@@ -3244,7 +3259,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3450,7 +3465,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3656,7 +3671,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3734,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3862,7 +3877,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4068,7 +4083,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4274,7 +4289,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4686,7 +4701,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4767,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5179,7 +5194,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ20">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5510,7 +5525,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5591,7 +5606,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -5794,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ23">
         <v>0.14</v>
@@ -6000,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6128,7 +6143,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6334,7 +6349,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6540,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6746,7 +6761,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7158,7 +7173,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7570,7 +7585,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7776,7 +7791,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7857,7 +7872,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -8188,7 +8203,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8806,7 +8821,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8884,7 +8899,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ38">
         <v>2.57</v>
@@ -9012,7 +9027,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9630,7 +9645,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9917,7 +9932,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10120,7 +10135,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10248,7 +10263,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10454,7 +10469,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10535,7 +10550,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ46">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -10741,7 +10756,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10866,7 +10881,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11278,7 +11293,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11562,7 +11577,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ51">
         <v>0.14</v>
@@ -11771,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12102,7 +12117,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12308,7 +12323,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12386,7 +12401,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>1.86</v>
@@ -12926,7 +12941,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13132,7 +13147,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13338,7 +13353,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13544,7 +13559,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13828,7 +13843,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
         <v>1.13</v>
@@ -14162,7 +14177,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14574,7 +14589,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14858,7 +14873,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ67">
         <v>2.14</v>
@@ -15067,7 +15082,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -15398,7 +15413,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15479,7 +15494,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15891,7 +15906,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16016,7 +16031,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16222,7 +16237,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16300,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16918,7 +16933,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
         <v>1.43</v>
@@ -17046,7 +17061,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17330,7 +17345,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ79">
         <v>0.29</v>
@@ -17458,7 +17473,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17870,7 +17885,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -18157,7 +18172,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ83">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR83">
         <v>1.5</v>
@@ -18488,7 +18503,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18900,7 +18915,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19106,7 +19121,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19312,7 +19327,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19518,7 +19533,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19724,7 +19739,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19930,7 +19945,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20008,7 +20023,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
         <v>0.75</v>
@@ -20136,7 +20151,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20217,7 +20232,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ93">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR93">
         <v>1.66</v>
@@ -20342,7 +20357,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20548,7 +20563,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20626,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ95">
         <v>1.43</v>
@@ -20754,7 +20769,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21244,10 +21259,10 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR98">
         <v>1.72</v>
@@ -21372,7 +21387,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21578,7 +21593,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21659,7 +21674,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR100">
         <v>1.26</v>
@@ -21784,7 +21799,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21990,7 +22005,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22196,7 +22211,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22608,7 +22623,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23101,7 +23116,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23226,7 +23241,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23432,7 +23447,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23719,7 +23734,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ110">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR110">
         <v>1.69</v>
@@ -23844,7 +23859,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24131,7 +24146,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AR112">
         <v>1.59</v>
@@ -24334,7 +24349,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ113">
         <v>0.86</v>
@@ -24462,7 +24477,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24540,7 +24555,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ114">
         <v>0.63</v>
@@ -24746,7 +24761,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -24874,7 +24889,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25080,7 +25095,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25492,7 +25507,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25904,7 +25919,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26110,7 +26125,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26316,7 +26331,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26522,7 +26537,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26728,7 +26743,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27140,7 +27155,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27346,7 +27361,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27758,7 +27773,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28170,7 +28185,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28269,16 +28284,16 @@
         <v>5</v>
       </c>
       <c r="AW132">
+        <v>6</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
         <v>11</v>
       </c>
-      <c r="AX132">
-        <v>9</v>
-      </c>
-      <c r="AY132">
-        <v>16</v>
-      </c>
       <c r="AZ132">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA132">
         <v>5</v>
@@ -28327,6 +28342,624 @@
       </c>
       <c r="BP132">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7450780</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45606.34375</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s">
+        <v>79</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>182</v>
+      </c>
+      <c r="P133" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q133">
+        <v>2.5</v>
+      </c>
+      <c r="R133">
+        <v>2.2</v>
+      </c>
+      <c r="S133">
+        <v>4.33</v>
+      </c>
+      <c r="T133">
+        <v>1.42</v>
+      </c>
+      <c r="U133">
+        <v>2.65</v>
+      </c>
+      <c r="V133">
+        <v>2.88</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>7</v>
+      </c>
+      <c r="Y133">
+        <v>1.07</v>
+      </c>
+      <c r="Z133">
+        <v>1.9</v>
+      </c>
+      <c r="AA133">
+        <v>3.5</v>
+      </c>
+      <c r="AB133">
+        <v>4.1</v>
+      </c>
+      <c r="AC133">
+        <v>1.06</v>
+      </c>
+      <c r="AD133">
+        <v>8.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.33</v>
+      </c>
+      <c r="AF133">
+        <v>3.25</v>
+      </c>
+      <c r="AG133">
+        <v>1.95</v>
+      </c>
+      <c r="AH133">
+        <v>1.85</v>
+      </c>
+      <c r="AI133">
+        <v>1.8</v>
+      </c>
+      <c r="AJ133">
+        <v>1.95</v>
+      </c>
+      <c r="AK133">
+        <v>1.25</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.83</v>
+      </c>
+      <c r="AN133">
+        <v>1.57</v>
+      </c>
+      <c r="AO133">
+        <v>0.29</v>
+      </c>
+      <c r="AP133">
+        <v>1.75</v>
+      </c>
+      <c r="AQ133">
+        <v>0.25</v>
+      </c>
+      <c r="AR133">
+        <v>1.65</v>
+      </c>
+      <c r="AS133">
+        <v>0.97</v>
+      </c>
+      <c r="AT133">
+        <v>2.62</v>
+      </c>
+      <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AV133">
+        <v>3</v>
+      </c>
+      <c r="AW133">
+        <v>8</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>21</v>
+      </c>
+      <c r="AZ133">
+        <v>7</v>
+      </c>
+      <c r="BA133">
+        <v>8</v>
+      </c>
+      <c r="BB133">
+        <v>2</v>
+      </c>
+      <c r="BC133">
+        <v>10</v>
+      </c>
+      <c r="BD133">
+        <v>1.64</v>
+      </c>
+      <c r="BE133">
+        <v>8.5</v>
+      </c>
+      <c r="BF133">
+        <v>2.76</v>
+      </c>
+      <c r="BG133">
+        <v>1.32</v>
+      </c>
+      <c r="BH133">
+        <v>3.15</v>
+      </c>
+      <c r="BI133">
+        <v>1.55</v>
+      </c>
+      <c r="BJ133">
+        <v>2.3</v>
+      </c>
+      <c r="BK133">
+        <v>1.91</v>
+      </c>
+      <c r="BL133">
+        <v>1.8</v>
+      </c>
+      <c r="BM133">
+        <v>2.45</v>
+      </c>
+      <c r="BN133">
+        <v>1.48</v>
+      </c>
+      <c r="BO133">
+        <v>3.3</v>
+      </c>
+      <c r="BP133">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7450775</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45606.44791666666</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>86</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>183</v>
+      </c>
+      <c r="P134" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q134">
+        <v>3.75</v>
+      </c>
+      <c r="R134">
+        <v>2.1</v>
+      </c>
+      <c r="S134">
+        <v>3</v>
+      </c>
+      <c r="T134">
+        <v>1.38</v>
+      </c>
+      <c r="U134">
+        <v>2.8</v>
+      </c>
+      <c r="V134">
+        <v>2.7</v>
+      </c>
+      <c r="W134">
+        <v>1.4</v>
+      </c>
+      <c r="X134">
+        <v>6.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.08</v>
+      </c>
+      <c r="Z134">
+        <v>3.25</v>
+      </c>
+      <c r="AA134">
+        <v>3.2</v>
+      </c>
+      <c r="AB134">
+        <v>2.25</v>
+      </c>
+      <c r="AC134">
+        <v>1.06</v>
+      </c>
+      <c r="AD134">
+        <v>8.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.3</v>
+      </c>
+      <c r="AF134">
+        <v>3.45</v>
+      </c>
+      <c r="AG134">
+        <v>2.05</v>
+      </c>
+      <c r="AH134">
+        <v>1.75</v>
+      </c>
+      <c r="AI134">
+        <v>1.8</v>
+      </c>
+      <c r="AJ134">
+        <v>1.95</v>
+      </c>
+      <c r="AK134">
+        <v>1.6</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.36</v>
+      </c>
+      <c r="AN134">
+        <v>2.29</v>
+      </c>
+      <c r="AO134">
+        <v>2.43</v>
+      </c>
+      <c r="AP134">
+        <v>2.13</v>
+      </c>
+      <c r="AQ134">
+        <v>2.25</v>
+      </c>
+      <c r="AR134">
+        <v>1.7</v>
+      </c>
+      <c r="AS134">
+        <v>1.45</v>
+      </c>
+      <c r="AT134">
+        <v>3.15</v>
+      </c>
+      <c r="AU134">
+        <v>12</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>9</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>23</v>
+      </c>
+      <c r="AZ134">
+        <v>11</v>
+      </c>
+      <c r="BA134">
+        <v>7</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>2.38</v>
+      </c>
+      <c r="BE134">
+        <v>7.4</v>
+      </c>
+      <c r="BF134">
+        <v>1.87</v>
+      </c>
+      <c r="BG134">
+        <v>1.3</v>
+      </c>
+      <c r="BH134">
+        <v>3.25</v>
+      </c>
+      <c r="BI134">
+        <v>1.53</v>
+      </c>
+      <c r="BJ134">
+        <v>2.35</v>
+      </c>
+      <c r="BK134">
+        <v>2.38</v>
+      </c>
+      <c r="BL134">
+        <v>1.82</v>
+      </c>
+      <c r="BM134">
+        <v>2.4</v>
+      </c>
+      <c r="BN134">
+        <v>1.5</v>
+      </c>
+      <c r="BO134">
+        <v>3.2</v>
+      </c>
+      <c r="BP134">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7450777</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45606.5625</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>74</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>4</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>7</v>
+      </c>
+      <c r="O135" t="s">
+        <v>184</v>
+      </c>
+      <c r="P135" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>3.75</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>2.8</v>
+      </c>
+      <c r="W135">
+        <v>1.38</v>
+      </c>
+      <c r="X135">
+        <v>6.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>2.25</v>
+      </c>
+      <c r="AA135">
+        <v>3.2</v>
+      </c>
+      <c r="AB135">
+        <v>3.25</v>
+      </c>
+      <c r="AC135">
+        <v>1.06</v>
+      </c>
+      <c r="AD135">
+        <v>8.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.33</v>
+      </c>
+      <c r="AF135">
+        <v>3.3</v>
+      </c>
+      <c r="AG135">
+        <v>2.15</v>
+      </c>
+      <c r="AH135">
+        <v>1.67</v>
+      </c>
+      <c r="AI135">
+        <v>1.91</v>
+      </c>
+      <c r="AJ135">
+        <v>1.91</v>
+      </c>
+      <c r="AK135">
+        <v>1.3</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.73</v>
+      </c>
+      <c r="AN135">
+        <v>2.57</v>
+      </c>
+      <c r="AO135">
+        <v>1.5</v>
+      </c>
+      <c r="AP135">
+        <v>2.63</v>
+      </c>
+      <c r="AQ135">
+        <v>1.29</v>
+      </c>
+      <c r="AR135">
+        <v>1.91</v>
+      </c>
+      <c r="AS135">
+        <v>1.62</v>
+      </c>
+      <c r="AT135">
+        <v>3.53</v>
+      </c>
+      <c r="AU135">
+        <v>12</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>3</v>
+      </c>
+      <c r="AX135">
+        <v>7</v>
+      </c>
+      <c r="AY135">
+        <v>21</v>
+      </c>
+      <c r="AZ135">
+        <v>20</v>
+      </c>
+      <c r="BA135">
+        <v>5</v>
+      </c>
+      <c r="BB135">
+        <v>6</v>
+      </c>
+      <c r="BC135">
+        <v>11</v>
+      </c>
+      <c r="BD135">
+        <v>1.82</v>
+      </c>
+      <c r="BE135">
+        <v>7.4</v>
+      </c>
+      <c r="BF135">
+        <v>2.47</v>
+      </c>
+      <c r="BG135">
+        <v>1.35</v>
+      </c>
+      <c r="BH135">
+        <v>3</v>
+      </c>
+      <c r="BI135">
+        <v>1.6</v>
+      </c>
+      <c r="BJ135">
+        <v>2.2</v>
+      </c>
+      <c r="BK135">
+        <v>1.95</v>
+      </c>
+      <c r="BL135">
+        <v>1.77</v>
+      </c>
+      <c r="BM135">
+        <v>2.6</v>
+      </c>
+      <c r="BN135">
+        <v>1.44</v>
+      </c>
+      <c r="BO135">
+        <v>3.5</v>
+      </c>
+      <c r="BP135">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
